--- a/longsor/v02_new/sample_longsor_anotasi_v02_new.xlsx.xlsx
+++ b/longsor/v02_new/sample_longsor_anotasi_v02_new.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dharmapu\Documents\personal\ui\KA-AMSD_src\paper-submission\anotated_data\longsor\v02_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52990C6-8D77-4AD4-8DC1-67B73B3A33B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C06612A-CD15-494D-B474-7EDF8693E3B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5395" uniqueCount="2952">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5539" uniqueCount="2998">
   <si>
     <t>id</t>
   </si>
@@ -8889,6 +8889,144 @@
   </si>
   <si>
     <t>Desa Pacarmulyo</t>
+  </si>
+  <si>
+    <t>Kabupaten Semarang</t>
+  </si>
+  <si>
+    <t>Unggaran Timiur</t>
+  </si>
+  <si>
+    <t>Susukan</t>
+  </si>
+  <si>
+    <t>2014-01-21</t>
+  </si>
+  <si>
+    <t>Kabupaten Tangerang</t>
+  </si>
+  <si>
+    <t>Kaliwiro</t>
+  </si>
+  <si>
+    <t>Desa Sukoreno</t>
+  </si>
+  <si>
+    <t>Kendal</t>
+  </si>
+  <si>
+    <t>Kaliwungu Selatan</t>
+  </si>
+  <si>
+    <t>Desas Protomulyo</t>
+  </si>
+  <si>
+    <t>Longsor mengakibatkan 2 rumah rusak</t>
+  </si>
+  <si>
+    <t>Jeruklagi</t>
+  </si>
+  <si>
+    <t>Jeruklagi Wetan</t>
+  </si>
+  <si>
+    <t>2017-10-30</t>
+  </si>
+  <si>
+    <t>Rumah rusak akibat longsor</t>
+  </si>
+  <si>
+    <t>Kabupaten Kediri</t>
+  </si>
+  <si>
+    <t>Mojo</t>
+  </si>
+  <si>
+    <t>Desa Surat</t>
+  </si>
+  <si>
+    <t>2017-04-12</t>
+  </si>
+  <si>
+    <t>Longsor merusak jalan</t>
+  </si>
+  <si>
+    <t>Lamongan</t>
+  </si>
+  <si>
+    <t>Laren</t>
+  </si>
+  <si>
+    <t>Keduyung</t>
+  </si>
+  <si>
+    <t>2018-10-28</t>
+  </si>
+  <si>
+    <t>Longsor merusak bangungan</t>
+  </si>
+  <si>
+    <t>Nusa Tenggara Barat</t>
+  </si>
+  <si>
+    <t>Lombok Utara</t>
+  </si>
+  <si>
+    <t>Gangga</t>
+  </si>
+  <si>
+    <t>Desa Rempek</t>
+  </si>
+  <si>
+    <t>2018-08-05</t>
+  </si>
+  <si>
+    <t>Desa Klesem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pacitan </t>
+  </si>
+  <si>
+    <t>Kebonagung</t>
+  </si>
+  <si>
+    <t>Loane</t>
+  </si>
+  <si>
+    <t>Desa Karangrejo</t>
+  </si>
+  <si>
+    <t>2016-06-19</t>
+  </si>
+  <si>
+    <t>Bantul</t>
+  </si>
+  <si>
+    <t>Dlingo</t>
+  </si>
+  <si>
+    <t>Muntuk</t>
+  </si>
+  <si>
+    <t>2018-01-21</t>
+  </si>
+  <si>
+    <t>Longsor merusak rumah</t>
+  </si>
+  <si>
+    <t>Kaligesing</t>
+  </si>
+  <si>
+    <t>2019-03-17</t>
+  </si>
+  <si>
+    <t>Korban longsor membutuhkan bantuan</t>
+  </si>
+  <si>
+    <t>Yogykarta</t>
+  </si>
+  <si>
+    <t>Terdapat korbang longsor</t>
   </si>
 </sst>
 </file>
@@ -8933,7 +9071,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8943,6 +9081,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9070,7 +9214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -9130,6 +9274,21 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -10052,8 +10211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A500" workbookViewId="0">
-      <selection activeCell="D505" sqref="D505"/>
+    <sheetView tabSelected="1" topLeftCell="A549" workbookViewId="0">
+      <selection activeCell="N559" sqref="N559"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24564,17 +24723,31 @@
       <c r="C506" s="5" t="s">
         <v>945</v>
       </c>
-      <c r="D506" s="15"/>
-      <c r="E506" s="9"/>
-      <c r="F506" s="9"/>
-      <c r="G506" s="9"/>
-      <c r="H506" s="9"/>
-      <c r="I506" s="9"/>
+      <c r="D506" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E506" s="10" t="s">
+        <v>670</v>
+      </c>
+      <c r="F506" s="9" t="s">
+        <v>2685</v>
+      </c>
+      <c r="G506" s="9" t="s">
+        <v>2952</v>
+      </c>
+      <c r="H506" s="9" t="s">
+        <v>2953</v>
+      </c>
+      <c r="I506" s="9" t="s">
+        <v>2954</v>
+      </c>
       <c r="J506" s="9"/>
       <c r="K506" s="9"/>
       <c r="L506" s="9"/>
       <c r="M506" s="9"/>
-      <c r="N506" s="12"/>
+      <c r="N506" s="12" t="s">
+        <v>2605</v>
+      </c>
     </row>
     <row r="507" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A507" s="4" t="s">
@@ -24586,7 +24759,9 @@
       <c r="C507" s="5" t="s">
         <v>947</v>
       </c>
-      <c r="D507" s="15"/>
+      <c r="D507" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E507" s="9"/>
       <c r="F507" s="9"/>
       <c r="G507" s="9"/>
@@ -24608,7 +24783,9 @@
       <c r="C508" s="5" t="s">
         <v>949</v>
       </c>
-      <c r="D508" s="15"/>
+      <c r="D508" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E508" s="9"/>
       <c r="F508" s="9"/>
       <c r="G508" s="9"/>
@@ -24630,17 +24807,35 @@
       <c r="C509" s="5" t="s">
         <v>951</v>
       </c>
-      <c r="D509" s="15"/>
-      <c r="E509" s="9"/>
-      <c r="F509" s="9"/>
-      <c r="G509" s="9"/>
-      <c r="H509" s="9"/>
-      <c r="I509" s="9"/>
-      <c r="J509" s="9"/>
-      <c r="K509" s="9"/>
+      <c r="D509" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E509" s="10" t="s">
+        <v>2754</v>
+      </c>
+      <c r="F509" s="9" t="s">
+        <v>2615</v>
+      </c>
+      <c r="G509" s="9" t="s">
+        <v>2956</v>
+      </c>
+      <c r="H509" s="9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="I509" s="9" t="s">
+        <v>2911</v>
+      </c>
+      <c r="J509" s="9">
+        <v>1</v>
+      </c>
+      <c r="K509" s="9">
+        <v>1</v>
+      </c>
       <c r="L509" s="9"/>
       <c r="M509" s="9"/>
-      <c r="N509" s="12"/>
+      <c r="N509" s="12" t="s">
+        <v>2702</v>
+      </c>
     </row>
     <row r="510" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A510" s="4" t="s">
@@ -24652,17 +24847,33 @@
       <c r="C510" s="5" t="s">
         <v>953</v>
       </c>
-      <c r="D510" s="15"/>
-      <c r="E510" s="9"/>
-      <c r="F510" s="9"/>
-      <c r="G510" s="9"/>
-      <c r="H510" s="9"/>
-      <c r="I510" s="9"/>
-      <c r="J510" s="9"/>
+      <c r="D510" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E510" s="10" t="s">
+        <v>2909</v>
+      </c>
+      <c r="F510" s="9" t="s">
+        <v>2685</v>
+      </c>
+      <c r="G510" s="9" t="s">
+        <v>2949</v>
+      </c>
+      <c r="H510" s="9" t="s">
+        <v>2957</v>
+      </c>
+      <c r="I510" s="9" t="s">
+        <v>2958</v>
+      </c>
+      <c r="J510" s="9">
+        <v>1</v>
+      </c>
       <c r="K510" s="9"/>
       <c r="L510" s="9"/>
       <c r="M510" s="9"/>
-      <c r="N510" s="12"/>
+      <c r="N510" s="12" t="s">
+        <v>2561</v>
+      </c>
     </row>
     <row r="511" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A511" s="4" t="s">
@@ -24674,17 +24885,33 @@
       <c r="C511" s="5" t="s">
         <v>955</v>
       </c>
-      <c r="D511" s="15"/>
-      <c r="E511" s="9"/>
-      <c r="F511" s="9"/>
-      <c r="G511" s="9"/>
-      <c r="H511" s="9"/>
-      <c r="I511" s="9"/>
+      <c r="D511" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E511" s="10" t="s">
+        <v>2955</v>
+      </c>
+      <c r="F511" s="9" t="s">
+        <v>2685</v>
+      </c>
+      <c r="G511" s="9" t="s">
+        <v>2959</v>
+      </c>
+      <c r="H511" s="9" t="s">
+        <v>2960</v>
+      </c>
+      <c r="I511" s="9" t="s">
+        <v>2961</v>
+      </c>
       <c r="J511" s="9"/>
-      <c r="K511" s="9"/>
+      <c r="K511" s="9">
+        <v>2</v>
+      </c>
       <c r="L511" s="9"/>
       <c r="M511" s="9"/>
-      <c r="N511" s="12"/>
+      <c r="N511" s="12" t="s">
+        <v>2962</v>
+      </c>
     </row>
     <row r="512" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A512" s="4" t="s">
@@ -24696,17 +24923,33 @@
       <c r="C512" s="5" t="s">
         <v>957</v>
       </c>
-      <c r="D512" s="15"/>
-      <c r="E512" s="9"/>
-      <c r="F512" s="9"/>
-      <c r="G512" s="9"/>
-      <c r="H512" s="9"/>
-      <c r="I512" s="9"/>
+      <c r="D512" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E512" s="10" t="s">
+        <v>2965</v>
+      </c>
+      <c r="F512" s="9" t="s">
+        <v>2685</v>
+      </c>
+      <c r="G512" s="9" t="s">
+        <v>2939</v>
+      </c>
+      <c r="H512" s="9" t="s">
+        <v>2963</v>
+      </c>
+      <c r="I512" s="9" t="s">
+        <v>2964</v>
+      </c>
       <c r="J512" s="9"/>
       <c r="K512" s="9"/>
       <c r="L512" s="9"/>
-      <c r="M512" s="9"/>
-      <c r="N512" s="12"/>
+      <c r="M512" s="9">
+        <v>1</v>
+      </c>
+      <c r="N512" s="12" t="s">
+        <v>2966</v>
+      </c>
     </row>
     <row r="513" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A513" s="4" t="s">
@@ -24718,7 +24961,9 @@
       <c r="C513" s="5" t="s">
         <v>959</v>
       </c>
-      <c r="D513" s="15"/>
+      <c r="D513" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E513" s="9"/>
       <c r="F513" s="9"/>
       <c r="G513" s="9"/>
@@ -24740,7 +24985,9 @@
       <c r="C514" s="5" t="s">
         <v>962</v>
       </c>
-      <c r="D514" s="15"/>
+      <c r="D514" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E514" s="9"/>
       <c r="F514" s="9"/>
       <c r="G514" s="9"/>
@@ -24762,17 +25009,31 @@
       <c r="C515" s="5" t="s">
         <v>964</v>
       </c>
-      <c r="D515" s="15"/>
-      <c r="E515" s="9"/>
-      <c r="F515" s="9"/>
-      <c r="G515" s="9"/>
-      <c r="H515" s="9"/>
-      <c r="I515" s="9"/>
+      <c r="D515" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E515" s="10" t="s">
+        <v>2970</v>
+      </c>
+      <c r="F515" s="9" t="s">
+        <v>2720</v>
+      </c>
+      <c r="G515" s="9" t="s">
+        <v>2967</v>
+      </c>
+      <c r="H515" s="9" t="s">
+        <v>2968</v>
+      </c>
+      <c r="I515" s="9" t="s">
+        <v>2969</v>
+      </c>
       <c r="J515" s="9"/>
       <c r="K515" s="9"/>
       <c r="L515" s="9"/>
       <c r="M515" s="9"/>
-      <c r="N515" s="12"/>
+      <c r="N515" s="12" t="s">
+        <v>2971</v>
+      </c>
     </row>
     <row r="516" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A516" s="4" t="s">
@@ -24784,7 +25045,9 @@
       <c r="C516" s="5" t="s">
         <v>966</v>
       </c>
-      <c r="D516" s="15"/>
+      <c r="D516" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E516" s="9"/>
       <c r="F516" s="9"/>
       <c r="G516" s="9"/>
@@ -24796,17 +25059,19 @@
       <c r="M516" s="9"/>
       <c r="N516" s="12"/>
     </row>
-    <row r="517" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A517" s="4" t="s">
+    <row r="517" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A517" s="21" t="s">
         <v>967</v>
       </c>
-      <c r="B517" s="5" t="s">
+      <c r="B517" s="22" t="s">
         <v>961</v>
       </c>
-      <c r="C517" s="5" t="s">
+      <c r="C517" s="22" t="s">
         <v>968</v>
       </c>
-      <c r="D517" s="15"/>
+      <c r="D517" s="23" t="s">
+        <v>2499</v>
+      </c>
       <c r="E517" s="9"/>
       <c r="F517" s="9"/>
       <c r="G517" s="9"/>
@@ -24828,17 +25093,33 @@
       <c r="C518" s="5" t="s">
         <v>970</v>
       </c>
-      <c r="D518" s="15"/>
-      <c r="E518" s="9"/>
-      <c r="F518" s="9"/>
-      <c r="G518" s="9"/>
-      <c r="H518" s="9"/>
-      <c r="I518" s="9"/>
+      <c r="D518" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E518" s="10" t="s">
+        <v>2975</v>
+      </c>
+      <c r="F518" s="9" t="s">
+        <v>2720</v>
+      </c>
+      <c r="G518" s="9" t="s">
+        <v>2972</v>
+      </c>
+      <c r="H518" s="9" t="s">
+        <v>2973</v>
+      </c>
+      <c r="I518" s="9" t="s">
+        <v>2974</v>
+      </c>
       <c r="J518" s="9"/>
       <c r="K518" s="9"/>
       <c r="L518" s="9"/>
-      <c r="M518" s="9"/>
-      <c r="N518" s="12"/>
+      <c r="M518" s="9">
+        <v>6</v>
+      </c>
+      <c r="N518" s="12" t="s">
+        <v>2976</v>
+      </c>
     </row>
     <row r="519" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A519" s="4" t="s">
@@ -24850,7 +25131,9 @@
       <c r="C519" s="5" t="s">
         <v>972</v>
       </c>
-      <c r="D519" s="15"/>
+      <c r="D519" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E519" s="9"/>
       <c r="F519" s="9"/>
       <c r="G519" s="9"/>
@@ -24872,7 +25155,9 @@
       <c r="C520" s="5" t="s">
         <v>974</v>
       </c>
-      <c r="D520" s="15"/>
+      <c r="D520" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E520" s="9"/>
       <c r="F520" s="9"/>
       <c r="G520" s="9"/>
@@ -24894,7 +25179,9 @@
       <c r="C521" s="5" t="s">
         <v>976</v>
       </c>
-      <c r="D521" s="15"/>
+      <c r="D521" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E521" s="9"/>
       <c r="F521" s="9"/>
       <c r="G521" s="9"/>
@@ -24916,17 +25203,31 @@
       <c r="C522" s="5" t="s">
         <v>978</v>
       </c>
-      <c r="D522" s="15"/>
-      <c r="E522" s="9"/>
-      <c r="F522" s="9"/>
-      <c r="G522" s="9"/>
-      <c r="H522" s="9"/>
-      <c r="I522" s="9"/>
+      <c r="D522" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E522" s="10" t="s">
+        <v>2981</v>
+      </c>
+      <c r="F522" s="9" t="s">
+        <v>2977</v>
+      </c>
+      <c r="G522" s="9" t="s">
+        <v>2978</v>
+      </c>
+      <c r="H522" s="9" t="s">
+        <v>2979</v>
+      </c>
+      <c r="I522" s="9" t="s">
+        <v>2980</v>
+      </c>
       <c r="J522" s="9"/>
       <c r="K522" s="9"/>
       <c r="L522" s="9"/>
       <c r="M522" s="9"/>
-      <c r="N522" s="12"/>
+      <c r="N522" s="12" t="s">
+        <v>2702</v>
+      </c>
     </row>
     <row r="523" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A523" s="4" t="s">
@@ -24938,7 +25239,9 @@
       <c r="C523" s="5" t="s">
         <v>980</v>
       </c>
-      <c r="D523" s="15"/>
+      <c r="D523" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E523" s="9"/>
       <c r="F523" s="9"/>
       <c r="G523" s="9"/>
@@ -24960,8 +25263,10 @@
       <c r="C524" s="5" t="s">
         <v>982</v>
       </c>
-      <c r="D524" s="15"/>
-      <c r="E524" s="9"/>
+      <c r="D524" s="15" t="s">
+        <v>2499</v>
+      </c>
+      <c r="E524" s="10"/>
       <c r="F524" s="9"/>
       <c r="G524" s="9"/>
       <c r="H524" s="9"/>
@@ -24982,7 +25287,9 @@
       <c r="C525" s="5" t="s">
         <v>984</v>
       </c>
-      <c r="D525" s="15"/>
+      <c r="D525" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E525" s="9"/>
       <c r="F525" s="9"/>
       <c r="G525" s="9"/>
@@ -25004,7 +25311,9 @@
       <c r="C526" s="5" t="s">
         <v>986</v>
       </c>
-      <c r="D526" s="15"/>
+      <c r="D526" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E526" s="9"/>
       <c r="F526" s="9"/>
       <c r="G526" s="9"/>
@@ -25026,7 +25335,9 @@
       <c r="C527" s="5" t="s">
         <v>988</v>
       </c>
-      <c r="D527" s="15"/>
+      <c r="D527" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E527" s="9"/>
       <c r="F527" s="9"/>
       <c r="G527" s="9"/>
@@ -25048,7 +25359,9 @@
       <c r="C528" s="5" t="s">
         <v>990</v>
       </c>
-      <c r="D528" s="15"/>
+      <c r="D528" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E528" s="9"/>
       <c r="F528" s="9"/>
       <c r="G528" s="9"/>
@@ -25070,17 +25383,35 @@
       <c r="C529" s="5" t="s">
         <v>992</v>
       </c>
-      <c r="D529" s="15"/>
-      <c r="E529" s="9"/>
-      <c r="F529" s="9"/>
-      <c r="G529" s="9"/>
-      <c r="H529" s="9"/>
-      <c r="I529" s="9"/>
-      <c r="J529" s="9"/>
+      <c r="D529" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E529" s="10" t="s">
+        <v>2599</v>
+      </c>
+      <c r="F529" s="9" t="s">
+        <v>2720</v>
+      </c>
+      <c r="G529" s="9" t="s">
+        <v>2983</v>
+      </c>
+      <c r="H529" s="9" t="s">
+        <v>2984</v>
+      </c>
+      <c r="I529" s="9" t="s">
+        <v>2982</v>
+      </c>
+      <c r="J529" s="9">
+        <v>2</v>
+      </c>
       <c r="K529" s="9"/>
       <c r="L529" s="9"/>
-      <c r="M529" s="9"/>
-      <c r="N529" s="12"/>
+      <c r="M529" s="9">
+        <v>1</v>
+      </c>
+      <c r="N529" s="12" t="s">
+        <v>2702</v>
+      </c>
     </row>
     <row r="530" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A530" s="4" t="s">
@@ -25092,7 +25423,9 @@
       <c r="C530" s="5" t="s">
         <v>994</v>
       </c>
-      <c r="D530" s="15"/>
+      <c r="D530" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E530" s="9"/>
       <c r="F530" s="9"/>
       <c r="G530" s="9"/>
@@ -25114,7 +25447,9 @@
       <c r="C531" s="5" t="s">
         <v>996</v>
       </c>
-      <c r="D531" s="15"/>
+      <c r="D531" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E531" s="9"/>
       <c r="F531" s="9"/>
       <c r="G531" s="9"/>
@@ -25136,7 +25471,9 @@
       <c r="C532" s="5" t="s">
         <v>998</v>
       </c>
-      <c r="D532" s="15"/>
+      <c r="D532" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E532" s="9"/>
       <c r="F532" s="9"/>
       <c r="G532" s="9"/>
@@ -25158,7 +25495,9 @@
       <c r="C533" s="5" t="s">
         <v>1000</v>
       </c>
-      <c r="D533" s="15"/>
+      <c r="D533" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E533" s="9"/>
       <c r="F533" s="9"/>
       <c r="G533" s="9"/>
@@ -25180,7 +25519,9 @@
       <c r="C534" s="5" t="s">
         <v>1003</v>
       </c>
-      <c r="D534" s="15"/>
+      <c r="D534" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E534" s="9"/>
       <c r="F534" s="9"/>
       <c r="G534" s="9"/>
@@ -25202,29 +25543,45 @@
       <c r="C535" s="5" t="s">
         <v>1005</v>
       </c>
-      <c r="D535" s="15"/>
-      <c r="E535" s="9"/>
-      <c r="F535" s="9"/>
-      <c r="G535" s="9"/>
-      <c r="H535" s="9"/>
-      <c r="I535" s="9"/>
+      <c r="D535" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E535" s="10" t="s">
+        <v>2987</v>
+      </c>
+      <c r="F535" s="9" t="s">
+        <v>2685</v>
+      </c>
+      <c r="G535" s="9" t="s">
+        <v>2686</v>
+      </c>
+      <c r="H535" s="9" t="s">
+        <v>2985</v>
+      </c>
+      <c r="I535" s="9" t="s">
+        <v>2986</v>
+      </c>
       <c r="J535" s="9"/>
       <c r="K535" s="9"/>
       <c r="L535" s="9"/>
       <c r="M535" s="9"/>
-      <c r="N535" s="12"/>
+      <c r="N535" s="12" t="s">
+        <v>2702</v>
+      </c>
     </row>
     <row r="536" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A536" s="4" t="s">
+      <c r="A536" s="24" t="s">
         <v>1006</v>
       </c>
-      <c r="B536" s="5" t="s">
+      <c r="B536" s="25" t="s">
         <v>1002</v>
       </c>
-      <c r="C536" s="5" t="s">
+      <c r="C536" s="25" t="s">
         <v>1007</v>
       </c>
-      <c r="D536" s="15"/>
+      <c r="D536" s="23" t="s">
+        <v>2499</v>
+      </c>
       <c r="E536" s="9"/>
       <c r="F536" s="9"/>
       <c r="G536" s="9"/>
@@ -25246,7 +25603,9 @@
       <c r="C537" s="5" t="s">
         <v>1009</v>
       </c>
-      <c r="D537" s="15"/>
+      <c r="D537" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E537" s="9"/>
       <c r="F537" s="9"/>
       <c r="G537" s="9"/>
@@ -25268,7 +25627,9 @@
       <c r="C538" s="5" t="s">
         <v>1011</v>
       </c>
-      <c r="D538" s="15"/>
+      <c r="D538" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E538" s="9"/>
       <c r="F538" s="9"/>
       <c r="G538" s="9"/>
@@ -25290,7 +25651,9 @@
       <c r="C539" s="5" t="s">
         <v>1013</v>
       </c>
-      <c r="D539" s="15"/>
+      <c r="D539" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E539" s="9"/>
       <c r="F539" s="9"/>
       <c r="G539" s="9"/>
@@ -25312,17 +25675,33 @@
       <c r="C540" s="5" t="s">
         <v>1015</v>
       </c>
-      <c r="D540" s="15"/>
-      <c r="E540" s="9"/>
-      <c r="F540" s="9"/>
-      <c r="G540" s="9"/>
-      <c r="H540" s="9"/>
-      <c r="I540" s="9"/>
+      <c r="D540" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E540" s="10" t="s">
+        <v>2991</v>
+      </c>
+      <c r="F540" s="9" t="s">
+        <v>2596</v>
+      </c>
+      <c r="G540" s="9" t="s">
+        <v>2988</v>
+      </c>
+      <c r="H540" s="9" t="s">
+        <v>2989</v>
+      </c>
+      <c r="I540" s="9" t="s">
+        <v>2990</v>
+      </c>
       <c r="J540" s="9"/>
       <c r="K540" s="9"/>
       <c r="L540" s="9"/>
-      <c r="M540" s="9"/>
-      <c r="N540" s="12"/>
+      <c r="M540" s="9">
+        <v>1</v>
+      </c>
+      <c r="N540" s="12" t="s">
+        <v>2992</v>
+      </c>
     </row>
     <row r="541" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A541" s="4" t="s">
@@ -25334,7 +25713,9 @@
       <c r="C541" s="5" t="s">
         <v>1017</v>
       </c>
-      <c r="D541" s="15"/>
+      <c r="D541" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E541" s="9"/>
       <c r="F541" s="9"/>
       <c r="G541" s="9"/>
@@ -25356,7 +25737,9 @@
       <c r="C542" s="5" t="s">
         <v>1019</v>
       </c>
-      <c r="D542" s="15"/>
+      <c r="D542" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E542" s="9"/>
       <c r="F542" s="9"/>
       <c r="G542" s="9"/>
@@ -25378,17 +25761,31 @@
       <c r="C543" s="5" t="s">
         <v>1021</v>
       </c>
-      <c r="D543" s="15"/>
-      <c r="E543" s="9"/>
-      <c r="F543" s="9"/>
-      <c r="G543" s="9"/>
-      <c r="H543" s="9"/>
-      <c r="I543" s="9"/>
+      <c r="D543" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E543" s="10" t="s">
+        <v>2987</v>
+      </c>
+      <c r="F543" s="9" t="s">
+        <v>2685</v>
+      </c>
+      <c r="G543" s="9" t="s">
+        <v>2686</v>
+      </c>
+      <c r="H543" s="9" t="s">
+        <v>2985</v>
+      </c>
+      <c r="I543" s="9" t="s">
+        <v>2986</v>
+      </c>
       <c r="J543" s="9"/>
       <c r="K543" s="9"/>
       <c r="L543" s="9"/>
       <c r="M543" s="9"/>
-      <c r="N543" s="12"/>
+      <c r="N543" s="12" t="s">
+        <v>2702</v>
+      </c>
     </row>
     <row r="544" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A544" s="4" t="s">
@@ -25400,7 +25797,9 @@
       <c r="C544" s="5" t="s">
         <v>1023</v>
       </c>
-      <c r="D544" s="15"/>
+      <c r="D544" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E544" s="9"/>
       <c r="F544" s="9"/>
       <c r="G544" s="9"/>
@@ -25422,7 +25821,9 @@
       <c r="C545" s="5" t="s">
         <v>1025</v>
       </c>
-      <c r="D545" s="15"/>
+      <c r="D545" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E545" s="9"/>
       <c r="F545" s="9"/>
       <c r="G545" s="9"/>
@@ -25444,17 +25845,33 @@
       <c r="C546" s="5" t="s">
         <v>1027</v>
       </c>
-      <c r="D546" s="15"/>
-      <c r="E546" s="9"/>
-      <c r="F546" s="9"/>
-      <c r="G546" s="9"/>
-      <c r="H546" s="9"/>
-      <c r="I546" s="9"/>
-      <c r="J546" s="9"/>
+      <c r="D546" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E546" s="10" t="s">
+        <v>2987</v>
+      </c>
+      <c r="F546" s="9" t="s">
+        <v>2685</v>
+      </c>
+      <c r="G546" s="9" t="s">
+        <v>2686</v>
+      </c>
+      <c r="H546" s="9" t="s">
+        <v>2985</v>
+      </c>
+      <c r="I546" s="9" t="s">
+        <v>2986</v>
+      </c>
+      <c r="J546" s="9">
+        <v>1</v>
+      </c>
       <c r="K546" s="9"/>
       <c r="L546" s="9"/>
       <c r="M546" s="9"/>
-      <c r="N546" s="12"/>
+      <c r="N546" s="12" t="s">
+        <v>2702</v>
+      </c>
     </row>
     <row r="547" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A547" s="4" t="s">
@@ -25466,17 +25883,31 @@
       <c r="C547" s="5" t="s">
         <v>1029</v>
       </c>
-      <c r="D547" s="15"/>
-      <c r="E547" s="9"/>
-      <c r="F547" s="9"/>
-      <c r="G547" s="9"/>
-      <c r="H547" s="9"/>
-      <c r="I547" s="9"/>
+      <c r="D547" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E547" s="10" t="s">
+        <v>2994</v>
+      </c>
+      <c r="F547" s="9" t="s">
+        <v>2685</v>
+      </c>
+      <c r="G547" s="9" t="s">
+        <v>2686</v>
+      </c>
+      <c r="H547" s="9" t="s">
+        <v>2993</v>
+      </c>
+      <c r="I547" s="9" t="s">
+        <v>2497</v>
+      </c>
       <c r="J547" s="9"/>
       <c r="K547" s="9"/>
       <c r="L547" s="9"/>
       <c r="M547" s="9"/>
-      <c r="N547" s="12"/>
+      <c r="N547" s="12" t="s">
+        <v>2995</v>
+      </c>
     </row>
     <row r="548" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A548" s="4" t="s">
@@ -25488,7 +25919,9 @@
       <c r="C548" s="5" t="s">
         <v>1031</v>
       </c>
-      <c r="D548" s="15"/>
+      <c r="D548" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E548" s="9"/>
       <c r="F548" s="9"/>
       <c r="G548" s="9"/>
@@ -25510,7 +25943,9 @@
       <c r="C549" s="5" t="s">
         <v>1033</v>
       </c>
-      <c r="D549" s="15"/>
+      <c r="D549" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E549" s="9"/>
       <c r="F549" s="9"/>
       <c r="G549" s="9"/>
@@ -25532,7 +25967,9 @@
       <c r="C550" s="5" t="s">
         <v>1035</v>
       </c>
-      <c r="D550" s="15"/>
+      <c r="D550" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E550" s="9"/>
       <c r="F550" s="9"/>
       <c r="G550" s="9"/>
@@ -25554,7 +25991,9 @@
       <c r="C551" s="5" t="s">
         <v>1037</v>
       </c>
-      <c r="D551" s="15"/>
+      <c r="D551" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E551" s="9"/>
       <c r="F551" s="9"/>
       <c r="G551" s="9"/>
@@ -25576,7 +26015,9 @@
       <c r="C552" s="5" t="s">
         <v>1039</v>
       </c>
-      <c r="D552" s="15"/>
+      <c r="D552" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E552" s="9"/>
       <c r="F552" s="9"/>
       <c r="G552" s="9"/>
@@ -25598,7 +26039,9 @@
       <c r="C553" s="5" t="s">
         <v>1041</v>
       </c>
-      <c r="D553" s="15"/>
+      <c r="D553" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E553" s="9"/>
       <c r="F553" s="9"/>
       <c r="G553" s="9"/>
@@ -25620,7 +26063,9 @@
       <c r="C554" s="5" t="s">
         <v>1044</v>
       </c>
-      <c r="D554" s="15"/>
+      <c r="D554" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E554" s="9"/>
       <c r="F554" s="9"/>
       <c r="G554" s="9"/>
@@ -25642,7 +26087,9 @@
       <c r="C555" s="5" t="s">
         <v>1046</v>
       </c>
-      <c r="D555" s="15"/>
+      <c r="D555" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E555" s="9"/>
       <c r="F555" s="9"/>
       <c r="G555" s="9"/>
@@ -25664,7 +26111,9 @@
       <c r="C556" s="5" t="s">
         <v>1048</v>
       </c>
-      <c r="D556" s="15"/>
+      <c r="D556" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E556" s="9"/>
       <c r="F556" s="9"/>
       <c r="G556" s="9"/>
@@ -25686,7 +26135,9 @@
       <c r="C557" s="5" t="s">
         <v>1050</v>
       </c>
-      <c r="D557" s="15"/>
+      <c r="D557" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E557" s="9"/>
       <c r="F557" s="9"/>
       <c r="G557" s="9"/>
@@ -25708,7 +26159,9 @@
       <c r="C558" s="5" t="s">
         <v>1052</v>
       </c>
-      <c r="D558" s="15"/>
+      <c r="D558" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E558" s="9"/>
       <c r="F558" s="9"/>
       <c r="G558" s="9"/>
@@ -25730,17 +26183,31 @@
       <c r="C559" s="5" t="s">
         <v>1054</v>
       </c>
-      <c r="D559" s="15"/>
-      <c r="E559" s="9"/>
-      <c r="F559" s="9"/>
-      <c r="G559" s="9"/>
-      <c r="H559" s="9"/>
-      <c r="I559" s="9"/>
+      <c r="D559" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E559" s="10" t="s">
+        <v>2599</v>
+      </c>
+      <c r="F559" s="9" t="s">
+        <v>2996</v>
+      </c>
+      <c r="G559" s="9" t="s">
+        <v>2596</v>
+      </c>
+      <c r="H559" s="9" t="s">
+        <v>2597</v>
+      </c>
+      <c r="I559" s="9" t="s">
+        <v>2598</v>
+      </c>
       <c r="J559" s="9"/>
       <c r="K559" s="9"/>
       <c r="L559" s="9"/>
       <c r="M559" s="9"/>
-      <c r="N559" s="12"/>
+      <c r="N559" s="12" t="s">
+        <v>2997</v>
+      </c>
     </row>
     <row r="560" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A560" s="4" t="s">

--- a/longsor/v02_new/sample_longsor_anotasi_v02_new.xlsx.xlsx
+++ b/longsor/v02_new/sample_longsor_anotasi_v02_new.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dharmapu\Documents\personal\ui\KA-AMSD_src\paper-submission\anotated_data\longsor\v02_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC767B16-DC6B-4794-8753-D5CBB62C892D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEA3983-A76C-438C-97E6-EFB242242515}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6553" uniqueCount="3261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6623" uniqueCount="3280">
   <si>
     <t>id</t>
   </si>
@@ -9816,6 +9816,63 @@
   </si>
   <si>
     <t>2018-11-26</t>
+  </si>
+  <si>
+    <t>Pasuruan</t>
+  </si>
+  <si>
+    <t>Jlr. Wisata Bromo</t>
+  </si>
+  <si>
+    <t>2017-01-10</t>
+  </si>
+  <si>
+    <t>Tosari</t>
+  </si>
+  <si>
+    <t>Sulawesi Tenggara</t>
+  </si>
+  <si>
+    <t>Kendari</t>
+  </si>
+  <si>
+    <t>Mandonga</t>
+  </si>
+  <si>
+    <t>2018-07-03</t>
+  </si>
+  <si>
+    <t>Longsor merusak jalan dan mengakibatkan korban jiwa</t>
+  </si>
+  <si>
+    <t>Cirenghar</t>
+  </si>
+  <si>
+    <t>Desa Tenggal Panjang</t>
+  </si>
+  <si>
+    <t>Longsor mengakibatkan korban tertimbun</t>
+  </si>
+  <si>
+    <t>Sugio</t>
+  </si>
+  <si>
+    <t>Desa Gondonglor</t>
+  </si>
+  <si>
+    <t>2017-02-18</t>
+  </si>
+  <si>
+    <t>Lombok Timur</t>
+  </si>
+  <si>
+    <t>Sembalun</t>
+  </si>
+  <si>
+    <t>Desa Sembalun Bumbung</t>
+  </si>
+  <si>
+    <t>2019-01-18</t>
   </si>
 </sst>
 </file>
@@ -11018,8 +11075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A885" workbookViewId="0">
-      <selection activeCell="D897" sqref="D897"/>
+    <sheetView tabSelected="1" topLeftCell="A925" workbookViewId="0">
+      <selection activeCell="D937" sqref="D937"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36476,7 +36533,9 @@
       <c r="C898" s="5" t="s">
         <v>1692</v>
       </c>
-      <c r="D898" s="15"/>
+      <c r="D898" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E898" s="9"/>
       <c r="F898" s="9"/>
       <c r="G898" s="9"/>
@@ -36498,7 +36557,9 @@
       <c r="C899" s="5" t="s">
         <v>1694</v>
       </c>
-      <c r="D899" s="15"/>
+      <c r="D899" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E899" s="9"/>
       <c r="F899" s="9"/>
       <c r="G899" s="9"/>
@@ -36520,7 +36581,9 @@
       <c r="C900" s="5" t="s">
         <v>1696</v>
       </c>
-      <c r="D900" s="15"/>
+      <c r="D900" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E900" s="9"/>
       <c r="F900" s="9"/>
       <c r="G900" s="9"/>
@@ -36542,7 +36605,9 @@
       <c r="C901" s="5" t="s">
         <v>1698</v>
       </c>
-      <c r="D901" s="15"/>
+      <c r="D901" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E901" s="9"/>
       <c r="F901" s="9"/>
       <c r="G901" s="9"/>
@@ -36564,7 +36629,9 @@
       <c r="C902" s="5" t="s">
         <v>1700</v>
       </c>
-      <c r="D902" s="15"/>
+      <c r="D902" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E902" s="9"/>
       <c r="F902" s="9"/>
       <c r="G902" s="9"/>
@@ -36586,7 +36653,9 @@
       <c r="C903" s="5" t="s">
         <v>1703</v>
       </c>
-      <c r="D903" s="15"/>
+      <c r="D903" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E903" s="9"/>
       <c r="F903" s="9"/>
       <c r="G903" s="9"/>
@@ -36608,17 +36677,31 @@
       <c r="C904" s="5" t="s">
         <v>1705</v>
       </c>
-      <c r="D904" s="15"/>
-      <c r="E904" s="9"/>
-      <c r="F904" s="9"/>
-      <c r="G904" s="9"/>
-      <c r="H904" s="9"/>
-      <c r="I904" s="9"/>
+      <c r="D904" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E904" s="10" t="s">
+        <v>3263</v>
+      </c>
+      <c r="F904" s="9" t="s">
+        <v>2720</v>
+      </c>
+      <c r="G904" s="9" t="s">
+        <v>3261</v>
+      </c>
+      <c r="H904" s="9" t="s">
+        <v>3264</v>
+      </c>
+      <c r="I904" s="9" t="s">
+        <v>3262</v>
+      </c>
       <c r="J904" s="9"/>
       <c r="K904" s="9"/>
       <c r="L904" s="9"/>
       <c r="M904" s="9"/>
-      <c r="N904" s="12"/>
+      <c r="N904" s="12" t="s">
+        <v>2730</v>
+      </c>
     </row>
     <row r="905" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A905" s="4" t="s">
@@ -36630,7 +36713,9 @@
       <c r="C905" s="5" t="s">
         <v>1707</v>
       </c>
-      <c r="D905" s="15"/>
+      <c r="D905" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E905" s="9"/>
       <c r="F905" s="9"/>
       <c r="G905" s="9"/>
@@ -36652,7 +36737,9 @@
       <c r="C906" s="5" t="s">
         <v>1709</v>
       </c>
-      <c r="D906" s="15"/>
+      <c r="D906" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E906" s="9"/>
       <c r="F906" s="9"/>
       <c r="G906" s="9"/>
@@ -36674,7 +36761,9 @@
       <c r="C907" s="5" t="s">
         <v>1711</v>
       </c>
-      <c r="D907" s="15"/>
+      <c r="D907" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E907" s="9"/>
       <c r="F907" s="9"/>
       <c r="G907" s="9"/>
@@ -36696,17 +36785,33 @@
       <c r="C908" s="5" t="s">
         <v>1713</v>
       </c>
-      <c r="D908" s="15"/>
-      <c r="E908" s="9"/>
-      <c r="F908" s="9"/>
-      <c r="G908" s="9"/>
-      <c r="H908" s="9"/>
-      <c r="I908" s="9"/>
-      <c r="J908" s="9"/>
+      <c r="D908" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E908" s="10" t="s">
+        <v>3268</v>
+      </c>
+      <c r="F908" s="9" t="s">
+        <v>3265</v>
+      </c>
+      <c r="G908" s="9" t="s">
+        <v>3266</v>
+      </c>
+      <c r="H908" s="9" t="s">
+        <v>3267</v>
+      </c>
+      <c r="I908" s="9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="J908" s="9">
+        <v>1</v>
+      </c>
       <c r="K908" s="9"/>
       <c r="L908" s="9"/>
       <c r="M908" s="9"/>
-      <c r="N908" s="12"/>
+      <c r="N908" s="12" t="s">
+        <v>3269</v>
+      </c>
     </row>
     <row r="909" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A909" s="4" t="s">
@@ -36718,7 +36823,9 @@
       <c r="C909" s="5" t="s">
         <v>1715</v>
       </c>
-      <c r="D909" s="15"/>
+      <c r="D909" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E909" s="9"/>
       <c r="F909" s="9"/>
       <c r="G909" s="9"/>
@@ -36740,7 +36847,9 @@
       <c r="C910" s="5" t="s">
         <v>1717</v>
       </c>
-      <c r="D910" s="15"/>
+      <c r="D910" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E910" s="9"/>
       <c r="F910" s="9"/>
       <c r="G910" s="9"/>
@@ -36762,7 +36871,9 @@
       <c r="C911" s="5" t="s">
         <v>1719</v>
       </c>
-      <c r="D911" s="15"/>
+      <c r="D911" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E911" s="9"/>
       <c r="F911" s="9"/>
       <c r="G911" s="9"/>
@@ -36784,17 +36895,33 @@
       <c r="C912" s="5" t="s">
         <v>1721</v>
       </c>
-      <c r="D912" s="15"/>
-      <c r="E912" s="9"/>
-      <c r="F912" s="9"/>
-      <c r="G912" s="9"/>
-      <c r="H912" s="9"/>
-      <c r="I912" s="9"/>
-      <c r="J912" s="9"/>
+      <c r="D912" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E912" s="9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="F912" s="9" t="s">
+        <v>2588</v>
+      </c>
+      <c r="G912" s="9" t="s">
+        <v>2680</v>
+      </c>
+      <c r="H912" s="9" t="s">
+        <v>3270</v>
+      </c>
+      <c r="I912" s="9" t="s">
+        <v>3271</v>
+      </c>
+      <c r="J912" s="9">
+        <v>2</v>
+      </c>
       <c r="K912" s="9"/>
       <c r="L912" s="9"/>
       <c r="M912" s="9"/>
-      <c r="N912" s="12"/>
+      <c r="N912" s="12" t="s">
+        <v>3272</v>
+      </c>
     </row>
     <row r="913" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A913" s="4" t="s">
@@ -36806,7 +36933,9 @@
       <c r="C913" s="5" t="s">
         <v>1723</v>
       </c>
-      <c r="D913" s="15"/>
+      <c r="D913" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E913" s="9"/>
       <c r="F913" s="9"/>
       <c r="G913" s="9"/>
@@ -36828,7 +36957,9 @@
       <c r="C914" s="5" t="s">
         <v>1725</v>
       </c>
-      <c r="D914" s="15"/>
+      <c r="D914" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E914" s="9"/>
       <c r="F914" s="9"/>
       <c r="G914" s="9"/>
@@ -36850,7 +36981,9 @@
       <c r="C915" s="5" t="s">
         <v>1727</v>
       </c>
-      <c r="D915" s="15"/>
+      <c r="D915" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E915" s="9"/>
       <c r="F915" s="9"/>
       <c r="G915" s="9"/>
@@ -36872,7 +37005,9 @@
       <c r="C916" s="5" t="s">
         <v>1729</v>
       </c>
-      <c r="D916" s="15"/>
+      <c r="D916" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E916" s="9"/>
       <c r="F916" s="9"/>
       <c r="G916" s="9"/>
@@ -36894,7 +37029,9 @@
       <c r="C917" s="5" t="s">
         <v>1731</v>
       </c>
-      <c r="D917" s="15"/>
+      <c r="D917" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E917" s="9"/>
       <c r="F917" s="9"/>
       <c r="G917" s="9"/>
@@ -36916,7 +37053,9 @@
       <c r="C918" s="5" t="s">
         <v>1733</v>
       </c>
-      <c r="D918" s="15"/>
+      <c r="D918" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E918" s="9"/>
       <c r="F918" s="9"/>
       <c r="G918" s="9"/>
@@ -36938,7 +37077,9 @@
       <c r="C919" s="5" t="s">
         <v>1735</v>
       </c>
-      <c r="D919" s="15"/>
+      <c r="D919" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E919" s="9"/>
       <c r="F919" s="9"/>
       <c r="G919" s="9"/>
@@ -36960,7 +37101,9 @@
       <c r="C920" s="5" t="s">
         <v>1737</v>
       </c>
-      <c r="D920" s="15"/>
+      <c r="D920" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E920" s="9"/>
       <c r="F920" s="9"/>
       <c r="G920" s="9"/>
@@ -36982,17 +37125,31 @@
       <c r="C921" s="5" t="s">
         <v>1739</v>
       </c>
-      <c r="D921" s="15"/>
-      <c r="E921" s="9"/>
-      <c r="F921" s="9"/>
-      <c r="G921" s="9"/>
-      <c r="H921" s="9"/>
-      <c r="I921" s="9"/>
+      <c r="D921" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E921" s="10" t="s">
+        <v>3275</v>
+      </c>
+      <c r="F921" s="9" t="s">
+        <v>2720</v>
+      </c>
+      <c r="G921" s="9" t="s">
+        <v>2972</v>
+      </c>
+      <c r="H921" s="9" t="s">
+        <v>3273</v>
+      </c>
+      <c r="I921" s="9" t="s">
+        <v>3274</v>
+      </c>
       <c r="J921" s="9"/>
       <c r="K921" s="9"/>
       <c r="L921" s="9"/>
       <c r="M921" s="9"/>
-      <c r="N921" s="12"/>
+      <c r="N921" s="12" t="s">
+        <v>2730</v>
+      </c>
     </row>
     <row r="922" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A922" s="4" t="s">
@@ -37004,7 +37161,9 @@
       <c r="C922" s="5" t="s">
         <v>1741</v>
       </c>
-      <c r="D922" s="15"/>
+      <c r="D922" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E922" s="9"/>
       <c r="F922" s="9"/>
       <c r="G922" s="9"/>
@@ -37026,7 +37185,9 @@
       <c r="C923" s="5" t="s">
         <v>1744</v>
       </c>
-      <c r="D923" s="15"/>
+      <c r="D923" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E923" s="9"/>
       <c r="F923" s="9"/>
       <c r="G923" s="9"/>
@@ -37048,7 +37209,9 @@
       <c r="C924" s="5" t="s">
         <v>1746</v>
       </c>
-      <c r="D924" s="15"/>
+      <c r="D924" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E924" s="9"/>
       <c r="F924" s="9"/>
       <c r="G924" s="9"/>
@@ -37070,7 +37233,9 @@
       <c r="C925" s="5" t="s">
         <v>1748</v>
       </c>
-      <c r="D925" s="15"/>
+      <c r="D925" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E925" s="9"/>
       <c r="F925" s="9"/>
       <c r="G925" s="9"/>
@@ -37092,7 +37257,9 @@
       <c r="C926" s="5" t="s">
         <v>1750</v>
       </c>
-      <c r="D926" s="15"/>
+      <c r="D926" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E926" s="9"/>
       <c r="F926" s="9"/>
       <c r="G926" s="9"/>
@@ -37114,7 +37281,9 @@
       <c r="C927" s="5" t="s">
         <v>1752</v>
       </c>
-      <c r="D927" s="15"/>
+      <c r="D927" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E927" s="9"/>
       <c r="F927" s="9"/>
       <c r="G927" s="9"/>
@@ -37136,7 +37305,9 @@
       <c r="C928" s="5" t="s">
         <v>1754</v>
       </c>
-      <c r="D928" s="15"/>
+      <c r="D928" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E928" s="9"/>
       <c r="F928" s="9"/>
       <c r="G928" s="9"/>
@@ -37158,7 +37329,9 @@
       <c r="C929" s="5" t="s">
         <v>1756</v>
       </c>
-      <c r="D929" s="15"/>
+      <c r="D929" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E929" s="9"/>
       <c r="F929" s="9"/>
       <c r="G929" s="9"/>
@@ -37180,7 +37353,9 @@
       <c r="C930" s="5" t="s">
         <v>1758</v>
       </c>
-      <c r="D930" s="15"/>
+      <c r="D930" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E930" s="9"/>
       <c r="F930" s="9"/>
       <c r="G930" s="9"/>
@@ -37202,7 +37377,9 @@
       <c r="C931" s="5" t="s">
         <v>1760</v>
       </c>
-      <c r="D931" s="15"/>
+      <c r="D931" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E931" s="9"/>
       <c r="F931" s="9"/>
       <c r="G931" s="9"/>
@@ -37224,7 +37401,9 @@
       <c r="C932" s="5" t="s">
         <v>1762</v>
       </c>
-      <c r="D932" s="15"/>
+      <c r="D932" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E932" s="9"/>
       <c r="F932" s="9"/>
       <c r="G932" s="9"/>
@@ -37246,7 +37425,9 @@
       <c r="C933" s="5" t="s">
         <v>1764</v>
       </c>
-      <c r="D933" s="15"/>
+      <c r="D933" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E933" s="9"/>
       <c r="F933" s="9"/>
       <c r="G933" s="9"/>
@@ -37268,7 +37449,9 @@
       <c r="C934" s="5" t="s">
         <v>1766</v>
       </c>
-      <c r="D934" s="15"/>
+      <c r="D934" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E934" s="9"/>
       <c r="F934" s="9"/>
       <c r="G934" s="9"/>
@@ -37290,17 +37473,31 @@
       <c r="C935" s="5" t="s">
         <v>1768</v>
       </c>
-      <c r="D935" s="15"/>
-      <c r="E935" s="9"/>
-      <c r="F935" s="9"/>
-      <c r="G935" s="9"/>
-      <c r="H935" s="9"/>
-      <c r="I935" s="9"/>
+      <c r="D935" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E935" s="10" t="s">
+        <v>3279</v>
+      </c>
+      <c r="F935" s="9" t="s">
+        <v>2977</v>
+      </c>
+      <c r="G935" s="9" t="s">
+        <v>3276</v>
+      </c>
+      <c r="H935" s="9" t="s">
+        <v>3277</v>
+      </c>
+      <c r="I935" s="9" t="s">
+        <v>3278</v>
+      </c>
       <c r="J935" s="9"/>
       <c r="K935" s="9"/>
       <c r="L935" s="9"/>
       <c r="M935" s="9"/>
-      <c r="N935" s="12"/>
+      <c r="N935" s="12" t="s">
+        <v>2730</v>
+      </c>
     </row>
     <row r="936" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A936" s="4" t="s">
@@ -37312,7 +37509,9 @@
       <c r="C936" s="5" t="s">
         <v>1770</v>
       </c>
-      <c r="D936" s="15"/>
+      <c r="D936" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E936" s="9"/>
       <c r="F936" s="9"/>
       <c r="G936" s="9"/>
@@ -37334,7 +37533,9 @@
       <c r="C937" s="5" t="s">
         <v>1772</v>
       </c>
-      <c r="D937" s="15"/>
+      <c r="D937" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E937" s="9"/>
       <c r="F937" s="9"/>
       <c r="G937" s="9"/>
@@ -37588,7 +37789,7 @@
       <c r="M948" s="9"/>
       <c r="N948" s="12"/>
     </row>
-    <row r="949" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A949" s="4" t="s">
         <v>1796</v>
       </c>
@@ -39392,7 +39593,7 @@
       <c r="M1030" s="9"/>
       <c r="N1030" s="12"/>
     </row>
-    <row r="1031" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1031" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1031" s="4" t="s">
         <v>1961</v>
       </c>
@@ -39524,7 +39725,7 @@
       <c r="M1036" s="9"/>
       <c r="N1036" s="12"/>
     </row>
-    <row r="1037" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1037" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1037" s="4" t="s">
         <v>1974</v>
       </c>
@@ -39612,7 +39813,7 @@
       <c r="M1040" s="9"/>
       <c r="N1040" s="12"/>
     </row>
-    <row r="1041" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1041" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1041" s="4" t="s">
         <v>1982</v>
       </c>
@@ -44342,7 +44543,7 @@
       <c r="M1255" s="9"/>
       <c r="N1255" s="12"/>
     </row>
-    <row r="1256" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1256" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1256" s="4" t="s">
         <v>2411</v>
       </c>
@@ -44452,7 +44653,7 @@
       <c r="M1260" s="9"/>
       <c r="N1260" s="12"/>
     </row>
-    <row r="1261" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1261" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1261" s="4" t="s">
         <v>2421</v>
       </c>
@@ -44606,7 +44807,7 @@
       <c r="M1267" s="9"/>
       <c r="N1267" s="12"/>
     </row>
-    <row r="1268" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1268" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1268" s="4" t="s">
         <v>2435</v>
       </c>
@@ -44826,7 +45027,7 @@
       <c r="M1277" s="9"/>
       <c r="N1277" s="12"/>
     </row>
-    <row r="1278" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1278" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1278" s="4" t="s">
         <v>2456</v>
       </c>
@@ -45046,7 +45247,7 @@
       <c r="M1287" s="9"/>
       <c r="N1287" s="12"/>
     </row>
-    <row r="1288" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1288" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1288" s="4" t="s">
         <v>2476</v>
       </c>
@@ -45068,7 +45269,7 @@
       <c r="M1288" s="9"/>
       <c r="N1288" s="12"/>
     </row>
-    <row r="1289" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1289" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1289" s="4" t="s">
         <v>2478</v>
       </c>

--- a/longsor/v02_new/sample_longsor_anotasi_v02_new.xlsx.xlsx
+++ b/longsor/v02_new/sample_longsor_anotasi_v02_new.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dharmapu\Documents\personal\ui\KA-AMSD_src\paper-submission\anotated_data\longsor\v02_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEA3983-A76C-438C-97E6-EFB242242515}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA31D7E0-DC34-4B65-A210-6B0C3DC181AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6623" uniqueCount="3280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6771" uniqueCount="3331">
   <si>
     <t>id</t>
   </si>
@@ -9873,6 +9873,159 @@
   </si>
   <si>
     <t>2019-01-18</t>
+  </si>
+  <si>
+    <t>Lombok Tengah</t>
+  </si>
+  <si>
+    <t>Pujut</t>
+  </si>
+  <si>
+    <t>Desa Lintas Kuta-Awang</t>
+  </si>
+  <si>
+    <t>2020-03-14</t>
+  </si>
+  <si>
+    <t>Sumbawa Barat</t>
+  </si>
+  <si>
+    <t>Sekongkang</t>
+  </si>
+  <si>
+    <t>Jlr. Lingkar Selatan</t>
+  </si>
+  <si>
+    <t>Sumatera Selatan</t>
+  </si>
+  <si>
+    <t>Ogan Komering Ulu</t>
+  </si>
+  <si>
+    <t>Buay Sandang Aji</t>
+  </si>
+  <si>
+    <t>Desa Negeri Batin</t>
+  </si>
+  <si>
+    <t>Kota Lubuklinggau</t>
+  </si>
+  <si>
+    <t>Lubuklinggau Timur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lubuklinggau Barat II </t>
+  </si>
+  <si>
+    <t>2014-09-20</t>
+  </si>
+  <si>
+    <t>Longsor akibat hujan merusak bangunan dan menutup jalan</t>
+  </si>
+  <si>
+    <t>Musi Banyuasin</t>
+  </si>
+  <si>
+    <t>Sekayu</t>
+  </si>
+  <si>
+    <t>Desa Sukarami</t>
+  </si>
+  <si>
+    <t>2016-12-23</t>
+  </si>
+  <si>
+    <t>Empatlawang</t>
+  </si>
+  <si>
+    <t>Talangpandang</t>
+  </si>
+  <si>
+    <t>Desa Ulakdabuk</t>
+  </si>
+  <si>
+    <t>2019-03-13</t>
+  </si>
+  <si>
+    <t>Pagar Alam</t>
+  </si>
+  <si>
+    <t>Dempo Selatan</t>
+  </si>
+  <si>
+    <t>Kelurahan Penjalang</t>
+  </si>
+  <si>
+    <t>2016-01-18</t>
+  </si>
+  <si>
+    <t>Tolikara</t>
+  </si>
+  <si>
+    <t>Longsor menutup ruas jalan yang bisa menghambat distribusi bantuan sembako</t>
+  </si>
+  <si>
+    <t>Paniai</t>
+  </si>
+  <si>
+    <t>Paniai Timur</t>
+  </si>
+  <si>
+    <t>Bukit Dupiya</t>
+  </si>
+  <si>
+    <t>2016-10-18</t>
+  </si>
+  <si>
+    <t>Longsor membuat warga mengungsi dan merusak banguna</t>
+  </si>
+  <si>
+    <t>Papua Barat</t>
+  </si>
+  <si>
+    <t>Pegunungan arfak</t>
+  </si>
+  <si>
+    <t>Minyambouw</t>
+  </si>
+  <si>
+    <t>2016-04-18</t>
+  </si>
+  <si>
+    <t>Longsor merusak rumah warga dan mengakibatkan korban meninggal</t>
+  </si>
+  <si>
+    <t>Mimika</t>
+  </si>
+  <si>
+    <t>Tembagapura</t>
+  </si>
+  <si>
+    <t>Jl. Kampung Waa Banti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NULL </t>
+  </si>
+  <si>
+    <t>Bandara Soekarno-Hatta</t>
+  </si>
+  <si>
+    <t>Riau</t>
+  </si>
+  <si>
+    <t>Kampar</t>
+  </si>
+  <si>
+    <t>Kampa</t>
+  </si>
+  <si>
+    <t>Desa Sungai Tarap</t>
+  </si>
+  <si>
+    <t>2018-12-17</t>
+  </si>
+  <si>
+    <t>Belasan rumah rusak akibat longsor</t>
   </si>
 </sst>
 </file>
@@ -10788,8 +10941,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0DB818F3-68FE-4235-A92A-982B534C89A1}" name="Table1" displayName="Table1" ref="A1:N1292" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
-  <autoFilter ref="A1:N1292" xr:uid="{E26000C0-D27A-4574-8416-42E327D73F8C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0DB818F3-68FE-4235-A92A-982B534C89A1}" name="Table1" displayName="Table1" ref="A1:N1293" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+  <autoFilter ref="A1:N1293" xr:uid="{E26000C0-D27A-4574-8416-42E327D73F8C}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{17AA4DAC-27F4-4010-A247-C81F3A237DE9}" name="id" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{CDBBE364-4975-4FCF-BE54-5961EC656206}" name="source" dataDxfId="12"/>
@@ -11073,10 +11226,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1292"/>
+  <dimension ref="A1:N1293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A925" workbookViewId="0">
-      <selection activeCell="D937" sqref="D937"/>
+    <sheetView tabSelected="1" topLeftCell="A987" workbookViewId="0">
+      <selection activeCell="D998" sqref="D998"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37557,17 +37710,31 @@
       <c r="C938" s="5" t="s">
         <v>1774</v>
       </c>
-      <c r="D938" s="15"/>
-      <c r="E938" s="9"/>
-      <c r="F938" s="9"/>
-      <c r="G938" s="9"/>
-      <c r="H938" s="9"/>
-      <c r="I938" s="9"/>
+      <c r="D938" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E938" s="10" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F938" s="9" t="s">
+        <v>2977</v>
+      </c>
+      <c r="G938" s="9" t="s">
+        <v>3280</v>
+      </c>
+      <c r="H938" s="9" t="s">
+        <v>3281</v>
+      </c>
+      <c r="I938" s="9" t="s">
+        <v>3282</v>
+      </c>
       <c r="J938" s="9"/>
       <c r="K938" s="9"/>
       <c r="L938" s="9"/>
       <c r="M938" s="9"/>
-      <c r="N938" s="12"/>
+      <c r="N938" s="12" t="s">
+        <v>2730</v>
+      </c>
     </row>
     <row r="939" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A939" s="4" t="s">
@@ -37579,7 +37746,9 @@
       <c r="C939" s="5" t="s">
         <v>1776</v>
       </c>
-      <c r="D939" s="15"/>
+      <c r="D939" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E939" s="9"/>
       <c r="F939" s="9"/>
       <c r="G939" s="9"/>
@@ -37601,7 +37770,9 @@
       <c r="C940" s="5" t="s">
         <v>1778</v>
       </c>
-      <c r="D940" s="15"/>
+      <c r="D940" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E940" s="9"/>
       <c r="F940" s="9"/>
       <c r="G940" s="9"/>
@@ -37623,17 +37794,31 @@
       <c r="C941" s="5" t="s">
         <v>1780</v>
       </c>
-      <c r="D941" s="15"/>
-      <c r="E941" s="9"/>
-      <c r="F941" s="9"/>
-      <c r="G941" s="9"/>
-      <c r="H941" s="9"/>
-      <c r="I941" s="9"/>
+      <c r="D941" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E941" s="9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="F941" s="9" t="s">
+        <v>2977</v>
+      </c>
+      <c r="G941" s="9" t="s">
+        <v>3284</v>
+      </c>
+      <c r="H941" s="9" t="s">
+        <v>3285</v>
+      </c>
+      <c r="I941" s="9" t="s">
+        <v>3286</v>
+      </c>
       <c r="J941" s="9"/>
       <c r="K941" s="9"/>
       <c r="L941" s="9"/>
       <c r="M941" s="9"/>
-      <c r="N941" s="12"/>
+      <c r="N941" s="12" t="s">
+        <v>2730</v>
+      </c>
     </row>
     <row r="942" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A942" s="4" t="s">
@@ -37645,7 +37830,9 @@
       <c r="C942" s="5" t="s">
         <v>1782</v>
       </c>
-      <c r="D942" s="15"/>
+      <c r="D942" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E942" s="9"/>
       <c r="F942" s="9"/>
       <c r="G942" s="9"/>
@@ -37667,17 +37854,31 @@
       <c r="C943" s="5" t="s">
         <v>1785</v>
       </c>
-      <c r="D943" s="15"/>
-      <c r="E943" s="9"/>
-      <c r="F943" s="9"/>
-      <c r="G943" s="9"/>
-      <c r="H943" s="9"/>
-      <c r="I943" s="9"/>
+      <c r="D943" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E943" s="10" t="s">
+        <v>2900</v>
+      </c>
+      <c r="F943" s="9" t="s">
+        <v>3287</v>
+      </c>
+      <c r="G943" s="9" t="s">
+        <v>3288</v>
+      </c>
+      <c r="H943" s="9" t="s">
+        <v>3289</v>
+      </c>
+      <c r="I943" s="9" t="s">
+        <v>3290</v>
+      </c>
       <c r="J943" s="9"/>
       <c r="K943" s="9"/>
       <c r="L943" s="9"/>
       <c r="M943" s="9"/>
-      <c r="N943" s="12"/>
+      <c r="N943" s="12" t="s">
+        <v>2730</v>
+      </c>
     </row>
     <row r="944" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A944" s="4" t="s">
@@ -37689,7 +37890,9 @@
       <c r="C944" s="5" t="s">
         <v>1787</v>
       </c>
-      <c r="D944" s="15"/>
+      <c r="D944" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E944" s="9"/>
       <c r="F944" s="9"/>
       <c r="G944" s="9"/>
@@ -37711,7 +37914,9 @@
       <c r="C945" s="5" t="s">
         <v>1789</v>
       </c>
-      <c r="D945" s="15"/>
+      <c r="D945" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E945" s="9"/>
       <c r="F945" s="9"/>
       <c r="G945" s="9"/>
@@ -37733,73 +37938,117 @@
       <c r="C946" s="5" t="s">
         <v>1791</v>
       </c>
-      <c r="D946" s="15"/>
-      <c r="E946" s="9"/>
-      <c r="F946" s="9"/>
-      <c r="G946" s="9"/>
-      <c r="H946" s="9"/>
-      <c r="I946" s="9"/>
+      <c r="D946" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E946" s="10" t="s">
+        <v>3294</v>
+      </c>
+      <c r="F946" s="9" t="s">
+        <v>3287</v>
+      </c>
+      <c r="G946" s="9" t="s">
+        <v>3291</v>
+      </c>
+      <c r="H946" s="9" t="s">
+        <v>3292</v>
+      </c>
+      <c r="I946" s="9" t="s">
+        <v>2497</v>
+      </c>
       <c r="J946" s="9"/>
       <c r="K946" s="9"/>
       <c r="L946" s="9"/>
       <c r="M946" s="9"/>
-      <c r="N946" s="12"/>
+      <c r="N946" s="12" t="s">
+        <v>3295</v>
+      </c>
     </row>
     <row r="947" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A947" s="4" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="B947" s="5" t="s">
         <v>1784</v>
       </c>
       <c r="C947" s="5" t="s">
-        <v>1793</v>
-      </c>
-      <c r="D947" s="15"/>
-      <c r="E947" s="9"/>
-      <c r="F947" s="9"/>
-      <c r="G947" s="9"/>
-      <c r="H947" s="9"/>
-      <c r="I947" s="9"/>
+        <v>1791</v>
+      </c>
+      <c r="D947" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E947" s="10" t="s">
+        <v>3294</v>
+      </c>
+      <c r="F947" s="9" t="s">
+        <v>3287</v>
+      </c>
+      <c r="G947" s="9" t="s">
+        <v>3291</v>
+      </c>
+      <c r="H947" s="9" t="s">
+        <v>3293</v>
+      </c>
+      <c r="I947" s="9" t="s">
+        <v>2497</v>
+      </c>
       <c r="J947" s="9"/>
       <c r="K947" s="9"/>
       <c r="L947" s="9"/>
       <c r="M947" s="9"/>
-      <c r="N947" s="12"/>
-    </row>
-    <row r="948" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="N947" s="12" t="s">
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="948" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A948" s="4" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="B948" s="5" t="s">
         <v>1784</v>
       </c>
       <c r="C948" s="5" t="s">
-        <v>1795</v>
-      </c>
-      <c r="D948" s="15"/>
-      <c r="E948" s="9"/>
-      <c r="F948" s="9"/>
-      <c r="G948" s="9"/>
-      <c r="H948" s="9"/>
-      <c r="I948" s="9"/>
+        <v>1793</v>
+      </c>
+      <c r="D948" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E948" s="10" t="s">
+        <v>3299</v>
+      </c>
+      <c r="F948" s="9" t="s">
+        <v>3287</v>
+      </c>
+      <c r="G948" s="9" t="s">
+        <v>3296</v>
+      </c>
+      <c r="H948" s="9" t="s">
+        <v>3297</v>
+      </c>
+      <c r="I948" s="9" t="s">
+        <v>3298</v>
+      </c>
       <c r="J948" s="9"/>
       <c r="K948" s="9"/>
       <c r="L948" s="9"/>
       <c r="M948" s="9"/>
-      <c r="N948" s="12"/>
-    </row>
-    <row r="949" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="N948" s="12" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="949" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A949" s="4" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="B949" s="5" t="s">
         <v>1784</v>
       </c>
       <c r="C949" s="5" t="s">
-        <v>1797</v>
-      </c>
-      <c r="D949" s="15"/>
+        <v>1795</v>
+      </c>
+      <c r="D949" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E949" s="9"/>
       <c r="F949" s="9"/>
       <c r="G949" s="9"/>
@@ -37813,37 +38062,53 @@
     </row>
     <row r="950" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A950" s="4" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="B950" s="5" t="s">
         <v>1784</v>
       </c>
       <c r="C950" s="5" t="s">
-        <v>1799</v>
-      </c>
-      <c r="D950" s="15"/>
-      <c r="E950" s="9"/>
-      <c r="F950" s="9"/>
-      <c r="G950" s="9"/>
-      <c r="H950" s="9"/>
-      <c r="I950" s="9"/>
+        <v>1797</v>
+      </c>
+      <c r="D950" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E950" s="10" t="s">
+        <v>3303</v>
+      </c>
+      <c r="F950" s="9" t="s">
+        <v>3287</v>
+      </c>
+      <c r="G950" s="9" t="s">
+        <v>3300</v>
+      </c>
+      <c r="H950" s="9" t="s">
+        <v>3301</v>
+      </c>
+      <c r="I950" s="9" t="s">
+        <v>3302</v>
+      </c>
       <c r="J950" s="9"/>
       <c r="K950" s="9"/>
       <c r="L950" s="9"/>
       <c r="M950" s="9"/>
-      <c r="N950" s="12"/>
-    </row>
-    <row r="951" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="N950" s="12" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="951" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A951" s="4" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="B951" s="5" t="s">
         <v>1784</v>
       </c>
       <c r="C951" s="5" t="s">
-        <v>1801</v>
-      </c>
-      <c r="D951" s="15"/>
+        <v>1799</v>
+      </c>
+      <c r="D951" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E951" s="9"/>
       <c r="F951" s="9"/>
       <c r="G951" s="9"/>
@@ -37855,17 +38120,19 @@
       <c r="M951" s="9"/>
       <c r="N951" s="12"/>
     </row>
-    <row r="952" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A952" s="4" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="B952" s="5" t="s">
         <v>1784</v>
       </c>
       <c r="C952" s="5" t="s">
-        <v>1803</v>
-      </c>
-      <c r="D952" s="15"/>
+        <v>1801</v>
+      </c>
+      <c r="D952" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E952" s="9"/>
       <c r="F952" s="9"/>
       <c r="G952" s="9"/>
@@ -37879,37 +38146,53 @@
     </row>
     <row r="953" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A953" s="4" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="B953" s="5" t="s">
         <v>1784</v>
       </c>
       <c r="C953" s="5" t="s">
-        <v>1805</v>
-      </c>
-      <c r="D953" s="15"/>
-      <c r="E953" s="9"/>
-      <c r="F953" s="9"/>
-      <c r="G953" s="9"/>
-      <c r="H953" s="9"/>
-      <c r="I953" s="9"/>
+        <v>1803</v>
+      </c>
+      <c r="D953" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E953" s="10" t="s">
+        <v>3307</v>
+      </c>
+      <c r="F953" s="9" t="s">
+        <v>3287</v>
+      </c>
+      <c r="G953" s="9" t="s">
+        <v>3304</v>
+      </c>
+      <c r="H953" s="9" t="s">
+        <v>3305</v>
+      </c>
+      <c r="I953" s="9" t="s">
+        <v>3306</v>
+      </c>
       <c r="J953" s="9"/>
       <c r="K953" s="9"/>
       <c r="L953" s="9"/>
       <c r="M953" s="9"/>
-      <c r="N953" s="12"/>
+      <c r="N953" s="12" t="s">
+        <v>3024</v>
+      </c>
     </row>
     <row r="954" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A954" s="4" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="B954" s="5" t="s">
         <v>1784</v>
       </c>
       <c r="C954" s="5" t="s">
-        <v>1789</v>
-      </c>
-      <c r="D954" s="15"/>
+        <v>1805</v>
+      </c>
+      <c r="D954" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E954" s="9"/>
       <c r="F954" s="9"/>
       <c r="G954" s="9"/>
@@ -37923,15 +38206,17 @@
     </row>
     <row r="955" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A955" s="4" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="B955" s="5" t="s">
         <v>1784</v>
       </c>
       <c r="C955" s="5" t="s">
-        <v>1808</v>
-      </c>
-      <c r="D955" s="15"/>
+        <v>1789</v>
+      </c>
+      <c r="D955" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E955" s="9"/>
       <c r="F955" s="9"/>
       <c r="G955" s="9"/>
@@ -37945,15 +38230,17 @@
     </row>
     <row r="956" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A956" s="4" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="B956" s="5" t="s">
         <v>1784</v>
       </c>
       <c r="C956" s="5" t="s">
-        <v>1810</v>
-      </c>
-      <c r="D956" s="15"/>
+        <v>1808</v>
+      </c>
+      <c r="D956" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E956" s="9"/>
       <c r="F956" s="9"/>
       <c r="G956" s="9"/>
@@ -37967,15 +38254,17 @@
     </row>
     <row r="957" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A957" s="4" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="B957" s="5" t="s">
         <v>1784</v>
       </c>
       <c r="C957" s="5" t="s">
-        <v>1812</v>
-      </c>
-      <c r="D957" s="15"/>
+        <v>1810</v>
+      </c>
+      <c r="D957" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E957" s="9"/>
       <c r="F957" s="9"/>
       <c r="G957" s="9"/>
@@ -37989,15 +38278,17 @@
     </row>
     <row r="958" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A958" s="4" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="B958" s="5" t="s">
         <v>1784</v>
       </c>
       <c r="C958" s="5" t="s">
-        <v>1814</v>
-      </c>
-      <c r="D958" s="15"/>
+        <v>1812</v>
+      </c>
+      <c r="D958" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E958" s="9"/>
       <c r="F958" s="9"/>
       <c r="G958" s="9"/>
@@ -38009,17 +38300,19 @@
       <c r="M958" s="9"/>
       <c r="N958" s="12"/>
     </row>
-    <row r="959" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A959" s="4" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B959" s="5" t="s">
         <v>1784</v>
       </c>
       <c r="C959" s="5" t="s">
-        <v>1816</v>
-      </c>
-      <c r="D959" s="15"/>
+        <v>1814</v>
+      </c>
+      <c r="D959" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E959" s="9"/>
       <c r="F959" s="9"/>
       <c r="G959" s="9"/>
@@ -38031,17 +38324,19 @@
       <c r="M959" s="9"/>
       <c r="N959" s="12"/>
     </row>
-    <row r="960" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A960" s="4" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="B960" s="5" t="s">
         <v>1784</v>
       </c>
       <c r="C960" s="5" t="s">
-        <v>1818</v>
-      </c>
-      <c r="D960" s="15"/>
+        <v>1816</v>
+      </c>
+      <c r="D960" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E960" s="9"/>
       <c r="F960" s="9"/>
       <c r="G960" s="9"/>
@@ -38053,17 +38348,19 @@
       <c r="M960" s="9"/>
       <c r="N960" s="12"/>
     </row>
-    <row r="961" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A961" s="4" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B961" s="5" t="s">
         <v>1784</v>
       </c>
       <c r="C961" s="5" t="s">
-        <v>1820</v>
-      </c>
-      <c r="D961" s="15"/>
+        <v>1818</v>
+      </c>
+      <c r="D961" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E961" s="9"/>
       <c r="F961" s="9"/>
       <c r="G961" s="9"/>
@@ -38077,15 +38374,17 @@
     </row>
     <row r="962" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A962" s="4" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="B962" s="5" t="s">
         <v>1784</v>
       </c>
       <c r="C962" s="5" t="s">
-        <v>1822</v>
-      </c>
-      <c r="D962" s="15"/>
+        <v>1820</v>
+      </c>
+      <c r="D962" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E962" s="9"/>
       <c r="F962" s="9"/>
       <c r="G962" s="9"/>
@@ -38099,15 +38398,17 @@
     </row>
     <row r="963" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A963" s="4" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="B963" s="5" t="s">
-        <v>1824</v>
+        <v>1784</v>
       </c>
       <c r="C963" s="5" t="s">
-        <v>1825</v>
-      </c>
-      <c r="D963" s="15"/>
+        <v>1822</v>
+      </c>
+      <c r="D963" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E963" s="9"/>
       <c r="F963" s="9"/>
       <c r="G963" s="9"/>
@@ -38121,15 +38422,17 @@
     </row>
     <row r="964" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A964" s="4" t="s">
-        <v>1826</v>
+        <v>1823</v>
       </c>
       <c r="B964" s="5" t="s">
         <v>1824</v>
       </c>
       <c r="C964" s="5" t="s">
-        <v>1827</v>
-      </c>
-      <c r="D964" s="15"/>
+        <v>1825</v>
+      </c>
+      <c r="D964" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E964" s="9"/>
       <c r="F964" s="9"/>
       <c r="G964" s="9"/>
@@ -38143,15 +38446,17 @@
     </row>
     <row r="965" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A965" s="4" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="B965" s="5" t="s">
         <v>1824</v>
       </c>
       <c r="C965" s="5" t="s">
-        <v>1829</v>
-      </c>
-      <c r="D965" s="15"/>
+        <v>1827</v>
+      </c>
+      <c r="D965" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E965" s="9"/>
       <c r="F965" s="9"/>
       <c r="G965" s="9"/>
@@ -38165,15 +38470,17 @@
     </row>
     <row r="966" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A966" s="4" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="B966" s="5" t="s">
         <v>1824</v>
       </c>
       <c r="C966" s="5" t="s">
-        <v>1831</v>
-      </c>
-      <c r="D966" s="15"/>
+        <v>1829</v>
+      </c>
+      <c r="D966" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E966" s="9"/>
       <c r="F966" s="9"/>
       <c r="G966" s="9"/>
@@ -38187,15 +38494,17 @@
     </row>
     <row r="967" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A967" s="4" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="B967" s="5" t="s">
         <v>1824</v>
       </c>
       <c r="C967" s="5" t="s">
-        <v>1833</v>
-      </c>
-      <c r="D967" s="15"/>
+        <v>1831</v>
+      </c>
+      <c r="D967" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E967" s="9"/>
       <c r="F967" s="9"/>
       <c r="G967" s="9"/>
@@ -38209,15 +38518,17 @@
     </row>
     <row r="968" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A968" s="4" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="B968" s="5" t="s">
         <v>1824</v>
       </c>
       <c r="C968" s="5" t="s">
-        <v>1831</v>
-      </c>
-      <c r="D968" s="15"/>
+        <v>1833</v>
+      </c>
+      <c r="D968" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E968" s="9"/>
       <c r="F968" s="9"/>
       <c r="G968" s="9"/>
@@ -38231,15 +38542,17 @@
     </row>
     <row r="969" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A969" s="4" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="B969" s="5" t="s">
         <v>1824</v>
       </c>
       <c r="C969" s="5" t="s">
-        <v>1836</v>
-      </c>
-      <c r="D969" s="15"/>
+        <v>1831</v>
+      </c>
+      <c r="D969" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E969" s="9"/>
       <c r="F969" s="9"/>
       <c r="G969" s="9"/>
@@ -38251,39 +38564,55 @@
       <c r="M969" s="9"/>
       <c r="N969" s="12"/>
     </row>
-    <row r="970" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A970" s="4" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="B970" s="5" t="s">
         <v>1824</v>
       </c>
       <c r="C970" s="5" t="s">
-        <v>1838</v>
-      </c>
-      <c r="D970" s="15"/>
-      <c r="E970" s="9"/>
-      <c r="F970" s="9"/>
-      <c r="G970" s="9"/>
-      <c r="H970" s="9"/>
-      <c r="I970" s="9"/>
+        <v>1836</v>
+      </c>
+      <c r="D970" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E970" s="9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="F970" s="9" t="s">
+        <v>2493</v>
+      </c>
+      <c r="G970" s="9" t="s">
+        <v>3308</v>
+      </c>
+      <c r="H970" s="9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="I970" s="9" t="s">
+        <v>2497</v>
+      </c>
       <c r="J970" s="9"/>
       <c r="K970" s="9"/>
       <c r="L970" s="9"/>
       <c r="M970" s="9"/>
-      <c r="N970" s="12"/>
+      <c r="N970" s="12" t="s">
+        <v>3309</v>
+      </c>
     </row>
     <row r="971" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A971" s="4" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="B971" s="5" t="s">
         <v>1824</v>
       </c>
       <c r="C971" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D971" s="15"/>
+        <v>1838</v>
+      </c>
+      <c r="D971" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E971" s="9"/>
       <c r="F971" s="9"/>
       <c r="G971" s="9"/>
@@ -38297,15 +38626,17 @@
     </row>
     <row r="972" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A972" s="4" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="B972" s="5" t="s">
         <v>1824</v>
       </c>
       <c r="C972" s="5" t="s">
-        <v>1841</v>
-      </c>
-      <c r="D972" s="15"/>
+        <v>18</v>
+      </c>
+      <c r="D972" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E972" s="9"/>
       <c r="F972" s="9"/>
       <c r="G972" s="9"/>
@@ -38319,15 +38650,17 @@
     </row>
     <row r="973" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A973" s="4" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="B973" s="5" t="s">
         <v>1824</v>
       </c>
       <c r="C973" s="5" t="s">
-        <v>1843</v>
-      </c>
-      <c r="D973" s="15"/>
+        <v>1841</v>
+      </c>
+      <c r="D973" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E973" s="9"/>
       <c r="F973" s="9"/>
       <c r="G973" s="9"/>
@@ -38341,37 +38674,53 @@
     </row>
     <row r="974" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A974" s="4" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="B974" s="5" t="s">
         <v>1824</v>
       </c>
       <c r="C974" s="5" t="s">
-        <v>1845</v>
-      </c>
-      <c r="D974" s="15"/>
-      <c r="E974" s="9"/>
-      <c r="F974" s="9"/>
-      <c r="G974" s="9"/>
-      <c r="H974" s="9"/>
-      <c r="I974" s="9"/>
+        <v>1843</v>
+      </c>
+      <c r="D974" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E974" s="10" t="s">
+        <v>3313</v>
+      </c>
+      <c r="F974" s="9" t="s">
+        <v>2493</v>
+      </c>
+      <c r="G974" s="9" t="s">
+        <v>3310</v>
+      </c>
+      <c r="H974" s="9" t="s">
+        <v>3311</v>
+      </c>
+      <c r="I974" s="9" t="s">
+        <v>3312</v>
+      </c>
       <c r="J974" s="9"/>
       <c r="K974" s="9"/>
       <c r="L974" s="9"/>
       <c r="M974" s="9"/>
-      <c r="N974" s="12"/>
+      <c r="N974" s="12" t="s">
+        <v>3314</v>
+      </c>
     </row>
     <row r="975" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A975" s="4" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="B975" s="5" t="s">
         <v>1824</v>
       </c>
       <c r="C975" s="5" t="s">
-        <v>1847</v>
-      </c>
-      <c r="D975" s="15"/>
+        <v>1845</v>
+      </c>
+      <c r="D975" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E975" s="9"/>
       <c r="F975" s="9"/>
       <c r="G975" s="9"/>
@@ -38385,15 +38734,17 @@
     </row>
     <row r="976" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A976" s="4" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="B976" s="5" t="s">
         <v>1824</v>
       </c>
       <c r="C976" s="5" t="s">
-        <v>1849</v>
-      </c>
-      <c r="D976" s="15"/>
+        <v>1847</v>
+      </c>
+      <c r="D976" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E976" s="9"/>
       <c r="F976" s="9"/>
       <c r="G976" s="9"/>
@@ -38407,15 +38758,17 @@
     </row>
     <row r="977" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A977" s="4" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="B977" s="5" t="s">
         <v>1824</v>
       </c>
       <c r="C977" s="5" t="s">
-        <v>1851</v>
-      </c>
-      <c r="D977" s="15"/>
+        <v>1849</v>
+      </c>
+      <c r="D977" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E977" s="9"/>
       <c r="F977" s="9"/>
       <c r="G977" s="9"/>
@@ -38429,15 +38782,17 @@
     </row>
     <row r="978" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A978" s="4" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="B978" s="5" t="s">
         <v>1824</v>
       </c>
       <c r="C978" s="5" t="s">
-        <v>1853</v>
-      </c>
-      <c r="D978" s="15"/>
+        <v>1851</v>
+      </c>
+      <c r="D978" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E978" s="9"/>
       <c r="F978" s="9"/>
       <c r="G978" s="9"/>
@@ -38451,15 +38806,17 @@
     </row>
     <row r="979" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A979" s="4" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="B979" s="5" t="s">
         <v>1824</v>
       </c>
       <c r="C979" s="5" t="s">
-        <v>1855</v>
-      </c>
-      <c r="D979" s="15"/>
+        <v>1853</v>
+      </c>
+      <c r="D979" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E979" s="9"/>
       <c r="F979" s="9"/>
       <c r="G979" s="9"/>
@@ -38473,15 +38830,17 @@
     </row>
     <row r="980" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A980" s="4" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="B980" s="5" t="s">
         <v>1824</v>
       </c>
       <c r="C980" s="5" t="s">
-        <v>1857</v>
-      </c>
-      <c r="D980" s="15"/>
+        <v>1855</v>
+      </c>
+      <c r="D980" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E980" s="9"/>
       <c r="F980" s="9"/>
       <c r="G980" s="9"/>
@@ -38495,15 +38854,17 @@
     </row>
     <row r="981" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A981" s="4" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="B981" s="5" t="s">
         <v>1824</v>
       </c>
       <c r="C981" s="5" t="s">
-        <v>1859</v>
-      </c>
-      <c r="D981" s="15"/>
+        <v>1857</v>
+      </c>
+      <c r="D981" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E981" s="9"/>
       <c r="F981" s="9"/>
       <c r="G981" s="9"/>
@@ -38517,15 +38878,17 @@
     </row>
     <row r="982" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A982" s="4" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="B982" s="5" t="s">
         <v>1824</v>
       </c>
       <c r="C982" s="5" t="s">
-        <v>1861</v>
-      </c>
-      <c r="D982" s="15"/>
+        <v>1859</v>
+      </c>
+      <c r="D982" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E982" s="9"/>
       <c r="F982" s="9"/>
       <c r="G982" s="9"/>
@@ -38537,39 +38900,57 @@
       <c r="M982" s="9"/>
       <c r="N982" s="12"/>
     </row>
-    <row r="983" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A983" s="4" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="B983" s="5" t="s">
-        <v>1863</v>
+        <v>1824</v>
       </c>
       <c r="C983" s="5" t="s">
-        <v>1864</v>
-      </c>
-      <c r="D983" s="15"/>
-      <c r="E983" s="9"/>
-      <c r="F983" s="9"/>
-      <c r="G983" s="9"/>
-      <c r="H983" s="9"/>
-      <c r="I983" s="9"/>
-      <c r="J983" s="9"/>
+        <v>1861</v>
+      </c>
+      <c r="D983" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E983" s="10" t="s">
+        <v>3318</v>
+      </c>
+      <c r="F983" s="9" t="s">
+        <v>3315</v>
+      </c>
+      <c r="G983" s="9" t="s">
+        <v>3316</v>
+      </c>
+      <c r="H983" s="9" t="s">
+        <v>3317</v>
+      </c>
+      <c r="I983" s="9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="J983" s="9">
+        <v>5</v>
+      </c>
       <c r="K983" s="9"/>
       <c r="L983" s="9"/>
       <c r="M983" s="9"/>
-      <c r="N983" s="12"/>
+      <c r="N983" s="12" t="s">
+        <v>3319</v>
+      </c>
     </row>
     <row r="984" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A984" s="4" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="B984" s="5" t="s">
         <v>1863</v>
       </c>
       <c r="C984" s="5" t="s">
-        <v>1866</v>
-      </c>
-      <c r="D984" s="15"/>
+        <v>1864</v>
+      </c>
+      <c r="D984" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E984" s="9"/>
       <c r="F984" s="9"/>
       <c r="G984" s="9"/>
@@ -38583,15 +38964,17 @@
     </row>
     <row r="985" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A985" s="4" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="B985" s="5" t="s">
         <v>1863</v>
       </c>
       <c r="C985" s="5" t="s">
-        <v>1868</v>
-      </c>
-      <c r="D985" s="15"/>
+        <v>1866</v>
+      </c>
+      <c r="D985" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E985" s="9"/>
       <c r="F985" s="9"/>
       <c r="G985" s="9"/>
@@ -38605,15 +38988,17 @@
     </row>
     <row r="986" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A986" s="4" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="B986" s="5" t="s">
         <v>1863</v>
       </c>
       <c r="C986" s="5" t="s">
-        <v>1870</v>
-      </c>
-      <c r="D986" s="15"/>
+        <v>1868</v>
+      </c>
+      <c r="D986" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E986" s="9"/>
       <c r="F986" s="9"/>
       <c r="G986" s="9"/>
@@ -38627,37 +39012,53 @@
     </row>
     <row r="987" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A987" s="4" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="B987" s="5" t="s">
         <v>1863</v>
       </c>
       <c r="C987" s="5" t="s">
-        <v>1872</v>
-      </c>
-      <c r="D987" s="15"/>
-      <c r="E987" s="9"/>
-      <c r="F987" s="9"/>
-      <c r="G987" s="9"/>
-      <c r="H987" s="9"/>
-      <c r="I987" s="9"/>
+        <v>1870</v>
+      </c>
+      <c r="D987" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E987" s="10" t="s">
+        <v>2621</v>
+      </c>
+      <c r="F987" s="9" t="s">
+        <v>2493</v>
+      </c>
+      <c r="G987" s="9" t="s">
+        <v>3320</v>
+      </c>
+      <c r="H987" s="9" t="s">
+        <v>3321</v>
+      </c>
+      <c r="I987" s="9" t="s">
+        <v>3322</v>
+      </c>
       <c r="J987" s="9"/>
       <c r="K987" s="9"/>
       <c r="L987" s="9"/>
       <c r="M987" s="9"/>
-      <c r="N987" s="12"/>
+      <c r="N987" s="12" t="s">
+        <v>2730</v>
+      </c>
     </row>
     <row r="988" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A988" s="4" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="B988" s="5" t="s">
         <v>1863</v>
       </c>
       <c r="C988" s="5" t="s">
-        <v>1874</v>
-      </c>
-      <c r="D988" s="15"/>
+        <v>1872</v>
+      </c>
+      <c r="D988" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E988" s="9"/>
       <c r="F988" s="9"/>
       <c r="G988" s="9"/>
@@ -38671,15 +39072,17 @@
     </row>
     <row r="989" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A989" s="4" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="B989" s="5" t="s">
         <v>1863</v>
       </c>
       <c r="C989" s="5" t="s">
-        <v>1876</v>
-      </c>
-      <c r="D989" s="15"/>
+        <v>1874</v>
+      </c>
+      <c r="D989" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E989" s="9"/>
       <c r="F989" s="9"/>
       <c r="G989" s="9"/>
@@ -38693,15 +39096,17 @@
     </row>
     <row r="990" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A990" s="4" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="B990" s="5" t="s">
         <v>1863</v>
       </c>
       <c r="C990" s="5" t="s">
-        <v>1878</v>
-      </c>
-      <c r="D990" s="15"/>
+        <v>1876</v>
+      </c>
+      <c r="D990" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E990" s="9"/>
       <c r="F990" s="9"/>
       <c r="G990" s="9"/>
@@ -38715,15 +39120,17 @@
     </row>
     <row r="991" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A991" s="4" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="B991" s="5" t="s">
         <v>1863</v>
       </c>
       <c r="C991" s="5" t="s">
-        <v>1880</v>
-      </c>
-      <c r="D991" s="15"/>
+        <v>1878</v>
+      </c>
+      <c r="D991" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E991" s="9"/>
       <c r="F991" s="9"/>
       <c r="G991" s="9"/>
@@ -38737,15 +39144,17 @@
     </row>
     <row r="992" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A992" s="4" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="B992" s="5" t="s">
         <v>1863</v>
       </c>
       <c r="C992" s="5" t="s">
-        <v>1882</v>
-      </c>
-      <c r="D992" s="15"/>
+        <v>1880</v>
+      </c>
+      <c r="D992" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E992" s="9"/>
       <c r="F992" s="9"/>
       <c r="G992" s="9"/>
@@ -38759,15 +39168,17 @@
     </row>
     <row r="993" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A993" s="4" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="B993" s="5" t="s">
-        <v>1884</v>
+        <v>1863</v>
       </c>
       <c r="C993" s="5" t="s">
-        <v>1885</v>
-      </c>
-      <c r="D993" s="15"/>
+        <v>1882</v>
+      </c>
+      <c r="D993" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E993" s="9"/>
       <c r="F993" s="9"/>
       <c r="G993" s="9"/>
@@ -38781,37 +39192,55 @@
     </row>
     <row r="994" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A994" s="4" t="s">
-        <v>1886</v>
+        <v>1883</v>
       </c>
       <c r="B994" s="5" t="s">
         <v>1884</v>
       </c>
       <c r="C994" s="5" t="s">
-        <v>1887</v>
-      </c>
-      <c r="D994" s="15"/>
-      <c r="E994" s="9"/>
-      <c r="F994" s="9"/>
-      <c r="G994" s="9"/>
-      <c r="H994" s="9"/>
-      <c r="I994" s="9"/>
-      <c r="J994" s="9"/>
+        <v>1885</v>
+      </c>
+      <c r="D994" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E994" s="10" t="s">
+        <v>2754</v>
+      </c>
+      <c r="F994" s="9" t="s">
+        <v>2615</v>
+      </c>
+      <c r="G994" s="9" t="s">
+        <v>2897</v>
+      </c>
+      <c r="H994" s="9" t="s">
+        <v>3323</v>
+      </c>
+      <c r="I994" s="9" t="s">
+        <v>3324</v>
+      </c>
+      <c r="J994" s="9">
+        <v>1</v>
+      </c>
       <c r="K994" s="9"/>
       <c r="L994" s="9"/>
       <c r="M994" s="9"/>
-      <c r="N994" s="12"/>
+      <c r="N994" s="12" t="s">
+        <v>2561</v>
+      </c>
     </row>
     <row r="995" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A995" s="4" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="B995" s="5" t="s">
         <v>1884</v>
       </c>
       <c r="C995" s="5" t="s">
-        <v>1889</v>
-      </c>
-      <c r="D995" s="15"/>
+        <v>1887</v>
+      </c>
+      <c r="D995" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E995" s="9"/>
       <c r="F995" s="9"/>
       <c r="G995" s="9"/>
@@ -38825,37 +39254,53 @@
     </row>
     <row r="996" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A996" s="4" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="B996" s="5" t="s">
         <v>1884</v>
       </c>
       <c r="C996" s="5" t="s">
-        <v>1891</v>
-      </c>
-      <c r="D996" s="15"/>
-      <c r="E996" s="9"/>
-      <c r="F996" s="9"/>
-      <c r="G996" s="9"/>
-      <c r="H996" s="9"/>
-      <c r="I996" s="9"/>
+        <v>1889</v>
+      </c>
+      <c r="D996" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E996" s="10" t="s">
+        <v>3329</v>
+      </c>
+      <c r="F996" s="9" t="s">
+        <v>3325</v>
+      </c>
+      <c r="G996" s="9" t="s">
+        <v>3326</v>
+      </c>
+      <c r="H996" s="9" t="s">
+        <v>3327</v>
+      </c>
+      <c r="I996" s="9" t="s">
+        <v>3328</v>
+      </c>
       <c r="J996" s="9"/>
       <c r="K996" s="9"/>
       <c r="L996" s="9"/>
       <c r="M996" s="9"/>
-      <c r="N996" s="12"/>
+      <c r="N996" s="12" t="s">
+        <v>3330</v>
+      </c>
     </row>
     <row r="997" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A997" s="4" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="B997" s="5" t="s">
         <v>1884</v>
       </c>
       <c r="C997" s="5" t="s">
-        <v>1893</v>
-      </c>
-      <c r="D997" s="15"/>
+        <v>1891</v>
+      </c>
+      <c r="D997" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E997" s="9"/>
       <c r="F997" s="9"/>
       <c r="G997" s="9"/>
@@ -38869,15 +39314,17 @@
     </row>
     <row r="998" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A998" s="4" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="B998" s="5" t="s">
         <v>1884</v>
       </c>
       <c r="C998" s="5" t="s">
-        <v>1895</v>
-      </c>
-      <c r="D998" s="15"/>
+        <v>1893</v>
+      </c>
+      <c r="D998" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E998" s="9"/>
       <c r="F998" s="9"/>
       <c r="G998" s="9"/>
@@ -38889,15 +39336,15 @@
       <c r="M998" s="9"/>
       <c r="N998" s="12"/>
     </row>
-    <row r="999" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A999" s="4" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B999" s="5" t="s">
         <v>1884</v>
       </c>
       <c r="C999" s="5" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="D999" s="15"/>
       <c r="E999" s="9"/>
@@ -38913,13 +39360,13 @@
     </row>
     <row r="1000" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1000" s="4" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="B1000" s="5" t="s">
         <v>1884</v>
       </c>
       <c r="C1000" s="5" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="D1000" s="15"/>
       <c r="E1000" s="9"/>
@@ -38933,15 +39380,15 @@
       <c r="M1000" s="9"/>
       <c r="N1000" s="12"/>
     </row>
-    <row r="1001" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1001" s="4" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
       <c r="B1001" s="5" t="s">
         <v>1884</v>
       </c>
       <c r="C1001" s="5" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
       <c r="D1001" s="15"/>
       <c r="E1001" s="9"/>
@@ -38957,13 +39404,13 @@
     </row>
     <row r="1002" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1002" s="4" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="B1002" s="5" t="s">
         <v>1884</v>
       </c>
       <c r="C1002" s="5" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="D1002" s="15"/>
       <c r="E1002" s="9"/>
@@ -38979,13 +39426,13 @@
     </row>
     <row r="1003" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1003" s="4" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="B1003" s="5" t="s">
         <v>1884</v>
       </c>
       <c r="C1003" s="5" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="D1003" s="15"/>
       <c r="E1003" s="9"/>
@@ -39001,13 +39448,13 @@
     </row>
     <row r="1004" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1004" s="4" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="B1004" s="5" t="s">
         <v>1884</v>
       </c>
       <c r="C1004" s="5" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
       <c r="D1004" s="15"/>
       <c r="E1004" s="9"/>
@@ -39023,13 +39470,13 @@
     </row>
     <row r="1005" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1005" s="4" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="B1005" s="5" t="s">
         <v>1884</v>
       </c>
       <c r="C1005" s="5" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="D1005" s="15"/>
       <c r="E1005" s="9"/>
@@ -39045,13 +39492,13 @@
     </row>
     <row r="1006" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1006" s="4" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="B1006" s="5" t="s">
         <v>1884</v>
       </c>
       <c r="C1006" s="5" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="D1006" s="15"/>
       <c r="E1006" s="9"/>
@@ -39067,13 +39514,13 @@
     </row>
     <row r="1007" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1007" s="4" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="B1007" s="5" t="s">
         <v>1884</v>
       </c>
       <c r="C1007" s="5" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="D1007" s="15"/>
       <c r="E1007" s="9"/>
@@ -39089,13 +39536,13 @@
     </row>
     <row r="1008" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1008" s="4" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="B1008" s="5" t="s">
         <v>1884</v>
       </c>
       <c r="C1008" s="5" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="D1008" s="15"/>
       <c r="E1008" s="9"/>
@@ -39109,15 +39556,15 @@
       <c r="M1008" s="9"/>
       <c r="N1008" s="12"/>
     </row>
-    <row r="1009" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1009" s="4" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="B1009" s="5" t="s">
         <v>1884</v>
       </c>
       <c r="C1009" s="5" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="D1009" s="15"/>
       <c r="E1009" s="9"/>
@@ -39131,15 +39578,15 @@
       <c r="M1009" s="9"/>
       <c r="N1009" s="12"/>
     </row>
-    <row r="1010" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1010" s="4" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="B1010" s="5" t="s">
         <v>1884</v>
       </c>
       <c r="C1010" s="5" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="D1010" s="15"/>
       <c r="E1010" s="9"/>
@@ -39155,13 +39602,13 @@
     </row>
     <row r="1011" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1011" s="4" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="B1011" s="5" t="s">
         <v>1884</v>
       </c>
       <c r="C1011" s="5" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
       <c r="D1011" s="15"/>
       <c r="E1011" s="9"/>
@@ -39177,13 +39624,13 @@
     </row>
     <row r="1012" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1012" s="4" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="B1012" s="5" t="s">
         <v>1884</v>
       </c>
       <c r="C1012" s="5" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="D1012" s="15"/>
       <c r="E1012" s="9"/>
@@ -39199,13 +39646,13 @@
     </row>
     <row r="1013" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1013" s="4" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
       <c r="B1013" s="5" t="s">
-        <v>1925</v>
+        <v>1884</v>
       </c>
       <c r="C1013" s="5" t="s">
-        <v>1926</v>
+        <v>1923</v>
       </c>
       <c r="D1013" s="15"/>
       <c r="E1013" s="9"/>
@@ -39221,13 +39668,13 @@
     </row>
     <row r="1014" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1014" s="4" t="s">
-        <v>1927</v>
+        <v>1924</v>
       </c>
       <c r="B1014" s="5" t="s">
         <v>1925</v>
       </c>
       <c r="C1014" s="5" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="D1014" s="15"/>
       <c r="E1014" s="9"/>
@@ -39241,15 +39688,15 @@
       <c r="M1014" s="9"/>
       <c r="N1014" s="12"/>
     </row>
-    <row r="1015" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1015" s="4" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="B1015" s="5" t="s">
         <v>1925</v>
       </c>
       <c r="C1015" s="5" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="D1015" s="15"/>
       <c r="E1015" s="9"/>
@@ -39263,15 +39710,15 @@
       <c r="M1015" s="9"/>
       <c r="N1015" s="12"/>
     </row>
-    <row r="1016" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1016" s="4" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="B1016" s="5" t="s">
         <v>1925</v>
       </c>
       <c r="C1016" s="5" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="D1016" s="15"/>
       <c r="E1016" s="9"/>
@@ -39287,13 +39734,13 @@
     </row>
     <row r="1017" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1017" s="4" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="B1017" s="5" t="s">
         <v>1925</v>
       </c>
       <c r="C1017" s="5" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="D1017" s="15"/>
       <c r="E1017" s="9"/>
@@ -39309,13 +39756,13 @@
     </row>
     <row r="1018" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1018" s="4" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="B1018" s="5" t="s">
         <v>1925</v>
       </c>
       <c r="C1018" s="5" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="D1018" s="15"/>
       <c r="E1018" s="9"/>
@@ -39331,13 +39778,13 @@
     </row>
     <row r="1019" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1019" s="4" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="B1019" s="5" t="s">
         <v>1925</v>
       </c>
       <c r="C1019" s="5" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="D1019" s="15"/>
       <c r="E1019" s="9"/>
@@ -39353,13 +39800,13 @@
     </row>
     <row r="1020" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1020" s="4" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="B1020" s="5" t="s">
         <v>1925</v>
       </c>
       <c r="C1020" s="5" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="D1020" s="15"/>
       <c r="E1020" s="9"/>
@@ -39375,13 +39822,13 @@
     </row>
     <row r="1021" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1021" s="4" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="B1021" s="5" t="s">
         <v>1925</v>
       </c>
       <c r="C1021" s="5" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="D1021" s="15"/>
       <c r="E1021" s="9"/>
@@ -39397,13 +39844,13 @@
     </row>
     <row r="1022" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1022" s="4" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="B1022" s="5" t="s">
         <v>1925</v>
       </c>
       <c r="C1022" s="5" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="D1022" s="15"/>
       <c r="E1022" s="9"/>
@@ -39419,13 +39866,13 @@
     </row>
     <row r="1023" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1023" s="4" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="B1023" s="5" t="s">
         <v>1925</v>
       </c>
       <c r="C1023" s="5" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="D1023" s="15"/>
       <c r="E1023" s="9"/>
@@ -39439,15 +39886,15 @@
       <c r="M1023" s="9"/>
       <c r="N1023" s="12"/>
     </row>
-    <row r="1024" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1024" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1024" s="4" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="B1024" s="5" t="s">
         <v>1925</v>
       </c>
       <c r="C1024" s="5" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="D1024" s="15"/>
       <c r="E1024" s="9"/>
@@ -39461,15 +39908,15 @@
       <c r="M1024" s="9"/>
       <c r="N1024" s="12"/>
     </row>
-    <row r="1025" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1025" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1025" s="4" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="B1025" s="5" t="s">
         <v>1925</v>
       </c>
       <c r="C1025" s="5" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="D1025" s="15"/>
       <c r="E1025" s="9"/>
@@ -39483,15 +39930,15 @@
       <c r="M1025" s="9"/>
       <c r="N1025" s="12"/>
     </row>
-    <row r="1026" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1026" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1026" s="4" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="B1026" s="5" t="s">
         <v>1925</v>
       </c>
       <c r="C1026" s="5" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="D1026" s="15"/>
       <c r="E1026" s="9"/>
@@ -39507,13 +39954,13 @@
     </row>
     <row r="1027" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1027" s="4" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="B1027" s="5" t="s">
         <v>1925</v>
       </c>
       <c r="C1027" s="5" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="D1027" s="15"/>
       <c r="E1027" s="9"/>
@@ -39529,13 +39976,13 @@
     </row>
     <row r="1028" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1028" s="4" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="B1028" s="5" t="s">
         <v>1925</v>
       </c>
       <c r="C1028" s="5" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="D1028" s="15"/>
       <c r="E1028" s="9"/>
@@ -39549,15 +39996,15 @@
       <c r="M1028" s="9"/>
       <c r="N1028" s="12"/>
     </row>
-    <row r="1029" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1029" s="4" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
       <c r="B1029" s="5" t="s">
         <v>1925</v>
       </c>
       <c r="C1029" s="5" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="D1029" s="15"/>
       <c r="E1029" s="9"/>
@@ -39573,13 +40020,13 @@
     </row>
     <row r="1030" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1030" s="4" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="B1030" s="5" t="s">
         <v>1925</v>
       </c>
       <c r="C1030" s="5" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="D1030" s="15"/>
       <c r="E1030" s="9"/>
@@ -39595,13 +40042,13 @@
     </row>
     <row r="1031" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1031" s="4" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B1031" s="5" t="s">
         <v>1925</v>
       </c>
       <c r="C1031" s="5" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="D1031" s="15"/>
       <c r="E1031" s="9"/>
@@ -39615,15 +40062,15 @@
       <c r="M1031" s="9"/>
       <c r="N1031" s="12"/>
     </row>
-    <row r="1032" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1032" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1032" s="4" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="B1032" s="5" t="s">
         <v>1925</v>
       </c>
       <c r="C1032" s="5" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="D1032" s="15"/>
       <c r="E1032" s="9"/>
@@ -39639,13 +40086,13 @@
     </row>
     <row r="1033" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1033" s="4" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B1033" s="5" t="s">
-        <v>1966</v>
+        <v>1925</v>
       </c>
       <c r="C1033" s="5" t="s">
-        <v>1967</v>
+        <v>1964</v>
       </c>
       <c r="D1033" s="15"/>
       <c r="E1033" s="9"/>
@@ -39659,15 +40106,15 @@
       <c r="M1033" s="9"/>
       <c r="N1033" s="12"/>
     </row>
-    <row r="1034" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1034" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1034" s="4" t="s">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="B1034" s="5" t="s">
         <v>1966</v>
       </c>
       <c r="C1034" s="5" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="D1034" s="15"/>
       <c r="E1034" s="9"/>
@@ -39683,13 +40130,13 @@
     </row>
     <row r="1035" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1035" s="4" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="B1035" s="5" t="s">
         <v>1966</v>
       </c>
       <c r="C1035" s="5" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="D1035" s="15"/>
       <c r="E1035" s="9"/>
@@ -39703,15 +40150,15 @@
       <c r="M1035" s="9"/>
       <c r="N1035" s="12"/>
     </row>
-    <row r="1036" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1036" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1036" s="4" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="B1036" s="5" t="s">
         <v>1966</v>
       </c>
       <c r="C1036" s="5" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="D1036" s="15"/>
       <c r="E1036" s="9"/>
@@ -39725,15 +40172,15 @@
       <c r="M1036" s="9"/>
       <c r="N1036" s="12"/>
     </row>
-    <row r="1037" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1037" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1037" s="4" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="B1037" s="5" t="s">
         <v>1966</v>
       </c>
       <c r="C1037" s="5" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="D1037" s="15"/>
       <c r="E1037" s="9"/>
@@ -39747,15 +40194,15 @@
       <c r="M1037" s="9"/>
       <c r="N1037" s="12"/>
     </row>
-    <row r="1038" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1038" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1038" s="4" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="B1038" s="5" t="s">
         <v>1966</v>
       </c>
       <c r="C1038" s="5" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="D1038" s="15"/>
       <c r="E1038" s="9"/>
@@ -39771,13 +40218,13 @@
     </row>
     <row r="1039" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1039" s="4" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="B1039" s="5" t="s">
         <v>1966</v>
       </c>
       <c r="C1039" s="5" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="D1039" s="15"/>
       <c r="E1039" s="9"/>
@@ -39791,15 +40238,15 @@
       <c r="M1039" s="9"/>
       <c r="N1039" s="12"/>
     </row>
-    <row r="1040" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1040" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1040" s="4" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="B1040" s="5" t="s">
         <v>1966</v>
       </c>
       <c r="C1040" s="5" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="D1040" s="15"/>
       <c r="E1040" s="9"/>
@@ -39815,13 +40262,13 @@
     </row>
     <row r="1041" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1041" s="4" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="B1041" s="5" t="s">
         <v>1966</v>
       </c>
       <c r="C1041" s="5" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="D1041" s="15"/>
       <c r="E1041" s="9"/>
@@ -39837,13 +40284,13 @@
     </row>
     <row r="1042" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1042" s="4" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="B1042" s="5" t="s">
         <v>1966</v>
       </c>
       <c r="C1042" s="5" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="D1042" s="15"/>
       <c r="E1042" s="9"/>
@@ -39859,13 +40306,13 @@
     </row>
     <row r="1043" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1043" s="4" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B1043" s="5" t="s">
         <v>1966</v>
       </c>
       <c r="C1043" s="5" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="D1043" s="15"/>
       <c r="E1043" s="9"/>
@@ -39881,13 +40328,13 @@
     </row>
     <row r="1044" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1044" s="4" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="B1044" s="5" t="s">
         <v>1966</v>
       </c>
       <c r="C1044" s="5" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="D1044" s="15"/>
       <c r="E1044" s="9"/>
@@ -39903,13 +40350,13 @@
     </row>
     <row r="1045" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1045" s="4" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="B1045" s="5" t="s">
         <v>1966</v>
       </c>
       <c r="C1045" s="5" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="D1045" s="15"/>
       <c r="E1045" s="9"/>
@@ -39923,15 +40370,15 @@
       <c r="M1045" s="9"/>
       <c r="N1045" s="12"/>
     </row>
-    <row r="1046" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1046" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1046" s="4" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="B1046" s="5" t="s">
         <v>1966</v>
       </c>
       <c r="C1046" s="5" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="D1046" s="15"/>
       <c r="E1046" s="9"/>
@@ -39945,15 +40392,15 @@
       <c r="M1046" s="9"/>
       <c r="N1046" s="12"/>
     </row>
-    <row r="1047" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1047" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1047" s="4" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="B1047" s="5" t="s">
         <v>1966</v>
       </c>
       <c r="C1047" s="5" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="D1047" s="15"/>
       <c r="E1047" s="9"/>
@@ -39969,13 +40416,13 @@
     </row>
     <row r="1048" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1048" s="4" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="B1048" s="5" t="s">
         <v>1966</v>
       </c>
       <c r="C1048" s="5" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="D1048" s="15"/>
       <c r="E1048" s="9"/>
@@ -39991,13 +40438,13 @@
     </row>
     <row r="1049" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1049" s="4" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="B1049" s="5" t="s">
         <v>1966</v>
       </c>
       <c r="C1049" s="5" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="D1049" s="15"/>
       <c r="E1049" s="9"/>
@@ -40013,13 +40460,13 @@
     </row>
     <row r="1050" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1050" s="4" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="B1050" s="5" t="s">
         <v>1966</v>
       </c>
       <c r="C1050" s="5" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="D1050" s="15"/>
       <c r="E1050" s="9"/>
@@ -40035,13 +40482,13 @@
     </row>
     <row r="1051" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1051" s="4" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="B1051" s="5" t="s">
         <v>1966</v>
       </c>
       <c r="C1051" s="5" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="D1051" s="15"/>
       <c r="E1051" s="9"/>
@@ -40057,13 +40504,13 @@
     </row>
     <row r="1052" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1052" s="4" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="B1052" s="5" t="s">
         <v>1966</v>
       </c>
       <c r="C1052" s="5" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="D1052" s="15"/>
       <c r="E1052" s="9"/>
@@ -40077,15 +40524,15 @@
       <c r="M1052" s="9"/>
       <c r="N1052" s="12"/>
     </row>
-    <row r="1053" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1053" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1053" s="4" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="B1053" s="5" t="s">
-        <v>2007</v>
+        <v>1966</v>
       </c>
       <c r="C1053" s="5" t="s">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="D1053" s="15"/>
       <c r="E1053" s="9"/>
@@ -40101,13 +40548,13 @@
     </row>
     <row r="1054" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1054" s="4" t="s">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="B1054" s="5" t="s">
         <v>2007</v>
       </c>
       <c r="C1054" s="5" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="D1054" s="15"/>
       <c r="E1054" s="9"/>
@@ -40123,13 +40570,13 @@
     </row>
     <row r="1055" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1055" s="4" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="B1055" s="5" t="s">
         <v>2007</v>
       </c>
       <c r="C1055" s="5" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="D1055" s="15"/>
       <c r="E1055" s="9"/>
@@ -40145,13 +40592,13 @@
     </row>
     <row r="1056" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1056" s="4" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="B1056" s="5" t="s">
         <v>2007</v>
       </c>
       <c r="C1056" s="5" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D1056" s="15"/>
       <c r="E1056" s="9"/>
@@ -40167,13 +40614,13 @@
     </row>
     <row r="1057" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1057" s="4" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B1057" s="5" t="s">
         <v>2007</v>
       </c>
       <c r="C1057" s="5" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D1057" s="15"/>
       <c r="E1057" s="9"/>
@@ -40189,13 +40636,13 @@
     </row>
     <row r="1058" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1058" s="4" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="B1058" s="5" t="s">
         <v>2007</v>
       </c>
       <c r="C1058" s="5" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D1058" s="15"/>
       <c r="E1058" s="9"/>
@@ -40211,13 +40658,13 @@
     </row>
     <row r="1059" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1059" s="4" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="B1059" s="5" t="s">
         <v>2007</v>
       </c>
       <c r="C1059" s="5" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D1059" s="15"/>
       <c r="E1059" s="9"/>
@@ -40233,13 +40680,13 @@
     </row>
     <row r="1060" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1060" s="4" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="B1060" s="5" t="s">
         <v>2007</v>
       </c>
       <c r="C1060" s="5" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D1060" s="15"/>
       <c r="E1060" s="9"/>
@@ -40255,13 +40702,13 @@
     </row>
     <row r="1061" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1061" s="4" t="s">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B1061" s="5" t="s">
         <v>2007</v>
       </c>
       <c r="C1061" s="5" t="s">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D1061" s="15"/>
       <c r="E1061" s="9"/>
@@ -40277,13 +40724,13 @@
     </row>
     <row r="1062" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1062" s="4" t="s">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="B1062" s="5" t="s">
         <v>2007</v>
       </c>
       <c r="C1062" s="5" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="D1062" s="15"/>
       <c r="E1062" s="9"/>
@@ -40299,13 +40746,13 @@
     </row>
     <row r="1063" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1063" s="4" t="s">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="B1063" s="5" t="s">
         <v>2007</v>
       </c>
       <c r="C1063" s="5" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="D1063" s="15"/>
       <c r="E1063" s="9"/>
@@ -40321,13 +40768,13 @@
     </row>
     <row r="1064" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1064" s="4" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="B1064" s="5" t="s">
         <v>2007</v>
       </c>
       <c r="C1064" s="5" t="s">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="D1064" s="15"/>
       <c r="E1064" s="9"/>
@@ -40343,13 +40790,13 @@
     </row>
     <row r="1065" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1065" s="4" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
       <c r="B1065" s="5" t="s">
         <v>2007</v>
       </c>
       <c r="C1065" s="5" t="s">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="D1065" s="15"/>
       <c r="E1065" s="9"/>
@@ -40365,13 +40812,13 @@
     </row>
     <row r="1066" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1066" s="4" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="B1066" s="5" t="s">
         <v>2007</v>
       </c>
       <c r="C1066" s="5" t="s">
-        <v>2033</v>
+        <v>2028</v>
       </c>
       <c r="D1066" s="15"/>
       <c r="E1066" s="9"/>
@@ -40387,13 +40834,13 @@
     </row>
     <row r="1067" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1067" s="4" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
       <c r="B1067" s="5" t="s">
         <v>2007</v>
       </c>
       <c r="C1067" s="5" t="s">
-        <v>2026</v>
+        <v>2033</v>
       </c>
       <c r="D1067" s="15"/>
       <c r="E1067" s="9"/>
@@ -40409,13 +40856,13 @@
     </row>
     <row r="1068" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1068" s="4" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="B1068" s="5" t="s">
         <v>2007</v>
       </c>
       <c r="C1068" s="5" t="s">
-        <v>2012</v>
+        <v>2026</v>
       </c>
       <c r="D1068" s="15"/>
       <c r="E1068" s="9"/>
@@ -40431,13 +40878,13 @@
     </row>
     <row r="1069" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1069" s="4" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="B1069" s="5" t="s">
         <v>2007</v>
       </c>
       <c r="C1069" s="5" t="s">
-        <v>2037</v>
+        <v>2012</v>
       </c>
       <c r="D1069" s="15"/>
       <c r="E1069" s="9"/>
@@ -40453,13 +40900,13 @@
     </row>
     <row r="1070" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1070" s="4" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="B1070" s="5" t="s">
         <v>2007</v>
       </c>
       <c r="C1070" s="5" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="D1070" s="15"/>
       <c r="E1070" s="9"/>
@@ -40475,13 +40922,13 @@
     </row>
     <row r="1071" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1071" s="4" t="s">
-        <v>2040</v>
+        <v>2038</v>
       </c>
       <c r="B1071" s="5" t="s">
         <v>2007</v>
       </c>
       <c r="C1071" s="5" t="s">
-        <v>2012</v>
+        <v>2039</v>
       </c>
       <c r="D1071" s="15"/>
       <c r="E1071" s="9"/>
@@ -40497,13 +40944,13 @@
     </row>
     <row r="1072" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1072" s="4" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="B1072" s="5" t="s">
         <v>2007</v>
       </c>
       <c r="C1072" s="5" t="s">
-        <v>2042</v>
+        <v>2012</v>
       </c>
       <c r="D1072" s="15"/>
       <c r="E1072" s="9"/>
@@ -40519,13 +40966,13 @@
     </row>
     <row r="1073" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1073" s="4" t="s">
-        <v>2043</v>
+        <v>2041</v>
       </c>
       <c r="B1073" s="5" t="s">
-        <v>2044</v>
+        <v>2007</v>
       </c>
       <c r="C1073" s="5" t="s">
-        <v>2045</v>
+        <v>2042</v>
       </c>
       <c r="D1073" s="15"/>
       <c r="E1073" s="9"/>
@@ -40541,13 +40988,13 @@
     </row>
     <row r="1074" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1074" s="4" t="s">
-        <v>2046</v>
+        <v>2043</v>
       </c>
       <c r="B1074" s="5" t="s">
         <v>2044</v>
       </c>
       <c r="C1074" s="5" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="D1074" s="15"/>
       <c r="E1074" s="9"/>
@@ -40563,13 +41010,13 @@
     </row>
     <row r="1075" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1075" s="4" t="s">
-        <v>2048</v>
+        <v>2046</v>
       </c>
       <c r="B1075" s="5" t="s">
         <v>2044</v>
       </c>
       <c r="C1075" s="5" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
       <c r="D1075" s="15"/>
       <c r="E1075" s="9"/>
@@ -40585,13 +41032,13 @@
     </row>
     <row r="1076" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1076" s="4" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="B1076" s="5" t="s">
         <v>2044</v>
       </c>
       <c r="C1076" s="5" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
       <c r="D1076" s="15"/>
       <c r="E1076" s="9"/>
@@ -40607,13 +41054,13 @@
     </row>
     <row r="1077" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1077" s="4" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="B1077" s="5" t="s">
         <v>2044</v>
       </c>
       <c r="C1077" s="5" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
       <c r="D1077" s="15"/>
       <c r="E1077" s="9"/>
@@ -40629,13 +41076,13 @@
     </row>
     <row r="1078" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1078" s="4" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
       <c r="B1078" s="5" t="s">
         <v>2044</v>
       </c>
       <c r="C1078" s="5" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="D1078" s="15"/>
       <c r="E1078" s="9"/>
@@ -40651,13 +41098,13 @@
     </row>
     <row r="1079" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1079" s="4" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="B1079" s="5" t="s">
         <v>2044</v>
       </c>
       <c r="C1079" s="5" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="D1079" s="15"/>
       <c r="E1079" s="9"/>
@@ -40673,13 +41120,13 @@
     </row>
     <row r="1080" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1080" s="4" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
       <c r="B1080" s="5" t="s">
         <v>2044</v>
       </c>
       <c r="C1080" s="5" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="D1080" s="15"/>
       <c r="E1080" s="9"/>
@@ -40695,13 +41142,13 @@
     </row>
     <row r="1081" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1081" s="4" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
       <c r="B1081" s="5" t="s">
         <v>2044</v>
       </c>
       <c r="C1081" s="5" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="D1081" s="15"/>
       <c r="E1081" s="9"/>
@@ -40717,7 +41164,7 @@
     </row>
     <row r="1082" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1082" s="4" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="B1082" s="5" t="s">
         <v>2044</v>
@@ -40739,13 +41186,13 @@
     </row>
     <row r="1083" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1083" s="4" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B1083" s="5" t="s">
         <v>2044</v>
       </c>
       <c r="C1083" s="5" t="s">
-        <v>2064</v>
+        <v>2061</v>
       </c>
       <c r="D1083" s="15"/>
       <c r="E1083" s="9"/>
@@ -40761,13 +41208,13 @@
     </row>
     <row r="1084" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1084" s="4" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="B1084" s="5" t="s">
         <v>2044</v>
       </c>
       <c r="C1084" s="5" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
       <c r="D1084" s="15"/>
       <c r="E1084" s="9"/>
@@ -40783,13 +41230,13 @@
     </row>
     <row r="1085" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1085" s="4" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
       <c r="B1085" s="5" t="s">
         <v>2044</v>
       </c>
       <c r="C1085" s="5" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="D1085" s="15"/>
       <c r="E1085" s="9"/>
@@ -40805,13 +41252,13 @@
     </row>
     <row r="1086" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1086" s="4" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
       <c r="B1086" s="5" t="s">
         <v>2044</v>
       </c>
       <c r="C1086" s="5" t="s">
-        <v>2047</v>
+        <v>2068</v>
       </c>
       <c r="D1086" s="15"/>
       <c r="E1086" s="9"/>
@@ -40827,13 +41274,13 @@
     </row>
     <row r="1087" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1087" s="4" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="B1087" s="5" t="s">
         <v>2044</v>
       </c>
       <c r="C1087" s="5" t="s">
-        <v>2055</v>
+        <v>2047</v>
       </c>
       <c r="D1087" s="15"/>
       <c r="E1087" s="9"/>
@@ -40849,13 +41296,13 @@
     </row>
     <row r="1088" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1088" s="4" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="B1088" s="5" t="s">
         <v>2044</v>
       </c>
       <c r="C1088" s="5" t="s">
-        <v>2072</v>
+        <v>2055</v>
       </c>
       <c r="D1088" s="15"/>
       <c r="E1088" s="9"/>
@@ -40871,13 +41318,13 @@
     </row>
     <row r="1089" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1089" s="4" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B1089" s="5" t="s">
         <v>2044</v>
       </c>
       <c r="C1089" s="5" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
       <c r="D1089" s="15"/>
       <c r="E1089" s="9"/>
@@ -40893,13 +41340,13 @@
     </row>
     <row r="1090" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1090" s="4" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="B1090" s="5" t="s">
         <v>2044</v>
       </c>
       <c r="C1090" s="5" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="D1090" s="15"/>
       <c r="E1090" s="9"/>
@@ -40915,13 +41362,13 @@
     </row>
     <row r="1091" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1091" s="4" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="B1091" s="5" t="s">
         <v>2044</v>
       </c>
       <c r="C1091" s="5" t="s">
-        <v>2066</v>
+        <v>2076</v>
       </c>
       <c r="D1091" s="15"/>
       <c r="E1091" s="9"/>
@@ -40937,13 +41384,13 @@
     </row>
     <row r="1092" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1092" s="4" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="B1092" s="5" t="s">
         <v>2044</v>
       </c>
       <c r="C1092" s="5" t="s">
-        <v>2076</v>
+        <v>2066</v>
       </c>
       <c r="D1092" s="15"/>
       <c r="E1092" s="9"/>
@@ -40957,15 +41404,15 @@
       <c r="M1092" s="9"/>
       <c r="N1092" s="12"/>
     </row>
-    <row r="1093" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1093" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1093" s="4" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="B1093" s="5" t="s">
-        <v>2080</v>
+        <v>2044</v>
       </c>
       <c r="C1093" s="5" t="s">
-        <v>2081</v>
+        <v>2076</v>
       </c>
       <c r="D1093" s="15"/>
       <c r="E1093" s="9"/>
@@ -40981,13 +41428,13 @@
     </row>
     <row r="1094" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1094" s="4" t="s">
-        <v>2082</v>
+        <v>2079</v>
       </c>
       <c r="B1094" s="5" t="s">
         <v>2080</v>
       </c>
       <c r="C1094" s="5" t="s">
-        <v>2083</v>
+        <v>2081</v>
       </c>
       <c r="D1094" s="15"/>
       <c r="E1094" s="9"/>
@@ -41003,13 +41450,13 @@
     </row>
     <row r="1095" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1095" s="4" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
       <c r="B1095" s="5" t="s">
         <v>2080</v>
       </c>
       <c r="C1095" s="5" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="D1095" s="15"/>
       <c r="E1095" s="9"/>
@@ -41025,13 +41472,13 @@
     </row>
     <row r="1096" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1096" s="4" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="B1096" s="5" t="s">
         <v>2080</v>
       </c>
       <c r="C1096" s="5" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
       <c r="D1096" s="15"/>
       <c r="E1096" s="9"/>
@@ -41047,13 +41494,13 @@
     </row>
     <row r="1097" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1097" s="4" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
       <c r="B1097" s="5" t="s">
         <v>2080</v>
       </c>
       <c r="C1097" s="5" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
       <c r="D1097" s="15"/>
       <c r="E1097" s="9"/>
@@ -41069,13 +41516,13 @@
     </row>
     <row r="1098" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1098" s="4" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
       <c r="B1098" s="5" t="s">
         <v>2080</v>
       </c>
       <c r="C1098" s="5" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="D1098" s="15"/>
       <c r="E1098" s="9"/>
@@ -41091,13 +41538,13 @@
     </row>
     <row r="1099" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1099" s="4" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="B1099" s="5" t="s">
         <v>2080</v>
       </c>
       <c r="C1099" s="5" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="D1099" s="15"/>
       <c r="E1099" s="9"/>
@@ -41113,13 +41560,13 @@
     </row>
     <row r="1100" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1100" s="4" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
       <c r="B1100" s="5" t="s">
         <v>2080</v>
       </c>
       <c r="C1100" s="5" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
       <c r="D1100" s="15"/>
       <c r="E1100" s="9"/>
@@ -41135,13 +41582,13 @@
     </row>
     <row r="1101" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1101" s="4" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="B1101" s="5" t="s">
         <v>2080</v>
       </c>
       <c r="C1101" s="5" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="D1101" s="15"/>
       <c r="E1101" s="9"/>
@@ -41157,13 +41604,13 @@
     </row>
     <row r="1102" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1102" s="4" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="B1102" s="5" t="s">
         <v>2080</v>
       </c>
       <c r="C1102" s="5" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="D1102" s="15"/>
       <c r="E1102" s="9"/>
@@ -41179,13 +41626,13 @@
     </row>
     <row r="1103" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1103" s="4" t="s">
-        <v>2100</v>
+        <v>2098</v>
       </c>
       <c r="B1103" s="5" t="s">
         <v>2080</v>
       </c>
       <c r="C1103" s="5" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
       <c r="D1103" s="15"/>
       <c r="E1103" s="9"/>
@@ -41201,13 +41648,13 @@
     </row>
     <row r="1104" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1104" s="4" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="B1104" s="5" t="s">
         <v>2080</v>
       </c>
       <c r="C1104" s="5" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="D1104" s="15"/>
       <c r="E1104" s="9"/>
@@ -41223,13 +41670,13 @@
     </row>
     <row r="1105" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1105" s="4" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="B1105" s="5" t="s">
         <v>2080</v>
       </c>
       <c r="C1105" s="5" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="D1105" s="15"/>
       <c r="E1105" s="9"/>
@@ -41245,13 +41692,13 @@
     </row>
     <row r="1106" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1106" s="4" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="B1106" s="5" t="s">
         <v>2080</v>
       </c>
       <c r="C1106" s="5" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="D1106" s="15"/>
       <c r="E1106" s="9"/>
@@ -41267,13 +41714,13 @@
     </row>
     <row r="1107" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1107" s="4" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
       <c r="B1107" s="5" t="s">
         <v>2080</v>
       </c>
       <c r="C1107" s="5" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="D1107" s="15"/>
       <c r="E1107" s="9"/>
@@ -41289,13 +41736,13 @@
     </row>
     <row r="1108" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1108" s="4" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="B1108" s="5" t="s">
         <v>2080</v>
       </c>
       <c r="C1108" s="5" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
       <c r="D1108" s="15"/>
       <c r="E1108" s="9"/>
@@ -41311,13 +41758,13 @@
     </row>
     <row r="1109" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1109" s="4" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="B1109" s="5" t="s">
         <v>2080</v>
       </c>
       <c r="C1109" s="5" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="D1109" s="15"/>
       <c r="E1109" s="9"/>
@@ -41333,13 +41780,13 @@
     </row>
     <row r="1110" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1110" s="4" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="B1110" s="5" t="s">
         <v>2080</v>
       </c>
       <c r="C1110" s="5" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
       <c r="D1110" s="15"/>
       <c r="E1110" s="9"/>
@@ -41355,13 +41802,13 @@
     </row>
     <row r="1111" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1111" s="4" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="B1111" s="5" t="s">
         <v>2080</v>
       </c>
       <c r="C1111" s="5" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="D1111" s="15"/>
       <c r="E1111" s="9"/>
@@ -41377,13 +41824,13 @@
     </row>
     <row r="1112" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1112" s="4" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="B1112" s="5" t="s">
         <v>2080</v>
       </c>
       <c r="C1112" s="5" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="D1112" s="15"/>
       <c r="E1112" s="9"/>
@@ -41399,13 +41846,13 @@
     </row>
     <row r="1113" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1113" s="4" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
       <c r="B1113" s="5" t="s">
-        <v>2121</v>
+        <v>2080</v>
       </c>
       <c r="C1113" s="5" t="s">
-        <v>2122</v>
+        <v>2119</v>
       </c>
       <c r="D1113" s="15"/>
       <c r="E1113" s="9"/>
@@ -41421,13 +41868,13 @@
     </row>
     <row r="1114" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1114" s="4" t="s">
-        <v>2123</v>
+        <v>2120</v>
       </c>
       <c r="B1114" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1114" s="5" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="D1114" s="15"/>
       <c r="E1114" s="9"/>
@@ -41443,13 +41890,13 @@
     </row>
     <row r="1115" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1115" s="4" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="B1115" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1115" s="5" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="D1115" s="15"/>
       <c r="E1115" s="9"/>
@@ -41465,13 +41912,13 @@
     </row>
     <row r="1116" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1116" s="4" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="B1116" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1116" s="5" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="D1116" s="15"/>
       <c r="E1116" s="9"/>
@@ -41487,13 +41934,13 @@
     </row>
     <row r="1117" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1117" s="4" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="B1117" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1117" s="5" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="D1117" s="15"/>
       <c r="E1117" s="9"/>
@@ -41509,13 +41956,13 @@
     </row>
     <row r="1118" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1118" s="4" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="B1118" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1118" s="5" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
       <c r="D1118" s="15"/>
       <c r="E1118" s="9"/>
@@ -41531,13 +41978,13 @@
     </row>
     <row r="1119" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1119" s="4" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
       <c r="B1119" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1119" s="5" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
       <c r="D1119" s="15"/>
       <c r="E1119" s="9"/>
@@ -41553,13 +42000,13 @@
     </row>
     <row r="1120" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1120" s="4" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
       <c r="B1120" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1120" s="5" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
       <c r="D1120" s="15"/>
       <c r="E1120" s="9"/>
@@ -41575,13 +42022,13 @@
     </row>
     <row r="1121" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1121" s="4" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
       <c r="B1121" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1121" s="5" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="D1121" s="15"/>
       <c r="E1121" s="9"/>
@@ -41597,13 +42044,13 @@
     </row>
     <row r="1122" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1122" s="4" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="B1122" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1122" s="5" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="D1122" s="15"/>
       <c r="E1122" s="9"/>
@@ -41619,13 +42066,13 @@
     </row>
     <row r="1123" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1123" s="4" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="B1123" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1123" s="5" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="D1123" s="15"/>
       <c r="E1123" s="9"/>
@@ -41641,13 +42088,13 @@
     </row>
     <row r="1124" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1124" s="4" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
       <c r="B1124" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1124" s="5" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
       <c r="D1124" s="15"/>
       <c r="E1124" s="9"/>
@@ -41663,13 +42110,13 @@
     </row>
     <row r="1125" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1125" s="4" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
       <c r="B1125" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1125" s="5" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
       <c r="D1125" s="15"/>
       <c r="E1125" s="9"/>
@@ -41685,13 +42132,13 @@
     </row>
     <row r="1126" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1126" s="4" t="s">
-        <v>2147</v>
+        <v>2145</v>
       </c>
       <c r="B1126" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1126" s="5" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
       <c r="D1126" s="15"/>
       <c r="E1126" s="9"/>
@@ -41707,13 +42154,13 @@
     </row>
     <row r="1127" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1127" s="4" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="B1127" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1127" s="5" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
       <c r="D1127" s="15"/>
       <c r="E1127" s="9"/>
@@ -41729,13 +42176,13 @@
     </row>
     <row r="1128" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1128" s="4" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
       <c r="B1128" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1128" s="5" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
       <c r="D1128" s="15"/>
       <c r="E1128" s="9"/>
@@ -41751,13 +42198,13 @@
     </row>
     <row r="1129" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1129" s="4" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="B1129" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1129" s="5" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="D1129" s="15"/>
       <c r="E1129" s="9"/>
@@ -41773,13 +42220,13 @@
     </row>
     <row r="1130" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1130" s="4" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="B1130" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1130" s="5" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="D1130" s="15"/>
       <c r="E1130" s="9"/>
@@ -41795,13 +42242,13 @@
     </row>
     <row r="1131" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1131" s="4" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="B1131" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1131" s="5" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="D1131" s="15"/>
       <c r="E1131" s="9"/>
@@ -41817,13 +42264,13 @@
     </row>
     <row r="1132" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1132" s="4" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
       <c r="B1132" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1132" s="5" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="D1132" s="15"/>
       <c r="E1132" s="9"/>
@@ -41837,15 +42284,15 @@
       <c r="M1132" s="9"/>
       <c r="N1132" s="12"/>
     </row>
-    <row r="1133" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1133" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1133" s="4" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
       <c r="B1133" s="5" t="s">
-        <v>2162</v>
+        <v>2121</v>
       </c>
       <c r="C1133" s="5" t="s">
-        <v>2163</v>
+        <v>2160</v>
       </c>
       <c r="D1133" s="15"/>
       <c r="E1133" s="9"/>
@@ -41861,13 +42308,13 @@
     </row>
     <row r="1134" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1134" s="4" t="s">
-        <v>2164</v>
+        <v>2161</v>
       </c>
       <c r="B1134" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1134" s="5" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="D1134" s="15"/>
       <c r="E1134" s="9"/>
@@ -41883,13 +42330,13 @@
     </row>
     <row r="1135" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1135" s="4" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
       <c r="B1135" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1135" s="5" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="D1135" s="15"/>
       <c r="E1135" s="9"/>
@@ -41905,13 +42352,13 @@
     </row>
     <row r="1136" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1136" s="4" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="B1136" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1136" s="5" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="D1136" s="15"/>
       <c r="E1136" s="9"/>
@@ -41927,13 +42374,13 @@
     </row>
     <row r="1137" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1137" s="4" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="B1137" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1137" s="5" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="D1137" s="15"/>
       <c r="E1137" s="9"/>
@@ -41949,13 +42396,13 @@
     </row>
     <row r="1138" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1138" s="4" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="B1138" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1138" s="5" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="D1138" s="15"/>
       <c r="E1138" s="9"/>
@@ -41971,13 +42418,13 @@
     </row>
     <row r="1139" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1139" s="4" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="B1139" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1139" s="5" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
       <c r="D1139" s="15"/>
       <c r="E1139" s="9"/>
@@ -41993,13 +42440,13 @@
     </row>
     <row r="1140" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1140" s="4" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="B1140" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1140" s="5" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="D1140" s="15"/>
       <c r="E1140" s="9"/>
@@ -42015,13 +42462,13 @@
     </row>
     <row r="1141" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1141" s="4" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="B1141" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1141" s="5" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="D1141" s="15"/>
       <c r="E1141" s="9"/>
@@ -42037,13 +42484,13 @@
     </row>
     <row r="1142" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1142" s="4" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
       <c r="B1142" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1142" s="5" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
       <c r="D1142" s="15"/>
       <c r="E1142" s="9"/>
@@ -42059,13 +42506,13 @@
     </row>
     <row r="1143" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1143" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1143" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1143" s="5" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
       <c r="D1143" s="15"/>
       <c r="E1143" s="9"/>
@@ -42081,13 +42528,13 @@
     </row>
     <row r="1144" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1144" s="4" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
       <c r="B1144" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1144" s="5" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
       <c r="D1144" s="15"/>
       <c r="E1144" s="9"/>
@@ -42103,13 +42550,13 @@
     </row>
     <row r="1145" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1145" s="4" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
       <c r="B1145" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1145" s="5" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
       <c r="D1145" s="15"/>
       <c r="E1145" s="9"/>
@@ -42125,13 +42572,13 @@
     </row>
     <row r="1146" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1146" s="4" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
       <c r="B1146" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1146" s="5" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
       <c r="D1146" s="15"/>
       <c r="E1146" s="9"/>
@@ -42147,13 +42594,13 @@
     </row>
     <row r="1147" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1147" s="4" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
       <c r="B1147" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1147" s="5" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
       <c r="D1147" s="15"/>
       <c r="E1147" s="9"/>
@@ -42169,13 +42616,13 @@
     </row>
     <row r="1148" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1148" s="4" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="B1148" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1148" s="5" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
       <c r="D1148" s="15"/>
       <c r="E1148" s="9"/>
@@ -42191,13 +42638,13 @@
     </row>
     <row r="1149" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1149" s="4" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="B1149" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1149" s="5" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="D1149" s="15"/>
       <c r="E1149" s="9"/>
@@ -42213,13 +42660,13 @@
     </row>
     <row r="1150" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1150" s="4" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="B1150" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1150" s="5" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="D1150" s="15"/>
       <c r="E1150" s="9"/>
@@ -42235,13 +42682,13 @@
     </row>
     <row r="1151" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1151" s="4" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="B1151" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1151" s="5" t="s">
-        <v>2183</v>
+        <v>2197</v>
       </c>
       <c r="D1151" s="15"/>
       <c r="E1151" s="9"/>
@@ -42257,13 +42704,13 @@
     </row>
     <row r="1152" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1152" s="4" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="B1152" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1152" s="5" t="s">
-        <v>2200</v>
+        <v>2183</v>
       </c>
       <c r="D1152" s="15"/>
       <c r="E1152" s="9"/>
@@ -42277,15 +42724,15 @@
       <c r="M1152" s="9"/>
       <c r="N1152" s="12"/>
     </row>
-    <row r="1153" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1153" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1153" s="4" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
       <c r="B1153" s="5" t="s">
-        <v>2202</v>
+        <v>2162</v>
       </c>
       <c r="C1153" s="5" t="s">
-        <v>2203</v>
+        <v>2200</v>
       </c>
       <c r="D1153" s="15"/>
       <c r="E1153" s="9"/>
@@ -42301,13 +42748,13 @@
     </row>
     <row r="1154" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1154" s="4" t="s">
-        <v>2204</v>
+        <v>2201</v>
       </c>
       <c r="B1154" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1154" s="5" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
       <c r="D1154" s="15"/>
       <c r="E1154" s="9"/>
@@ -42323,13 +42770,13 @@
     </row>
     <row r="1155" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1155" s="4" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="B1155" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1155" s="5" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="D1155" s="15"/>
       <c r="E1155" s="9"/>
@@ -42345,13 +42792,13 @@
     </row>
     <row r="1156" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1156" s="4" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="B1156" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1156" s="5" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="D1156" s="15"/>
       <c r="E1156" s="9"/>
@@ -42367,13 +42814,13 @@
     </row>
     <row r="1157" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1157" s="4" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="B1157" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1157" s="5" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="D1157" s="15"/>
       <c r="E1157" s="9"/>
@@ -42389,13 +42836,13 @@
     </row>
     <row r="1158" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1158" s="4" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="B1158" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1158" s="5" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="D1158" s="15"/>
       <c r="E1158" s="9"/>
@@ -42411,13 +42858,13 @@
     </row>
     <row r="1159" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1159" s="4" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="B1159" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1159" s="5" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="D1159" s="15"/>
       <c r="E1159" s="9"/>
@@ -42433,13 +42880,13 @@
     </row>
     <row r="1160" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1160" s="4" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="B1160" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1160" s="5" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="D1160" s="15"/>
       <c r="E1160" s="9"/>
@@ -42455,13 +42902,13 @@
     </row>
     <row r="1161" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1161" s="4" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="B1161" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1161" s="5" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="D1161" s="15"/>
       <c r="E1161" s="9"/>
@@ -42477,13 +42924,13 @@
     </row>
     <row r="1162" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1162" s="4" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="B1162" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1162" s="5" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="D1162" s="15"/>
       <c r="E1162" s="9"/>
@@ -42499,13 +42946,13 @@
     </row>
     <row r="1163" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1163" s="4" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="B1163" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1163" s="5" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="D1163" s="15"/>
       <c r="E1163" s="9"/>
@@ -42521,13 +42968,13 @@
     </row>
     <row r="1164" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1164" s="4" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
       <c r="B1164" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1164" s="5" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="D1164" s="15"/>
       <c r="E1164" s="9"/>
@@ -42543,13 +42990,13 @@
     </row>
     <row r="1165" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1165" s="4" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="B1165" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1165" s="5" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="D1165" s="15"/>
       <c r="E1165" s="9"/>
@@ -42565,13 +43012,13 @@
     </row>
     <row r="1166" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1166" s="4" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="B1166" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1166" s="5" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="D1166" s="15"/>
       <c r="E1166" s="9"/>
@@ -42587,13 +43034,13 @@
     </row>
     <row r="1167" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1167" s="4" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="B1167" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1167" s="5" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="D1167" s="15"/>
       <c r="E1167" s="9"/>
@@ -42609,13 +43056,13 @@
     </row>
     <row r="1168" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1168" s="4" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="B1168" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1168" s="5" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
       <c r="D1168" s="15"/>
       <c r="E1168" s="9"/>
@@ -42631,13 +43078,13 @@
     </row>
     <row r="1169" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1169" s="4" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="B1169" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1169" s="5" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="D1169" s="15"/>
       <c r="E1169" s="9"/>
@@ -42653,13 +43100,13 @@
     </row>
     <row r="1170" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1170" s="4" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="B1170" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1170" s="5" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
       <c r="D1170" s="15"/>
       <c r="E1170" s="9"/>
@@ -42675,13 +43122,13 @@
     </row>
     <row r="1171" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1171" s="4" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="B1171" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1171" s="5" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
       <c r="D1171" s="15"/>
       <c r="E1171" s="9"/>
@@ -42697,13 +43144,13 @@
     </row>
     <row r="1172" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1172" s="4" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="B1172" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1172" s="5" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
       <c r="D1172" s="15"/>
       <c r="E1172" s="9"/>
@@ -42717,15 +43164,15 @@
       <c r="M1172" s="9"/>
       <c r="N1172" s="12"/>
     </row>
-    <row r="1173" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1173" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1173" s="4" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="B1173" s="5" t="s">
-        <v>2243</v>
+        <v>2202</v>
       </c>
       <c r="C1173" s="5" t="s">
-        <v>2244</v>
+        <v>2241</v>
       </c>
       <c r="D1173" s="15"/>
       <c r="E1173" s="9"/>
@@ -42741,13 +43188,13 @@
     </row>
     <row r="1174" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1174" s="4" t="s">
-        <v>2245</v>
+        <v>2242</v>
       </c>
       <c r="B1174" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="C1174" s="5" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
       <c r="D1174" s="15"/>
       <c r="E1174" s="9"/>
@@ -42763,13 +43210,13 @@
     </row>
     <row r="1175" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1175" s="4" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="B1175" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="C1175" s="5" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="D1175" s="15"/>
       <c r="E1175" s="9"/>
@@ -42785,13 +43232,13 @@
     </row>
     <row r="1176" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1176" s="4" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
       <c r="B1176" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="C1176" s="5" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="D1176" s="15"/>
       <c r="E1176" s="9"/>
@@ -42807,13 +43254,13 @@
     </row>
     <row r="1177" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1177" s="4" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="B1177" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="C1177" s="5" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="D1177" s="15"/>
       <c r="E1177" s="9"/>
@@ -42829,13 +43276,13 @@
     </row>
     <row r="1178" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1178" s="4" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
       <c r="B1178" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="C1178" s="5" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="D1178" s="15"/>
       <c r="E1178" s="9"/>
@@ -42851,13 +43298,13 @@
     </row>
     <row r="1179" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1179" s="4" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
       <c r="B1179" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="C1179" s="5" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
       <c r="D1179" s="15"/>
       <c r="E1179" s="9"/>
@@ -42873,13 +43320,13 @@
     </row>
     <row r="1180" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1180" s="4" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="B1180" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="C1180" s="5" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
       <c r="D1180" s="15"/>
       <c r="E1180" s="9"/>
@@ -42895,7 +43342,7 @@
     </row>
     <row r="1181" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1181" s="4" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
       <c r="B1181" s="5" t="s">
         <v>2243</v>
@@ -42917,13 +43364,13 @@
     </row>
     <row r="1182" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1182" s="4" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="B1182" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="C1182" s="5" t="s">
-        <v>2261</v>
+        <v>2258</v>
       </c>
       <c r="D1182" s="15"/>
       <c r="E1182" s="9"/>
@@ -42939,13 +43386,13 @@
     </row>
     <row r="1183" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1183" s="4" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
       <c r="B1183" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="C1183" s="5" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="D1183" s="15"/>
       <c r="E1183" s="9"/>
@@ -42961,13 +43408,13 @@
     </row>
     <row r="1184" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1184" s="4" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="B1184" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="C1184" s="5" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="D1184" s="15"/>
       <c r="E1184" s="9"/>
@@ -42983,13 +43430,13 @@
     </row>
     <row r="1185" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1185" s="4" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="B1185" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="C1185" s="5" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="D1185" s="15"/>
       <c r="E1185" s="9"/>
@@ -43005,13 +43452,13 @@
     </row>
     <row r="1186" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1186" s="4" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
       <c r="B1186" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="C1186" s="5" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="D1186" s="15"/>
       <c r="E1186" s="9"/>
@@ -43027,13 +43474,13 @@
     </row>
     <row r="1187" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1187" s="4" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
       <c r="B1187" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="C1187" s="5" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
       <c r="D1187" s="15"/>
       <c r="E1187" s="9"/>
@@ -43049,13 +43496,13 @@
     </row>
     <row r="1188" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1188" s="4" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
       <c r="B1188" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="C1188" s="5" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="D1188" s="15"/>
       <c r="E1188" s="9"/>
@@ -43071,13 +43518,13 @@
     </row>
     <row r="1189" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1189" s="4" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="B1189" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="C1189" s="5" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
       <c r="D1189" s="15"/>
       <c r="E1189" s="9"/>
@@ -43093,13 +43540,13 @@
     </row>
     <row r="1190" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1190" s="4" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="B1190" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="C1190" s="5" t="s">
-        <v>2267</v>
+        <v>2275</v>
       </c>
       <c r="D1190" s="15"/>
       <c r="E1190" s="9"/>
@@ -43115,13 +43562,13 @@
     </row>
     <row r="1191" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1191" s="4" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="B1191" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="C1191" s="5" t="s">
-        <v>2278</v>
+        <v>2267</v>
       </c>
       <c r="D1191" s="15"/>
       <c r="E1191" s="9"/>
@@ -43137,13 +43584,13 @@
     </row>
     <row r="1192" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1192" s="4" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="B1192" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="C1192" s="5" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
       <c r="D1192" s="15"/>
       <c r="E1192" s="9"/>
@@ -43157,15 +43604,15 @@
       <c r="M1192" s="9"/>
       <c r="N1192" s="12"/>
     </row>
-    <row r="1193" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1193" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1193" s="4" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
       <c r="B1193" s="5" t="s">
-        <v>2282</v>
+        <v>2243</v>
       </c>
       <c r="C1193" s="5" t="s">
-        <v>2283</v>
+        <v>2280</v>
       </c>
       <c r="D1193" s="15"/>
       <c r="E1193" s="9"/>
@@ -43181,13 +43628,13 @@
     </row>
     <row r="1194" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1194" s="4" t="s">
-        <v>2284</v>
+        <v>2281</v>
       </c>
       <c r="B1194" s="5" t="s">
         <v>2282</v>
       </c>
       <c r="C1194" s="5" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
       <c r="D1194" s="15"/>
       <c r="E1194" s="9"/>
@@ -43203,13 +43650,13 @@
     </row>
     <row r="1195" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1195" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1195" s="5" t="s">
         <v>2282</v>
       </c>
       <c r="C1195" s="5" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="D1195" s="15"/>
       <c r="E1195" s="9"/>
@@ -43225,13 +43672,13 @@
     </row>
     <row r="1196" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1196" s="4" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="B1196" s="5" t="s">
         <v>2282</v>
       </c>
       <c r="C1196" s="5" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="D1196" s="15"/>
       <c r="E1196" s="9"/>
@@ -43247,13 +43694,13 @@
     </row>
     <row r="1197" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1197" s="4" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="B1197" s="5" t="s">
         <v>2282</v>
       </c>
       <c r="C1197" s="5" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="D1197" s="15"/>
       <c r="E1197" s="9"/>
@@ -43269,13 +43716,13 @@
     </row>
     <row r="1198" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1198" s="4" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
       <c r="B1198" s="5" t="s">
         <v>2282</v>
       </c>
       <c r="C1198" s="5" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="D1198" s="15"/>
       <c r="E1198" s="9"/>
@@ -43291,13 +43738,13 @@
     </row>
     <row r="1199" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1199" s="4" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
       <c r="B1199" s="5" t="s">
         <v>2282</v>
       </c>
       <c r="C1199" s="5" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="D1199" s="15"/>
       <c r="E1199" s="9"/>
@@ -43313,13 +43760,13 @@
     </row>
     <row r="1200" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1200" s="4" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="B1200" s="5" t="s">
         <v>2282</v>
       </c>
       <c r="C1200" s="5" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
       <c r="D1200" s="15"/>
       <c r="E1200" s="9"/>
@@ -43335,13 +43782,13 @@
     </row>
     <row r="1201" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1201" s="4" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
       <c r="B1201" s="5" t="s">
         <v>2282</v>
       </c>
       <c r="C1201" s="5" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="D1201" s="15"/>
       <c r="E1201" s="9"/>
@@ -43357,13 +43804,13 @@
     </row>
     <row r="1202" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1202" s="4" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
       <c r="B1202" s="5" t="s">
         <v>2282</v>
       </c>
       <c r="C1202" s="5" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="D1202" s="15"/>
       <c r="E1202" s="9"/>
@@ -43379,13 +43826,13 @@
     </row>
     <row r="1203" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1203" s="4" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
       <c r="B1203" s="5" t="s">
         <v>2282</v>
       </c>
       <c r="C1203" s="5" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="D1203" s="15"/>
       <c r="E1203" s="9"/>
@@ -43401,13 +43848,13 @@
     </row>
     <row r="1204" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1204" s="4" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
       <c r="B1204" s="5" t="s">
         <v>2282</v>
       </c>
       <c r="C1204" s="5" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
       <c r="D1204" s="15"/>
       <c r="E1204" s="9"/>
@@ -43423,13 +43870,13 @@
     </row>
     <row r="1205" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1205" s="4" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
       <c r="B1205" s="5" t="s">
         <v>2282</v>
       </c>
       <c r="C1205" s="5" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="D1205" s="15"/>
       <c r="E1205" s="9"/>
@@ -43445,13 +43892,13 @@
     </row>
     <row r="1206" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1206" s="4" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="B1206" s="5" t="s">
         <v>2282</v>
       </c>
       <c r="C1206" s="5" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="D1206" s="15"/>
       <c r="E1206" s="9"/>
@@ -43467,13 +43914,13 @@
     </row>
     <row r="1207" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1207" s="4" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
       <c r="B1207" s="5" t="s">
         <v>2282</v>
       </c>
       <c r="C1207" s="5" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="D1207" s="15"/>
       <c r="E1207" s="9"/>
@@ -43489,13 +43936,13 @@
     </row>
     <row r="1208" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1208" s="4" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
       <c r="B1208" s="5" t="s">
         <v>2282</v>
       </c>
       <c r="C1208" s="5" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
       <c r="D1208" s="15"/>
       <c r="E1208" s="9"/>
@@ -43511,13 +43958,13 @@
     </row>
     <row r="1209" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1209" s="4" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="B1209" s="5" t="s">
         <v>2282</v>
       </c>
       <c r="C1209" s="5" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
       <c r="D1209" s="15"/>
       <c r="E1209" s="9"/>
@@ -43533,13 +43980,13 @@
     </row>
     <row r="1210" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1210" s="4" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
       <c r="B1210" s="5" t="s">
         <v>2282</v>
       </c>
       <c r="C1210" s="5" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
       <c r="D1210" s="15"/>
       <c r="E1210" s="9"/>
@@ -43555,13 +44002,13 @@
     </row>
     <row r="1211" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1211" s="4" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
       <c r="B1211" s="5" t="s">
         <v>2282</v>
       </c>
       <c r="C1211" s="5" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
       <c r="D1211" s="15"/>
       <c r="E1211" s="9"/>
@@ -43577,13 +44024,13 @@
     </row>
     <row r="1212" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1212" s="4" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
       <c r="B1212" s="5" t="s">
         <v>2282</v>
       </c>
       <c r="C1212" s="5" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
       <c r="D1212" s="15"/>
       <c r="E1212" s="9"/>
@@ -43599,13 +44046,13 @@
     </row>
     <row r="1213" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1213" s="4" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
       <c r="B1213" s="5" t="s">
-        <v>2323</v>
+        <v>2282</v>
       </c>
       <c r="C1213" s="5" t="s">
-        <v>2324</v>
+        <v>2321</v>
       </c>
       <c r="D1213" s="15"/>
       <c r="E1213" s="9"/>
@@ -43621,13 +44068,13 @@
     </row>
     <row r="1214" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1214" s="4" t="s">
-        <v>2325</v>
+        <v>2322</v>
       </c>
       <c r="B1214" s="5" t="s">
         <v>2323</v>
       </c>
       <c r="C1214" s="5" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
       <c r="D1214" s="15"/>
       <c r="E1214" s="9"/>
@@ -43643,13 +44090,13 @@
     </row>
     <row r="1215" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1215" s="4" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
       <c r="B1215" s="5" t="s">
         <v>2323</v>
       </c>
       <c r="C1215" s="5" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
       <c r="D1215" s="15"/>
       <c r="E1215" s="9"/>
@@ -43665,13 +44112,13 @@
     </row>
     <row r="1216" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1216" s="4" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="B1216" s="5" t="s">
         <v>2323</v>
       </c>
       <c r="C1216" s="5" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
       <c r="D1216" s="15"/>
       <c r="E1216" s="9"/>
@@ -43687,13 +44134,13 @@
     </row>
     <row r="1217" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1217" s="4" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
       <c r="B1217" s="5" t="s">
         <v>2323</v>
       </c>
       <c r="C1217" s="5" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
       <c r="D1217" s="15"/>
       <c r="E1217" s="9"/>
@@ -43709,13 +44156,13 @@
     </row>
     <row r="1218" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1218" s="4" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
       <c r="B1218" s="5" t="s">
         <v>2323</v>
       </c>
       <c r="C1218" s="5" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
       <c r="D1218" s="15"/>
       <c r="E1218" s="9"/>
@@ -43731,13 +44178,13 @@
     </row>
     <row r="1219" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1219" s="4" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
       <c r="B1219" s="5" t="s">
         <v>2323</v>
       </c>
       <c r="C1219" s="5" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
       <c r="D1219" s="15"/>
       <c r="E1219" s="9"/>
@@ -43753,13 +44200,13 @@
     </row>
     <row r="1220" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1220" s="4" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
       <c r="B1220" s="5" t="s">
         <v>2323</v>
       </c>
       <c r="C1220" s="5" t="s">
-        <v>2338</v>
+        <v>2336</v>
       </c>
       <c r="D1220" s="15"/>
       <c r="E1220" s="9"/>
@@ -43775,13 +44222,13 @@
     </row>
     <row r="1221" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1221" s="4" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
       <c r="B1221" s="5" t="s">
         <v>2323</v>
       </c>
       <c r="C1221" s="5" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
       <c r="D1221" s="15"/>
       <c r="E1221" s="9"/>
@@ -43797,13 +44244,13 @@
     </row>
     <row r="1222" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1222" s="4" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="B1222" s="5" t="s">
         <v>2323</v>
       </c>
       <c r="C1222" s="5" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="D1222" s="15"/>
       <c r="E1222" s="9"/>
@@ -43819,13 +44266,13 @@
     </row>
     <row r="1223" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1223" s="4" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
       <c r="B1223" s="5" t="s">
         <v>2323</v>
       </c>
       <c r="C1223" s="5" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="D1223" s="15"/>
       <c r="E1223" s="9"/>
@@ -43841,13 +44288,13 @@
     </row>
     <row r="1224" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1224" s="4" t="s">
-        <v>2345</v>
+        <v>2343</v>
       </c>
       <c r="B1224" s="5" t="s">
         <v>2323</v>
       </c>
       <c r="C1224" s="5" t="s">
-        <v>2346</v>
+        <v>2344</v>
       </c>
       <c r="D1224" s="15"/>
       <c r="E1224" s="9"/>
@@ -43863,13 +44310,13 @@
     </row>
     <row r="1225" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1225" s="4" t="s">
-        <v>2347</v>
+        <v>2345</v>
       </c>
       <c r="B1225" s="5" t="s">
         <v>2323</v>
       </c>
       <c r="C1225" s="5" t="s">
-        <v>2348</v>
+        <v>2346</v>
       </c>
       <c r="D1225" s="15"/>
       <c r="E1225" s="9"/>
@@ -43885,13 +44332,13 @@
     </row>
     <row r="1226" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1226" s="4" t="s">
-        <v>2349</v>
+        <v>2347</v>
       </c>
       <c r="B1226" s="5" t="s">
         <v>2323</v>
       </c>
       <c r="C1226" s="5" t="s">
-        <v>2350</v>
+        <v>2348</v>
       </c>
       <c r="D1226" s="15"/>
       <c r="E1226" s="9"/>
@@ -43907,13 +44354,13 @@
     </row>
     <row r="1227" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1227" s="4" t="s">
-        <v>2351</v>
+        <v>2349</v>
       </c>
       <c r="B1227" s="5" t="s">
         <v>2323</v>
       </c>
       <c r="C1227" s="5" t="s">
-        <v>2352</v>
+        <v>2350</v>
       </c>
       <c r="D1227" s="15"/>
       <c r="E1227" s="9"/>
@@ -43929,13 +44376,13 @@
     </row>
     <row r="1228" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1228" s="4" t="s">
-        <v>2353</v>
+        <v>2351</v>
       </c>
       <c r="B1228" s="5" t="s">
         <v>2323</v>
       </c>
       <c r="C1228" s="5" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
       <c r="D1228" s="15"/>
       <c r="E1228" s="9"/>
@@ -43951,13 +44398,13 @@
     </row>
     <row r="1229" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1229" s="4" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
       <c r="B1229" s="5" t="s">
         <v>2323</v>
       </c>
       <c r="C1229" s="5" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="D1229" s="15"/>
       <c r="E1229" s="9"/>
@@ -43973,13 +44420,13 @@
     </row>
     <row r="1230" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1230" s="4" t="s">
-        <v>2357</v>
+        <v>2355</v>
       </c>
       <c r="B1230" s="5" t="s">
         <v>2323</v>
       </c>
       <c r="C1230" s="5" t="s">
-        <v>2358</v>
+        <v>2356</v>
       </c>
       <c r="D1230" s="15"/>
       <c r="E1230" s="9"/>
@@ -43995,13 +44442,13 @@
     </row>
     <row r="1231" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1231" s="4" t="s">
-        <v>2359</v>
+        <v>2357</v>
       </c>
       <c r="B1231" s="5" t="s">
         <v>2323</v>
       </c>
       <c r="C1231" s="5" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
       <c r="D1231" s="15"/>
       <c r="E1231" s="9"/>
@@ -44017,13 +44464,13 @@
     </row>
     <row r="1232" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1232" s="4" t="s">
-        <v>2361</v>
+        <v>2359</v>
       </c>
       <c r="B1232" s="5" t="s">
         <v>2323</v>
       </c>
       <c r="C1232" s="5" t="s">
-        <v>2362</v>
+        <v>2360</v>
       </c>
       <c r="D1232" s="15"/>
       <c r="E1232" s="9"/>
@@ -44037,15 +44484,15 @@
       <c r="M1232" s="9"/>
       <c r="N1232" s="12"/>
     </row>
-    <row r="1233" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1233" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1233" s="4" t="s">
-        <v>2363</v>
+        <v>2361</v>
       </c>
       <c r="B1233" s="5" t="s">
-        <v>2364</v>
+        <v>2323</v>
       </c>
       <c r="C1233" s="5" t="s">
-        <v>2365</v>
+        <v>2362</v>
       </c>
       <c r="D1233" s="15"/>
       <c r="E1233" s="9"/>
@@ -44061,13 +44508,13 @@
     </row>
     <row r="1234" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1234" s="4" t="s">
-        <v>2366</v>
+        <v>2363</v>
       </c>
       <c r="B1234" s="5" t="s">
         <v>2364</v>
       </c>
       <c r="C1234" s="5" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="D1234" s="15"/>
       <c r="E1234" s="9"/>
@@ -44081,15 +44528,15 @@
       <c r="M1234" s="9"/>
       <c r="N1234" s="12"/>
     </row>
-    <row r="1235" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1235" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1235" s="4" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
       <c r="B1235" s="5" t="s">
         <v>2364</v>
       </c>
       <c r="C1235" s="5" t="s">
-        <v>2369</v>
+        <v>2367</v>
       </c>
       <c r="D1235" s="15"/>
       <c r="E1235" s="9"/>
@@ -44103,15 +44550,15 @@
       <c r="M1235" s="9"/>
       <c r="N1235" s="12"/>
     </row>
-    <row r="1236" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1236" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1236" s="4" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
       <c r="B1236" s="5" t="s">
         <v>2364</v>
       </c>
       <c r="C1236" s="5" t="s">
-        <v>2371</v>
+        <v>2369</v>
       </c>
       <c r="D1236" s="15"/>
       <c r="E1236" s="9"/>
@@ -44125,15 +44572,15 @@
       <c r="M1236" s="9"/>
       <c r="N1236" s="12"/>
     </row>
-    <row r="1237" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1237" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1237" s="4" t="s">
-        <v>2372</v>
+        <v>2370</v>
       </c>
       <c r="B1237" s="5" t="s">
         <v>2364</v>
       </c>
       <c r="C1237" s="5" t="s">
-        <v>2373</v>
+        <v>2371</v>
       </c>
       <c r="D1237" s="15"/>
       <c r="E1237" s="9"/>
@@ -44149,13 +44596,13 @@
     </row>
     <row r="1238" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1238" s="4" t="s">
-        <v>2374</v>
+        <v>2372</v>
       </c>
       <c r="B1238" s="5" t="s">
         <v>2364</v>
       </c>
       <c r="C1238" s="5" t="s">
-        <v>2375</v>
+        <v>2373</v>
       </c>
       <c r="D1238" s="15"/>
       <c r="E1238" s="9"/>
@@ -44171,13 +44618,13 @@
     </row>
     <row r="1239" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1239" s="4" t="s">
-        <v>2376</v>
+        <v>2374</v>
       </c>
       <c r="B1239" s="5" t="s">
         <v>2364</v>
       </c>
       <c r="C1239" s="5" t="s">
-        <v>2377</v>
+        <v>2375</v>
       </c>
       <c r="D1239" s="15"/>
       <c r="E1239" s="9"/>
@@ -44191,15 +44638,15 @@
       <c r="M1239" s="9"/>
       <c r="N1239" s="12"/>
     </row>
-    <row r="1240" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1240" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1240" s="4" t="s">
-        <v>2378</v>
+        <v>2376</v>
       </c>
       <c r="B1240" s="5" t="s">
         <v>2364</v>
       </c>
       <c r="C1240" s="5" t="s">
-        <v>2379</v>
+        <v>2377</v>
       </c>
       <c r="D1240" s="15"/>
       <c r="E1240" s="9"/>
@@ -44213,15 +44660,15 @@
       <c r="M1240" s="9"/>
       <c r="N1240" s="12"/>
     </row>
-    <row r="1241" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1241" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1241" s="4" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
       <c r="B1241" s="5" t="s">
         <v>2364</v>
       </c>
       <c r="C1241" s="5" t="s">
-        <v>2381</v>
+        <v>2379</v>
       </c>
       <c r="D1241" s="15"/>
       <c r="E1241" s="9"/>
@@ -44237,13 +44684,13 @@
     </row>
     <row r="1242" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1242" s="4" t="s">
-        <v>2382</v>
+        <v>2380</v>
       </c>
       <c r="B1242" s="5" t="s">
         <v>2364</v>
       </c>
       <c r="C1242" s="5" t="s">
-        <v>2383</v>
+        <v>2381</v>
       </c>
       <c r="D1242" s="15"/>
       <c r="E1242" s="9"/>
@@ -44259,13 +44706,13 @@
     </row>
     <row r="1243" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1243" s="4" t="s">
-        <v>2384</v>
+        <v>2382</v>
       </c>
       <c r="B1243" s="5" t="s">
         <v>2364</v>
       </c>
       <c r="C1243" s="5" t="s">
-        <v>2385</v>
+        <v>2383</v>
       </c>
       <c r="D1243" s="15"/>
       <c r="E1243" s="9"/>
@@ -44281,13 +44728,13 @@
     </row>
     <row r="1244" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1244" s="4" t="s">
-        <v>2386</v>
+        <v>2384</v>
       </c>
       <c r="B1244" s="5" t="s">
         <v>2364</v>
       </c>
       <c r="C1244" s="5" t="s">
-        <v>2387</v>
+        <v>2385</v>
       </c>
       <c r="D1244" s="15"/>
       <c r="E1244" s="9"/>
@@ -44303,13 +44750,13 @@
     </row>
     <row r="1245" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1245" s="4" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
       <c r="B1245" s="5" t="s">
         <v>2364</v>
       </c>
       <c r="C1245" s="5" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="D1245" s="15"/>
       <c r="E1245" s="9"/>
@@ -44325,13 +44772,13 @@
     </row>
     <row r="1246" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1246" s="4" t="s">
-        <v>2390</v>
+        <v>2388</v>
       </c>
       <c r="B1246" s="5" t="s">
         <v>2364</v>
       </c>
       <c r="C1246" s="5" t="s">
-        <v>2391</v>
+        <v>2389</v>
       </c>
       <c r="D1246" s="15"/>
       <c r="E1246" s="9"/>
@@ -44347,13 +44794,13 @@
     </row>
     <row r="1247" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1247" s="4" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="B1247" s="5" t="s">
         <v>2364</v>
       </c>
       <c r="C1247" s="5" t="s">
-        <v>2393</v>
+        <v>2391</v>
       </c>
       <c r="D1247" s="15"/>
       <c r="E1247" s="9"/>
@@ -44369,13 +44816,13 @@
     </row>
     <row r="1248" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1248" s="4" t="s">
-        <v>2394</v>
+        <v>2392</v>
       </c>
       <c r="B1248" s="5" t="s">
         <v>2364</v>
       </c>
       <c r="C1248" s="5" t="s">
-        <v>2395</v>
+        <v>2393</v>
       </c>
       <c r="D1248" s="15"/>
       <c r="E1248" s="9"/>
@@ -44391,13 +44838,13 @@
     </row>
     <row r="1249" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1249" s="4" t="s">
-        <v>2396</v>
+        <v>2394</v>
       </c>
       <c r="B1249" s="5" t="s">
         <v>2364</v>
       </c>
       <c r="C1249" s="5" t="s">
-        <v>2397</v>
+        <v>2395</v>
       </c>
       <c r="D1249" s="15"/>
       <c r="E1249" s="9"/>
@@ -44413,13 +44860,13 @@
     </row>
     <row r="1250" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1250" s="4" t="s">
-        <v>2398</v>
+        <v>2396</v>
       </c>
       <c r="B1250" s="5" t="s">
         <v>2364</v>
       </c>
       <c r="C1250" s="5" t="s">
-        <v>2399</v>
+        <v>2397</v>
       </c>
       <c r="D1250" s="15"/>
       <c r="E1250" s="9"/>
@@ -44435,13 +44882,13 @@
     </row>
     <row r="1251" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1251" s="4" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
       <c r="B1251" s="5" t="s">
         <v>2364</v>
       </c>
       <c r="C1251" s="5" t="s">
-        <v>2401</v>
+        <v>2399</v>
       </c>
       <c r="D1251" s="15"/>
       <c r="E1251" s="9"/>
@@ -44457,13 +44904,13 @@
     </row>
     <row r="1252" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1252" s="4" t="s">
-        <v>2402</v>
+        <v>2400</v>
       </c>
       <c r="B1252" s="5" t="s">
         <v>2364</v>
       </c>
       <c r="C1252" s="5" t="s">
-        <v>2403</v>
+        <v>2401</v>
       </c>
       <c r="D1252" s="15"/>
       <c r="E1252" s="9"/>
@@ -44479,13 +44926,13 @@
     </row>
     <row r="1253" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1253" s="4" t="s">
-        <v>2404</v>
+        <v>2402</v>
       </c>
       <c r="B1253" s="5" t="s">
-        <v>2405</v>
+        <v>2364</v>
       </c>
       <c r="C1253" s="5" t="s">
-        <v>2406</v>
+        <v>2403</v>
       </c>
       <c r="D1253" s="15"/>
       <c r="E1253" s="9"/>
@@ -44501,13 +44948,13 @@
     </row>
     <row r="1254" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1254" s="4" t="s">
-        <v>2407</v>
+        <v>2404</v>
       </c>
       <c r="B1254" s="5" t="s">
         <v>2405</v>
       </c>
       <c r="C1254" s="5" t="s">
-        <v>2408</v>
+        <v>2406</v>
       </c>
       <c r="D1254" s="15"/>
       <c r="E1254" s="9"/>
@@ -44523,13 +44970,13 @@
     </row>
     <row r="1255" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1255" s="4" t="s">
-        <v>2409</v>
+        <v>2407</v>
       </c>
       <c r="B1255" s="5" t="s">
         <v>2405</v>
       </c>
       <c r="C1255" s="5" t="s">
-        <v>2410</v>
+        <v>2408</v>
       </c>
       <c r="D1255" s="15"/>
       <c r="E1255" s="9"/>
@@ -44545,13 +44992,13 @@
     </row>
     <row r="1256" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1256" s="4" t="s">
-        <v>2411</v>
+        <v>2409</v>
       </c>
       <c r="B1256" s="5" t="s">
         <v>2405</v>
       </c>
       <c r="C1256" s="5" t="s">
-        <v>2412</v>
+        <v>2410</v>
       </c>
       <c r="D1256" s="15"/>
       <c r="E1256" s="9"/>
@@ -44567,13 +45014,13 @@
     </row>
     <row r="1257" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1257" s="4" t="s">
-        <v>2413</v>
+        <v>2411</v>
       </c>
       <c r="B1257" s="5" t="s">
         <v>2405</v>
       </c>
       <c r="C1257" s="5" t="s">
-        <v>2414</v>
+        <v>2412</v>
       </c>
       <c r="D1257" s="15"/>
       <c r="E1257" s="9"/>
@@ -44587,15 +45034,15 @@
       <c r="M1257" s="9"/>
       <c r="N1257" s="12"/>
     </row>
-    <row r="1258" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1258" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1258" s="4" t="s">
-        <v>2415</v>
+        <v>2413</v>
       </c>
       <c r="B1258" s="5" t="s">
         <v>2405</v>
       </c>
       <c r="C1258" s="5" t="s">
-        <v>2416</v>
+        <v>2414</v>
       </c>
       <c r="D1258" s="15"/>
       <c r="E1258" s="9"/>
@@ -44611,13 +45058,13 @@
     </row>
     <row r="1259" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1259" s="4" t="s">
-        <v>2417</v>
+        <v>2415</v>
       </c>
       <c r="B1259" s="5" t="s">
         <v>2405</v>
       </c>
       <c r="C1259" s="5" t="s">
-        <v>2418</v>
+        <v>2416</v>
       </c>
       <c r="D1259" s="15"/>
       <c r="E1259" s="9"/>
@@ -44631,15 +45078,15 @@
       <c r="M1259" s="9"/>
       <c r="N1259" s="12"/>
     </row>
-    <row r="1260" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1260" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1260" s="4" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
       <c r="B1260" s="5" t="s">
         <v>2405</v>
       </c>
       <c r="C1260" s="5" t="s">
-        <v>2420</v>
+        <v>2418</v>
       </c>
       <c r="D1260" s="15"/>
       <c r="E1260" s="9"/>
@@ -44655,13 +45102,13 @@
     </row>
     <row r="1261" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1261" s="4" t="s">
-        <v>2421</v>
+        <v>2419</v>
       </c>
       <c r="B1261" s="5" t="s">
         <v>2405</v>
       </c>
       <c r="C1261" s="5" t="s">
-        <v>2422</v>
+        <v>2420</v>
       </c>
       <c r="D1261" s="15"/>
       <c r="E1261" s="9"/>
@@ -44677,13 +45124,13 @@
     </row>
     <row r="1262" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1262" s="4" t="s">
-        <v>2423</v>
+        <v>2421</v>
       </c>
       <c r="B1262" s="5" t="s">
         <v>2405</v>
       </c>
       <c r="C1262" s="5" t="s">
-        <v>2424</v>
+        <v>2422</v>
       </c>
       <c r="D1262" s="15"/>
       <c r="E1262" s="9"/>
@@ -44699,13 +45146,13 @@
     </row>
     <row r="1263" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1263" s="4" t="s">
-        <v>2425</v>
+        <v>2423</v>
       </c>
       <c r="B1263" s="5" t="s">
         <v>2405</v>
       </c>
       <c r="C1263" s="5" t="s">
-        <v>2426</v>
+        <v>2424</v>
       </c>
       <c r="D1263" s="15"/>
       <c r="E1263" s="9"/>
@@ -44721,13 +45168,13 @@
     </row>
     <row r="1264" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1264" s="4" t="s">
-        <v>2427</v>
+        <v>2425</v>
       </c>
       <c r="B1264" s="5" t="s">
         <v>2405</v>
       </c>
       <c r="C1264" s="5" t="s">
-        <v>2428</v>
+        <v>2426</v>
       </c>
       <c r="D1264" s="15"/>
       <c r="E1264" s="9"/>
@@ -44743,13 +45190,13 @@
     </row>
     <row r="1265" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1265" s="4" t="s">
-        <v>2429</v>
+        <v>2427</v>
       </c>
       <c r="B1265" s="5" t="s">
         <v>2405</v>
       </c>
       <c r="C1265" s="5" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
       <c r="D1265" s="15"/>
       <c r="E1265" s="9"/>
@@ -44765,13 +45212,13 @@
     </row>
     <row r="1266" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1266" s="4" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="B1266" s="5" t="s">
         <v>2405</v>
       </c>
       <c r="C1266" s="5" t="s">
-        <v>2432</v>
+        <v>2430</v>
       </c>
       <c r="D1266" s="15"/>
       <c r="E1266" s="9"/>
@@ -44787,13 +45234,13 @@
     </row>
     <row r="1267" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1267" s="4" t="s">
-        <v>2433</v>
+        <v>2431</v>
       </c>
       <c r="B1267" s="5" t="s">
         <v>2405</v>
       </c>
       <c r="C1267" s="5" t="s">
-        <v>2434</v>
+        <v>2432</v>
       </c>
       <c r="D1267" s="15"/>
       <c r="E1267" s="9"/>
@@ -44809,13 +45256,13 @@
     </row>
     <row r="1268" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1268" s="4" t="s">
-        <v>2435</v>
+        <v>2433</v>
       </c>
       <c r="B1268" s="5" t="s">
         <v>2405</v>
       </c>
       <c r="C1268" s="5" t="s">
-        <v>2436</v>
+        <v>2434</v>
       </c>
       <c r="D1268" s="15"/>
       <c r="E1268" s="9"/>
@@ -44831,13 +45278,13 @@
     </row>
     <row r="1269" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1269" s="4" t="s">
-        <v>2437</v>
+        <v>2435</v>
       </c>
       <c r="B1269" s="5" t="s">
         <v>2405</v>
       </c>
       <c r="C1269" s="5" t="s">
-        <v>2438</v>
+        <v>2436</v>
       </c>
       <c r="D1269" s="15"/>
       <c r="E1269" s="9"/>
@@ -44853,13 +45300,13 @@
     </row>
     <row r="1270" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1270" s="4" t="s">
-        <v>2439</v>
+        <v>2437</v>
       </c>
       <c r="B1270" s="5" t="s">
         <v>2405</v>
       </c>
       <c r="C1270" s="5" t="s">
-        <v>2440</v>
+        <v>2438</v>
       </c>
       <c r="D1270" s="15"/>
       <c r="E1270" s="9"/>
@@ -44875,13 +45322,13 @@
     </row>
     <row r="1271" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1271" s="4" t="s">
-        <v>2441</v>
+        <v>2439</v>
       </c>
       <c r="B1271" s="5" t="s">
         <v>2405</v>
       </c>
       <c r="C1271" s="5" t="s">
-        <v>2442</v>
+        <v>2440</v>
       </c>
       <c r="D1271" s="15"/>
       <c r="E1271" s="9"/>
@@ -44897,13 +45344,13 @@
     </row>
     <row r="1272" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1272" s="4" t="s">
-        <v>2443</v>
+        <v>2441</v>
       </c>
       <c r="B1272" s="5" t="s">
         <v>2405</v>
       </c>
       <c r="C1272" s="5" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
       <c r="D1272" s="15"/>
       <c r="E1272" s="9"/>
@@ -44919,13 +45366,13 @@
     </row>
     <row r="1273" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1273" s="4" t="s">
-        <v>2445</v>
+        <v>2443</v>
       </c>
       <c r="B1273" s="5" t="s">
-        <v>2446</v>
+        <v>2405</v>
       </c>
       <c r="C1273" s="5" t="s">
-        <v>2447</v>
+        <v>2444</v>
       </c>
       <c r="D1273" s="15"/>
       <c r="E1273" s="9"/>
@@ -44941,13 +45388,13 @@
     </row>
     <row r="1274" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1274" s="4" t="s">
-        <v>2448</v>
+        <v>2445</v>
       </c>
       <c r="B1274" s="5" t="s">
         <v>2446</v>
       </c>
       <c r="C1274" s="5" t="s">
-        <v>2449</v>
+        <v>2447</v>
       </c>
       <c r="D1274" s="15"/>
       <c r="E1274" s="9"/>
@@ -44963,13 +45410,13 @@
     </row>
     <row r="1275" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1275" s="4" t="s">
-        <v>2450</v>
+        <v>2448</v>
       </c>
       <c r="B1275" s="5" t="s">
         <v>2446</v>
       </c>
       <c r="C1275" s="5" t="s">
-        <v>2451</v>
+        <v>2449</v>
       </c>
       <c r="D1275" s="15"/>
       <c r="E1275" s="9"/>
@@ -44985,13 +45432,13 @@
     </row>
     <row r="1276" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1276" s="4" t="s">
-        <v>2452</v>
+        <v>2450</v>
       </c>
       <c r="B1276" s="5" t="s">
         <v>2446</v>
       </c>
       <c r="C1276" s="5" t="s">
-        <v>2453</v>
+        <v>2451</v>
       </c>
       <c r="D1276" s="15"/>
       <c r="E1276" s="9"/>
@@ -45007,13 +45454,13 @@
     </row>
     <row r="1277" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1277" s="4" t="s">
-        <v>2454</v>
+        <v>2452</v>
       </c>
       <c r="B1277" s="5" t="s">
         <v>2446</v>
       </c>
       <c r="C1277" s="5" t="s">
-        <v>2455</v>
+        <v>2453</v>
       </c>
       <c r="D1277" s="15"/>
       <c r="E1277" s="9"/>
@@ -45029,13 +45476,13 @@
     </row>
     <row r="1278" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1278" s="4" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B1278" s="5" t="s">
         <v>2446</v>
       </c>
       <c r="C1278" s="5" t="s">
-        <v>2457</v>
+        <v>2455</v>
       </c>
       <c r="D1278" s="15"/>
       <c r="E1278" s="9"/>
@@ -45051,13 +45498,13 @@
     </row>
     <row r="1279" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1279" s="4" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
       <c r="B1279" s="5" t="s">
         <v>2446</v>
       </c>
       <c r="C1279" s="5" t="s">
-        <v>2459</v>
+        <v>2457</v>
       </c>
       <c r="D1279" s="15"/>
       <c r="E1279" s="9"/>
@@ -45073,13 +45520,13 @@
     </row>
     <row r="1280" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1280" s="4" t="s">
-        <v>2460</v>
+        <v>2458</v>
       </c>
       <c r="B1280" s="5" t="s">
         <v>2446</v>
       </c>
       <c r="C1280" s="5" t="s">
-        <v>2461</v>
+        <v>2459</v>
       </c>
       <c r="D1280" s="15"/>
       <c r="E1280" s="9"/>
@@ -45093,15 +45540,15 @@
       <c r="M1280" s="9"/>
       <c r="N1280" s="12"/>
     </row>
-    <row r="1281" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1281" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1281" s="4" t="s">
-        <v>2462</v>
+        <v>2460</v>
       </c>
       <c r="B1281" s="5" t="s">
         <v>2446</v>
       </c>
       <c r="C1281" s="5" t="s">
-        <v>2463</v>
+        <v>2461</v>
       </c>
       <c r="D1281" s="15"/>
       <c r="E1281" s="9"/>
@@ -45117,13 +45564,13 @@
     </row>
     <row r="1282" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1282" s="4" t="s">
-        <v>2464</v>
+        <v>2462</v>
       </c>
       <c r="B1282" s="5" t="s">
         <v>2446</v>
       </c>
       <c r="C1282" s="5" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="D1282" s="15"/>
       <c r="E1282" s="9"/>
@@ -45137,15 +45584,15 @@
       <c r="M1282" s="9"/>
       <c r="N1282" s="12"/>
     </row>
-    <row r="1283" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1283" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1283" s="4" t="s">
-        <v>2466</v>
+        <v>2464</v>
       </c>
       <c r="B1283" s="5" t="s">
         <v>2446</v>
       </c>
       <c r="C1283" s="5" t="s">
-        <v>2467</v>
+        <v>2465</v>
       </c>
       <c r="D1283" s="15"/>
       <c r="E1283" s="9"/>
@@ -45161,13 +45608,13 @@
     </row>
     <row r="1284" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1284" s="4" t="s">
-        <v>2468</v>
+        <v>2466</v>
       </c>
       <c r="B1284" s="5" t="s">
         <v>2446</v>
       </c>
       <c r="C1284" s="5" t="s">
-        <v>2469</v>
+        <v>2467</v>
       </c>
       <c r="D1284" s="15"/>
       <c r="E1284" s="9"/>
@@ -45183,13 +45630,13 @@
     </row>
     <row r="1285" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1285" s="4" t="s">
-        <v>2470</v>
+        <v>2468</v>
       </c>
       <c r="B1285" s="5" t="s">
         <v>2446</v>
       </c>
       <c r="C1285" s="5" t="s">
-        <v>2471</v>
+        <v>2469</v>
       </c>
       <c r="D1285" s="15"/>
       <c r="E1285" s="9"/>
@@ -45205,13 +45652,13 @@
     </row>
     <row r="1286" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1286" s="4" t="s">
-        <v>2472</v>
+        <v>2470</v>
       </c>
       <c r="B1286" s="5" t="s">
         <v>2446</v>
       </c>
       <c r="C1286" s="5" t="s">
-        <v>2473</v>
+        <v>2471</v>
       </c>
       <c r="D1286" s="15"/>
       <c r="E1286" s="9"/>
@@ -45225,15 +45672,15 @@
       <c r="M1286" s="9"/>
       <c r="N1286" s="12"/>
     </row>
-    <row r="1287" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1287" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1287" s="4" t="s">
-        <v>2474</v>
+        <v>2472</v>
       </c>
       <c r="B1287" s="5" t="s">
         <v>2446</v>
       </c>
       <c r="C1287" s="5" t="s">
-        <v>2475</v>
+        <v>2473</v>
       </c>
       <c r="D1287" s="15"/>
       <c r="E1287" s="9"/>
@@ -45247,15 +45694,15 @@
       <c r="M1287" s="9"/>
       <c r="N1287" s="12"/>
     </row>
-    <row r="1288" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1288" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1288" s="4" t="s">
-        <v>2476</v>
+        <v>2474</v>
       </c>
       <c r="B1288" s="5" t="s">
         <v>2446</v>
       </c>
       <c r="C1288" s="5" t="s">
-        <v>2477</v>
+        <v>2475</v>
       </c>
       <c r="D1288" s="15"/>
       <c r="E1288" s="9"/>
@@ -45271,13 +45718,13 @@
     </row>
     <row r="1289" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1289" s="4" t="s">
-        <v>2478</v>
+        <v>2476</v>
       </c>
       <c r="B1289" s="5" t="s">
         <v>2446</v>
       </c>
       <c r="C1289" s="5" t="s">
-        <v>2479</v>
+        <v>2477</v>
       </c>
       <c r="D1289" s="15"/>
       <c r="E1289" s="9"/>
@@ -45291,15 +45738,15 @@
       <c r="M1289" s="9"/>
       <c r="N1289" s="12"/>
     </row>
-    <row r="1290" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1290" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1290" s="4" t="s">
-        <v>2480</v>
+        <v>2478</v>
       </c>
       <c r="B1290" s="5" t="s">
         <v>2446</v>
       </c>
       <c r="C1290" s="5" t="s">
-        <v>2481</v>
+        <v>2479</v>
       </c>
       <c r="D1290" s="15"/>
       <c r="E1290" s="9"/>
@@ -45313,15 +45760,15 @@
       <c r="M1290" s="9"/>
       <c r="N1290" s="12"/>
     </row>
-    <row r="1291" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1291" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1291" s="4" t="s">
-        <v>2482</v>
+        <v>2480</v>
       </c>
       <c r="B1291" s="5" t="s">
         <v>2446</v>
       </c>
       <c r="C1291" s="5" t="s">
-        <v>2483</v>
+        <v>2481</v>
       </c>
       <c r="D1291" s="15"/>
       <c r="E1291" s="9"/>
@@ -45336,26 +45783,48 @@
       <c r="N1291" s="12"/>
     </row>
     <row r="1292" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A1292" s="6" t="s">
+      <c r="A1292" s="4" t="s">
+        <v>2482</v>
+      </c>
+      <c r="B1292" s="5" t="s">
+        <v>2446</v>
+      </c>
+      <c r="C1292" s="5" t="s">
+        <v>2483</v>
+      </c>
+      <c r="D1292" s="15"/>
+      <c r="E1292" s="9"/>
+      <c r="F1292" s="9"/>
+      <c r="G1292" s="9"/>
+      <c r="H1292" s="9"/>
+      <c r="I1292" s="9"/>
+      <c r="J1292" s="9"/>
+      <c r="K1292" s="9"/>
+      <c r="L1292" s="9"/>
+      <c r="M1292" s="9"/>
+      <c r="N1292" s="12"/>
+    </row>
+    <row r="1293" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A1293" s="6" t="s">
         <v>2484</v>
       </c>
-      <c r="B1292" s="7" t="s">
+      <c r="B1293" s="7" t="s">
         <v>2446</v>
       </c>
-      <c r="C1292" s="7" t="s">
+      <c r="C1293" s="7" t="s">
         <v>2485</v>
       </c>
-      <c r="D1292" s="17"/>
-      <c r="E1292" s="13"/>
-      <c r="F1292" s="13"/>
-      <c r="G1292" s="13"/>
-      <c r="H1292" s="13"/>
-      <c r="I1292" s="13"/>
-      <c r="J1292" s="13"/>
-      <c r="K1292" s="13"/>
-      <c r="L1292" s="13"/>
-      <c r="M1292" s="13"/>
-      <c r="N1292" s="14"/>
+      <c r="D1293" s="17"/>
+      <c r="E1293" s="13"/>
+      <c r="F1293" s="13"/>
+      <c r="G1293" s="13"/>
+      <c r="H1293" s="13"/>
+      <c r="I1293" s="13"/>
+      <c r="J1293" s="13"/>
+      <c r="K1293" s="13"/>
+      <c r="L1293" s="13"/>
+      <c r="M1293" s="13"/>
+      <c r="N1293" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/longsor/v02_new/sample_longsor_anotasi_v02_new.xlsx.xlsx
+++ b/longsor/v02_new/sample_longsor_anotasi_v02_new.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dharmapu\Documents\personal\ui\KA-AMSD_src\paper-submission\anotated_data\longsor\v02_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA31D7E0-DC34-4B65-A210-6B0C3DC181AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA6C21E-55AC-42C3-AC6A-8D5FD2011AA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6771" uniqueCount="3331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7008" uniqueCount="3393">
   <si>
     <t>id</t>
   </si>
@@ -10026,6 +10026,192 @@
   </si>
   <si>
     <t>Belasan rumah rusak akibat longsor</t>
+  </si>
+  <si>
+    <t>Nagrak</t>
+  </si>
+  <si>
+    <t>Girijaya</t>
+  </si>
+  <si>
+    <t>2019-01-13</t>
+  </si>
+  <si>
+    <t>Longsor mengakibatkan kerugian pada masyarakat</t>
+  </si>
+  <si>
+    <t>Sumatera Baratr</t>
+  </si>
+  <si>
+    <t>Limapuluh Kota</t>
+  </si>
+  <si>
+    <t>Koto Alam</t>
+  </si>
+  <si>
+    <t>Longsor menutup akses evakuasi korban banjir</t>
+  </si>
+  <si>
+    <t>XIII Koto Kampar</t>
+  </si>
+  <si>
+    <t>Desa Tanjung Alai</t>
+  </si>
+  <si>
+    <t>2019-12-22</t>
+  </si>
+  <si>
+    <t>Indragiri Hilir</t>
+  </si>
+  <si>
+    <t>Tanah Merah</t>
+  </si>
+  <si>
+    <t>2016-05-26</t>
+  </si>
+  <si>
+    <t>Sijunjung</t>
+  </si>
+  <si>
+    <t>Sumpur Kudus</t>
+  </si>
+  <si>
+    <t>2018-11-03</t>
+  </si>
+  <si>
+    <t>2020-01-02</t>
+  </si>
+  <si>
+    <t>Sintang</t>
+  </si>
+  <si>
+    <t>Kayan Hulu</t>
+  </si>
+  <si>
+    <t>Desa Entogong</t>
+  </si>
+  <si>
+    <t>2017-10-11</t>
+  </si>
+  <si>
+    <t>Melawi</t>
+  </si>
+  <si>
+    <t>Belimbing</t>
+  </si>
+  <si>
+    <t>Desa Pada</t>
+  </si>
+  <si>
+    <t>2019-03-01</t>
+  </si>
+  <si>
+    <t>Desa Pattakilang</t>
+  </si>
+  <si>
+    <t>Longsor mengakibatkan adanya korban meninggal</t>
+  </si>
+  <si>
+    <t>Longsor mengakibatkan banyak korban jiwa</t>
+  </si>
+  <si>
+    <t>Karanganyar</t>
+  </si>
+  <si>
+    <t>Tasikmadu</t>
+  </si>
+  <si>
+    <t>Desa Kaling</t>
+  </si>
+  <si>
+    <t>2018-03-11</t>
+  </si>
+  <si>
+    <t>Wonogiri</t>
+  </si>
+  <si>
+    <t>Kismantoro</t>
+  </si>
+  <si>
+    <t>Desa Lemahbang</t>
+  </si>
+  <si>
+    <t>2019-03-07</t>
+  </si>
+  <si>
+    <t>Longsor mengakibatkan korbang meninggal</t>
+  </si>
+  <si>
+    <t>Sidomulyo</t>
+  </si>
+  <si>
+    <t>2018-12-07 &gt; 2018-12-08</t>
+  </si>
+  <si>
+    <t>Karangpandan</t>
+  </si>
+  <si>
+    <t>Bulurejo</t>
+  </si>
+  <si>
+    <t>2016-11-28</t>
+  </si>
+  <si>
+    <t>Kebunagung</t>
+  </si>
+  <si>
+    <t>Desa Sidomulyo</t>
+  </si>
+  <si>
+    <t>Sulawesi Barat</t>
+  </si>
+  <si>
+    <t>Mamasa</t>
+  </si>
+  <si>
+    <t>Tawalian</t>
+  </si>
+  <si>
+    <t>Desa Karianggo</t>
+  </si>
+  <si>
+    <t>2020-02-17</t>
+  </si>
+  <si>
+    <t>Mamuju</t>
+  </si>
+  <si>
+    <t>Kalukku</t>
+  </si>
+  <si>
+    <t>Bebanga</t>
+  </si>
+  <si>
+    <t>2019-02-28</t>
+  </si>
+  <si>
+    <t>Longsor menutup akses jalan wilayah terdampak bencan banjir</t>
+  </si>
+  <si>
+    <t>Desa Buntu Buda</t>
+  </si>
+  <si>
+    <t>Sumamorong</t>
+  </si>
+  <si>
+    <t>Nosu</t>
+  </si>
+  <si>
+    <t>Longsor menutup akses jalan antar kecamatan</t>
+  </si>
+  <si>
+    <t>Mamuju Tengah</t>
+  </si>
+  <si>
+    <t>Tobadak</t>
+  </si>
+  <si>
+    <t>Desa Sejati</t>
   </si>
 </sst>
 </file>
@@ -10846,6 +11032,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -10884,13 +11077,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -10941,8 +11127,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0DB818F3-68FE-4235-A92A-982B534C89A1}" name="Table1" displayName="Table1" ref="A1:N1293" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
-  <autoFilter ref="A1:N1293" xr:uid="{E26000C0-D27A-4574-8416-42E327D73F8C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0DB818F3-68FE-4235-A92A-982B534C89A1}" name="Table1" displayName="Table1" ref="A1:N1294" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16" totalsRowBorderDxfId="14">
+  <autoFilter ref="A1:N1294" xr:uid="{E26000C0-D27A-4574-8416-42E327D73F8C}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{17AA4DAC-27F4-4010-A247-C81F3A237DE9}" name="id" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{CDBBE364-4975-4FCF-BE54-5961EC656206}" name="source" dataDxfId="12"/>
@@ -11226,10 +11412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1293"/>
+  <dimension ref="A1:N1294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A987" workbookViewId="0">
-      <selection activeCell="D998" sqref="D998"/>
+    <sheetView tabSelected="1" topLeftCell="A1076" workbookViewId="0">
+      <selection activeCell="D1095" sqref="D1095"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39346,17 +39532,31 @@
       <c r="C999" s="5" t="s">
         <v>1895</v>
       </c>
-      <c r="D999" s="15"/>
-      <c r="E999" s="9"/>
-      <c r="F999" s="9"/>
-      <c r="G999" s="9"/>
-      <c r="H999" s="9"/>
-      <c r="I999" s="9"/>
+      <c r="D999" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E999" s="10" t="s">
+        <v>3333</v>
+      </c>
+      <c r="F999" s="9" t="s">
+        <v>2588</v>
+      </c>
+      <c r="G999" s="9" t="s">
+        <v>2680</v>
+      </c>
+      <c r="H999" s="9" t="s">
+        <v>3331</v>
+      </c>
+      <c r="I999" s="9" t="s">
+        <v>3332</v>
+      </c>
       <c r="J999" s="9"/>
       <c r="K999" s="9"/>
       <c r="L999" s="9"/>
       <c r="M999" s="9"/>
-      <c r="N999" s="12"/>
+      <c r="N999" s="12" t="s">
+        <v>3334</v>
+      </c>
     </row>
     <row r="1000" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1000" s="4" t="s">
@@ -39368,17 +39568,31 @@
       <c r="C1000" s="5" t="s">
         <v>1897</v>
       </c>
-      <c r="D1000" s="15"/>
-      <c r="E1000" s="9"/>
-      <c r="F1000" s="9"/>
-      <c r="G1000" s="9"/>
-      <c r="H1000" s="9"/>
-      <c r="I1000" s="9"/>
+      <c r="D1000" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1000" s="9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="F1000" s="9" t="s">
+        <v>3335</v>
+      </c>
+      <c r="G1000" s="9" t="s">
+        <v>3336</v>
+      </c>
+      <c r="H1000" s="9" t="s">
+        <v>3036</v>
+      </c>
+      <c r="I1000" s="9" t="s">
+        <v>3337</v>
+      </c>
       <c r="J1000" s="9"/>
       <c r="K1000" s="9"/>
       <c r="L1000" s="9"/>
       <c r="M1000" s="9"/>
-      <c r="N1000" s="12"/>
+      <c r="N1000" s="12" t="s">
+        <v>3338</v>
+      </c>
     </row>
     <row r="1001" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1001" s="4" t="s">
@@ -39390,7 +39604,9 @@
       <c r="C1001" s="5" t="s">
         <v>1899</v>
       </c>
-      <c r="D1001" s="15"/>
+      <c r="D1001" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1001" s="9"/>
       <c r="F1001" s="9"/>
       <c r="G1001" s="9"/>
@@ -39412,7 +39628,9 @@
       <c r="C1002" s="5" t="s">
         <v>1901</v>
       </c>
-      <c r="D1002" s="15"/>
+      <c r="D1002" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1002" s="9"/>
       <c r="F1002" s="9"/>
       <c r="G1002" s="9"/>
@@ -39434,7 +39652,9 @@
       <c r="C1003" s="5" t="s">
         <v>1903</v>
       </c>
-      <c r="D1003" s="15"/>
+      <c r="D1003" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1003" s="9"/>
       <c r="F1003" s="9"/>
       <c r="G1003" s="9"/>
@@ -39456,7 +39676,9 @@
       <c r="C1004" s="5" t="s">
         <v>1905</v>
       </c>
-      <c r="D1004" s="15"/>
+      <c r="D1004" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1004" s="9"/>
       <c r="F1004" s="9"/>
       <c r="G1004" s="9"/>
@@ -39478,17 +39700,31 @@
       <c r="C1005" s="5" t="s">
         <v>1907</v>
       </c>
-      <c r="D1005" s="15"/>
-      <c r="E1005" s="9"/>
-      <c r="F1005" s="9"/>
-      <c r="G1005" s="9"/>
-      <c r="H1005" s="9"/>
-      <c r="I1005" s="9"/>
+      <c r="D1005" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1005" s="10" t="s">
+        <v>3341</v>
+      </c>
+      <c r="F1005" s="9" t="s">
+        <v>3325</v>
+      </c>
+      <c r="G1005" s="9" t="s">
+        <v>3326</v>
+      </c>
+      <c r="H1005" s="9" t="s">
+        <v>3339</v>
+      </c>
+      <c r="I1005" s="9" t="s">
+        <v>3340</v>
+      </c>
       <c r="J1005" s="9"/>
       <c r="K1005" s="9"/>
       <c r="L1005" s="9"/>
       <c r="M1005" s="9"/>
-      <c r="N1005" s="12"/>
+      <c r="N1005" s="12" t="s">
+        <v>2730</v>
+      </c>
     </row>
     <row r="1006" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1006" s="4" t="s">
@@ -39500,7 +39736,9 @@
       <c r="C1006" s="5" t="s">
         <v>1909</v>
       </c>
-      <c r="D1006" s="15"/>
+      <c r="D1006" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1006" s="9"/>
       <c r="F1006" s="9"/>
       <c r="G1006" s="9"/>
@@ -39522,7 +39760,9 @@
       <c r="C1007" s="5" t="s">
         <v>1911</v>
       </c>
-      <c r="D1007" s="15"/>
+      <c r="D1007" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1007" s="9"/>
       <c r="F1007" s="9"/>
       <c r="G1007" s="9"/>
@@ -39544,7 +39784,9 @@
       <c r="C1008" s="5" t="s">
         <v>1913</v>
       </c>
-      <c r="D1008" s="15"/>
+      <c r="D1008" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1008" s="9"/>
       <c r="F1008" s="9"/>
       <c r="G1008" s="9"/>
@@ -39566,17 +39808,33 @@
       <c r="C1009" s="5" t="s">
         <v>1915</v>
       </c>
-      <c r="D1009" s="15"/>
-      <c r="E1009" s="9"/>
-      <c r="F1009" s="9"/>
-      <c r="G1009" s="9"/>
-      <c r="H1009" s="9"/>
-      <c r="I1009" s="9"/>
+      <c r="D1009" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1009" s="10" t="s">
+        <v>3344</v>
+      </c>
+      <c r="F1009" s="9" t="s">
+        <v>3325</v>
+      </c>
+      <c r="G1009" s="9" t="s">
+        <v>3342</v>
+      </c>
+      <c r="H1009" s="9" t="s">
+        <v>3343</v>
+      </c>
+      <c r="I1009" s="9" t="s">
+        <v>3343</v>
+      </c>
       <c r="J1009" s="9"/>
       <c r="K1009" s="9"/>
       <c r="L1009" s="9"/>
-      <c r="M1009" s="9"/>
-      <c r="N1009" s="12"/>
+      <c r="M1009" s="9">
+        <v>4</v>
+      </c>
+      <c r="N1009" s="12" t="s">
+        <v>2605</v>
+      </c>
     </row>
     <row r="1010" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1010" s="4" t="s">
@@ -39588,7 +39846,9 @@
       <c r="C1010" s="5" t="s">
         <v>1917</v>
       </c>
-      <c r="D1010" s="15"/>
+      <c r="D1010" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1010" s="9"/>
       <c r="F1010" s="9"/>
       <c r="G1010" s="9"/>
@@ -39610,7 +39870,9 @@
       <c r="C1011" s="5" t="s">
         <v>1919</v>
       </c>
-      <c r="D1011" s="15"/>
+      <c r="D1011" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1011" s="9"/>
       <c r="F1011" s="9"/>
       <c r="G1011" s="9"/>
@@ -39632,17 +39894,31 @@
       <c r="C1012" s="5" t="s">
         <v>1921</v>
       </c>
-      <c r="D1012" s="15"/>
-      <c r="E1012" s="9"/>
-      <c r="F1012" s="9"/>
-      <c r="G1012" s="9"/>
-      <c r="H1012" s="9"/>
-      <c r="I1012" s="9"/>
+      <c r="D1012" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1012" s="10" t="s">
+        <v>3347</v>
+      </c>
+      <c r="F1012" s="9" t="s">
+        <v>2924</v>
+      </c>
+      <c r="G1012" s="9" t="s">
+        <v>3345</v>
+      </c>
+      <c r="H1012" s="9" t="s">
+        <v>3346</v>
+      </c>
+      <c r="I1012" s="9" t="s">
+        <v>2497</v>
+      </c>
       <c r="J1012" s="9"/>
       <c r="K1012" s="9"/>
       <c r="L1012" s="9"/>
       <c r="M1012" s="9"/>
-      <c r="N1012" s="12"/>
+      <c r="N1012" s="12" t="s">
+        <v>2730</v>
+      </c>
     </row>
     <row r="1013" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1013" s="4" t="s">
@@ -39654,7 +39930,9 @@
       <c r="C1013" s="5" t="s">
         <v>1923</v>
       </c>
-      <c r="D1013" s="15"/>
+      <c r="D1013" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1013" s="9"/>
       <c r="F1013" s="9"/>
       <c r="G1013" s="9"/>
@@ -39676,7 +39954,9 @@
       <c r="C1014" s="5" t="s">
         <v>1926</v>
       </c>
-      <c r="D1014" s="15"/>
+      <c r="D1014" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1014" s="9"/>
       <c r="F1014" s="9"/>
       <c r="G1014" s="9"/>
@@ -39698,17 +39978,33 @@
       <c r="C1015" s="5" t="s">
         <v>1928</v>
       </c>
-      <c r="D1015" s="15"/>
-      <c r="E1015" s="9"/>
-      <c r="F1015" s="9"/>
-      <c r="G1015" s="9"/>
-      <c r="H1015" s="9"/>
-      <c r="I1015" s="9"/>
+      <c r="D1015" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1015" s="10" t="s">
+        <v>3348</v>
+      </c>
+      <c r="F1015" s="9" t="s">
+        <v>3016</v>
+      </c>
+      <c r="G1015" s="9" t="s">
+        <v>3025</v>
+      </c>
+      <c r="H1015" s="9" t="s">
+        <v>3026</v>
+      </c>
+      <c r="I1015" s="9" t="s">
+        <v>3027</v>
+      </c>
       <c r="J1015" s="9"/>
       <c r="K1015" s="9"/>
       <c r="L1015" s="9"/>
-      <c r="M1015" s="9"/>
-      <c r="N1015" s="12"/>
+      <c r="M1015" s="9">
+        <v>2</v>
+      </c>
+      <c r="N1015" s="12" t="s">
+        <v>2605</v>
+      </c>
     </row>
     <row r="1016" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1016" s="4" t="s">
@@ -39720,7 +40016,9 @@
       <c r="C1016" s="5" t="s">
         <v>1930</v>
       </c>
-      <c r="D1016" s="15"/>
+      <c r="D1016" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1016" s="9"/>
       <c r="F1016" s="9"/>
       <c r="G1016" s="9"/>
@@ -39742,17 +40040,31 @@
       <c r="C1017" s="5" t="s">
         <v>1932</v>
       </c>
-      <c r="D1017" s="15"/>
-      <c r="E1017" s="9"/>
-      <c r="F1017" s="9"/>
-      <c r="G1017" s="9"/>
-      <c r="H1017" s="9"/>
-      <c r="I1017" s="9"/>
+      <c r="D1017" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1017" s="10" t="s">
+        <v>3352</v>
+      </c>
+      <c r="F1017" s="9" t="s">
+        <v>3016</v>
+      </c>
+      <c r="G1017" s="9" t="s">
+        <v>3349</v>
+      </c>
+      <c r="H1017" s="9" t="s">
+        <v>3350</v>
+      </c>
+      <c r="I1017" s="9" t="s">
+        <v>3351</v>
+      </c>
       <c r="J1017" s="9"/>
       <c r="K1017" s="9"/>
       <c r="L1017" s="9"/>
       <c r="M1017" s="9"/>
-      <c r="N1017" s="12"/>
+      <c r="N1017" s="12" t="s">
+        <v>2546</v>
+      </c>
     </row>
     <row r="1018" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1018" s="4" t="s">
@@ -39764,7 +40076,9 @@
       <c r="C1018" s="5" t="s">
         <v>1934</v>
       </c>
-      <c r="D1018" s="15"/>
+      <c r="D1018" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1018" s="9"/>
       <c r="F1018" s="9"/>
       <c r="G1018" s="9"/>
@@ -39786,7 +40100,9 @@
       <c r="C1019" s="5" t="s">
         <v>1936</v>
       </c>
-      <c r="D1019" s="15"/>
+      <c r="D1019" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1019" s="9"/>
       <c r="F1019" s="9"/>
       <c r="G1019" s="9"/>
@@ -39808,7 +40124,9 @@
       <c r="C1020" s="5" t="s">
         <v>1938</v>
       </c>
-      <c r="D1020" s="15"/>
+      <c r="D1020" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1020" s="9"/>
       <c r="F1020" s="9"/>
       <c r="G1020" s="9"/>
@@ -39830,7 +40148,9 @@
       <c r="C1021" s="5" t="s">
         <v>1940</v>
       </c>
-      <c r="D1021" s="15"/>
+      <c r="D1021" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1021" s="9"/>
       <c r="F1021" s="9"/>
       <c r="G1021" s="9"/>
@@ -39852,7 +40172,9 @@
       <c r="C1022" s="5" t="s">
         <v>1942</v>
       </c>
-      <c r="D1022" s="15"/>
+      <c r="D1022" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1022" s="9"/>
       <c r="F1022" s="9"/>
       <c r="G1022" s="9"/>
@@ -39874,7 +40196,9 @@
       <c r="C1023" s="5" t="s">
         <v>1944</v>
       </c>
-      <c r="D1023" s="15"/>
+      <c r="D1023" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1023" s="9"/>
       <c r="F1023" s="9"/>
       <c r="G1023" s="9"/>
@@ -39896,7 +40220,9 @@
       <c r="C1024" s="5" t="s">
         <v>1946</v>
       </c>
-      <c r="D1024" s="15"/>
+      <c r="D1024" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1024" s="9"/>
       <c r="F1024" s="9"/>
       <c r="G1024" s="9"/>
@@ -39918,7 +40244,9 @@
       <c r="C1025" s="5" t="s">
         <v>1948</v>
       </c>
-      <c r="D1025" s="15"/>
+      <c r="D1025" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1025" s="9"/>
       <c r="F1025" s="9"/>
       <c r="G1025" s="9"/>
@@ -39940,7 +40268,9 @@
       <c r="C1026" s="5" t="s">
         <v>1950</v>
       </c>
-      <c r="D1026" s="15"/>
+      <c r="D1026" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1026" s="9"/>
       <c r="F1026" s="9"/>
       <c r="G1026" s="9"/>
@@ -39962,7 +40292,9 @@
       <c r="C1027" s="5" t="s">
         <v>1952</v>
       </c>
-      <c r="D1027" s="15"/>
+      <c r="D1027" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1027" s="9"/>
       <c r="F1027" s="9"/>
       <c r="G1027" s="9"/>
@@ -39984,7 +40316,9 @@
       <c r="C1028" s="5" t="s">
         <v>1954</v>
       </c>
-      <c r="D1028" s="15"/>
+      <c r="D1028" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1028" s="9"/>
       <c r="F1028" s="9"/>
       <c r="G1028" s="9"/>
@@ -40006,17 +40340,31 @@
       <c r="C1029" s="5" t="s">
         <v>1956</v>
       </c>
-      <c r="D1029" s="15"/>
-      <c r="E1029" s="9"/>
-      <c r="F1029" s="9"/>
-      <c r="G1029" s="9"/>
-      <c r="H1029" s="9"/>
-      <c r="I1029" s="9"/>
+      <c r="D1029" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1029" s="10" t="s">
+        <v>3356</v>
+      </c>
+      <c r="F1029" s="9" t="s">
+        <v>3016</v>
+      </c>
+      <c r="G1029" s="9" t="s">
+        <v>3353</v>
+      </c>
+      <c r="H1029" s="9" t="s">
+        <v>3354</v>
+      </c>
+      <c r="I1029" s="9" t="s">
+        <v>3355</v>
+      </c>
       <c r="J1029" s="9"/>
       <c r="K1029" s="9"/>
       <c r="L1029" s="9"/>
       <c r="M1029" s="9"/>
-      <c r="N1029" s="12"/>
+      <c r="N1029" s="12" t="s">
+        <v>2730</v>
+      </c>
     </row>
     <row r="1030" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1030" s="4" t="s">
@@ -40028,17 +40376,33 @@
       <c r="C1030" s="5" t="s">
         <v>1958</v>
       </c>
-      <c r="D1030" s="15"/>
-      <c r="E1030" s="9"/>
-      <c r="F1030" s="9"/>
-      <c r="G1030" s="9"/>
-      <c r="H1030" s="9"/>
-      <c r="I1030" s="9"/>
-      <c r="J1030" s="9"/>
+      <c r="D1030" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1030" s="10" t="s">
+        <v>2707</v>
+      </c>
+      <c r="F1030" s="9" t="s">
+        <v>2653</v>
+      </c>
+      <c r="G1030" s="9" t="s">
+        <v>2703</v>
+      </c>
+      <c r="H1030" s="9" t="s">
+        <v>3254</v>
+      </c>
+      <c r="I1030" s="9" t="s">
+        <v>3357</v>
+      </c>
+      <c r="J1030" s="9">
+        <v>29</v>
+      </c>
       <c r="K1030" s="9"/>
       <c r="L1030" s="9"/>
       <c r="M1030" s="9"/>
-      <c r="N1030" s="12"/>
+      <c r="N1030" s="12" t="s">
+        <v>3358</v>
+      </c>
     </row>
     <row r="1031" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1031" s="4" t="s">
@@ -40050,7 +40414,9 @@
       <c r="C1031" s="5" t="s">
         <v>1960</v>
       </c>
-      <c r="D1031" s="15"/>
+      <c r="D1031" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1031" s="9"/>
       <c r="F1031" s="9"/>
       <c r="G1031" s="9"/>
@@ -40072,7 +40438,9 @@
       <c r="C1032" s="5" t="s">
         <v>1962</v>
       </c>
-      <c r="D1032" s="15"/>
+      <c r="D1032" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1032" s="9"/>
       <c r="F1032" s="9"/>
       <c r="G1032" s="9"/>
@@ -40094,7 +40462,9 @@
       <c r="C1033" s="5" t="s">
         <v>1964</v>
       </c>
-      <c r="D1033" s="15"/>
+      <c r="D1033" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1033" s="9"/>
       <c r="F1033" s="9"/>
       <c r="G1033" s="9"/>
@@ -40116,17 +40486,31 @@
       <c r="C1034" s="5" t="s">
         <v>1967</v>
       </c>
-      <c r="D1034" s="15"/>
-      <c r="E1034" s="9"/>
-      <c r="F1034" s="9"/>
-      <c r="G1034" s="9"/>
-      <c r="H1034" s="9"/>
-      <c r="I1034" s="9"/>
+      <c r="D1034" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1034" s="10" t="s">
+        <v>2987</v>
+      </c>
+      <c r="F1034" s="9" t="s">
+        <v>2685</v>
+      </c>
+      <c r="G1034" s="9" t="s">
+        <v>2686</v>
+      </c>
+      <c r="H1034" s="9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="I1034" s="9" t="s">
+        <v>2497</v>
+      </c>
       <c r="J1034" s="9"/>
       <c r="K1034" s="9"/>
       <c r="L1034" s="9"/>
       <c r="M1034" s="9"/>
-      <c r="N1034" s="12"/>
+      <c r="N1034" s="12" t="s">
+        <v>3359</v>
+      </c>
     </row>
     <row r="1035" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1035" s="4" t="s">
@@ -40138,7 +40522,9 @@
       <c r="C1035" s="5" t="s">
         <v>1969</v>
       </c>
-      <c r="D1035" s="15"/>
+      <c r="D1035" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1035" s="9"/>
       <c r="F1035" s="9"/>
       <c r="G1035" s="9"/>
@@ -40160,7 +40546,9 @@
       <c r="C1036" s="5" t="s">
         <v>1971</v>
       </c>
-      <c r="D1036" s="15"/>
+      <c r="D1036" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1036" s="9"/>
       <c r="F1036" s="9"/>
       <c r="G1036" s="9"/>
@@ -40182,7 +40570,9 @@
       <c r="C1037" s="5" t="s">
         <v>1973</v>
       </c>
-      <c r="D1037" s="15"/>
+      <c r="D1037" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1037" s="9"/>
       <c r="F1037" s="9"/>
       <c r="G1037" s="9"/>
@@ -40204,17 +40594,31 @@
       <c r="C1038" s="5" t="s">
         <v>1975</v>
       </c>
-      <c r="D1038" s="15"/>
-      <c r="E1038" s="9"/>
-      <c r="F1038" s="9"/>
-      <c r="G1038" s="9"/>
-      <c r="H1038" s="9"/>
-      <c r="I1038" s="9"/>
+      <c r="D1038" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1038" s="10" t="s">
+        <v>3363</v>
+      </c>
+      <c r="F1038" s="9" t="s">
+        <v>2685</v>
+      </c>
+      <c r="G1038" s="9" t="s">
+        <v>3360</v>
+      </c>
+      <c r="H1038" s="9" t="s">
+        <v>3361</v>
+      </c>
+      <c r="I1038" s="9" t="s">
+        <v>3362</v>
+      </c>
       <c r="J1038" s="9"/>
       <c r="K1038" s="9"/>
       <c r="L1038" s="9"/>
       <c r="M1038" s="9"/>
-      <c r="N1038" s="12"/>
+      <c r="N1038" s="12" t="s">
+        <v>2730</v>
+      </c>
     </row>
     <row r="1039" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1039" s="4" t="s">
@@ -40226,17 +40630,31 @@
       <c r="C1039" s="5" t="s">
         <v>1977</v>
       </c>
-      <c r="D1039" s="15"/>
-      <c r="E1039" s="9"/>
-      <c r="F1039" s="9"/>
-      <c r="G1039" s="9"/>
-      <c r="H1039" s="9"/>
-      <c r="I1039" s="9"/>
+      <c r="D1039" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1039" s="10" t="s">
+        <v>3367</v>
+      </c>
+      <c r="F1039" s="9" t="s">
+        <v>2685</v>
+      </c>
+      <c r="G1039" s="9" t="s">
+        <v>3364</v>
+      </c>
+      <c r="H1039" s="9" t="s">
+        <v>3365</v>
+      </c>
+      <c r="I1039" s="9" t="s">
+        <v>3366</v>
+      </c>
       <c r="J1039" s="9"/>
       <c r="K1039" s="9"/>
       <c r="L1039" s="9"/>
       <c r="M1039" s="9"/>
-      <c r="N1039" s="12"/>
+      <c r="N1039" s="12" t="s">
+        <v>2605</v>
+      </c>
     </row>
     <row r="1040" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1040" s="4" t="s">
@@ -40248,7 +40666,9 @@
       <c r="C1040" s="5" t="s">
         <v>1979</v>
       </c>
-      <c r="D1040" s="15"/>
+      <c r="D1040" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1040" s="9"/>
       <c r="F1040" s="9"/>
       <c r="G1040" s="9"/>
@@ -40270,7 +40690,9 @@
       <c r="C1041" s="5" t="s">
         <v>1981</v>
       </c>
-      <c r="D1041" s="15"/>
+      <c r="D1041" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1041" s="9"/>
       <c r="F1041" s="9"/>
       <c r="G1041" s="9"/>
@@ -40292,7 +40714,9 @@
       <c r="C1042" s="5" t="s">
         <v>1983</v>
       </c>
-      <c r="D1042" s="15"/>
+      <c r="D1042" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1042" s="9"/>
       <c r="F1042" s="9"/>
       <c r="G1042" s="9"/>
@@ -40314,17 +40738,33 @@
       <c r="C1043" s="5" t="s">
         <v>1985</v>
       </c>
-      <c r="D1043" s="15"/>
-      <c r="E1043" s="9"/>
-      <c r="F1043" s="9"/>
-      <c r="G1043" s="9"/>
-      <c r="H1043" s="9"/>
-      <c r="I1043" s="9"/>
-      <c r="J1043" s="9"/>
+      <c r="D1043" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1043" s="10" t="s">
+        <v>2888</v>
+      </c>
+      <c r="F1043" s="9" t="s">
+        <v>2588</v>
+      </c>
+      <c r="G1043" s="9" t="s">
+        <v>2611</v>
+      </c>
+      <c r="H1043" s="9" t="s">
+        <v>2886</v>
+      </c>
+      <c r="I1043" s="9" t="s">
+        <v>2887</v>
+      </c>
+      <c r="J1043" s="9">
+        <v>4</v>
+      </c>
       <c r="K1043" s="9"/>
       <c r="L1043" s="9"/>
       <c r="M1043" s="9"/>
-      <c r="N1043" s="12"/>
+      <c r="N1043" s="12" t="s">
+        <v>3368</v>
+      </c>
     </row>
     <row r="1044" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1044" s="4" t="s">
@@ -40336,7 +40776,9 @@
       <c r="C1044" s="5" t="s">
         <v>1987</v>
       </c>
-      <c r="D1044" s="15"/>
+      <c r="D1044" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1044" s="9"/>
       <c r="F1044" s="9"/>
       <c r="G1044" s="9"/>
@@ -40358,17 +40800,33 @@
       <c r="C1045" s="5" t="s">
         <v>1989</v>
       </c>
-      <c r="D1045" s="15"/>
-      <c r="E1045" s="9"/>
-      <c r="F1045" s="9"/>
-      <c r="G1045" s="9"/>
-      <c r="H1045" s="9"/>
-      <c r="I1045" s="9"/>
-      <c r="J1045" s="9"/>
+      <c r="D1045" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1045" s="10" t="s">
+        <v>3370</v>
+      </c>
+      <c r="F1045" s="9" t="s">
+        <v>2720</v>
+      </c>
+      <c r="G1045" s="9" t="s">
+        <v>2932</v>
+      </c>
+      <c r="H1045" s="9" t="s">
+        <v>2984</v>
+      </c>
+      <c r="I1045" s="9" t="s">
+        <v>3369</v>
+      </c>
+      <c r="J1045" s="9">
+        <v>4</v>
+      </c>
       <c r="K1045" s="9"/>
       <c r="L1045" s="9"/>
       <c r="M1045" s="9"/>
-      <c r="N1045" s="12"/>
+      <c r="N1045" s="12" t="s">
+        <v>3368</v>
+      </c>
     </row>
     <row r="1046" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1046" s="4" t="s">
@@ -40380,17 +40838,33 @@
       <c r="C1046" s="5" t="s">
         <v>1991</v>
       </c>
-      <c r="D1046" s="15"/>
-      <c r="E1046" s="9"/>
-      <c r="F1046" s="9"/>
-      <c r="G1046" s="9"/>
-      <c r="H1046" s="9"/>
-      <c r="I1046" s="9"/>
-      <c r="J1046" s="9"/>
+      <c r="D1046" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1046" s="9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="F1046" s="9" t="s">
+        <v>2588</v>
+      </c>
+      <c r="G1046" s="9" t="s">
+        <v>2719</v>
+      </c>
+      <c r="H1046" s="9" t="s">
+        <v>2681</v>
+      </c>
+      <c r="I1046" s="9" t="s">
+        <v>2683</v>
+      </c>
+      <c r="J1046" s="9">
+        <v>13</v>
+      </c>
       <c r="K1046" s="9"/>
       <c r="L1046" s="9"/>
       <c r="M1046" s="9"/>
-      <c r="N1046" s="12"/>
+      <c r="N1046" s="12" t="s">
+        <v>3368</v>
+      </c>
     </row>
     <row r="1047" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1047" s="4" t="s">
@@ -40402,7 +40876,9 @@
       <c r="C1047" s="5" t="s">
         <v>1993</v>
       </c>
-      <c r="D1047" s="15"/>
+      <c r="D1047" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1047" s="9"/>
       <c r="F1047" s="9"/>
       <c r="G1047" s="9"/>
@@ -40424,7 +40900,9 @@
       <c r="C1048" s="5" t="s">
         <v>1995</v>
       </c>
-      <c r="D1048" s="15"/>
+      <c r="D1048" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1048" s="9"/>
       <c r="F1048" s="9"/>
       <c r="G1048" s="9"/>
@@ -40446,7 +40924,9 @@
       <c r="C1049" s="5" t="s">
         <v>1997</v>
       </c>
-      <c r="D1049" s="15"/>
+      <c r="D1049" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1049" s="9"/>
       <c r="F1049" s="9"/>
       <c r="G1049" s="9"/>
@@ -40468,7 +40948,9 @@
       <c r="C1050" s="5" t="s">
         <v>1999</v>
       </c>
-      <c r="D1050" s="15"/>
+      <c r="D1050" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1050" s="9"/>
       <c r="F1050" s="9"/>
       <c r="G1050" s="9"/>
@@ -40490,17 +40972,33 @@
       <c r="C1051" s="5" t="s">
         <v>2001</v>
       </c>
-      <c r="D1051" s="15"/>
-      <c r="E1051" s="9"/>
-      <c r="F1051" s="9"/>
-      <c r="G1051" s="9"/>
-      <c r="H1051" s="9"/>
-      <c r="I1051" s="9"/>
-      <c r="J1051" s="9"/>
+      <c r="D1051" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1051" s="10" t="s">
+        <v>3373</v>
+      </c>
+      <c r="F1051" s="9" t="s">
+        <v>2685</v>
+      </c>
+      <c r="G1051" s="9" t="s">
+        <v>3360</v>
+      </c>
+      <c r="H1051" s="9" t="s">
+        <v>3371</v>
+      </c>
+      <c r="I1051" s="9" t="s">
+        <v>3372</v>
+      </c>
+      <c r="J1051" s="9">
+        <v>3</v>
+      </c>
       <c r="K1051" s="9"/>
       <c r="L1051" s="9"/>
       <c r="M1051" s="9"/>
-      <c r="N1051" s="12"/>
+      <c r="N1051" s="12" t="s">
+        <v>2561</v>
+      </c>
     </row>
     <row r="1052" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1052" s="4" t="s">
@@ -40512,7 +41010,9 @@
       <c r="C1052" s="5" t="s">
         <v>2003</v>
       </c>
-      <c r="D1052" s="15"/>
+      <c r="D1052" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1052" s="9"/>
       <c r="F1052" s="9"/>
       <c r="G1052" s="9"/>
@@ -40534,17 +41034,31 @@
       <c r="C1053" s="5" t="s">
         <v>2005</v>
       </c>
-      <c r="D1053" s="15"/>
-      <c r="E1053" s="9"/>
-      <c r="F1053" s="9"/>
-      <c r="G1053" s="9"/>
-      <c r="H1053" s="9"/>
-      <c r="I1053" s="9"/>
+      <c r="D1053" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1053" s="10" t="s">
+        <v>3192</v>
+      </c>
+      <c r="F1053" s="9" t="s">
+        <v>2720</v>
+      </c>
+      <c r="G1053" s="9" t="s">
+        <v>2932</v>
+      </c>
+      <c r="H1053" s="9" t="s">
+        <v>3374</v>
+      </c>
+      <c r="I1053" s="9" t="s">
+        <v>3375</v>
+      </c>
       <c r="J1053" s="9"/>
       <c r="K1053" s="9"/>
       <c r="L1053" s="9"/>
       <c r="M1053" s="9"/>
-      <c r="N1053" s="12"/>
+      <c r="N1053" s="12" t="s">
+        <v>2730</v>
+      </c>
     </row>
     <row r="1054" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1054" s="4" t="s">
@@ -40556,7 +41070,9 @@
       <c r="C1054" s="5" t="s">
         <v>2008</v>
       </c>
-      <c r="D1054" s="15"/>
+      <c r="D1054" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1054" s="9"/>
       <c r="F1054" s="9"/>
       <c r="G1054" s="9"/>
@@ -40578,17 +41094,31 @@
       <c r="C1055" s="5" t="s">
         <v>2010</v>
       </c>
-      <c r="D1055" s="15"/>
-      <c r="E1055" s="9"/>
-      <c r="F1055" s="9"/>
-      <c r="G1055" s="9"/>
-      <c r="H1055" s="9"/>
-      <c r="I1055" s="9"/>
+      <c r="D1055" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1055" s="10" t="s">
+        <v>3380</v>
+      </c>
+      <c r="F1055" s="9" t="s">
+        <v>3376</v>
+      </c>
+      <c r="G1055" s="9" t="s">
+        <v>3377</v>
+      </c>
+      <c r="H1055" s="9" t="s">
+        <v>3378</v>
+      </c>
+      <c r="I1055" s="9" t="s">
+        <v>3379</v>
+      </c>
       <c r="J1055" s="9"/>
       <c r="K1055" s="9"/>
       <c r="L1055" s="9"/>
       <c r="M1055" s="9"/>
-      <c r="N1055" s="12"/>
+      <c r="N1055" s="12" t="s">
+        <v>2730</v>
+      </c>
     </row>
     <row r="1056" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1056" s="4" t="s">
@@ -40600,7 +41130,9 @@
       <c r="C1056" s="5" t="s">
         <v>2012</v>
       </c>
-      <c r="D1056" s="15"/>
+      <c r="D1056" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1056" s="9"/>
       <c r="F1056" s="9"/>
       <c r="G1056" s="9"/>
@@ -40622,17 +41154,31 @@
       <c r="C1057" s="5" t="s">
         <v>2014</v>
       </c>
-      <c r="D1057" s="15"/>
-      <c r="E1057" s="9"/>
-      <c r="F1057" s="9"/>
-      <c r="G1057" s="9"/>
-      <c r="H1057" s="9"/>
-      <c r="I1057" s="9"/>
+      <c r="D1057" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1057" s="10" t="s">
+        <v>3384</v>
+      </c>
+      <c r="F1057" s="9" t="s">
+        <v>3376</v>
+      </c>
+      <c r="G1057" s="9" t="s">
+        <v>3381</v>
+      </c>
+      <c r="H1057" s="9" t="s">
+        <v>3382</v>
+      </c>
+      <c r="I1057" s="9" t="s">
+        <v>3383</v>
+      </c>
       <c r="J1057" s="9"/>
       <c r="K1057" s="9"/>
       <c r="L1057" s="9"/>
       <c r="M1057" s="9"/>
-      <c r="N1057" s="12"/>
+      <c r="N1057" s="12" t="s">
+        <v>3385</v>
+      </c>
     </row>
     <row r="1058" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1058" s="4" t="s">
@@ -40644,7 +41190,9 @@
       <c r="C1058" s="5" t="s">
         <v>2016</v>
       </c>
-      <c r="D1058" s="15"/>
+      <c r="D1058" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1058" s="9"/>
       <c r="F1058" s="9"/>
       <c r="G1058" s="9"/>
@@ -40666,7 +41214,9 @@
       <c r="C1059" s="5" t="s">
         <v>2018</v>
       </c>
-      <c r="D1059" s="15"/>
+      <c r="D1059" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1059" s="9"/>
       <c r="F1059" s="9"/>
       <c r="G1059" s="9"/>
@@ -40688,17 +41238,31 @@
       <c r="C1060" s="5" t="s">
         <v>2020</v>
       </c>
-      <c r="D1060" s="15"/>
-      <c r="E1060" s="9"/>
-      <c r="F1060" s="9"/>
-      <c r="G1060" s="9"/>
-      <c r="H1060" s="9"/>
-      <c r="I1060" s="9"/>
+      <c r="D1060" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1060" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="F1060" s="9" t="s">
+        <v>3376</v>
+      </c>
+      <c r="G1060" s="9" t="s">
+        <v>3377</v>
+      </c>
+      <c r="H1060" s="9" t="s">
+        <v>3377</v>
+      </c>
+      <c r="I1060" s="9" t="s">
+        <v>3386</v>
+      </c>
       <c r="J1060" s="9"/>
       <c r="K1060" s="9"/>
       <c r="L1060" s="9"/>
       <c r="M1060" s="9"/>
-      <c r="N1060" s="12"/>
+      <c r="N1060" s="12" t="s">
+        <v>2730</v>
+      </c>
     </row>
     <row r="1061" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1061" s="4" t="s">
@@ -40710,7 +41274,9 @@
       <c r="C1061" s="5" t="s">
         <v>2022</v>
       </c>
-      <c r="D1061" s="15"/>
+      <c r="D1061" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1061" s="9"/>
       <c r="F1061" s="9"/>
       <c r="G1061" s="9"/>
@@ -40732,7 +41298,9 @@
       <c r="C1062" s="5" t="s">
         <v>2024</v>
       </c>
-      <c r="D1062" s="15"/>
+      <c r="D1062" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1062" s="9"/>
       <c r="F1062" s="9"/>
       <c r="G1062" s="9"/>
@@ -40754,7 +41322,9 @@
       <c r="C1063" s="5" t="s">
         <v>2026</v>
       </c>
-      <c r="D1063" s="15"/>
+      <c r="D1063" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1063" s="9"/>
       <c r="F1063" s="9"/>
       <c r="G1063" s="9"/>
@@ -40776,7 +41346,9 @@
       <c r="C1064" s="5" t="s">
         <v>2028</v>
       </c>
-      <c r="D1064" s="15"/>
+      <c r="D1064" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1064" s="9"/>
       <c r="F1064" s="9"/>
       <c r="G1064" s="9"/>
@@ -40798,7 +41370,9 @@
       <c r="C1065" s="5" t="s">
         <v>2030</v>
       </c>
-      <c r="D1065" s="15"/>
+      <c r="D1065" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1065" s="9"/>
       <c r="F1065" s="9"/>
       <c r="G1065" s="9"/>
@@ -40820,7 +41394,9 @@
       <c r="C1066" s="5" t="s">
         <v>2028</v>
       </c>
-      <c r="D1066" s="15"/>
+      <c r="D1066" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1066" s="9"/>
       <c r="F1066" s="9"/>
       <c r="G1066" s="9"/>
@@ -40842,7 +41418,9 @@
       <c r="C1067" s="5" t="s">
         <v>2033</v>
       </c>
-      <c r="D1067" s="15"/>
+      <c r="D1067" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1067" s="9"/>
       <c r="F1067" s="9"/>
       <c r="G1067" s="9"/>
@@ -40864,7 +41442,9 @@
       <c r="C1068" s="5" t="s">
         <v>2026</v>
       </c>
-      <c r="D1068" s="15"/>
+      <c r="D1068" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1068" s="9"/>
       <c r="F1068" s="9"/>
       <c r="G1068" s="9"/>
@@ -40886,7 +41466,9 @@
       <c r="C1069" s="5" t="s">
         <v>2012</v>
       </c>
-      <c r="D1069" s="15"/>
+      <c r="D1069" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1069" s="9"/>
       <c r="F1069" s="9"/>
       <c r="G1069" s="9"/>
@@ -40908,7 +41490,9 @@
       <c r="C1070" s="5" t="s">
         <v>2037</v>
       </c>
-      <c r="D1070" s="15"/>
+      <c r="D1070" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1070" s="9"/>
       <c r="F1070" s="9"/>
       <c r="G1070" s="9"/>
@@ -40930,51 +41514,81 @@
       <c r="C1071" s="5" t="s">
         <v>2039</v>
       </c>
-      <c r="D1071" s="15"/>
-      <c r="E1071" s="9"/>
-      <c r="F1071" s="9"/>
-      <c r="G1071" s="9"/>
-      <c r="H1071" s="9"/>
-      <c r="I1071" s="9"/>
+      <c r="D1071" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1071" s="10" t="s">
+        <v>3367</v>
+      </c>
+      <c r="F1071" s="9" t="s">
+        <v>3376</v>
+      </c>
+      <c r="G1071" s="9" t="s">
+        <v>3377</v>
+      </c>
+      <c r="H1071" s="9" t="s">
+        <v>3387</v>
+      </c>
+      <c r="I1071" s="9" t="s">
+        <v>2497</v>
+      </c>
       <c r="J1071" s="9"/>
       <c r="K1071" s="9"/>
       <c r="L1071" s="9"/>
       <c r="M1071" s="9"/>
-      <c r="N1071" s="12"/>
+      <c r="N1071" s="12" t="s">
+        <v>3389</v>
+      </c>
     </row>
     <row r="1072" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1072" s="4" t="s">
-        <v>2040</v>
+        <v>2038</v>
       </c>
       <c r="B1072" s="5" t="s">
         <v>2007</v>
       </c>
       <c r="C1072" s="5" t="s">
-        <v>2012</v>
-      </c>
-      <c r="D1072" s="15"/>
-      <c r="E1072" s="9"/>
-      <c r="F1072" s="9"/>
-      <c r="G1072" s="9"/>
-      <c r="H1072" s="9"/>
-      <c r="I1072" s="9"/>
+        <v>2039</v>
+      </c>
+      <c r="D1072" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1072" s="10" t="s">
+        <v>3367</v>
+      </c>
+      <c r="F1072" s="9" t="s">
+        <v>3376</v>
+      </c>
+      <c r="G1072" s="9" t="s">
+        <v>3377</v>
+      </c>
+      <c r="H1072" s="9" t="s">
+        <v>3388</v>
+      </c>
+      <c r="I1072" s="9" t="s">
+        <v>2497</v>
+      </c>
       <c r="J1072" s="9"/>
       <c r="K1072" s="9"/>
       <c r="L1072" s="9"/>
       <c r="M1072" s="9"/>
-      <c r="N1072" s="12"/>
+      <c r="N1072" s="12" t="s">
+        <v>3389</v>
+      </c>
     </row>
     <row r="1073" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1073" s="4" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="B1073" s="5" t="s">
         <v>2007</v>
       </c>
       <c r="C1073" s="5" t="s">
-        <v>2042</v>
-      </c>
-      <c r="D1073" s="15"/>
+        <v>2012</v>
+      </c>
+      <c r="D1073" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1073" s="9"/>
       <c r="F1073" s="9"/>
       <c r="G1073" s="9"/>
@@ -40988,37 +41602,53 @@
     </row>
     <row r="1074" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1074" s="4" t="s">
-        <v>2043</v>
+        <v>2041</v>
       </c>
       <c r="B1074" s="5" t="s">
-        <v>2044</v>
+        <v>2007</v>
       </c>
       <c r="C1074" s="5" t="s">
-        <v>2045</v>
-      </c>
-      <c r="D1074" s="15"/>
-      <c r="E1074" s="9"/>
-      <c r="F1074" s="9"/>
-      <c r="G1074" s="9"/>
-      <c r="H1074" s="9"/>
-      <c r="I1074" s="9"/>
+        <v>2042</v>
+      </c>
+      <c r="D1074" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1074" s="9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="F1074" s="9" t="s">
+        <v>3376</v>
+      </c>
+      <c r="G1074" s="9" t="s">
+        <v>3390</v>
+      </c>
+      <c r="H1074" s="9" t="s">
+        <v>3391</v>
+      </c>
+      <c r="I1074" s="9" t="s">
+        <v>3392</v>
+      </c>
       <c r="J1074" s="9"/>
       <c r="K1074" s="9"/>
       <c r="L1074" s="9"/>
       <c r="M1074" s="9"/>
-      <c r="N1074" s="12"/>
+      <c r="N1074" s="12" t="s">
+        <v>2995</v>
+      </c>
     </row>
     <row r="1075" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1075" s="4" t="s">
-        <v>2046</v>
+        <v>2043</v>
       </c>
       <c r="B1075" s="5" t="s">
         <v>2044</v>
       </c>
       <c r="C1075" s="5" t="s">
-        <v>2047</v>
-      </c>
-      <c r="D1075" s="15"/>
+        <v>2045</v>
+      </c>
+      <c r="D1075" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1075" s="9"/>
       <c r="F1075" s="9"/>
       <c r="G1075" s="9"/>
@@ -41032,15 +41662,17 @@
     </row>
     <row r="1076" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1076" s="4" t="s">
-        <v>2048</v>
+        <v>2046</v>
       </c>
       <c r="B1076" s="5" t="s">
         <v>2044</v>
       </c>
       <c r="C1076" s="5" t="s">
-        <v>2049</v>
-      </c>
-      <c r="D1076" s="15"/>
+        <v>2047</v>
+      </c>
+      <c r="D1076" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1076" s="9"/>
       <c r="F1076" s="9"/>
       <c r="G1076" s="9"/>
@@ -41054,15 +41686,17 @@
     </row>
     <row r="1077" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1077" s="4" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="B1077" s="5" t="s">
         <v>2044</v>
       </c>
       <c r="C1077" s="5" t="s">
-        <v>2051</v>
-      </c>
-      <c r="D1077" s="15"/>
+        <v>2049</v>
+      </c>
+      <c r="D1077" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1077" s="9"/>
       <c r="F1077" s="9"/>
       <c r="G1077" s="9"/>
@@ -41076,15 +41710,17 @@
     </row>
     <row r="1078" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1078" s="4" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="B1078" s="5" t="s">
         <v>2044</v>
       </c>
       <c r="C1078" s="5" t="s">
-        <v>2053</v>
-      </c>
-      <c r="D1078" s="15"/>
+        <v>2051</v>
+      </c>
+      <c r="D1078" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1078" s="9"/>
       <c r="F1078" s="9"/>
       <c r="G1078" s="9"/>
@@ -41098,15 +41734,17 @@
     </row>
     <row r="1079" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1079" s="4" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
       <c r="B1079" s="5" t="s">
         <v>2044</v>
       </c>
       <c r="C1079" s="5" t="s">
-        <v>2055</v>
-      </c>
-      <c r="D1079" s="15"/>
+        <v>2053</v>
+      </c>
+      <c r="D1079" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1079" s="9"/>
       <c r="F1079" s="9"/>
       <c r="G1079" s="9"/>
@@ -41120,15 +41758,17 @@
     </row>
     <row r="1080" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1080" s="4" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="B1080" s="5" t="s">
         <v>2044</v>
       </c>
       <c r="C1080" s="5" t="s">
-        <v>2057</v>
-      </c>
-      <c r="D1080" s="15"/>
+        <v>2055</v>
+      </c>
+      <c r="D1080" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1080" s="9"/>
       <c r="F1080" s="9"/>
       <c r="G1080" s="9"/>
@@ -41142,15 +41782,17 @@
     </row>
     <row r="1081" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1081" s="4" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
       <c r="B1081" s="5" t="s">
         <v>2044</v>
       </c>
       <c r="C1081" s="5" t="s">
-        <v>2059</v>
-      </c>
-      <c r="D1081" s="15"/>
+        <v>2057</v>
+      </c>
+      <c r="D1081" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1081" s="9"/>
       <c r="F1081" s="9"/>
       <c r="G1081" s="9"/>
@@ -41164,15 +41806,17 @@
     </row>
     <row r="1082" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1082" s="4" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
       <c r="B1082" s="5" t="s">
         <v>2044</v>
       </c>
       <c r="C1082" s="5" t="s">
-        <v>2061</v>
-      </c>
-      <c r="D1082" s="15"/>
+        <v>2059</v>
+      </c>
+      <c r="D1082" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1082" s="9"/>
       <c r="F1082" s="9"/>
       <c r="G1082" s="9"/>
@@ -41186,7 +41830,7 @@
     </row>
     <row r="1083" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1083" s="4" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="B1083" s="5" t="s">
         <v>2044</v>
@@ -41194,7 +41838,9 @@
       <c r="C1083" s="5" t="s">
         <v>2061</v>
       </c>
-      <c r="D1083" s="15"/>
+      <c r="D1083" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1083" s="9"/>
       <c r="F1083" s="9"/>
       <c r="G1083" s="9"/>
@@ -41208,15 +41854,17 @@
     </row>
     <row r="1084" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1084" s="4" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B1084" s="5" t="s">
         <v>2044</v>
       </c>
       <c r="C1084" s="5" t="s">
-        <v>2064</v>
-      </c>
-      <c r="D1084" s="15"/>
+        <v>2061</v>
+      </c>
+      <c r="D1084" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1084" s="9"/>
       <c r="F1084" s="9"/>
       <c r="G1084" s="9"/>
@@ -41230,15 +41878,17 @@
     </row>
     <row r="1085" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1085" s="4" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="B1085" s="5" t="s">
         <v>2044</v>
       </c>
       <c r="C1085" s="5" t="s">
-        <v>2066</v>
-      </c>
-      <c r="D1085" s="15"/>
+        <v>2064</v>
+      </c>
+      <c r="D1085" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1085" s="9"/>
       <c r="F1085" s="9"/>
       <c r="G1085" s="9"/>
@@ -41252,15 +41902,17 @@
     </row>
     <row r="1086" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1086" s="4" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
       <c r="B1086" s="5" t="s">
         <v>2044</v>
       </c>
       <c r="C1086" s="5" t="s">
-        <v>2068</v>
-      </c>
-      <c r="D1086" s="15"/>
+        <v>2066</v>
+      </c>
+      <c r="D1086" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1086" s="9"/>
       <c r="F1086" s="9"/>
       <c r="G1086" s="9"/>
@@ -41274,15 +41926,17 @@
     </row>
     <row r="1087" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1087" s="4" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
       <c r="B1087" s="5" t="s">
         <v>2044</v>
       </c>
       <c r="C1087" s="5" t="s">
-        <v>2047</v>
-      </c>
-      <c r="D1087" s="15"/>
+        <v>2068</v>
+      </c>
+      <c r="D1087" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1087" s="9"/>
       <c r="F1087" s="9"/>
       <c r="G1087" s="9"/>
@@ -41296,15 +41950,17 @@
     </row>
     <row r="1088" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1088" s="4" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="B1088" s="5" t="s">
         <v>2044</v>
       </c>
       <c r="C1088" s="5" t="s">
-        <v>2055</v>
-      </c>
-      <c r="D1088" s="15"/>
+        <v>2047</v>
+      </c>
+      <c r="D1088" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1088" s="9"/>
       <c r="F1088" s="9"/>
       <c r="G1088" s="9"/>
@@ -41318,15 +41974,17 @@
     </row>
     <row r="1089" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1089" s="4" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="B1089" s="5" t="s">
         <v>2044</v>
       </c>
       <c r="C1089" s="5" t="s">
-        <v>2072</v>
-      </c>
-      <c r="D1089" s="15"/>
+        <v>2055</v>
+      </c>
+      <c r="D1089" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1089" s="9"/>
       <c r="F1089" s="9"/>
       <c r="G1089" s="9"/>
@@ -41340,15 +41998,17 @@
     </row>
     <row r="1090" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1090" s="4" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B1090" s="5" t="s">
         <v>2044</v>
       </c>
       <c r="C1090" s="5" t="s">
-        <v>2074</v>
-      </c>
-      <c r="D1090" s="15"/>
+        <v>2072</v>
+      </c>
+      <c r="D1090" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1090" s="9"/>
       <c r="F1090" s="9"/>
       <c r="G1090" s="9"/>
@@ -41362,15 +42022,17 @@
     </row>
     <row r="1091" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1091" s="4" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="B1091" s="5" t="s">
         <v>2044</v>
       </c>
       <c r="C1091" s="5" t="s">
-        <v>2076</v>
-      </c>
-      <c r="D1091" s="15"/>
+        <v>2074</v>
+      </c>
+      <c r="D1091" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1091" s="9"/>
       <c r="F1091" s="9"/>
       <c r="G1091" s="9"/>
@@ -41384,15 +42046,17 @@
     </row>
     <row r="1092" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1092" s="4" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="B1092" s="5" t="s">
         <v>2044</v>
       </c>
       <c r="C1092" s="5" t="s">
-        <v>2066</v>
-      </c>
-      <c r="D1092" s="15"/>
+        <v>2076</v>
+      </c>
+      <c r="D1092" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1092" s="9"/>
       <c r="F1092" s="9"/>
       <c r="G1092" s="9"/>
@@ -41406,15 +42070,17 @@
     </row>
     <row r="1093" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1093" s="4" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="B1093" s="5" t="s">
         <v>2044</v>
       </c>
       <c r="C1093" s="5" t="s">
-        <v>2076</v>
-      </c>
-      <c r="D1093" s="15"/>
+        <v>2066</v>
+      </c>
+      <c r="D1093" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1093" s="9"/>
       <c r="F1093" s="9"/>
       <c r="G1093" s="9"/>
@@ -41426,17 +42092,19 @@
       <c r="M1093" s="9"/>
       <c r="N1093" s="12"/>
     </row>
-    <row r="1094" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1094" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1094" s="4" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="B1094" s="5" t="s">
-        <v>2080</v>
+        <v>2044</v>
       </c>
       <c r="C1094" s="5" t="s">
-        <v>2081</v>
-      </c>
-      <c r="D1094" s="15"/>
+        <v>2076</v>
+      </c>
+      <c r="D1094" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1094" s="9"/>
       <c r="F1094" s="9"/>
       <c r="G1094" s="9"/>
@@ -41450,13 +42118,13 @@
     </row>
     <row r="1095" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1095" s="4" t="s">
-        <v>2082</v>
+        <v>2079</v>
       </c>
       <c r="B1095" s="5" t="s">
         <v>2080</v>
       </c>
       <c r="C1095" s="5" t="s">
-        <v>2083</v>
+        <v>2081</v>
       </c>
       <c r="D1095" s="15"/>
       <c r="E1095" s="9"/>
@@ -41472,13 +42140,13 @@
     </row>
     <row r="1096" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1096" s="4" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
       <c r="B1096" s="5" t="s">
         <v>2080</v>
       </c>
       <c r="C1096" s="5" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="D1096" s="15"/>
       <c r="E1096" s="9"/>
@@ -41494,13 +42162,13 @@
     </row>
     <row r="1097" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1097" s="4" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="B1097" s="5" t="s">
         <v>2080</v>
       </c>
       <c r="C1097" s="5" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
       <c r="D1097" s="15"/>
       <c r="E1097" s="9"/>
@@ -41516,13 +42184,13 @@
     </row>
     <row r="1098" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1098" s="4" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
       <c r="B1098" s="5" t="s">
         <v>2080</v>
       </c>
       <c r="C1098" s="5" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
       <c r="D1098" s="15"/>
       <c r="E1098" s="9"/>
@@ -41538,13 +42206,13 @@
     </row>
     <row r="1099" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1099" s="4" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
       <c r="B1099" s="5" t="s">
         <v>2080</v>
       </c>
       <c r="C1099" s="5" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="D1099" s="15"/>
       <c r="E1099" s="9"/>
@@ -41560,13 +42228,13 @@
     </row>
     <row r="1100" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1100" s="4" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="B1100" s="5" t="s">
         <v>2080</v>
       </c>
       <c r="C1100" s="5" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="D1100" s="15"/>
       <c r="E1100" s="9"/>
@@ -41582,13 +42250,13 @@
     </row>
     <row r="1101" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1101" s="4" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
       <c r="B1101" s="5" t="s">
         <v>2080</v>
       </c>
       <c r="C1101" s="5" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
       <c r="D1101" s="15"/>
       <c r="E1101" s="9"/>
@@ -41604,13 +42272,13 @@
     </row>
     <row r="1102" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1102" s="4" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="B1102" s="5" t="s">
         <v>2080</v>
       </c>
       <c r="C1102" s="5" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="D1102" s="15"/>
       <c r="E1102" s="9"/>
@@ -41626,13 +42294,13 @@
     </row>
     <row r="1103" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1103" s="4" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="B1103" s="5" t="s">
         <v>2080</v>
       </c>
       <c r="C1103" s="5" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="D1103" s="15"/>
       <c r="E1103" s="9"/>
@@ -41648,13 +42316,13 @@
     </row>
     <row r="1104" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1104" s="4" t="s">
-        <v>2100</v>
+        <v>2098</v>
       </c>
       <c r="B1104" s="5" t="s">
         <v>2080</v>
       </c>
       <c r="C1104" s="5" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
       <c r="D1104" s="15"/>
       <c r="E1104" s="9"/>
@@ -41670,13 +42338,13 @@
     </row>
     <row r="1105" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1105" s="4" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="B1105" s="5" t="s">
         <v>2080</v>
       </c>
       <c r="C1105" s="5" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="D1105" s="15"/>
       <c r="E1105" s="9"/>
@@ -41692,13 +42360,13 @@
     </row>
     <row r="1106" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1106" s="4" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="B1106" s="5" t="s">
         <v>2080</v>
       </c>
       <c r="C1106" s="5" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="D1106" s="15"/>
       <c r="E1106" s="9"/>
@@ -41714,13 +42382,13 @@
     </row>
     <row r="1107" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1107" s="4" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="B1107" s="5" t="s">
         <v>2080</v>
       </c>
       <c r="C1107" s="5" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="D1107" s="15"/>
       <c r="E1107" s="9"/>
@@ -41736,13 +42404,13 @@
     </row>
     <row r="1108" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1108" s="4" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
       <c r="B1108" s="5" t="s">
         <v>2080</v>
       </c>
       <c r="C1108" s="5" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="D1108" s="15"/>
       <c r="E1108" s="9"/>
@@ -41758,13 +42426,13 @@
     </row>
     <row r="1109" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1109" s="4" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="B1109" s="5" t="s">
         <v>2080</v>
       </c>
       <c r="C1109" s="5" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
       <c r="D1109" s="15"/>
       <c r="E1109" s="9"/>
@@ -41780,13 +42448,13 @@
     </row>
     <row r="1110" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1110" s="4" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="B1110" s="5" t="s">
         <v>2080</v>
       </c>
       <c r="C1110" s="5" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="D1110" s="15"/>
       <c r="E1110" s="9"/>
@@ -41802,13 +42470,13 @@
     </row>
     <row r="1111" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1111" s="4" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="B1111" s="5" t="s">
         <v>2080</v>
       </c>
       <c r="C1111" s="5" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
       <c r="D1111" s="15"/>
       <c r="E1111" s="9"/>
@@ -41824,13 +42492,13 @@
     </row>
     <row r="1112" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1112" s="4" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="B1112" s="5" t="s">
         <v>2080</v>
       </c>
       <c r="C1112" s="5" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="D1112" s="15"/>
       <c r="E1112" s="9"/>
@@ -41846,13 +42514,13 @@
     </row>
     <row r="1113" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1113" s="4" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="B1113" s="5" t="s">
         <v>2080</v>
       </c>
       <c r="C1113" s="5" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="D1113" s="15"/>
       <c r="E1113" s="9"/>
@@ -41868,13 +42536,13 @@
     </row>
     <row r="1114" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1114" s="4" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
       <c r="B1114" s="5" t="s">
-        <v>2121</v>
+        <v>2080</v>
       </c>
       <c r="C1114" s="5" t="s">
-        <v>2122</v>
+        <v>2119</v>
       </c>
       <c r="D1114" s="15"/>
       <c r="E1114" s="9"/>
@@ -41890,13 +42558,13 @@
     </row>
     <row r="1115" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1115" s="4" t="s">
-        <v>2123</v>
+        <v>2120</v>
       </c>
       <c r="B1115" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1115" s="5" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="D1115" s="15"/>
       <c r="E1115" s="9"/>
@@ -41912,13 +42580,13 @@
     </row>
     <row r="1116" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1116" s="4" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="B1116" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1116" s="5" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="D1116" s="15"/>
       <c r="E1116" s="9"/>
@@ -41934,13 +42602,13 @@
     </row>
     <row r="1117" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1117" s="4" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="B1117" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1117" s="5" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="D1117" s="15"/>
       <c r="E1117" s="9"/>
@@ -41956,13 +42624,13 @@
     </row>
     <row r="1118" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1118" s="4" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="B1118" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1118" s="5" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="D1118" s="15"/>
       <c r="E1118" s="9"/>
@@ -41978,13 +42646,13 @@
     </row>
     <row r="1119" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1119" s="4" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="B1119" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1119" s="5" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
       <c r="D1119" s="15"/>
       <c r="E1119" s="9"/>
@@ -42000,13 +42668,13 @@
     </row>
     <row r="1120" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1120" s="4" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
       <c r="B1120" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1120" s="5" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
       <c r="D1120" s="15"/>
       <c r="E1120" s="9"/>
@@ -42022,13 +42690,13 @@
     </row>
     <row r="1121" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1121" s="4" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
       <c r="B1121" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1121" s="5" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
       <c r="D1121" s="15"/>
       <c r="E1121" s="9"/>
@@ -42044,13 +42712,13 @@
     </row>
     <row r="1122" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1122" s="4" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
       <c r="B1122" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1122" s="5" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="D1122" s="15"/>
       <c r="E1122" s="9"/>
@@ -42066,13 +42734,13 @@
     </row>
     <row r="1123" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1123" s="4" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="B1123" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1123" s="5" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="D1123" s="15"/>
       <c r="E1123" s="9"/>
@@ -42088,13 +42756,13 @@
     </row>
     <row r="1124" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1124" s="4" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="B1124" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1124" s="5" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="D1124" s="15"/>
       <c r="E1124" s="9"/>
@@ -42110,13 +42778,13 @@
     </row>
     <row r="1125" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1125" s="4" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
       <c r="B1125" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1125" s="5" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
       <c r="D1125" s="15"/>
       <c r="E1125" s="9"/>
@@ -42132,13 +42800,13 @@
     </row>
     <row r="1126" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1126" s="4" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
       <c r="B1126" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1126" s="5" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
       <c r="D1126" s="15"/>
       <c r="E1126" s="9"/>
@@ -42154,13 +42822,13 @@
     </row>
     <row r="1127" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1127" s="4" t="s">
-        <v>2147</v>
+        <v>2145</v>
       </c>
       <c r="B1127" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1127" s="5" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
       <c r="D1127" s="15"/>
       <c r="E1127" s="9"/>
@@ -42176,13 +42844,13 @@
     </row>
     <row r="1128" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1128" s="4" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="B1128" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1128" s="5" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
       <c r="D1128" s="15"/>
       <c r="E1128" s="9"/>
@@ -42198,13 +42866,13 @@
     </row>
     <row r="1129" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1129" s="4" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
       <c r="B1129" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1129" s="5" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
       <c r="D1129" s="15"/>
       <c r="E1129" s="9"/>
@@ -42220,13 +42888,13 @@
     </row>
     <row r="1130" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1130" s="4" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="B1130" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1130" s="5" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="D1130" s="15"/>
       <c r="E1130" s="9"/>
@@ -42242,13 +42910,13 @@
     </row>
     <row r="1131" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1131" s="4" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="B1131" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1131" s="5" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="D1131" s="15"/>
       <c r="E1131" s="9"/>
@@ -42264,13 +42932,13 @@
     </row>
     <row r="1132" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1132" s="4" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="B1132" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1132" s="5" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="D1132" s="15"/>
       <c r="E1132" s="9"/>
@@ -42286,13 +42954,13 @@
     </row>
     <row r="1133" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1133" s="4" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
       <c r="B1133" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1133" s="5" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="D1133" s="15"/>
       <c r="E1133" s="9"/>
@@ -42306,15 +42974,15 @@
       <c r="M1133" s="9"/>
       <c r="N1133" s="12"/>
     </row>
-    <row r="1134" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1134" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1134" s="4" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
       <c r="B1134" s="5" t="s">
-        <v>2162</v>
+        <v>2121</v>
       </c>
       <c r="C1134" s="5" t="s">
-        <v>2163</v>
+        <v>2160</v>
       </c>
       <c r="D1134" s="15"/>
       <c r="E1134" s="9"/>
@@ -42330,13 +42998,13 @@
     </row>
     <row r="1135" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1135" s="4" t="s">
-        <v>2164</v>
+        <v>2161</v>
       </c>
       <c r="B1135" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1135" s="5" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="D1135" s="15"/>
       <c r="E1135" s="9"/>
@@ -42352,13 +43020,13 @@
     </row>
     <row r="1136" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1136" s="4" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
       <c r="B1136" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1136" s="5" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="D1136" s="15"/>
       <c r="E1136" s="9"/>
@@ -42374,13 +43042,13 @@
     </row>
     <row r="1137" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1137" s="4" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="B1137" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1137" s="5" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="D1137" s="15"/>
       <c r="E1137" s="9"/>
@@ -42396,13 +43064,13 @@
     </row>
     <row r="1138" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1138" s="4" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="B1138" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1138" s="5" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="D1138" s="15"/>
       <c r="E1138" s="9"/>
@@ -42418,13 +43086,13 @@
     </row>
     <row r="1139" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1139" s="4" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="B1139" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1139" s="5" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="D1139" s="15"/>
       <c r="E1139" s="9"/>
@@ -42440,13 +43108,13 @@
     </row>
     <row r="1140" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1140" s="4" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="B1140" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1140" s="5" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
       <c r="D1140" s="15"/>
       <c r="E1140" s="9"/>
@@ -42462,13 +43130,13 @@
     </row>
     <row r="1141" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1141" s="4" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="B1141" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1141" s="5" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="D1141" s="15"/>
       <c r="E1141" s="9"/>
@@ -42484,13 +43152,13 @@
     </row>
     <row r="1142" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1142" s="4" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="B1142" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1142" s="5" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="D1142" s="15"/>
       <c r="E1142" s="9"/>
@@ -42506,13 +43174,13 @@
     </row>
     <row r="1143" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1143" s="4" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
       <c r="B1143" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1143" s="5" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
       <c r="D1143" s="15"/>
       <c r="E1143" s="9"/>
@@ -42528,13 +43196,13 @@
     </row>
     <row r="1144" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1144" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1144" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1144" s="5" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
       <c r="D1144" s="15"/>
       <c r="E1144" s="9"/>
@@ -42550,13 +43218,13 @@
     </row>
     <row r="1145" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1145" s="4" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
       <c r="B1145" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1145" s="5" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
       <c r="D1145" s="15"/>
       <c r="E1145" s="9"/>
@@ -42572,13 +43240,13 @@
     </row>
     <row r="1146" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1146" s="4" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
       <c r="B1146" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1146" s="5" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
       <c r="D1146" s="15"/>
       <c r="E1146" s="9"/>
@@ -42594,13 +43262,13 @@
     </row>
     <row r="1147" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1147" s="4" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
       <c r="B1147" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1147" s="5" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
       <c r="D1147" s="15"/>
       <c r="E1147" s="9"/>
@@ -42616,13 +43284,13 @@
     </row>
     <row r="1148" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1148" s="4" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
       <c r="B1148" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1148" s="5" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
       <c r="D1148" s="15"/>
       <c r="E1148" s="9"/>
@@ -42638,13 +43306,13 @@
     </row>
     <row r="1149" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1149" s="4" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="B1149" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1149" s="5" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
       <c r="D1149" s="15"/>
       <c r="E1149" s="9"/>
@@ -42660,13 +43328,13 @@
     </row>
     <row r="1150" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1150" s="4" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="B1150" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1150" s="5" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="D1150" s="15"/>
       <c r="E1150" s="9"/>
@@ -42682,13 +43350,13 @@
     </row>
     <row r="1151" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1151" s="4" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="B1151" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1151" s="5" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="D1151" s="15"/>
       <c r="E1151" s="9"/>
@@ -42704,13 +43372,13 @@
     </row>
     <row r="1152" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1152" s="4" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="B1152" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1152" s="5" t="s">
-        <v>2183</v>
+        <v>2197</v>
       </c>
       <c r="D1152" s="15"/>
       <c r="E1152" s="9"/>
@@ -42726,13 +43394,13 @@
     </row>
     <row r="1153" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1153" s="4" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="B1153" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1153" s="5" t="s">
-        <v>2200</v>
+        <v>2183</v>
       </c>
       <c r="D1153" s="15"/>
       <c r="E1153" s="9"/>
@@ -42746,15 +43414,15 @@
       <c r="M1153" s="9"/>
       <c r="N1153" s="12"/>
     </row>
-    <row r="1154" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1154" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1154" s="4" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
       <c r="B1154" s="5" t="s">
-        <v>2202</v>
+        <v>2162</v>
       </c>
       <c r="C1154" s="5" t="s">
-        <v>2203</v>
+        <v>2200</v>
       </c>
       <c r="D1154" s="15"/>
       <c r="E1154" s="9"/>
@@ -42770,13 +43438,13 @@
     </row>
     <row r="1155" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1155" s="4" t="s">
-        <v>2204</v>
+        <v>2201</v>
       </c>
       <c r="B1155" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1155" s="5" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
       <c r="D1155" s="15"/>
       <c r="E1155" s="9"/>
@@ -42792,13 +43460,13 @@
     </row>
     <row r="1156" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1156" s="4" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="B1156" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1156" s="5" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="D1156" s="15"/>
       <c r="E1156" s="9"/>
@@ -42814,13 +43482,13 @@
     </row>
     <row r="1157" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1157" s="4" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="B1157" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1157" s="5" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="D1157" s="15"/>
       <c r="E1157" s="9"/>
@@ -42836,13 +43504,13 @@
     </row>
     <row r="1158" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1158" s="4" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="B1158" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1158" s="5" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="D1158" s="15"/>
       <c r="E1158" s="9"/>
@@ -42858,13 +43526,13 @@
     </row>
     <row r="1159" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1159" s="4" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="B1159" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1159" s="5" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="D1159" s="15"/>
       <c r="E1159" s="9"/>
@@ -42880,13 +43548,13 @@
     </row>
     <row r="1160" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1160" s="4" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="B1160" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1160" s="5" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="D1160" s="15"/>
       <c r="E1160" s="9"/>
@@ -42902,13 +43570,13 @@
     </row>
     <row r="1161" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1161" s="4" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="B1161" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1161" s="5" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="D1161" s="15"/>
       <c r="E1161" s="9"/>
@@ -42924,13 +43592,13 @@
     </row>
     <row r="1162" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1162" s="4" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="B1162" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1162" s="5" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="D1162" s="15"/>
       <c r="E1162" s="9"/>
@@ -42946,13 +43614,13 @@
     </row>
     <row r="1163" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1163" s="4" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="B1163" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1163" s="5" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="D1163" s="15"/>
       <c r="E1163" s="9"/>
@@ -42968,13 +43636,13 @@
     </row>
     <row r="1164" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1164" s="4" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="B1164" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1164" s="5" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="D1164" s="15"/>
       <c r="E1164" s="9"/>
@@ -42990,13 +43658,13 @@
     </row>
     <row r="1165" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1165" s="4" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
       <c r="B1165" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1165" s="5" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="D1165" s="15"/>
       <c r="E1165" s="9"/>
@@ -43012,13 +43680,13 @@
     </row>
     <row r="1166" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1166" s="4" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="B1166" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1166" s="5" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="D1166" s="15"/>
       <c r="E1166" s="9"/>
@@ -43034,13 +43702,13 @@
     </row>
     <row r="1167" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1167" s="4" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="B1167" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1167" s="5" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="D1167" s="15"/>
       <c r="E1167" s="9"/>
@@ -43056,13 +43724,13 @@
     </row>
     <row r="1168" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1168" s="4" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="B1168" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1168" s="5" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="D1168" s="15"/>
       <c r="E1168" s="9"/>
@@ -43078,13 +43746,13 @@
     </row>
     <row r="1169" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1169" s="4" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="B1169" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1169" s="5" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
       <c r="D1169" s="15"/>
       <c r="E1169" s="9"/>
@@ -43100,13 +43768,13 @@
     </row>
     <row r="1170" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1170" s="4" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="B1170" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1170" s="5" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="D1170" s="15"/>
       <c r="E1170" s="9"/>
@@ -43122,13 +43790,13 @@
     </row>
     <row r="1171" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1171" s="4" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="B1171" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1171" s="5" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
       <c r="D1171" s="15"/>
       <c r="E1171" s="9"/>
@@ -43144,13 +43812,13 @@
     </row>
     <row r="1172" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1172" s="4" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="B1172" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1172" s="5" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
       <c r="D1172" s="15"/>
       <c r="E1172" s="9"/>
@@ -43166,13 +43834,13 @@
     </row>
     <row r="1173" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1173" s="4" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="B1173" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1173" s="5" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
       <c r="D1173" s="15"/>
       <c r="E1173" s="9"/>
@@ -43186,15 +43854,15 @@
       <c r="M1173" s="9"/>
       <c r="N1173" s="12"/>
     </row>
-    <row r="1174" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1174" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1174" s="4" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="B1174" s="5" t="s">
-        <v>2243</v>
+        <v>2202</v>
       </c>
       <c r="C1174" s="5" t="s">
-        <v>2244</v>
+        <v>2241</v>
       </c>
       <c r="D1174" s="15"/>
       <c r="E1174" s="9"/>
@@ -43210,13 +43878,13 @@
     </row>
     <row r="1175" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1175" s="4" t="s">
-        <v>2245</v>
+        <v>2242</v>
       </c>
       <c r="B1175" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="C1175" s="5" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
       <c r="D1175" s="15"/>
       <c r="E1175" s="9"/>
@@ -43232,13 +43900,13 @@
     </row>
     <row r="1176" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1176" s="4" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="B1176" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="C1176" s="5" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="D1176" s="15"/>
       <c r="E1176" s="9"/>
@@ -43254,13 +43922,13 @@
     </row>
     <row r="1177" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1177" s="4" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
       <c r="B1177" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="C1177" s="5" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="D1177" s="15"/>
       <c r="E1177" s="9"/>
@@ -43276,13 +43944,13 @@
     </row>
     <row r="1178" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1178" s="4" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="B1178" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="C1178" s="5" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="D1178" s="15"/>
       <c r="E1178" s="9"/>
@@ -43298,13 +43966,13 @@
     </row>
     <row r="1179" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1179" s="4" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
       <c r="B1179" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="C1179" s="5" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="D1179" s="15"/>
       <c r="E1179" s="9"/>
@@ -43320,13 +43988,13 @@
     </row>
     <row r="1180" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1180" s="4" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
       <c r="B1180" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="C1180" s="5" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
       <c r="D1180" s="15"/>
       <c r="E1180" s="9"/>
@@ -43342,13 +44010,13 @@
     </row>
     <row r="1181" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1181" s="4" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="B1181" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="C1181" s="5" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
       <c r="D1181" s="15"/>
       <c r="E1181" s="9"/>
@@ -43364,7 +44032,7 @@
     </row>
     <row r="1182" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1182" s="4" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
       <c r="B1182" s="5" t="s">
         <v>2243</v>
@@ -43386,13 +44054,13 @@
     </row>
     <row r="1183" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1183" s="4" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="B1183" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="C1183" s="5" t="s">
-        <v>2261</v>
+        <v>2258</v>
       </c>
       <c r="D1183" s="15"/>
       <c r="E1183" s="9"/>
@@ -43408,13 +44076,13 @@
     </row>
     <row r="1184" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1184" s="4" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
       <c r="B1184" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="C1184" s="5" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="D1184" s="15"/>
       <c r="E1184" s="9"/>
@@ -43430,13 +44098,13 @@
     </row>
     <row r="1185" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1185" s="4" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="B1185" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="C1185" s="5" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="D1185" s="15"/>
       <c r="E1185" s="9"/>
@@ -43452,13 +44120,13 @@
     </row>
     <row r="1186" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1186" s="4" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="B1186" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="C1186" s="5" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="D1186" s="15"/>
       <c r="E1186" s="9"/>
@@ -43474,13 +44142,13 @@
     </row>
     <row r="1187" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1187" s="4" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
       <c r="B1187" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="C1187" s="5" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="D1187" s="15"/>
       <c r="E1187" s="9"/>
@@ -43496,13 +44164,13 @@
     </row>
     <row r="1188" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1188" s="4" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
       <c r="B1188" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="C1188" s="5" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
       <c r="D1188" s="15"/>
       <c r="E1188" s="9"/>
@@ -43518,13 +44186,13 @@
     </row>
     <row r="1189" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1189" s="4" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
       <c r="B1189" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="C1189" s="5" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="D1189" s="15"/>
       <c r="E1189" s="9"/>
@@ -43540,13 +44208,13 @@
     </row>
     <row r="1190" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1190" s="4" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="B1190" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="C1190" s="5" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
       <c r="D1190" s="15"/>
       <c r="E1190" s="9"/>
@@ -43562,13 +44230,13 @@
     </row>
     <row r="1191" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1191" s="4" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="B1191" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="C1191" s="5" t="s">
-        <v>2267</v>
+        <v>2275</v>
       </c>
       <c r="D1191" s="15"/>
       <c r="E1191" s="9"/>
@@ -43584,13 +44252,13 @@
     </row>
     <row r="1192" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1192" s="4" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="B1192" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="C1192" s="5" t="s">
-        <v>2278</v>
+        <v>2267</v>
       </c>
       <c r="D1192" s="15"/>
       <c r="E1192" s="9"/>
@@ -43606,13 +44274,13 @@
     </row>
     <row r="1193" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1193" s="4" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="B1193" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="C1193" s="5" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
       <c r="D1193" s="15"/>
       <c r="E1193" s="9"/>
@@ -43626,15 +44294,15 @@
       <c r="M1193" s="9"/>
       <c r="N1193" s="12"/>
     </row>
-    <row r="1194" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1194" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1194" s="4" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
       <c r="B1194" s="5" t="s">
-        <v>2282</v>
+        <v>2243</v>
       </c>
       <c r="C1194" s="5" t="s">
-        <v>2283</v>
+        <v>2280</v>
       </c>
       <c r="D1194" s="15"/>
       <c r="E1194" s="9"/>
@@ -43650,13 +44318,13 @@
     </row>
     <row r="1195" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1195" s="4" t="s">
-        <v>2284</v>
+        <v>2281</v>
       </c>
       <c r="B1195" s="5" t="s">
         <v>2282</v>
       </c>
       <c r="C1195" s="5" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
       <c r="D1195" s="15"/>
       <c r="E1195" s="9"/>
@@ -43672,13 +44340,13 @@
     </row>
     <row r="1196" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1196" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B1196" s="5" t="s">
         <v>2282</v>
       </c>
       <c r="C1196" s="5" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="D1196" s="15"/>
       <c r="E1196" s="9"/>
@@ -43694,13 +44362,13 @@
     </row>
     <row r="1197" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1197" s="4" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="B1197" s="5" t="s">
         <v>2282</v>
       </c>
       <c r="C1197" s="5" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="D1197" s="15"/>
       <c r="E1197" s="9"/>
@@ -43716,13 +44384,13 @@
     </row>
     <row r="1198" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1198" s="4" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="B1198" s="5" t="s">
         <v>2282</v>
       </c>
       <c r="C1198" s="5" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="D1198" s="15"/>
       <c r="E1198" s="9"/>
@@ -43738,13 +44406,13 @@
     </row>
     <row r="1199" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1199" s="4" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
       <c r="B1199" s="5" t="s">
         <v>2282</v>
       </c>
       <c r="C1199" s="5" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="D1199" s="15"/>
       <c r="E1199" s="9"/>
@@ -43760,13 +44428,13 @@
     </row>
     <row r="1200" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1200" s="4" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
       <c r="B1200" s="5" t="s">
         <v>2282</v>
       </c>
       <c r="C1200" s="5" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="D1200" s="15"/>
       <c r="E1200" s="9"/>
@@ -43782,13 +44450,13 @@
     </row>
     <row r="1201" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1201" s="4" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="B1201" s="5" t="s">
         <v>2282</v>
       </c>
       <c r="C1201" s="5" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
       <c r="D1201" s="15"/>
       <c r="E1201" s="9"/>
@@ -43804,13 +44472,13 @@
     </row>
     <row r="1202" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1202" s="4" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
       <c r="B1202" s="5" t="s">
         <v>2282</v>
       </c>
       <c r="C1202" s="5" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="D1202" s="15"/>
       <c r="E1202" s="9"/>
@@ -43826,13 +44494,13 @@
     </row>
     <row r="1203" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1203" s="4" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
       <c r="B1203" s="5" t="s">
         <v>2282</v>
       </c>
       <c r="C1203" s="5" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="D1203" s="15"/>
       <c r="E1203" s="9"/>
@@ -43848,13 +44516,13 @@
     </row>
     <row r="1204" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1204" s="4" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
       <c r="B1204" s="5" t="s">
         <v>2282</v>
       </c>
       <c r="C1204" s="5" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="D1204" s="15"/>
       <c r="E1204" s="9"/>
@@ -43870,13 +44538,13 @@
     </row>
     <row r="1205" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1205" s="4" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
       <c r="B1205" s="5" t="s">
         <v>2282</v>
       </c>
       <c r="C1205" s="5" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
       <c r="D1205" s="15"/>
       <c r="E1205" s="9"/>
@@ -43892,13 +44560,13 @@
     </row>
     <row r="1206" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1206" s="4" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
       <c r="B1206" s="5" t="s">
         <v>2282</v>
       </c>
       <c r="C1206" s="5" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="D1206" s="15"/>
       <c r="E1206" s="9"/>
@@ -43914,13 +44582,13 @@
     </row>
     <row r="1207" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1207" s="4" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="B1207" s="5" t="s">
         <v>2282</v>
       </c>
       <c r="C1207" s="5" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="D1207" s="15"/>
       <c r="E1207" s="9"/>
@@ -43936,13 +44604,13 @@
     </row>
     <row r="1208" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1208" s="4" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
       <c r="B1208" s="5" t="s">
         <v>2282</v>
       </c>
       <c r="C1208" s="5" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="D1208" s="15"/>
       <c r="E1208" s="9"/>
@@ -43958,13 +44626,13 @@
     </row>
     <row r="1209" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1209" s="4" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
       <c r="B1209" s="5" t="s">
         <v>2282</v>
       </c>
       <c r="C1209" s="5" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
       <c r="D1209" s="15"/>
       <c r="E1209" s="9"/>
@@ -43980,13 +44648,13 @@
     </row>
     <row r="1210" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1210" s="4" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="B1210" s="5" t="s">
         <v>2282</v>
       </c>
       <c r="C1210" s="5" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
       <c r="D1210" s="15"/>
       <c r="E1210" s="9"/>
@@ -44002,13 +44670,13 @@
     </row>
     <row r="1211" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1211" s="4" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
       <c r="B1211" s="5" t="s">
         <v>2282</v>
       </c>
       <c r="C1211" s="5" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
       <c r="D1211" s="15"/>
       <c r="E1211" s="9"/>
@@ -44024,13 +44692,13 @@
     </row>
     <row r="1212" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1212" s="4" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
       <c r="B1212" s="5" t="s">
         <v>2282</v>
       </c>
       <c r="C1212" s="5" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
       <c r="D1212" s="15"/>
       <c r="E1212" s="9"/>
@@ -44046,13 +44714,13 @@
     </row>
     <row r="1213" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1213" s="4" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
       <c r="B1213" s="5" t="s">
         <v>2282</v>
       </c>
       <c r="C1213" s="5" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
       <c r="D1213" s="15"/>
       <c r="E1213" s="9"/>
@@ -44068,13 +44736,13 @@
     </row>
     <row r="1214" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1214" s="4" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
       <c r="B1214" s="5" t="s">
-        <v>2323</v>
+        <v>2282</v>
       </c>
       <c r="C1214" s="5" t="s">
-        <v>2324</v>
+        <v>2321</v>
       </c>
       <c r="D1214" s="15"/>
       <c r="E1214" s="9"/>
@@ -44090,13 +44758,13 @@
     </row>
     <row r="1215" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1215" s="4" t="s">
-        <v>2325</v>
+        <v>2322</v>
       </c>
       <c r="B1215" s="5" t="s">
         <v>2323</v>
       </c>
       <c r="C1215" s="5" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
       <c r="D1215" s="15"/>
       <c r="E1215" s="9"/>
@@ -44112,13 +44780,13 @@
     </row>
     <row r="1216" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1216" s="4" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
       <c r="B1216" s="5" t="s">
         <v>2323</v>
       </c>
       <c r="C1216" s="5" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
       <c r="D1216" s="15"/>
       <c r="E1216" s="9"/>
@@ -44134,13 +44802,13 @@
     </row>
     <row r="1217" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1217" s="4" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="B1217" s="5" t="s">
         <v>2323</v>
       </c>
       <c r="C1217" s="5" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
       <c r="D1217" s="15"/>
       <c r="E1217" s="9"/>
@@ -44156,13 +44824,13 @@
     </row>
     <row r="1218" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1218" s="4" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
       <c r="B1218" s="5" t="s">
         <v>2323</v>
       </c>
       <c r="C1218" s="5" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
       <c r="D1218" s="15"/>
       <c r="E1218" s="9"/>
@@ -44178,13 +44846,13 @@
     </row>
     <row r="1219" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1219" s="4" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
       <c r="B1219" s="5" t="s">
         <v>2323</v>
       </c>
       <c r="C1219" s="5" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
       <c r="D1219" s="15"/>
       <c r="E1219" s="9"/>
@@ -44200,13 +44868,13 @@
     </row>
     <row r="1220" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1220" s="4" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
       <c r="B1220" s="5" t="s">
         <v>2323</v>
       </c>
       <c r="C1220" s="5" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
       <c r="D1220" s="15"/>
       <c r="E1220" s="9"/>
@@ -44222,13 +44890,13 @@
     </row>
     <row r="1221" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1221" s="4" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
       <c r="B1221" s="5" t="s">
         <v>2323</v>
       </c>
       <c r="C1221" s="5" t="s">
-        <v>2338</v>
+        <v>2336</v>
       </c>
       <c r="D1221" s="15"/>
       <c r="E1221" s="9"/>
@@ -44244,13 +44912,13 @@
     </row>
     <row r="1222" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1222" s="4" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
       <c r="B1222" s="5" t="s">
         <v>2323</v>
       </c>
       <c r="C1222" s="5" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
       <c r="D1222" s="15"/>
       <c r="E1222" s="9"/>
@@ -44266,13 +44934,13 @@
     </row>
     <row r="1223" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1223" s="4" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="B1223" s="5" t="s">
         <v>2323</v>
       </c>
       <c r="C1223" s="5" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="D1223" s="15"/>
       <c r="E1223" s="9"/>
@@ -44288,13 +44956,13 @@
     </row>
     <row r="1224" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1224" s="4" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
       <c r="B1224" s="5" t="s">
         <v>2323</v>
       </c>
       <c r="C1224" s="5" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="D1224" s="15"/>
       <c r="E1224" s="9"/>
@@ -44310,13 +44978,13 @@
     </row>
     <row r="1225" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1225" s="4" t="s">
-        <v>2345</v>
+        <v>2343</v>
       </c>
       <c r="B1225" s="5" t="s">
         <v>2323</v>
       </c>
       <c r="C1225" s="5" t="s">
-        <v>2346</v>
+        <v>2344</v>
       </c>
       <c r="D1225" s="15"/>
       <c r="E1225" s="9"/>
@@ -44332,13 +45000,13 @@
     </row>
     <row r="1226" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1226" s="4" t="s">
-        <v>2347</v>
+        <v>2345</v>
       </c>
       <c r="B1226" s="5" t="s">
         <v>2323</v>
       </c>
       <c r="C1226" s="5" t="s">
-        <v>2348</v>
+        <v>2346</v>
       </c>
       <c r="D1226" s="15"/>
       <c r="E1226" s="9"/>
@@ -44354,13 +45022,13 @@
     </row>
     <row r="1227" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1227" s="4" t="s">
-        <v>2349</v>
+        <v>2347</v>
       </c>
       <c r="B1227" s="5" t="s">
         <v>2323</v>
       </c>
       <c r="C1227" s="5" t="s">
-        <v>2350</v>
+        <v>2348</v>
       </c>
       <c r="D1227" s="15"/>
       <c r="E1227" s="9"/>
@@ -44376,13 +45044,13 @@
     </row>
     <row r="1228" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1228" s="4" t="s">
-        <v>2351</v>
+        <v>2349</v>
       </c>
       <c r="B1228" s="5" t="s">
         <v>2323</v>
       </c>
       <c r="C1228" s="5" t="s">
-        <v>2352</v>
+        <v>2350</v>
       </c>
       <c r="D1228" s="15"/>
       <c r="E1228" s="9"/>
@@ -44398,13 +45066,13 @@
     </row>
     <row r="1229" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1229" s="4" t="s">
-        <v>2353</v>
+        <v>2351</v>
       </c>
       <c r="B1229" s="5" t="s">
         <v>2323</v>
       </c>
       <c r="C1229" s="5" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
       <c r="D1229" s="15"/>
       <c r="E1229" s="9"/>
@@ -44420,13 +45088,13 @@
     </row>
     <row r="1230" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1230" s="4" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
       <c r="B1230" s="5" t="s">
         <v>2323</v>
       </c>
       <c r="C1230" s="5" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="D1230" s="15"/>
       <c r="E1230" s="9"/>
@@ -44442,13 +45110,13 @@
     </row>
     <row r="1231" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1231" s="4" t="s">
-        <v>2357</v>
+        <v>2355</v>
       </c>
       <c r="B1231" s="5" t="s">
         <v>2323</v>
       </c>
       <c r="C1231" s="5" t="s">
-        <v>2358</v>
+        <v>2356</v>
       </c>
       <c r="D1231" s="15"/>
       <c r="E1231" s="9"/>
@@ -44464,13 +45132,13 @@
     </row>
     <row r="1232" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1232" s="4" t="s">
-        <v>2359</v>
+        <v>2357</v>
       </c>
       <c r="B1232" s="5" t="s">
         <v>2323</v>
       </c>
       <c r="C1232" s="5" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
       <c r="D1232" s="15"/>
       <c r="E1232" s="9"/>
@@ -44486,13 +45154,13 @@
     </row>
     <row r="1233" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1233" s="4" t="s">
-        <v>2361</v>
+        <v>2359</v>
       </c>
       <c r="B1233" s="5" t="s">
         <v>2323</v>
       </c>
       <c r="C1233" s="5" t="s">
-        <v>2362</v>
+        <v>2360</v>
       </c>
       <c r="D1233" s="15"/>
       <c r="E1233" s="9"/>
@@ -44506,15 +45174,15 @@
       <c r="M1233" s="9"/>
       <c r="N1233" s="12"/>
     </row>
-    <row r="1234" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1234" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1234" s="4" t="s">
-        <v>2363</v>
+        <v>2361</v>
       </c>
       <c r="B1234" s="5" t="s">
-        <v>2364</v>
+        <v>2323</v>
       </c>
       <c r="C1234" s="5" t="s">
-        <v>2365</v>
+        <v>2362</v>
       </c>
       <c r="D1234" s="15"/>
       <c r="E1234" s="9"/>
@@ -44530,13 +45198,13 @@
     </row>
     <row r="1235" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1235" s="4" t="s">
-        <v>2366</v>
+        <v>2363</v>
       </c>
       <c r="B1235" s="5" t="s">
         <v>2364</v>
       </c>
       <c r="C1235" s="5" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="D1235" s="15"/>
       <c r="E1235" s="9"/>
@@ -44550,15 +45218,15 @@
       <c r="M1235" s="9"/>
       <c r="N1235" s="12"/>
     </row>
-    <row r="1236" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1236" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1236" s="4" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
       <c r="B1236" s="5" t="s">
         <v>2364</v>
       </c>
       <c r="C1236" s="5" t="s">
-        <v>2369</v>
+        <v>2367</v>
       </c>
       <c r="D1236" s="15"/>
       <c r="E1236" s="9"/>
@@ -44572,15 +45240,15 @@
       <c r="M1236" s="9"/>
       <c r="N1236" s="12"/>
     </row>
-    <row r="1237" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1237" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1237" s="4" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
       <c r="B1237" s="5" t="s">
         <v>2364</v>
       </c>
       <c r="C1237" s="5" t="s">
-        <v>2371</v>
+        <v>2369</v>
       </c>
       <c r="D1237" s="15"/>
       <c r="E1237" s="9"/>
@@ -44594,15 +45262,15 @@
       <c r="M1237" s="9"/>
       <c r="N1237" s="12"/>
     </row>
-    <row r="1238" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1238" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1238" s="4" t="s">
-        <v>2372</v>
+        <v>2370</v>
       </c>
       <c r="B1238" s="5" t="s">
         <v>2364</v>
       </c>
       <c r="C1238" s="5" t="s">
-        <v>2373</v>
+        <v>2371</v>
       </c>
       <c r="D1238" s="15"/>
       <c r="E1238" s="9"/>
@@ -44618,13 +45286,13 @@
     </row>
     <row r="1239" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1239" s="4" t="s">
-        <v>2374</v>
+        <v>2372</v>
       </c>
       <c r="B1239" s="5" t="s">
         <v>2364</v>
       </c>
       <c r="C1239" s="5" t="s">
-        <v>2375</v>
+        <v>2373</v>
       </c>
       <c r="D1239" s="15"/>
       <c r="E1239" s="9"/>
@@ -44640,13 +45308,13 @@
     </row>
     <row r="1240" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1240" s="4" t="s">
-        <v>2376</v>
+        <v>2374</v>
       </c>
       <c r="B1240" s="5" t="s">
         <v>2364</v>
       </c>
       <c r="C1240" s="5" t="s">
-        <v>2377</v>
+        <v>2375</v>
       </c>
       <c r="D1240" s="15"/>
       <c r="E1240" s="9"/>
@@ -44660,15 +45328,15 @@
       <c r="M1240" s="9"/>
       <c r="N1240" s="12"/>
     </row>
-    <row r="1241" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1241" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1241" s="4" t="s">
-        <v>2378</v>
+        <v>2376</v>
       </c>
       <c r="B1241" s="5" t="s">
         <v>2364</v>
       </c>
       <c r="C1241" s="5" t="s">
-        <v>2379</v>
+        <v>2377</v>
       </c>
       <c r="D1241" s="15"/>
       <c r="E1241" s="9"/>
@@ -44682,15 +45350,15 @@
       <c r="M1241" s="9"/>
       <c r="N1241" s="12"/>
     </row>
-    <row r="1242" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1242" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1242" s="4" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
       <c r="B1242" s="5" t="s">
         <v>2364</v>
       </c>
       <c r="C1242" s="5" t="s">
-        <v>2381</v>
+        <v>2379</v>
       </c>
       <c r="D1242" s="15"/>
       <c r="E1242" s="9"/>
@@ -44706,13 +45374,13 @@
     </row>
     <row r="1243" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1243" s="4" t="s">
-        <v>2382</v>
+        <v>2380</v>
       </c>
       <c r="B1243" s="5" t="s">
         <v>2364</v>
       </c>
       <c r="C1243" s="5" t="s">
-        <v>2383</v>
+        <v>2381</v>
       </c>
       <c r="D1243" s="15"/>
       <c r="E1243" s="9"/>
@@ -44728,13 +45396,13 @@
     </row>
     <row r="1244" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1244" s="4" t="s">
-        <v>2384</v>
+        <v>2382</v>
       </c>
       <c r="B1244" s="5" t="s">
         <v>2364</v>
       </c>
       <c r="C1244" s="5" t="s">
-        <v>2385</v>
+        <v>2383</v>
       </c>
       <c r="D1244" s="15"/>
       <c r="E1244" s="9"/>
@@ -44750,13 +45418,13 @@
     </row>
     <row r="1245" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1245" s="4" t="s">
-        <v>2386</v>
+        <v>2384</v>
       </c>
       <c r="B1245" s="5" t="s">
         <v>2364</v>
       </c>
       <c r="C1245" s="5" t="s">
-        <v>2387</v>
+        <v>2385</v>
       </c>
       <c r="D1245" s="15"/>
       <c r="E1245" s="9"/>
@@ -44772,13 +45440,13 @@
     </row>
     <row r="1246" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1246" s="4" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
       <c r="B1246" s="5" t="s">
         <v>2364</v>
       </c>
       <c r="C1246" s="5" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="D1246" s="15"/>
       <c r="E1246" s="9"/>
@@ -44794,13 +45462,13 @@
     </row>
     <row r="1247" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1247" s="4" t="s">
-        <v>2390</v>
+        <v>2388</v>
       </c>
       <c r="B1247" s="5" t="s">
         <v>2364</v>
       </c>
       <c r="C1247" s="5" t="s">
-        <v>2391</v>
+        <v>2389</v>
       </c>
       <c r="D1247" s="15"/>
       <c r="E1247" s="9"/>
@@ -44816,13 +45484,13 @@
     </row>
     <row r="1248" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1248" s="4" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="B1248" s="5" t="s">
         <v>2364</v>
       </c>
       <c r="C1248" s="5" t="s">
-        <v>2393</v>
+        <v>2391</v>
       </c>
       <c r="D1248" s="15"/>
       <c r="E1248" s="9"/>
@@ -44838,13 +45506,13 @@
     </row>
     <row r="1249" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1249" s="4" t="s">
-        <v>2394</v>
+        <v>2392</v>
       </c>
       <c r="B1249" s="5" t="s">
         <v>2364</v>
       </c>
       <c r="C1249" s="5" t="s">
-        <v>2395</v>
+        <v>2393</v>
       </c>
       <c r="D1249" s="15"/>
       <c r="E1249" s="9"/>
@@ -44860,13 +45528,13 @@
     </row>
     <row r="1250" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1250" s="4" t="s">
-        <v>2396</v>
+        <v>2394</v>
       </c>
       <c r="B1250" s="5" t="s">
         <v>2364</v>
       </c>
       <c r="C1250" s="5" t="s">
-        <v>2397</v>
+        <v>2395</v>
       </c>
       <c r="D1250" s="15"/>
       <c r="E1250" s="9"/>
@@ -44882,13 +45550,13 @@
     </row>
     <row r="1251" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1251" s="4" t="s">
-        <v>2398</v>
+        <v>2396</v>
       </c>
       <c r="B1251" s="5" t="s">
         <v>2364</v>
       </c>
       <c r="C1251" s="5" t="s">
-        <v>2399</v>
+        <v>2397</v>
       </c>
       <c r="D1251" s="15"/>
       <c r="E1251" s="9"/>
@@ -44904,13 +45572,13 @@
     </row>
     <row r="1252" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1252" s="4" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
       <c r="B1252" s="5" t="s">
         <v>2364</v>
       </c>
       <c r="C1252" s="5" t="s">
-        <v>2401</v>
+        <v>2399</v>
       </c>
       <c r="D1252" s="15"/>
       <c r="E1252" s="9"/>
@@ -44926,13 +45594,13 @@
     </row>
     <row r="1253" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1253" s="4" t="s">
-        <v>2402</v>
+        <v>2400</v>
       </c>
       <c r="B1253" s="5" t="s">
         <v>2364</v>
       </c>
       <c r="C1253" s="5" t="s">
-        <v>2403</v>
+        <v>2401</v>
       </c>
       <c r="D1253" s="15"/>
       <c r="E1253" s="9"/>
@@ -44948,13 +45616,13 @@
     </row>
     <row r="1254" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1254" s="4" t="s">
-        <v>2404</v>
+        <v>2402</v>
       </c>
       <c r="B1254" s="5" t="s">
-        <v>2405</v>
+        <v>2364</v>
       </c>
       <c r="C1254" s="5" t="s">
-        <v>2406</v>
+        <v>2403</v>
       </c>
       <c r="D1254" s="15"/>
       <c r="E1254" s="9"/>
@@ -44970,13 +45638,13 @@
     </row>
     <row r="1255" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1255" s="4" t="s">
-        <v>2407</v>
+        <v>2404</v>
       </c>
       <c r="B1255" s="5" t="s">
         <v>2405</v>
       </c>
       <c r="C1255" s="5" t="s">
-        <v>2408</v>
+        <v>2406</v>
       </c>
       <c r="D1255" s="15"/>
       <c r="E1255" s="9"/>
@@ -44992,13 +45660,13 @@
     </row>
     <row r="1256" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1256" s="4" t="s">
-        <v>2409</v>
+        <v>2407</v>
       </c>
       <c r="B1256" s="5" t="s">
         <v>2405</v>
       </c>
       <c r="C1256" s="5" t="s">
-        <v>2410</v>
+        <v>2408</v>
       </c>
       <c r="D1256" s="15"/>
       <c r="E1256" s="9"/>
@@ -45014,13 +45682,13 @@
     </row>
     <row r="1257" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1257" s="4" t="s">
-        <v>2411</v>
+        <v>2409</v>
       </c>
       <c r="B1257" s="5" t="s">
         <v>2405</v>
       </c>
       <c r="C1257" s="5" t="s">
-        <v>2412</v>
+        <v>2410</v>
       </c>
       <c r="D1257" s="15"/>
       <c r="E1257" s="9"/>
@@ -45036,13 +45704,13 @@
     </row>
     <row r="1258" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1258" s="4" t="s">
-        <v>2413</v>
+        <v>2411</v>
       </c>
       <c r="B1258" s="5" t="s">
         <v>2405</v>
       </c>
       <c r="C1258" s="5" t="s">
-        <v>2414</v>
+        <v>2412</v>
       </c>
       <c r="D1258" s="15"/>
       <c r="E1258" s="9"/>
@@ -45056,15 +45724,15 @@
       <c r="M1258" s="9"/>
       <c r="N1258" s="12"/>
     </row>
-    <row r="1259" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1259" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1259" s="4" t="s">
-        <v>2415</v>
+        <v>2413</v>
       </c>
       <c r="B1259" s="5" t="s">
         <v>2405</v>
       </c>
       <c r="C1259" s="5" t="s">
-        <v>2416</v>
+        <v>2414</v>
       </c>
       <c r="D1259" s="15"/>
       <c r="E1259" s="9"/>
@@ -45080,13 +45748,13 @@
     </row>
     <row r="1260" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1260" s="4" t="s">
-        <v>2417</v>
+        <v>2415</v>
       </c>
       <c r="B1260" s="5" t="s">
         <v>2405</v>
       </c>
       <c r="C1260" s="5" t="s">
-        <v>2418</v>
+        <v>2416</v>
       </c>
       <c r="D1260" s="15"/>
       <c r="E1260" s="9"/>
@@ -45100,15 +45768,15 @@
       <c r="M1260" s="9"/>
       <c r="N1260" s="12"/>
     </row>
-    <row r="1261" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1261" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1261" s="4" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
       <c r="B1261" s="5" t="s">
         <v>2405</v>
       </c>
       <c r="C1261" s="5" t="s">
-        <v>2420</v>
+        <v>2418</v>
       </c>
       <c r="D1261" s="15"/>
       <c r="E1261" s="9"/>
@@ -45124,13 +45792,13 @@
     </row>
     <row r="1262" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1262" s="4" t="s">
-        <v>2421</v>
+        <v>2419</v>
       </c>
       <c r="B1262" s="5" t="s">
         <v>2405</v>
       </c>
       <c r="C1262" s="5" t="s">
-        <v>2422</v>
+        <v>2420</v>
       </c>
       <c r="D1262" s="15"/>
       <c r="E1262" s="9"/>
@@ -45146,13 +45814,13 @@
     </row>
     <row r="1263" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1263" s="4" t="s">
-        <v>2423</v>
+        <v>2421</v>
       </c>
       <c r="B1263" s="5" t="s">
         <v>2405</v>
       </c>
       <c r="C1263" s="5" t="s">
-        <v>2424</v>
+        <v>2422</v>
       </c>
       <c r="D1263" s="15"/>
       <c r="E1263" s="9"/>
@@ -45168,13 +45836,13 @@
     </row>
     <row r="1264" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1264" s="4" t="s">
-        <v>2425</v>
+        <v>2423</v>
       </c>
       <c r="B1264" s="5" t="s">
         <v>2405</v>
       </c>
       <c r="C1264" s="5" t="s">
-        <v>2426</v>
+        <v>2424</v>
       </c>
       <c r="D1264" s="15"/>
       <c r="E1264" s="9"/>
@@ -45190,13 +45858,13 @@
     </row>
     <row r="1265" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1265" s="4" t="s">
-        <v>2427</v>
+        <v>2425</v>
       </c>
       <c r="B1265" s="5" t="s">
         <v>2405</v>
       </c>
       <c r="C1265" s="5" t="s">
-        <v>2428</v>
+        <v>2426</v>
       </c>
       <c r="D1265" s="15"/>
       <c r="E1265" s="9"/>
@@ -45212,13 +45880,13 @@
     </row>
     <row r="1266" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1266" s="4" t="s">
-        <v>2429</v>
+        <v>2427</v>
       </c>
       <c r="B1266" s="5" t="s">
         <v>2405</v>
       </c>
       <c r="C1266" s="5" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
       <c r="D1266" s="15"/>
       <c r="E1266" s="9"/>
@@ -45234,13 +45902,13 @@
     </row>
     <row r="1267" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1267" s="4" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="B1267" s="5" t="s">
         <v>2405</v>
       </c>
       <c r="C1267" s="5" t="s">
-        <v>2432</v>
+        <v>2430</v>
       </c>
       <c r="D1267" s="15"/>
       <c r="E1267" s="9"/>
@@ -45256,13 +45924,13 @@
     </row>
     <row r="1268" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1268" s="4" t="s">
-        <v>2433</v>
+        <v>2431</v>
       </c>
       <c r="B1268" s="5" t="s">
         <v>2405</v>
       </c>
       <c r="C1268" s="5" t="s">
-        <v>2434</v>
+        <v>2432</v>
       </c>
       <c r="D1268" s="15"/>
       <c r="E1268" s="9"/>
@@ -45278,13 +45946,13 @@
     </row>
     <row r="1269" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1269" s="4" t="s">
-        <v>2435</v>
+        <v>2433</v>
       </c>
       <c r="B1269" s="5" t="s">
         <v>2405</v>
       </c>
       <c r="C1269" s="5" t="s">
-        <v>2436</v>
+        <v>2434</v>
       </c>
       <c r="D1269" s="15"/>
       <c r="E1269" s="9"/>
@@ -45300,13 +45968,13 @@
     </row>
     <row r="1270" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1270" s="4" t="s">
-        <v>2437</v>
+        <v>2435</v>
       </c>
       <c r="B1270" s="5" t="s">
         <v>2405</v>
       </c>
       <c r="C1270" s="5" t="s">
-        <v>2438</v>
+        <v>2436</v>
       </c>
       <c r="D1270" s="15"/>
       <c r="E1270" s="9"/>
@@ -45322,13 +45990,13 @@
     </row>
     <row r="1271" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1271" s="4" t="s">
-        <v>2439</v>
+        <v>2437</v>
       </c>
       <c r="B1271" s="5" t="s">
         <v>2405</v>
       </c>
       <c r="C1271" s="5" t="s">
-        <v>2440</v>
+        <v>2438</v>
       </c>
       <c r="D1271" s="15"/>
       <c r="E1271" s="9"/>
@@ -45344,13 +46012,13 @@
     </row>
     <row r="1272" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1272" s="4" t="s">
-        <v>2441</v>
+        <v>2439</v>
       </c>
       <c r="B1272" s="5" t="s">
         <v>2405</v>
       </c>
       <c r="C1272" s="5" t="s">
-        <v>2442</v>
+        <v>2440</v>
       </c>
       <c r="D1272" s="15"/>
       <c r="E1272" s="9"/>
@@ -45366,13 +46034,13 @@
     </row>
     <row r="1273" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1273" s="4" t="s">
-        <v>2443</v>
+        <v>2441</v>
       </c>
       <c r="B1273" s="5" t="s">
         <v>2405</v>
       </c>
       <c r="C1273" s="5" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
       <c r="D1273" s="15"/>
       <c r="E1273" s="9"/>
@@ -45388,13 +46056,13 @@
     </row>
     <row r="1274" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1274" s="4" t="s">
-        <v>2445</v>
+        <v>2443</v>
       </c>
       <c r="B1274" s="5" t="s">
-        <v>2446</v>
+        <v>2405</v>
       </c>
       <c r="C1274" s="5" t="s">
-        <v>2447</v>
+        <v>2444</v>
       </c>
       <c r="D1274" s="15"/>
       <c r="E1274" s="9"/>
@@ -45410,13 +46078,13 @@
     </row>
     <row r="1275" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1275" s="4" t="s">
-        <v>2448</v>
+        <v>2445</v>
       </c>
       <c r="B1275" s="5" t="s">
         <v>2446</v>
       </c>
       <c r="C1275" s="5" t="s">
-        <v>2449</v>
+        <v>2447</v>
       </c>
       <c r="D1275" s="15"/>
       <c r="E1275" s="9"/>
@@ -45432,13 +46100,13 @@
     </row>
     <row r="1276" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1276" s="4" t="s">
-        <v>2450</v>
+        <v>2448</v>
       </c>
       <c r="B1276" s="5" t="s">
         <v>2446</v>
       </c>
       <c r="C1276" s="5" t="s">
-        <v>2451</v>
+        <v>2449</v>
       </c>
       <c r="D1276" s="15"/>
       <c r="E1276" s="9"/>
@@ -45454,13 +46122,13 @@
     </row>
     <row r="1277" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1277" s="4" t="s">
-        <v>2452</v>
+        <v>2450</v>
       </c>
       <c r="B1277" s="5" t="s">
         <v>2446</v>
       </c>
       <c r="C1277" s="5" t="s">
-        <v>2453</v>
+        <v>2451</v>
       </c>
       <c r="D1277" s="15"/>
       <c r="E1277" s="9"/>
@@ -45476,13 +46144,13 @@
     </row>
     <row r="1278" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1278" s="4" t="s">
-        <v>2454</v>
+        <v>2452</v>
       </c>
       <c r="B1278" s="5" t="s">
         <v>2446</v>
       </c>
       <c r="C1278" s="5" t="s">
-        <v>2455</v>
+        <v>2453</v>
       </c>
       <c r="D1278" s="15"/>
       <c r="E1278" s="9"/>
@@ -45498,13 +46166,13 @@
     </row>
     <row r="1279" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1279" s="4" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B1279" s="5" t="s">
         <v>2446</v>
       </c>
       <c r="C1279" s="5" t="s">
-        <v>2457</v>
+        <v>2455</v>
       </c>
       <c r="D1279" s="15"/>
       <c r="E1279" s="9"/>
@@ -45520,13 +46188,13 @@
     </row>
     <row r="1280" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1280" s="4" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
       <c r="B1280" s="5" t="s">
         <v>2446</v>
       </c>
       <c r="C1280" s="5" t="s">
-        <v>2459</v>
+        <v>2457</v>
       </c>
       <c r="D1280" s="15"/>
       <c r="E1280" s="9"/>
@@ -45542,13 +46210,13 @@
     </row>
     <row r="1281" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1281" s="4" t="s">
-        <v>2460</v>
+        <v>2458</v>
       </c>
       <c r="B1281" s="5" t="s">
         <v>2446</v>
       </c>
       <c r="C1281" s="5" t="s">
-        <v>2461</v>
+        <v>2459</v>
       </c>
       <c r="D1281" s="15"/>
       <c r="E1281" s="9"/>
@@ -45562,15 +46230,15 @@
       <c r="M1281" s="9"/>
       <c r="N1281" s="12"/>
     </row>
-    <row r="1282" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1282" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1282" s="4" t="s">
-        <v>2462</v>
+        <v>2460</v>
       </c>
       <c r="B1282" s="5" t="s">
         <v>2446</v>
       </c>
       <c r="C1282" s="5" t="s">
-        <v>2463</v>
+        <v>2461</v>
       </c>
       <c r="D1282" s="15"/>
       <c r="E1282" s="9"/>
@@ -45586,13 +46254,13 @@
     </row>
     <row r="1283" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1283" s="4" t="s">
-        <v>2464</v>
+        <v>2462</v>
       </c>
       <c r="B1283" s="5" t="s">
         <v>2446</v>
       </c>
       <c r="C1283" s="5" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="D1283" s="15"/>
       <c r="E1283" s="9"/>
@@ -45606,15 +46274,15 @@
       <c r="M1283" s="9"/>
       <c r="N1283" s="12"/>
     </row>
-    <row r="1284" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1284" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1284" s="4" t="s">
-        <v>2466</v>
+        <v>2464</v>
       </c>
       <c r="B1284" s="5" t="s">
         <v>2446</v>
       </c>
       <c r="C1284" s="5" t="s">
-        <v>2467</v>
+        <v>2465</v>
       </c>
       <c r="D1284" s="15"/>
       <c r="E1284" s="9"/>
@@ -45630,13 +46298,13 @@
     </row>
     <row r="1285" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1285" s="4" t="s">
-        <v>2468</v>
+        <v>2466</v>
       </c>
       <c r="B1285" s="5" t="s">
         <v>2446</v>
       </c>
       <c r="C1285" s="5" t="s">
-        <v>2469</v>
+        <v>2467</v>
       </c>
       <c r="D1285" s="15"/>
       <c r="E1285" s="9"/>
@@ -45652,13 +46320,13 @@
     </row>
     <row r="1286" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1286" s="4" t="s">
-        <v>2470</v>
+        <v>2468</v>
       </c>
       <c r="B1286" s="5" t="s">
         <v>2446</v>
       </c>
       <c r="C1286" s="5" t="s">
-        <v>2471</v>
+        <v>2469</v>
       </c>
       <c r="D1286" s="15"/>
       <c r="E1286" s="9"/>
@@ -45674,13 +46342,13 @@
     </row>
     <row r="1287" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1287" s="4" t="s">
-        <v>2472</v>
+        <v>2470</v>
       </c>
       <c r="B1287" s="5" t="s">
         <v>2446</v>
       </c>
       <c r="C1287" s="5" t="s">
-        <v>2473</v>
+        <v>2471</v>
       </c>
       <c r="D1287" s="15"/>
       <c r="E1287" s="9"/>
@@ -45694,15 +46362,15 @@
       <c r="M1287" s="9"/>
       <c r="N1287" s="12"/>
     </row>
-    <row r="1288" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1288" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1288" s="4" t="s">
-        <v>2474</v>
+        <v>2472</v>
       </c>
       <c r="B1288" s="5" t="s">
         <v>2446</v>
       </c>
       <c r="C1288" s="5" t="s">
-        <v>2475</v>
+        <v>2473</v>
       </c>
       <c r="D1288" s="15"/>
       <c r="E1288" s="9"/>
@@ -45716,15 +46384,15 @@
       <c r="M1288" s="9"/>
       <c r="N1288" s="12"/>
     </row>
-    <row r="1289" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1289" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1289" s="4" t="s">
-        <v>2476</v>
+        <v>2474</v>
       </c>
       <c r="B1289" s="5" t="s">
         <v>2446</v>
       </c>
       <c r="C1289" s="5" t="s">
-        <v>2477</v>
+        <v>2475</v>
       </c>
       <c r="D1289" s="15"/>
       <c r="E1289" s="9"/>
@@ -45740,13 +46408,13 @@
     </row>
     <row r="1290" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1290" s="4" t="s">
-        <v>2478</v>
+        <v>2476</v>
       </c>
       <c r="B1290" s="5" t="s">
         <v>2446</v>
       </c>
       <c r="C1290" s="5" t="s">
-        <v>2479</v>
+        <v>2477</v>
       </c>
       <c r="D1290" s="15"/>
       <c r="E1290" s="9"/>
@@ -45760,15 +46428,15 @@
       <c r="M1290" s="9"/>
       <c r="N1290" s="12"/>
     </row>
-    <row r="1291" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1291" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1291" s="4" t="s">
-        <v>2480</v>
+        <v>2478</v>
       </c>
       <c r="B1291" s="5" t="s">
         <v>2446</v>
       </c>
       <c r="C1291" s="5" t="s">
-        <v>2481</v>
+        <v>2479</v>
       </c>
       <c r="D1291" s="15"/>
       <c r="E1291" s="9"/>
@@ -45782,15 +46450,15 @@
       <c r="M1291" s="9"/>
       <c r="N1291" s="12"/>
     </row>
-    <row r="1292" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1292" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1292" s="4" t="s">
-        <v>2482</v>
+        <v>2480</v>
       </c>
       <c r="B1292" s="5" t="s">
         <v>2446</v>
       </c>
       <c r="C1292" s="5" t="s">
-        <v>2483</v>
+        <v>2481</v>
       </c>
       <c r="D1292" s="15"/>
       <c r="E1292" s="9"/>
@@ -45805,26 +46473,48 @@
       <c r="N1292" s="12"/>
     </row>
     <row r="1293" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A1293" s="6" t="s">
+      <c r="A1293" s="4" t="s">
+        <v>2482</v>
+      </c>
+      <c r="B1293" s="5" t="s">
+        <v>2446</v>
+      </c>
+      <c r="C1293" s="5" t="s">
+        <v>2483</v>
+      </c>
+      <c r="D1293" s="15"/>
+      <c r="E1293" s="9"/>
+      <c r="F1293" s="9"/>
+      <c r="G1293" s="9"/>
+      <c r="H1293" s="9"/>
+      <c r="I1293" s="9"/>
+      <c r="J1293" s="9"/>
+      <c r="K1293" s="9"/>
+      <c r="L1293" s="9"/>
+      <c r="M1293" s="9"/>
+      <c r="N1293" s="12"/>
+    </row>
+    <row r="1294" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A1294" s="6" t="s">
         <v>2484</v>
       </c>
-      <c r="B1293" s="7" t="s">
+      <c r="B1294" s="7" t="s">
         <v>2446</v>
       </c>
-      <c r="C1293" s="7" t="s">
+      <c r="C1294" s="7" t="s">
         <v>2485</v>
       </c>
-      <c r="D1293" s="17"/>
-      <c r="E1293" s="13"/>
-      <c r="F1293" s="13"/>
-      <c r="G1293" s="13"/>
-      <c r="H1293" s="13"/>
-      <c r="I1293" s="13"/>
-      <c r="J1293" s="13"/>
-      <c r="K1293" s="13"/>
-      <c r="L1293" s="13"/>
-      <c r="M1293" s="13"/>
-      <c r="N1293" s="14"/>
+      <c r="D1294" s="17"/>
+      <c r="E1294" s="13"/>
+      <c r="F1294" s="13"/>
+      <c r="G1294" s="13"/>
+      <c r="H1294" s="13"/>
+      <c r="I1294" s="13"/>
+      <c r="J1294" s="13"/>
+      <c r="K1294" s="13"/>
+      <c r="L1294" s="13"/>
+      <c r="M1294" s="13"/>
+      <c r="N1294" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/longsor/v02_new/sample_longsor_anotasi_v02_new.xlsx.xlsx
+++ b/longsor/v02_new/sample_longsor_anotasi_v02_new.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dharmapu\Documents\personal\ui\KA-AMSD_src\paper-submission\anotated_data\longsor\v02_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA6C21E-55AC-42C3-AC6A-8D5FD2011AA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6619E992-230A-4844-A1D8-FB8B61337503}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7008" uniqueCount="3393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7586" uniqueCount="3531">
   <si>
     <t>id</t>
   </si>
@@ -10212,6 +10212,420 @@
   </si>
   <si>
     <t>Desa Sejati</t>
+  </si>
+  <si>
+    <t>Sulawesi Selatang</t>
+  </si>
+  <si>
+    <t>2020-01-12</t>
+  </si>
+  <si>
+    <t>Pinrang</t>
+  </si>
+  <si>
+    <t>Lembang</t>
+  </si>
+  <si>
+    <t>Desa Lembang Mesakada</t>
+  </si>
+  <si>
+    <t>Longsor merusak 3 rumah</t>
+  </si>
+  <si>
+    <t>Tana Torja</t>
+  </si>
+  <si>
+    <t>Rano</t>
+  </si>
+  <si>
+    <t>Lembang Rano Utara</t>
+  </si>
+  <si>
+    <t>Malimbong Balepe</t>
+  </si>
+  <si>
+    <t>Desa Leppan</t>
+  </si>
+  <si>
+    <t>2020-02-24</t>
+  </si>
+  <si>
+    <t>2020-02-23</t>
+  </si>
+  <si>
+    <t>jln. Penghubung Desa Bakaru - Desa Basseang</t>
+  </si>
+  <si>
+    <t>Pinreng</t>
+  </si>
+  <si>
+    <t>Suppa</t>
+  </si>
+  <si>
+    <t>Desa Wattang Palu</t>
+  </si>
+  <si>
+    <t>Sulawesi Tengah</t>
+  </si>
+  <si>
+    <t>Poso</t>
+  </si>
+  <si>
+    <t>Lore Selatan</t>
+  </si>
+  <si>
+    <t>Jln. Penghubung Lore Selatang - Lore Barat</t>
+  </si>
+  <si>
+    <t>Lore Barat</t>
+  </si>
+  <si>
+    <t>2018-03-08</t>
+  </si>
+  <si>
+    <t>Sigi</t>
+  </si>
+  <si>
+    <t>Gumbasa</t>
+  </si>
+  <si>
+    <t>Desa Simoro</t>
+  </si>
+  <si>
+    <t>2017-11-11</t>
+  </si>
+  <si>
+    <t>Palu</t>
+  </si>
+  <si>
+    <t>Tanantovea</t>
+  </si>
+  <si>
+    <t>Desa Wombo Mpanau</t>
+  </si>
+  <si>
+    <t>2016-12-14</t>
+  </si>
+  <si>
+    <t>Donggala</t>
+  </si>
+  <si>
+    <t>Balaesang Tanjung</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>Kamang Baru</t>
+  </si>
+  <si>
+    <t>2020-01-23</t>
+  </si>
+  <si>
+    <t>Tanah Datar</t>
+  </si>
+  <si>
+    <t>Padang Ganting</t>
+  </si>
+  <si>
+    <t>Nagari Atar</t>
+  </si>
+  <si>
+    <t>2016-03-25</t>
+  </si>
+  <si>
+    <t>Longsor merusak rumah warga, menutup akses jalan, dan membuat warga mengungsi</t>
+  </si>
+  <si>
+    <t>Lima Puluh Kota</t>
+  </si>
+  <si>
+    <t>Harau</t>
+  </si>
+  <si>
+    <t>Jorong Koto Marapak</t>
+  </si>
+  <si>
+    <t>Jl. Muaro Sikolek</t>
+  </si>
+  <si>
+    <t>Tanjung Gadang</t>
+  </si>
+  <si>
+    <t>Taratak Batu Utara</t>
+  </si>
+  <si>
+    <t>2018-03-26</t>
+  </si>
+  <si>
+    <t>Jl. Sisawah - Padang Laweh</t>
+  </si>
+  <si>
+    <t>Jorong Koto Baru</t>
+  </si>
+  <si>
+    <t>2019-12-08 &gt; 2019-12-09</t>
+  </si>
+  <si>
+    <t>Nagari Kunangan Parit Rantang</t>
+  </si>
+  <si>
+    <t>Nagari Takung</t>
+  </si>
+  <si>
+    <t>Bayang</t>
+  </si>
+  <si>
+    <t>Nagari Pasar Baru</t>
+  </si>
+  <si>
+    <t>2020-01-18</t>
+  </si>
+  <si>
+    <t>Linggo Sari Baganti</t>
+  </si>
+  <si>
+    <t>Nagari Padang XI Punggasan</t>
+  </si>
+  <si>
+    <t>Longsor merusak warga rumah warga</t>
+  </si>
+  <si>
+    <t>Terjadi longsor</t>
+  </si>
+  <si>
+    <t>Pulasan</t>
+  </si>
+  <si>
+    <t>2017-05-12</t>
+  </si>
+  <si>
+    <t>Nagari Solok Amba</t>
+  </si>
+  <si>
+    <t>2017-05-13</t>
+  </si>
+  <si>
+    <t>Ranah Ampek Hulu Tapan</t>
+  </si>
+  <si>
+    <t>Lintau Buo Utara</t>
+  </si>
+  <si>
+    <t>2018-10-11</t>
+  </si>
+  <si>
+    <t>KM 17 Koto Alam</t>
+  </si>
+  <si>
+    <t>2017-03-03</t>
+  </si>
+  <si>
+    <t>Longsor menimbun kendaraan</t>
+  </si>
+  <si>
+    <t>Solok</t>
+  </si>
+  <si>
+    <t>Kabupaten Solok</t>
+  </si>
+  <si>
+    <t>Jl. Padang - Solok</t>
+  </si>
+  <si>
+    <t>Longsor menimpa kendaran di jalan</t>
+  </si>
+  <si>
+    <t>Solok Selatan</t>
+  </si>
+  <si>
+    <t>Koto Parik Gadang Diateh</t>
+  </si>
+  <si>
+    <t>Pakan Rabaa Utara</t>
+  </si>
+  <si>
+    <t>2015-06-12</t>
+  </si>
+  <si>
+    <t>Longsor merusak rumah warga, menutup akses jalan, dan merusak lahan pertanian warga</t>
+  </si>
+  <si>
+    <t>Hulu Aia</t>
+  </si>
+  <si>
+    <t>2018-07-12</t>
+  </si>
+  <si>
+    <t>Agam</t>
+  </si>
+  <si>
+    <t>Bukik Apik</t>
+  </si>
+  <si>
+    <t>Sicincin-Malalak-Balingka</t>
+  </si>
+  <si>
+    <t>Talamau</t>
+  </si>
+  <si>
+    <t>Talu</t>
+  </si>
+  <si>
+    <t>2016-04-11</t>
+  </si>
+  <si>
+    <t>Lubuk Begalung</t>
+  </si>
+  <si>
+    <t>Tanah Runtuah Pampangan</t>
+  </si>
+  <si>
+    <t>2019-12-24</t>
+  </si>
+  <si>
+    <t>Ogan Komering Ulu Selatan</t>
+  </si>
+  <si>
+    <t>Desa Bajarwangi</t>
+  </si>
+  <si>
+    <t>Malang</t>
+  </si>
+  <si>
+    <t>Lowokmaru</t>
+  </si>
+  <si>
+    <t>Kelurahan Merjosari</t>
+  </si>
+  <si>
+    <t>Longsor mengakibatkan korban jiwa, luka-luka dan kerusakan rumah warga</t>
+  </si>
+  <si>
+    <t>Lahat</t>
+  </si>
+  <si>
+    <t>Pulau Pinang</t>
+  </si>
+  <si>
+    <t>Desa Jati</t>
+  </si>
+  <si>
+    <t>2019-02-02</t>
+  </si>
+  <si>
+    <t>Kota Lahat</t>
+  </si>
+  <si>
+    <t>Pagar Gunung</t>
+  </si>
+  <si>
+    <t>Mulak Sebingkai</t>
+  </si>
+  <si>
+    <t>Mulak Ulu</t>
+  </si>
+  <si>
+    <t>Kota Agung</t>
+  </si>
+  <si>
+    <t>Tanjung Tebat</t>
+  </si>
+  <si>
+    <t>Desa Lekung Daun</t>
+  </si>
+  <si>
+    <t>Tanjung Mulak</t>
+  </si>
+  <si>
+    <t>2020-01-05</t>
+  </si>
+  <si>
+    <t>Pagaralam</t>
+  </si>
+  <si>
+    <t>Dempo Utara</t>
+  </si>
+  <si>
+    <t>Desa Kerinjing</t>
+  </si>
+  <si>
+    <t>2019-08-13</t>
+  </si>
+  <si>
+    <t>Sumatera Selaetan</t>
+  </si>
+  <si>
+    <t>Muara Enim</t>
+  </si>
+  <si>
+    <t>Tanjung Agung</t>
+  </si>
+  <si>
+    <t>Desa Pandang Bindu</t>
+  </si>
+  <si>
+    <t>2016-11-14</t>
+  </si>
+  <si>
+    <t>Ulu PUngkut</t>
+  </si>
+  <si>
+    <t>Desa Muara Sedadi</t>
+  </si>
+  <si>
+    <t>2018-10-12</t>
+  </si>
+  <si>
+    <t>2017-10-02</t>
+  </si>
+  <si>
+    <t>Padang Lawas</t>
+  </si>
+  <si>
+    <t>Hutaraja Tinggi</t>
+  </si>
+  <si>
+    <t>Jln. Provinsi</t>
+  </si>
+  <si>
+    <t>2017-04-22</t>
+  </si>
+  <si>
+    <t>Longsor merusak akses jalan</t>
+  </si>
+  <si>
+    <t>Kabupaten Mandailing Natal</t>
+  </si>
+  <si>
+    <t>Panyabungan</t>
+  </si>
+  <si>
+    <t>Aek Milas</t>
+  </si>
+  <si>
+    <t>Toba Samosir</t>
+  </si>
+  <si>
+    <t>Nassau</t>
+  </si>
+  <si>
+    <t>Desa Cinta Dame</t>
+  </si>
+  <si>
+    <t>Magelang</t>
+  </si>
+  <si>
+    <t>Sawangan</t>
+  </si>
+  <si>
+    <t>Desa Wonolelo</t>
+  </si>
+  <si>
+    <t>2017-01-30</t>
+  </si>
+  <si>
+    <t>Longsor menutup akses jalan, mengakibatkan korban luka, dan merusak bangunan milik warga</t>
   </si>
 </sst>
 </file>
@@ -11032,13 +11446,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -11077,6 +11484,13 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -11127,8 +11541,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0DB818F3-68FE-4235-A92A-982B534C89A1}" name="Table1" displayName="Table1" ref="A1:N1294" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16" totalsRowBorderDxfId="14">
-  <autoFilter ref="A1:N1294" xr:uid="{E26000C0-D27A-4574-8416-42E327D73F8C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0DB818F3-68FE-4235-A92A-982B534C89A1}" name="Table1" displayName="Table1" ref="A1:N1308" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+  <autoFilter ref="A1:N1308" xr:uid="{E26000C0-D27A-4574-8416-42E327D73F8C}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{17AA4DAC-27F4-4010-A247-C81F3A237DE9}" name="id" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{CDBBE364-4975-4FCF-BE54-5961EC656206}" name="source" dataDxfId="12"/>
@@ -11412,10 +11826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1294"/>
+  <dimension ref="A1:N1308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1076" workbookViewId="0">
-      <selection activeCell="D1095" sqref="D1095"/>
+    <sheetView tabSelected="1" topLeftCell="A1281" workbookViewId="0">
+      <selection activeCell="N1289" sqref="N1289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42126,17 +42540,31 @@
       <c r="C1095" s="5" t="s">
         <v>2081</v>
       </c>
-      <c r="D1095" s="15"/>
-      <c r="E1095" s="9"/>
-      <c r="F1095" s="9"/>
-      <c r="G1095" s="9"/>
-      <c r="H1095" s="9"/>
-      <c r="I1095" s="9"/>
+      <c r="D1095" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1095" s="10" t="s">
+        <v>3394</v>
+      </c>
+      <c r="F1095" s="9" t="s">
+        <v>3393</v>
+      </c>
+      <c r="G1095" s="9" t="s">
+        <v>2703</v>
+      </c>
+      <c r="H1095" s="9" t="s">
+        <v>2704</v>
+      </c>
+      <c r="I1095" s="9" t="s">
+        <v>2705</v>
+      </c>
       <c r="J1095" s="9"/>
       <c r="K1095" s="9"/>
       <c r="L1095" s="9"/>
       <c r="M1095" s="9"/>
-      <c r="N1095" s="12"/>
+      <c r="N1095" s="12" t="s">
+        <v>2730</v>
+      </c>
     </row>
     <row r="1096" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1096" s="4" t="s">
@@ -42148,7 +42576,9 @@
       <c r="C1096" s="5" t="s">
         <v>2083</v>
       </c>
-      <c r="D1096" s="15"/>
+      <c r="D1096" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1096" s="9"/>
       <c r="F1096" s="9"/>
       <c r="G1096" s="9"/>
@@ -42170,17 +42600,33 @@
       <c r="C1097" s="5" t="s">
         <v>2085</v>
       </c>
-      <c r="D1097" s="15"/>
-      <c r="E1097" s="9"/>
-      <c r="F1097" s="9"/>
-      <c r="G1097" s="9"/>
-      <c r="H1097" s="9"/>
-      <c r="I1097" s="9"/>
+      <c r="D1097" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1097" s="10" t="s">
+        <v>3034</v>
+      </c>
+      <c r="F1097" s="9" t="s">
+        <v>2653</v>
+      </c>
+      <c r="G1097" s="9" t="s">
+        <v>3395</v>
+      </c>
+      <c r="H1097" s="9" t="s">
+        <v>3396</v>
+      </c>
+      <c r="I1097" s="9" t="s">
+        <v>3397</v>
+      </c>
       <c r="J1097" s="9"/>
       <c r="K1097" s="9"/>
       <c r="L1097" s="9"/>
-      <c r="M1097" s="9"/>
-      <c r="N1097" s="12"/>
+      <c r="M1097" s="9">
+        <v>3</v>
+      </c>
+      <c r="N1097" s="12" t="s">
+        <v>3398</v>
+      </c>
     </row>
     <row r="1098" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1098" s="4" t="s">
@@ -42192,7 +42638,9 @@
       <c r="C1098" s="5" t="s">
         <v>2087</v>
       </c>
-      <c r="D1098" s="15"/>
+      <c r="D1098" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1098" s="9"/>
       <c r="F1098" s="9"/>
       <c r="G1098" s="9"/>
@@ -42214,7 +42662,9 @@
       <c r="C1099" s="5" t="s">
         <v>2089</v>
       </c>
-      <c r="D1099" s="15"/>
+      <c r="D1099" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1099" s="9"/>
       <c r="F1099" s="9"/>
       <c r="G1099" s="9"/>
@@ -42236,7 +42686,9 @@
       <c r="C1100" s="5" t="s">
         <v>2091</v>
       </c>
-      <c r="D1100" s="15"/>
+      <c r="D1100" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1100" s="9"/>
       <c r="F1100" s="9"/>
       <c r="G1100" s="9"/>
@@ -42258,17 +42710,31 @@
       <c r="C1101" s="5" t="s">
         <v>2093</v>
       </c>
-      <c r="D1101" s="15"/>
-      <c r="E1101" s="9"/>
-      <c r="F1101" s="9"/>
-      <c r="G1101" s="9"/>
-      <c r="H1101" s="9"/>
-      <c r="I1101" s="9"/>
+      <c r="D1101" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1101" s="10" t="s">
+        <v>654</v>
+      </c>
+      <c r="F1101" s="9" t="s">
+        <v>2653</v>
+      </c>
+      <c r="G1101" s="9" t="s">
+        <v>3399</v>
+      </c>
+      <c r="H1101" s="9" t="s">
+        <v>3400</v>
+      </c>
+      <c r="I1101" s="9" t="s">
+        <v>3401</v>
+      </c>
       <c r="J1101" s="9"/>
       <c r="K1101" s="9"/>
       <c r="L1101" s="9"/>
       <c r="M1101" s="9"/>
-      <c r="N1101" s="12"/>
+      <c r="N1101" s="12" t="s">
+        <v>2730</v>
+      </c>
     </row>
     <row r="1102" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1102" s="4" t="s">
@@ -42280,7 +42746,9 @@
       <c r="C1102" s="5" t="s">
         <v>2095</v>
       </c>
-      <c r="D1102" s="15"/>
+      <c r="D1102" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1102" s="9"/>
       <c r="F1102" s="9"/>
       <c r="G1102" s="9"/>
@@ -42302,17 +42770,31 @@
       <c r="C1103" s="5" t="s">
         <v>2097</v>
       </c>
-      <c r="D1103" s="15"/>
-      <c r="E1103" s="9"/>
-      <c r="F1103" s="9"/>
-      <c r="G1103" s="9"/>
-      <c r="H1103" s="9"/>
-      <c r="I1103" s="9"/>
+      <c r="D1103" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1103" s="10" t="s">
+        <v>3404</v>
+      </c>
+      <c r="F1103" s="9" t="s">
+        <v>2653</v>
+      </c>
+      <c r="G1103" s="9" t="s">
+        <v>3399</v>
+      </c>
+      <c r="H1103" s="9" t="s">
+        <v>3402</v>
+      </c>
+      <c r="I1103" s="9" t="s">
+        <v>3403</v>
+      </c>
       <c r="J1103" s="9"/>
       <c r="K1103" s="9"/>
       <c r="L1103" s="9"/>
       <c r="M1103" s="9"/>
-      <c r="N1103" s="12"/>
+      <c r="N1103" s="12" t="s">
+        <v>2730</v>
+      </c>
     </row>
     <row r="1104" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1104" s="4" t="s">
@@ -42324,7 +42806,9 @@
       <c r="C1104" s="5" t="s">
         <v>2099</v>
       </c>
-      <c r="D1104" s="15"/>
+      <c r="D1104" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1104" s="9"/>
       <c r="F1104" s="9"/>
       <c r="G1104" s="9"/>
@@ -42346,7 +42830,9 @@
       <c r="C1105" s="5" t="s">
         <v>2101</v>
       </c>
-      <c r="D1105" s="15"/>
+      <c r="D1105" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1105" s="9"/>
       <c r="F1105" s="9"/>
       <c r="G1105" s="9"/>
@@ -42368,17 +42854,31 @@
       <c r="C1106" s="5" t="s">
         <v>2103</v>
       </c>
-      <c r="D1106" s="15"/>
-      <c r="E1106" s="9"/>
-      <c r="F1106" s="9"/>
-      <c r="G1106" s="9"/>
-      <c r="H1106" s="9"/>
-      <c r="I1106" s="9"/>
+      <c r="D1106" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1106" s="10" t="s">
+        <v>3405</v>
+      </c>
+      <c r="F1106" s="9" t="s">
+        <v>2653</v>
+      </c>
+      <c r="G1106" s="9" t="s">
+        <v>3395</v>
+      </c>
+      <c r="H1106" s="9" t="s">
+        <v>3396</v>
+      </c>
+      <c r="I1106" s="9" t="s">
+        <v>3406</v>
+      </c>
       <c r="J1106" s="9"/>
       <c r="K1106" s="9"/>
       <c r="L1106" s="9"/>
       <c r="M1106" s="9"/>
-      <c r="N1106" s="12"/>
+      <c r="N1106" s="12" t="s">
+        <v>2730</v>
+      </c>
     </row>
     <row r="1107" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1107" s="4" t="s">
@@ -42390,7 +42890,9 @@
       <c r="C1107" s="5" t="s">
         <v>2105</v>
       </c>
-      <c r="D1107" s="15"/>
+      <c r="D1107" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1107" s="9"/>
       <c r="F1107" s="9"/>
       <c r="G1107" s="9"/>
@@ -42412,7 +42914,9 @@
       <c r="C1108" s="5" t="s">
         <v>2107</v>
       </c>
-      <c r="D1108" s="15"/>
+      <c r="D1108" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1108" s="9"/>
       <c r="F1108" s="9"/>
       <c r="G1108" s="9"/>
@@ -42434,7 +42938,9 @@
       <c r="C1109" s="5" t="s">
         <v>2109</v>
       </c>
-      <c r="D1109" s="15"/>
+      <c r="D1109" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1109" s="9"/>
       <c r="F1109" s="9"/>
       <c r="G1109" s="9"/>
@@ -42456,7 +42962,9 @@
       <c r="C1110" s="5" t="s">
         <v>2111</v>
       </c>
-      <c r="D1110" s="15"/>
+      <c r="D1110" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1110" s="9"/>
       <c r="F1110" s="9"/>
       <c r="G1110" s="9"/>
@@ -42478,7 +42986,9 @@
       <c r="C1111" s="5" t="s">
         <v>2113</v>
       </c>
-      <c r="D1111" s="15"/>
+      <c r="D1111" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1111" s="9"/>
       <c r="F1111" s="9"/>
       <c r="G1111" s="9"/>
@@ -42500,7 +43010,9 @@
       <c r="C1112" s="5" t="s">
         <v>2115</v>
       </c>
-      <c r="D1112" s="15"/>
+      <c r="D1112" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1112" s="9"/>
       <c r="F1112" s="9"/>
       <c r="G1112" s="9"/>
@@ -42522,7 +43034,9 @@
       <c r="C1113" s="5" t="s">
         <v>2117</v>
       </c>
-      <c r="D1113" s="15"/>
+      <c r="D1113" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1113" s="9"/>
       <c r="F1113" s="9"/>
       <c r="G1113" s="9"/>
@@ -42544,17 +43058,31 @@
       <c r="C1114" s="5" t="s">
         <v>2119</v>
       </c>
-      <c r="D1114" s="15"/>
-      <c r="E1114" s="9"/>
-      <c r="F1114" s="9"/>
-      <c r="G1114" s="9"/>
-      <c r="H1114" s="9"/>
-      <c r="I1114" s="9"/>
+      <c r="D1114" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1114" s="10" t="s">
+        <v>3394</v>
+      </c>
+      <c r="F1114" s="9" t="s">
+        <v>2653</v>
+      </c>
+      <c r="G1114" s="9" t="s">
+        <v>3407</v>
+      </c>
+      <c r="H1114" s="9" t="s">
+        <v>3408</v>
+      </c>
+      <c r="I1114" s="9" t="s">
+        <v>3409</v>
+      </c>
       <c r="J1114" s="9"/>
       <c r="K1114" s="9"/>
       <c r="L1114" s="9"/>
       <c r="M1114" s="9"/>
-      <c r="N1114" s="12"/>
+      <c r="N1114" s="12" t="s">
+        <v>2730</v>
+      </c>
     </row>
     <row r="1115" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1115" s="4" t="s">
@@ -42566,7 +43094,9 @@
       <c r="C1115" s="5" t="s">
         <v>2122</v>
       </c>
-      <c r="D1115" s="15"/>
+      <c r="D1115" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1115" s="9"/>
       <c r="F1115" s="9"/>
       <c r="G1115" s="9"/>
@@ -42588,51 +43118,81 @@
       <c r="C1116" s="5" t="s">
         <v>2124</v>
       </c>
-      <c r="D1116" s="15"/>
-      <c r="E1116" s="9"/>
-      <c r="F1116" s="9"/>
-      <c r="G1116" s="9"/>
-      <c r="H1116" s="9"/>
-      <c r="I1116" s="9"/>
+      <c r="D1116" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1116" s="10" t="s">
+        <v>3415</v>
+      </c>
+      <c r="F1116" s="9" t="s">
+        <v>3410</v>
+      </c>
+      <c r="G1116" s="9" t="s">
+        <v>3411</v>
+      </c>
+      <c r="H1116" s="9" t="s">
+        <v>3412</v>
+      </c>
+      <c r="I1116" s="9" t="s">
+        <v>3413</v>
+      </c>
       <c r="J1116" s="9"/>
       <c r="K1116" s="9"/>
       <c r="L1116" s="9"/>
       <c r="M1116" s="9"/>
-      <c r="N1116" s="12"/>
+      <c r="N1116" s="12" t="s">
+        <v>2730</v>
+      </c>
     </row>
     <row r="1117" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1117" s="4" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="B1117" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1117" s="5" t="s">
-        <v>2126</v>
-      </c>
-      <c r="D1117" s="15"/>
-      <c r="E1117" s="9"/>
-      <c r="F1117" s="9"/>
-      <c r="G1117" s="9"/>
-      <c r="H1117" s="9"/>
-      <c r="I1117" s="9"/>
+        <v>2124</v>
+      </c>
+      <c r="D1117" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1117" s="10" t="s">
+        <v>3415</v>
+      </c>
+      <c r="F1117" s="9" t="s">
+        <v>3410</v>
+      </c>
+      <c r="G1117" s="9" t="s">
+        <v>3411</v>
+      </c>
+      <c r="H1117" s="9" t="s">
+        <v>3414</v>
+      </c>
+      <c r="I1117" s="9" t="s">
+        <v>3413</v>
+      </c>
       <c r="J1117" s="9"/>
       <c r="K1117" s="9"/>
       <c r="L1117" s="9"/>
       <c r="M1117" s="9"/>
-      <c r="N1117" s="12"/>
+      <c r="N1117" s="12" t="s">
+        <v>2730</v>
+      </c>
     </row>
     <row r="1118" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1118" s="4" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="B1118" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1118" s="5" t="s">
-        <v>2128</v>
-      </c>
-      <c r="D1118" s="15"/>
+        <v>2126</v>
+      </c>
+      <c r="D1118" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1118" s="9"/>
       <c r="F1118" s="9"/>
       <c r="G1118" s="9"/>
@@ -42646,15 +43206,17 @@
     </row>
     <row r="1119" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1119" s="4" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="B1119" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1119" s="5" t="s">
-        <v>2130</v>
-      </c>
-      <c r="D1119" s="15"/>
+        <v>2128</v>
+      </c>
+      <c r="D1119" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1119" s="9"/>
       <c r="F1119" s="9"/>
       <c r="G1119" s="9"/>
@@ -42668,37 +43230,53 @@
     </row>
     <row r="1120" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1120" s="4" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="B1120" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1120" s="5" t="s">
-        <v>2132</v>
-      </c>
-      <c r="D1120" s="15"/>
-      <c r="E1120" s="9"/>
-      <c r="F1120" s="9"/>
-      <c r="G1120" s="9"/>
-      <c r="H1120" s="9"/>
-      <c r="I1120" s="9"/>
+        <v>2130</v>
+      </c>
+      <c r="D1120" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1120" s="10" t="s">
+        <v>3419</v>
+      </c>
+      <c r="F1120" s="9" t="s">
+        <v>3410</v>
+      </c>
+      <c r="G1120" s="9" t="s">
+        <v>3416</v>
+      </c>
+      <c r="H1120" s="9" t="s">
+        <v>3417</v>
+      </c>
+      <c r="I1120" s="9" t="s">
+        <v>3418</v>
+      </c>
       <c r="J1120" s="9"/>
       <c r="K1120" s="9"/>
       <c r="L1120" s="9"/>
       <c r="M1120" s="9"/>
-      <c r="N1120" s="12"/>
+      <c r="N1120" s="12" t="s">
+        <v>2730</v>
+      </c>
     </row>
     <row r="1121" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1121" s="4" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
       <c r="B1121" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1121" s="5" t="s">
-        <v>2134</v>
-      </c>
-      <c r="D1121" s="15"/>
+        <v>2132</v>
+      </c>
+      <c r="D1121" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1121" s="9"/>
       <c r="F1121" s="9"/>
       <c r="G1121" s="9"/>
@@ -42712,15 +43290,17 @@
     </row>
     <row r="1122" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1122" s="4" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
       <c r="B1122" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1122" s="5" t="s">
-        <v>2136</v>
-      </c>
-      <c r="D1122" s="15"/>
+        <v>2134</v>
+      </c>
+      <c r="D1122" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1122" s="9"/>
       <c r="F1122" s="9"/>
       <c r="G1122" s="9"/>
@@ -42734,15 +43314,17 @@
     </row>
     <row r="1123" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1123" s="4" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
       <c r="B1123" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1123" s="5" t="s">
-        <v>2138</v>
-      </c>
-      <c r="D1123" s="15"/>
+        <v>2136</v>
+      </c>
+      <c r="D1123" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1123" s="9"/>
       <c r="F1123" s="9"/>
       <c r="G1123" s="9"/>
@@ -42756,15 +43338,17 @@
     </row>
     <row r="1124" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1124" s="4" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="B1124" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1124" s="5" t="s">
-        <v>2140</v>
-      </c>
-      <c r="D1124" s="15"/>
+        <v>2138</v>
+      </c>
+      <c r="D1124" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1124" s="9"/>
       <c r="F1124" s="9"/>
       <c r="G1124" s="9"/>
@@ -42778,15 +43362,17 @@
     </row>
     <row r="1125" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1125" s="4" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="B1125" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1125" s="5" t="s">
-        <v>2142</v>
-      </c>
-      <c r="D1125" s="15"/>
+        <v>2140</v>
+      </c>
+      <c r="D1125" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1125" s="9"/>
       <c r="F1125" s="9"/>
       <c r="G1125" s="9"/>
@@ -42800,15 +43386,17 @@
     </row>
     <row r="1126" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1126" s="4" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
       <c r="B1126" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1126" s="5" t="s">
-        <v>2144</v>
-      </c>
-      <c r="D1126" s="15"/>
+        <v>2142</v>
+      </c>
+      <c r="D1126" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1126" s="9"/>
       <c r="F1126" s="9"/>
       <c r="G1126" s="9"/>
@@ -42822,15 +43410,17 @@
     </row>
     <row r="1127" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1127" s="4" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
       <c r="B1127" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1127" s="5" t="s">
-        <v>2146</v>
-      </c>
-      <c r="D1127" s="15"/>
+        <v>2144</v>
+      </c>
+      <c r="D1127" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1127" s="9"/>
       <c r="F1127" s="9"/>
       <c r="G1127" s="9"/>
@@ -42844,37 +43434,53 @@
     </row>
     <row r="1128" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1128" s="4" t="s">
-        <v>2147</v>
+        <v>2145</v>
       </c>
       <c r="B1128" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1128" s="5" t="s">
-        <v>2148</v>
-      </c>
-      <c r="D1128" s="15"/>
-      <c r="E1128" s="9"/>
-      <c r="F1128" s="9"/>
-      <c r="G1128" s="9"/>
-      <c r="H1128" s="9"/>
-      <c r="I1128" s="9"/>
+        <v>2146</v>
+      </c>
+      <c r="D1128" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1128" s="10" t="s">
+        <v>3423</v>
+      </c>
+      <c r="F1128" s="9" t="s">
+        <v>3410</v>
+      </c>
+      <c r="G1128" s="9" t="s">
+        <v>3420</v>
+      </c>
+      <c r="H1128" s="9" t="s">
+        <v>3421</v>
+      </c>
+      <c r="I1128" s="9" t="s">
+        <v>3422</v>
+      </c>
       <c r="J1128" s="9"/>
       <c r="K1128" s="9"/>
       <c r="L1128" s="9"/>
       <c r="M1128" s="9"/>
-      <c r="N1128" s="12"/>
+      <c r="N1128" s="12" t="s">
+        <v>2730</v>
+      </c>
     </row>
     <row r="1129" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1129" s="4" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="B1129" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1129" s="5" t="s">
-        <v>2150</v>
-      </c>
-      <c r="D1129" s="15"/>
+        <v>2148</v>
+      </c>
+      <c r="D1129" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1129" s="9"/>
       <c r="F1129" s="9"/>
       <c r="G1129" s="9"/>
@@ -42888,15 +43494,17 @@
     </row>
     <row r="1130" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1130" s="4" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
       <c r="B1130" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1130" s="5" t="s">
-        <v>2152</v>
-      </c>
-      <c r="D1130" s="15"/>
+        <v>2150</v>
+      </c>
+      <c r="D1130" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1130" s="9"/>
       <c r="F1130" s="9"/>
       <c r="G1130" s="9"/>
@@ -42910,15 +43518,17 @@
     </row>
     <row r="1131" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1131" s="4" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="B1131" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1131" s="5" t="s">
-        <v>2154</v>
-      </c>
-      <c r="D1131" s="15"/>
+        <v>2152</v>
+      </c>
+      <c r="D1131" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1131" s="9"/>
       <c r="F1131" s="9"/>
       <c r="G1131" s="9"/>
@@ -42932,15 +43542,17 @@
     </row>
     <row r="1132" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1132" s="4" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="B1132" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1132" s="5" t="s">
-        <v>2156</v>
-      </c>
-      <c r="D1132" s="15"/>
+        <v>2154</v>
+      </c>
+      <c r="D1132" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1132" s="9"/>
       <c r="F1132" s="9"/>
       <c r="G1132" s="9"/>
@@ -42954,15 +43566,17 @@
     </row>
     <row r="1133" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1133" s="4" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="B1133" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1133" s="5" t="s">
-        <v>2158</v>
-      </c>
-      <c r="D1133" s="15"/>
+        <v>2156</v>
+      </c>
+      <c r="D1133" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1133" s="9"/>
       <c r="F1133" s="9"/>
       <c r="G1133" s="9"/>
@@ -42976,37 +43590,53 @@
     </row>
     <row r="1134" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1134" s="4" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
       <c r="B1134" s="5" t="s">
         <v>2121</v>
       </c>
       <c r="C1134" s="5" t="s">
-        <v>2160</v>
-      </c>
-      <c r="D1134" s="15"/>
-      <c r="E1134" s="9"/>
-      <c r="F1134" s="9"/>
-      <c r="G1134" s="9"/>
-      <c r="H1134" s="9"/>
-      <c r="I1134" s="9"/>
+        <v>2158</v>
+      </c>
+      <c r="D1134" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1134" s="10" t="s">
+        <v>3426</v>
+      </c>
+      <c r="F1134" s="9" t="s">
+        <v>3393</v>
+      </c>
+      <c r="G1134" s="9" t="s">
+        <v>3424</v>
+      </c>
+      <c r="H1134" s="9" t="s">
+        <v>3425</v>
+      </c>
+      <c r="I1134" s="9" t="s">
+        <v>2497</v>
+      </c>
       <c r="J1134" s="9"/>
       <c r="K1134" s="9"/>
       <c r="L1134" s="9"/>
       <c r="M1134" s="9"/>
-      <c r="N1134" s="12"/>
-    </row>
-    <row r="1135" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="N1134" s="12" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1135" s="4" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
       <c r="B1135" s="5" t="s">
-        <v>2162</v>
+        <v>2121</v>
       </c>
       <c r="C1135" s="5" t="s">
-        <v>2163</v>
-      </c>
-      <c r="D1135" s="15"/>
+        <v>2160</v>
+      </c>
+      <c r="D1135" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1135" s="9"/>
       <c r="F1135" s="9"/>
       <c r="G1135" s="9"/>
@@ -43020,15 +43650,17 @@
     </row>
     <row r="1136" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1136" s="4" t="s">
-        <v>2164</v>
+        <v>2161</v>
       </c>
       <c r="B1136" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1136" s="5" t="s">
-        <v>2165</v>
-      </c>
-      <c r="D1136" s="15"/>
+        <v>2163</v>
+      </c>
+      <c r="D1136" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1136" s="9"/>
       <c r="F1136" s="9"/>
       <c r="G1136" s="9"/>
@@ -43042,15 +43674,17 @@
     </row>
     <row r="1137" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1137" s="4" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
       <c r="B1137" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1137" s="5" t="s">
-        <v>2167</v>
-      </c>
-      <c r="D1137" s="15"/>
+        <v>2165</v>
+      </c>
+      <c r="D1137" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1137" s="9"/>
       <c r="F1137" s="9"/>
       <c r="G1137" s="9"/>
@@ -43064,15 +43698,17 @@
     </row>
     <row r="1138" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1138" s="4" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="B1138" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1138" s="5" t="s">
-        <v>2169</v>
-      </c>
-      <c r="D1138" s="15"/>
+        <v>2167</v>
+      </c>
+      <c r="D1138" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1138" s="9"/>
       <c r="F1138" s="9"/>
       <c r="G1138" s="9"/>
@@ -43086,15 +43722,17 @@
     </row>
     <row r="1139" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1139" s="4" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="B1139" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1139" s="5" t="s">
-        <v>2171</v>
-      </c>
-      <c r="D1139" s="15"/>
+        <v>2169</v>
+      </c>
+      <c r="D1139" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1139" s="9"/>
       <c r="F1139" s="9"/>
       <c r="G1139" s="9"/>
@@ -43108,15 +43746,17 @@
     </row>
     <row r="1140" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1140" s="4" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="B1140" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1140" s="5" t="s">
-        <v>2173</v>
-      </c>
-      <c r="D1140" s="15"/>
+        <v>2171</v>
+      </c>
+      <c r="D1140" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1140" s="9"/>
       <c r="F1140" s="9"/>
       <c r="G1140" s="9"/>
@@ -43130,15 +43770,17 @@
     </row>
     <row r="1141" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1141" s="4" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="B1141" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1141" s="5" t="s">
-        <v>2175</v>
-      </c>
-      <c r="D1141" s="15"/>
+        <v>2173</v>
+      </c>
+      <c r="D1141" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1141" s="9"/>
       <c r="F1141" s="9"/>
       <c r="G1141" s="9"/>
@@ -43152,15 +43794,17 @@
     </row>
     <row r="1142" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1142" s="4" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="B1142" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1142" s="5" t="s">
-        <v>2177</v>
-      </c>
-      <c r="D1142" s="15"/>
+        <v>2175</v>
+      </c>
+      <c r="D1142" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1142" s="9"/>
       <c r="F1142" s="9"/>
       <c r="G1142" s="9"/>
@@ -43174,15 +43818,17 @@
     </row>
     <row r="1143" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1143" s="4" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="B1143" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1143" s="5" t="s">
-        <v>2179</v>
-      </c>
-      <c r="D1143" s="15"/>
+        <v>2177</v>
+      </c>
+      <c r="D1143" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1143" s="9"/>
       <c r="F1143" s="9"/>
       <c r="G1143" s="9"/>
@@ -43196,15 +43842,17 @@
     </row>
     <row r="1144" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1144" s="4" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
       <c r="B1144" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1144" s="5" t="s">
-        <v>2181</v>
-      </c>
-      <c r="D1144" s="15"/>
+        <v>2179</v>
+      </c>
+      <c r="D1144" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1144" s="9"/>
       <c r="F1144" s="9"/>
       <c r="G1144" s="9"/>
@@ -43218,15 +43866,17 @@
     </row>
     <row r="1145" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1145" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1145" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1145" s="5" t="s">
-        <v>2183</v>
-      </c>
-      <c r="D1145" s="15"/>
+        <v>2181</v>
+      </c>
+      <c r="D1145" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1145" s="9"/>
       <c r="F1145" s="9"/>
       <c r="G1145" s="9"/>
@@ -43240,15 +43890,17 @@
     </row>
     <row r="1146" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1146" s="4" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
       <c r="B1146" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1146" s="5" t="s">
-        <v>2185</v>
-      </c>
-      <c r="D1146" s="15"/>
+        <v>2183</v>
+      </c>
+      <c r="D1146" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1146" s="9"/>
       <c r="F1146" s="9"/>
       <c r="G1146" s="9"/>
@@ -43262,15 +43914,17 @@
     </row>
     <row r="1147" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1147" s="4" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
       <c r="B1147" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1147" s="5" t="s">
-        <v>2187</v>
-      </c>
-      <c r="D1147" s="15"/>
+        <v>2185</v>
+      </c>
+      <c r="D1147" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1147" s="9"/>
       <c r="F1147" s="9"/>
       <c r="G1147" s="9"/>
@@ -43284,15 +43938,17 @@
     </row>
     <row r="1148" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1148" s="4" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
       <c r="B1148" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1148" s="5" t="s">
-        <v>2189</v>
-      </c>
-      <c r="D1148" s="15"/>
+        <v>2187</v>
+      </c>
+      <c r="D1148" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1148" s="9"/>
       <c r="F1148" s="9"/>
       <c r="G1148" s="9"/>
@@ -43306,15 +43962,17 @@
     </row>
     <row r="1149" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1149" s="4" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
       <c r="B1149" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1149" s="5" t="s">
-        <v>2191</v>
-      </c>
-      <c r="D1149" s="15"/>
+        <v>2189</v>
+      </c>
+      <c r="D1149" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1149" s="9"/>
       <c r="F1149" s="9"/>
       <c r="G1149" s="9"/>
@@ -43328,15 +43986,17 @@
     </row>
     <row r="1150" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1150" s="4" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="B1150" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1150" s="5" t="s">
-        <v>2193</v>
-      </c>
-      <c r="D1150" s="15"/>
+        <v>2191</v>
+      </c>
+      <c r="D1150" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1150" s="9"/>
       <c r="F1150" s="9"/>
       <c r="G1150" s="9"/>
@@ -43350,15 +44010,17 @@
     </row>
     <row r="1151" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1151" s="4" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="B1151" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1151" s="5" t="s">
-        <v>2195</v>
-      </c>
-      <c r="D1151" s="15"/>
+        <v>2193</v>
+      </c>
+      <c r="D1151" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1151" s="9"/>
       <c r="F1151" s="9"/>
       <c r="G1151" s="9"/>
@@ -43372,15 +44034,17 @@
     </row>
     <row r="1152" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1152" s="4" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="B1152" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1152" s="5" t="s">
-        <v>2197</v>
-      </c>
-      <c r="D1152" s="15"/>
+        <v>2195</v>
+      </c>
+      <c r="D1152" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1152" s="9"/>
       <c r="F1152" s="9"/>
       <c r="G1152" s="9"/>
@@ -43394,15 +44058,17 @@
     </row>
     <row r="1153" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1153" s="4" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="B1153" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1153" s="5" t="s">
-        <v>2183</v>
-      </c>
-      <c r="D1153" s="15"/>
+        <v>2197</v>
+      </c>
+      <c r="D1153" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1153" s="9"/>
       <c r="F1153" s="9"/>
       <c r="G1153" s="9"/>
@@ -43416,15 +44082,17 @@
     </row>
     <row r="1154" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1154" s="4" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="B1154" s="5" t="s">
         <v>2162</v>
       </c>
       <c r="C1154" s="5" t="s">
-        <v>2200</v>
-      </c>
-      <c r="D1154" s="15"/>
+        <v>2183</v>
+      </c>
+      <c r="D1154" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1154" s="9"/>
       <c r="F1154" s="9"/>
       <c r="G1154" s="9"/>
@@ -43436,17 +44104,19 @@
       <c r="M1154" s="9"/>
       <c r="N1154" s="12"/>
     </row>
-    <row r="1155" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1155" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1155" s="4" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
       <c r="B1155" s="5" t="s">
-        <v>2202</v>
+        <v>2162</v>
       </c>
       <c r="C1155" s="5" t="s">
-        <v>2203</v>
-      </c>
-      <c r="D1155" s="15"/>
+        <v>2200</v>
+      </c>
+      <c r="D1155" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1155" s="9"/>
       <c r="F1155" s="9"/>
       <c r="G1155" s="9"/>
@@ -43460,15 +44130,17 @@
     </row>
     <row r="1156" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1156" s="4" t="s">
-        <v>2204</v>
+        <v>2201</v>
       </c>
       <c r="B1156" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1156" s="5" t="s">
-        <v>2205</v>
-      </c>
-      <c r="D1156" s="15"/>
+        <v>2203</v>
+      </c>
+      <c r="D1156" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1156" s="9"/>
       <c r="F1156" s="9"/>
       <c r="G1156" s="9"/>
@@ -43482,15 +44154,17 @@
     </row>
     <row r="1157" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1157" s="4" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="B1157" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1157" s="5" t="s">
-        <v>2207</v>
-      </c>
-      <c r="D1157" s="15"/>
+        <v>2205</v>
+      </c>
+      <c r="D1157" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1157" s="9"/>
       <c r="F1157" s="9"/>
       <c r="G1157" s="9"/>
@@ -43504,37 +44178,53 @@
     </row>
     <row r="1158" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1158" s="4" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="B1158" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1158" s="5" t="s">
-        <v>2209</v>
-      </c>
-      <c r="D1158" s="15"/>
-      <c r="E1158" s="9"/>
-      <c r="F1158" s="9"/>
-      <c r="G1158" s="9"/>
-      <c r="H1158" s="9"/>
-      <c r="I1158" s="9"/>
+        <v>2207</v>
+      </c>
+      <c r="D1158" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1158" s="10" t="s">
+        <v>3428</v>
+      </c>
+      <c r="F1158" s="9" t="s">
+        <v>2924</v>
+      </c>
+      <c r="G1158" s="9" t="s">
+        <v>3345</v>
+      </c>
+      <c r="H1158" s="9" t="s">
+        <v>3427</v>
+      </c>
+      <c r="I1158" s="9" t="s">
+        <v>2497</v>
+      </c>
       <c r="J1158" s="9"/>
       <c r="K1158" s="9"/>
       <c r="L1158" s="9"/>
       <c r="M1158" s="9"/>
-      <c r="N1158" s="12"/>
+      <c r="N1158" s="12" t="s">
+        <v>2730</v>
+      </c>
     </row>
     <row r="1159" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1159" s="4" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="B1159" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1159" s="5" t="s">
-        <v>2211</v>
-      </c>
-      <c r="D1159" s="15"/>
+        <v>2209</v>
+      </c>
+      <c r="D1159" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1159" s="9"/>
       <c r="F1159" s="9"/>
       <c r="G1159" s="9"/>
@@ -43548,15 +44238,17 @@
     </row>
     <row r="1160" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1160" s="4" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="B1160" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1160" s="5" t="s">
-        <v>2213</v>
-      </c>
-      <c r="D1160" s="15"/>
+        <v>2211</v>
+      </c>
+      <c r="D1160" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1160" s="9"/>
       <c r="F1160" s="9"/>
       <c r="G1160" s="9"/>
@@ -43570,15 +44262,17 @@
     </row>
     <row r="1161" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1161" s="4" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="B1161" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1161" s="5" t="s">
-        <v>2215</v>
-      </c>
-      <c r="D1161" s="15"/>
+        <v>2213</v>
+      </c>
+      <c r="D1161" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1161" s="9"/>
       <c r="F1161" s="9"/>
       <c r="G1161" s="9"/>
@@ -43592,15 +44286,17 @@
     </row>
     <row r="1162" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1162" s="4" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="B1162" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1162" s="5" t="s">
-        <v>2217</v>
-      </c>
-      <c r="D1162" s="15"/>
+        <v>2215</v>
+      </c>
+      <c r="D1162" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1162" s="9"/>
       <c r="F1162" s="9"/>
       <c r="G1162" s="9"/>
@@ -43614,15 +44310,17 @@
     </row>
     <row r="1163" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1163" s="4" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="B1163" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1163" s="5" t="s">
-        <v>2219</v>
-      </c>
-      <c r="D1163" s="15"/>
+        <v>2217</v>
+      </c>
+      <c r="D1163" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1163" s="9"/>
       <c r="F1163" s="9"/>
       <c r="G1163" s="9"/>
@@ -43636,15 +44334,17 @@
     </row>
     <row r="1164" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1164" s="4" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="B1164" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1164" s="5" t="s">
-        <v>2221</v>
-      </c>
-      <c r="D1164" s="15"/>
+        <v>2219</v>
+      </c>
+      <c r="D1164" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1164" s="9"/>
       <c r="F1164" s="9"/>
       <c r="G1164" s="9"/>
@@ -43658,37 +44358,53 @@
     </row>
     <row r="1165" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1165" s="4" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="B1165" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1165" s="5" t="s">
-        <v>2223</v>
-      </c>
-      <c r="D1165" s="15"/>
-      <c r="E1165" s="9"/>
-      <c r="F1165" s="9"/>
-      <c r="G1165" s="9"/>
-      <c r="H1165" s="9"/>
-      <c r="I1165" s="9"/>
+        <v>2221</v>
+      </c>
+      <c r="D1165" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1165" s="10" t="s">
+        <v>3432</v>
+      </c>
+      <c r="F1165" s="9" t="s">
+        <v>2924</v>
+      </c>
+      <c r="G1165" s="9" t="s">
+        <v>3429</v>
+      </c>
+      <c r="H1165" s="9" t="s">
+        <v>3430</v>
+      </c>
+      <c r="I1165" s="9" t="s">
+        <v>3431</v>
+      </c>
       <c r="J1165" s="9"/>
       <c r="K1165" s="9"/>
       <c r="L1165" s="9"/>
       <c r="M1165" s="9"/>
-      <c r="N1165" s="12"/>
+      <c r="N1165" s="12" t="s">
+        <v>3433</v>
+      </c>
     </row>
     <row r="1166" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1166" s="4" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
       <c r="B1166" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1166" s="5" t="s">
-        <v>2225</v>
-      </c>
-      <c r="D1166" s="15"/>
+        <v>2223</v>
+      </c>
+      <c r="D1166" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1166" s="9"/>
       <c r="F1166" s="9"/>
       <c r="G1166" s="9"/>
@@ -43702,15 +44418,17 @@
     </row>
     <row r="1167" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1167" s="4" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="B1167" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1167" s="5" t="s">
-        <v>2227</v>
-      </c>
-      <c r="D1167" s="15"/>
+        <v>2225</v>
+      </c>
+      <c r="D1167" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1167" s="9"/>
       <c r="F1167" s="9"/>
       <c r="G1167" s="9"/>
@@ -43724,15 +44442,17 @@
     </row>
     <row r="1168" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1168" s="4" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="B1168" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1168" s="5" t="s">
-        <v>2229</v>
-      </c>
-      <c r="D1168" s="15"/>
+        <v>2227</v>
+      </c>
+      <c r="D1168" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1168" s="9"/>
       <c r="F1168" s="9"/>
       <c r="G1168" s="9"/>
@@ -43746,15 +44466,17 @@
     </row>
     <row r="1169" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1169" s="4" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="B1169" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1169" s="5" t="s">
-        <v>2231</v>
-      </c>
-      <c r="D1169" s="15"/>
+        <v>2229</v>
+      </c>
+      <c r="D1169" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1169" s="9"/>
       <c r="F1169" s="9"/>
       <c r="G1169" s="9"/>
@@ -43768,15 +44490,17 @@
     </row>
     <row r="1170" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1170" s="4" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="B1170" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1170" s="5" t="s">
-        <v>2233</v>
-      </c>
-      <c r="D1170" s="15"/>
+        <v>2231</v>
+      </c>
+      <c r="D1170" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1170" s="9"/>
       <c r="F1170" s="9"/>
       <c r="G1170" s="9"/>
@@ -43790,37 +44514,53 @@
     </row>
     <row r="1171" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1171" s="4" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="B1171" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1171" s="5" t="s">
-        <v>2235</v>
-      </c>
-      <c r="D1171" s="15"/>
-      <c r="E1171" s="9"/>
-      <c r="F1171" s="9"/>
-      <c r="G1171" s="9"/>
-      <c r="H1171" s="9"/>
-      <c r="I1171" s="9"/>
+        <v>2233</v>
+      </c>
+      <c r="D1171" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1171" s="10" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F1171" s="9" t="s">
+        <v>2924</v>
+      </c>
+      <c r="G1171" s="9" t="s">
+        <v>3434</v>
+      </c>
+      <c r="H1171" s="9" t="s">
+        <v>3435</v>
+      </c>
+      <c r="I1171" s="9" t="s">
+        <v>3436</v>
+      </c>
       <c r="J1171" s="9"/>
       <c r="K1171" s="9"/>
       <c r="L1171" s="9"/>
       <c r="M1171" s="9"/>
-      <c r="N1171" s="12"/>
+      <c r="N1171" s="12" t="s">
+        <v>2730</v>
+      </c>
     </row>
     <row r="1172" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1172" s="4" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="B1172" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1172" s="5" t="s">
-        <v>2237</v>
-      </c>
-      <c r="D1172" s="15"/>
+        <v>2235</v>
+      </c>
+      <c r="D1172" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1172" s="9"/>
       <c r="F1172" s="9"/>
       <c r="G1172" s="9"/>
@@ -43834,15 +44574,17 @@
     </row>
     <row r="1173" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1173" s="4" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="B1173" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1173" s="5" t="s">
-        <v>2239</v>
-      </c>
-      <c r="D1173" s="15"/>
+        <v>2237</v>
+      </c>
+      <c r="D1173" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1173" s="9"/>
       <c r="F1173" s="9"/>
       <c r="G1173" s="9"/>
@@ -43856,15 +44598,17 @@
     </row>
     <row r="1174" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1174" s="4" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="B1174" s="5" t="s">
         <v>2202</v>
       </c>
       <c r="C1174" s="5" t="s">
-        <v>2241</v>
-      </c>
-      <c r="D1174" s="15"/>
+        <v>2239</v>
+      </c>
+      <c r="D1174" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1174" s="9"/>
       <c r="F1174" s="9"/>
       <c r="G1174" s="9"/>
@@ -43876,17 +44620,19 @@
       <c r="M1174" s="9"/>
       <c r="N1174" s="12"/>
     </row>
-    <row r="1175" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1175" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1175" s="4" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="B1175" s="5" t="s">
-        <v>2243</v>
+        <v>2202</v>
       </c>
       <c r="C1175" s="5" t="s">
-        <v>2244</v>
-      </c>
-      <c r="D1175" s="15"/>
+        <v>2241</v>
+      </c>
+      <c r="D1175" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1175" s="9"/>
       <c r="F1175" s="9"/>
       <c r="G1175" s="9"/>
@@ -43900,15 +44646,17 @@
     </row>
     <row r="1176" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1176" s="4" t="s">
-        <v>2245</v>
+        <v>2242</v>
       </c>
       <c r="B1176" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="C1176" s="5" t="s">
-        <v>2246</v>
-      </c>
-      <c r="D1176" s="15"/>
+        <v>2244</v>
+      </c>
+      <c r="D1176" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1176" s="9"/>
       <c r="F1176" s="9"/>
       <c r="G1176" s="9"/>
@@ -43922,15 +44670,17 @@
     </row>
     <row r="1177" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1177" s="4" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="B1177" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="C1177" s="5" t="s">
-        <v>2248</v>
-      </c>
-      <c r="D1177" s="15"/>
+        <v>2246</v>
+      </c>
+      <c r="D1177" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1177" s="9"/>
       <c r="F1177" s="9"/>
       <c r="G1177" s="9"/>
@@ -43944,59 +44694,89 @@
     </row>
     <row r="1178" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1178" s="4" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
       <c r="B1178" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="C1178" s="5" t="s">
-        <v>2250</v>
-      </c>
-      <c r="D1178" s="15"/>
-      <c r="E1178" s="9"/>
-      <c r="F1178" s="9"/>
-      <c r="G1178" s="9"/>
-      <c r="H1178" s="9"/>
-      <c r="I1178" s="9"/>
+        <v>2248</v>
+      </c>
+      <c r="D1178" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1178" s="10" t="s">
+        <v>3440</v>
+      </c>
+      <c r="F1178" s="9" t="s">
+        <v>2924</v>
+      </c>
+      <c r="G1178" s="9" t="s">
+        <v>3345</v>
+      </c>
+      <c r="H1178" s="9" t="s">
+        <v>3345</v>
+      </c>
+      <c r="I1178" s="9" t="s">
+        <v>3437</v>
+      </c>
       <c r="J1178" s="9"/>
       <c r="K1178" s="9"/>
       <c r="L1178" s="9"/>
       <c r="M1178" s="9"/>
-      <c r="N1178" s="12"/>
+      <c r="N1178" s="12" t="s">
+        <v>2730</v>
+      </c>
     </row>
     <row r="1179" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1179" s="4" t="s">
-        <v>2251</v>
+        <v>2247</v>
       </c>
       <c r="B1179" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="C1179" s="5" t="s">
-        <v>2252</v>
-      </c>
-      <c r="D1179" s="15"/>
-      <c r="E1179" s="9"/>
-      <c r="F1179" s="9"/>
-      <c r="G1179" s="9"/>
-      <c r="H1179" s="9"/>
-      <c r="I1179" s="9"/>
+        <v>2248</v>
+      </c>
+      <c r="D1179" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1179" s="10" t="s">
+        <v>3440</v>
+      </c>
+      <c r="F1179" s="9" t="s">
+        <v>2924</v>
+      </c>
+      <c r="G1179" s="9" t="s">
+        <v>3345</v>
+      </c>
+      <c r="H1179" s="9" t="s">
+        <v>3438</v>
+      </c>
+      <c r="I1179" s="9" t="s">
+        <v>3439</v>
+      </c>
       <c r="J1179" s="9"/>
       <c r="K1179" s="9"/>
       <c r="L1179" s="9"/>
       <c r="M1179" s="9"/>
-      <c r="N1179" s="12"/>
+      <c r="N1179" s="12" t="s">
+        <v>2730</v>
+      </c>
     </row>
     <row r="1180" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1180" s="4" t="s">
-        <v>2253</v>
+        <v>2249</v>
       </c>
       <c r="B1180" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="C1180" s="5" t="s">
-        <v>2254</v>
-      </c>
-      <c r="D1180" s="15"/>
+        <v>2250</v>
+      </c>
+      <c r="D1180" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1180" s="9"/>
       <c r="F1180" s="9"/>
       <c r="G1180" s="9"/>
@@ -44010,59 +44790,89 @@
     </row>
     <row r="1181" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1181" s="4" t="s">
-        <v>2255</v>
+        <v>2251</v>
       </c>
       <c r="B1181" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="C1181" s="5" t="s">
-        <v>2256</v>
-      </c>
-      <c r="D1181" s="15"/>
-      <c r="E1181" s="9"/>
-      <c r="F1181" s="9"/>
-      <c r="G1181" s="9"/>
-      <c r="H1181" s="9"/>
-      <c r="I1181" s="9"/>
+        <v>2252</v>
+      </c>
+      <c r="D1181" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1181" s="10" t="s">
+        <v>3443</v>
+      </c>
+      <c r="F1181" s="9" t="s">
+        <v>2924</v>
+      </c>
+      <c r="G1181" s="9" t="s">
+        <v>3345</v>
+      </c>
+      <c r="H1181" s="9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="I1181" s="9" t="s">
+        <v>3441</v>
+      </c>
       <c r="J1181" s="9"/>
       <c r="K1181" s="9"/>
       <c r="L1181" s="9"/>
       <c r="M1181" s="9"/>
-      <c r="N1181" s="12"/>
+      <c r="N1181" s="12" t="s">
+        <v>2730</v>
+      </c>
     </row>
     <row r="1182" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1182" s="4" t="s">
-        <v>2257</v>
+        <v>2251</v>
       </c>
       <c r="B1182" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="C1182" s="5" t="s">
-        <v>2258</v>
-      </c>
-      <c r="D1182" s="15"/>
-      <c r="E1182" s="9"/>
-      <c r="F1182" s="9"/>
-      <c r="G1182" s="9"/>
-      <c r="H1182" s="9"/>
-      <c r="I1182" s="9"/>
+        <v>2252</v>
+      </c>
+      <c r="D1182" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1182" s="10" t="s">
+        <v>3443</v>
+      </c>
+      <c r="F1182" s="9" t="s">
+        <v>2924</v>
+      </c>
+      <c r="G1182" s="9" t="s">
+        <v>3345</v>
+      </c>
+      <c r="H1182" s="9" t="s">
+        <v>3438</v>
+      </c>
+      <c r="I1182" s="9" t="s">
+        <v>3442</v>
+      </c>
       <c r="J1182" s="9"/>
       <c r="K1182" s="9"/>
       <c r="L1182" s="9"/>
       <c r="M1182" s="9"/>
-      <c r="N1182" s="12"/>
+      <c r="N1182" s="12" t="s">
+        <v>2730</v>
+      </c>
     </row>
     <row r="1183" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1183" s="4" t="s">
-        <v>2259</v>
+        <v>2253</v>
       </c>
       <c r="B1183" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="C1183" s="5" t="s">
-        <v>2258</v>
-      </c>
-      <c r="D1183" s="15"/>
+        <v>2254</v>
+      </c>
+      <c r="D1183" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1183" s="9"/>
       <c r="F1183" s="9"/>
       <c r="G1183" s="9"/>
@@ -44076,15 +44886,17 @@
     </row>
     <row r="1184" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1184" s="4" t="s">
-        <v>2260</v>
+        <v>2255</v>
       </c>
       <c r="B1184" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="C1184" s="5" t="s">
-        <v>2261</v>
-      </c>
-      <c r="D1184" s="15"/>
+        <v>2256</v>
+      </c>
+      <c r="D1184" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1184" s="9"/>
       <c r="F1184" s="9"/>
       <c r="G1184" s="9"/>
@@ -44098,15 +44910,17 @@
     </row>
     <row r="1185" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1185" s="4" t="s">
-        <v>2262</v>
+        <v>2257</v>
       </c>
       <c r="B1185" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="C1185" s="5" t="s">
-        <v>2263</v>
-      </c>
-      <c r="D1185" s="15"/>
+        <v>2258</v>
+      </c>
+      <c r="D1185" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1185" s="9"/>
       <c r="F1185" s="9"/>
       <c r="G1185" s="9"/>
@@ -44120,59 +44934,89 @@
     </row>
     <row r="1186" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1186" s="4" t="s">
-        <v>2264</v>
+        <v>2259</v>
       </c>
       <c r="B1186" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="C1186" s="5" t="s">
-        <v>2265</v>
-      </c>
-      <c r="D1186" s="15"/>
-      <c r="E1186" s="9"/>
-      <c r="F1186" s="9"/>
-      <c r="G1186" s="9"/>
-      <c r="H1186" s="9"/>
-      <c r="I1186" s="9"/>
+        <v>2258</v>
+      </c>
+      <c r="D1186" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1186" s="9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="F1186" s="9" t="s">
+        <v>2924</v>
+      </c>
+      <c r="G1186" s="9" t="s">
+        <v>3345</v>
+      </c>
+      <c r="H1186" s="9" t="s">
+        <v>3427</v>
+      </c>
+      <c r="I1186" s="9" t="s">
+        <v>3444</v>
+      </c>
       <c r="J1186" s="9"/>
       <c r="K1186" s="9"/>
       <c r="L1186" s="9"/>
       <c r="M1186" s="9"/>
-      <c r="N1186" s="12"/>
+      <c r="N1186" s="12" t="s">
+        <v>2730</v>
+      </c>
     </row>
     <row r="1187" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1187" s="4" t="s">
-        <v>2266</v>
+        <v>2259</v>
       </c>
       <c r="B1187" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="C1187" s="5" t="s">
-        <v>2267</v>
-      </c>
-      <c r="D1187" s="15"/>
-      <c r="E1187" s="9"/>
-      <c r="F1187" s="9"/>
-      <c r="G1187" s="9"/>
-      <c r="H1187" s="9"/>
-      <c r="I1187" s="9"/>
+        <v>2258</v>
+      </c>
+      <c r="D1187" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1187" s="9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="F1187" s="9" t="s">
+        <v>2924</v>
+      </c>
+      <c r="G1187" s="9" t="s">
+        <v>3345</v>
+      </c>
+      <c r="H1187" s="9" t="s">
+        <v>3427</v>
+      </c>
+      <c r="I1187" s="9" t="s">
+        <v>3445</v>
+      </c>
       <c r="J1187" s="9"/>
       <c r="K1187" s="9"/>
       <c r="L1187" s="9"/>
       <c r="M1187" s="9"/>
-      <c r="N1187" s="12"/>
+      <c r="N1187" s="12" t="s">
+        <v>2730</v>
+      </c>
     </row>
     <row r="1188" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1188" s="4" t="s">
-        <v>2268</v>
+        <v>2260</v>
       </c>
       <c r="B1188" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="C1188" s="5" t="s">
-        <v>2269</v>
-      </c>
-      <c r="D1188" s="15"/>
+        <v>2261</v>
+      </c>
+      <c r="D1188" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1188" s="9"/>
       <c r="F1188" s="9"/>
       <c r="G1188" s="9"/>
@@ -44186,59 +45030,91 @@
     </row>
     <row r="1189" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1189" s="4" t="s">
-        <v>2270</v>
+        <v>2262</v>
       </c>
       <c r="B1189" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="C1189" s="5" t="s">
-        <v>2271</v>
-      </c>
-      <c r="D1189" s="15"/>
-      <c r="E1189" s="9"/>
-      <c r="F1189" s="9"/>
-      <c r="G1189" s="9"/>
-      <c r="H1189" s="9"/>
-      <c r="I1189" s="9"/>
+        <v>2263</v>
+      </c>
+      <c r="D1189" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1189" s="10" t="s">
+        <v>3448</v>
+      </c>
+      <c r="F1189" s="9" t="s">
+        <v>2924</v>
+      </c>
+      <c r="G1189" s="9" t="s">
+        <v>2925</v>
+      </c>
+      <c r="H1189" s="9" t="s">
+        <v>3446</v>
+      </c>
+      <c r="I1189" s="9" t="s">
+        <v>3447</v>
+      </c>
       <c r="J1189" s="9"/>
       <c r="K1189" s="9"/>
       <c r="L1189" s="9"/>
-      <c r="M1189" s="9"/>
-      <c r="N1189" s="12"/>
+      <c r="M1189" s="9">
+        <v>3</v>
+      </c>
+      <c r="N1189" s="12" t="s">
+        <v>3451</v>
+      </c>
     </row>
     <row r="1190" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1190" s="4" t="s">
-        <v>2272</v>
+        <v>2262</v>
       </c>
       <c r="B1190" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="C1190" s="5" t="s">
-        <v>2273</v>
-      </c>
-      <c r="D1190" s="15"/>
-      <c r="E1190" s="9"/>
-      <c r="F1190" s="9"/>
-      <c r="G1190" s="9"/>
-      <c r="H1190" s="9"/>
-      <c r="I1190" s="9"/>
+        <v>2263</v>
+      </c>
+      <c r="D1190" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1190" s="10" t="s">
+        <v>3448</v>
+      </c>
+      <c r="F1190" s="9" t="s">
+        <v>2924</v>
+      </c>
+      <c r="G1190" s="9" t="s">
+        <v>2925</v>
+      </c>
+      <c r="H1190" s="9" t="s">
+        <v>3449</v>
+      </c>
+      <c r="I1190" s="9" t="s">
+        <v>3450</v>
+      </c>
       <c r="J1190" s="9"/>
       <c r="K1190" s="9"/>
       <c r="L1190" s="9"/>
       <c r="M1190" s="9"/>
-      <c r="N1190" s="12"/>
+      <c r="N1190" s="12" t="s">
+        <v>3452</v>
+      </c>
     </row>
     <row r="1191" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1191" s="4" t="s">
-        <v>2274</v>
+        <v>2264</v>
       </c>
       <c r="B1191" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="C1191" s="5" t="s">
-        <v>2275</v>
-      </c>
-      <c r="D1191" s="15"/>
+        <v>2265</v>
+      </c>
+      <c r="D1191" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1191" s="9"/>
       <c r="F1191" s="9"/>
       <c r="G1191" s="9"/>
@@ -44252,7 +45128,7 @@
     </row>
     <row r="1192" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1192" s="4" t="s">
-        <v>2276</v>
+        <v>2266</v>
       </c>
       <c r="B1192" s="5" t="s">
         <v>2243</v>
@@ -44260,29 +45136,45 @@
       <c r="C1192" s="5" t="s">
         <v>2267</v>
       </c>
-      <c r="D1192" s="15"/>
-      <c r="E1192" s="9"/>
-      <c r="F1192" s="9"/>
-      <c r="G1192" s="9"/>
-      <c r="H1192" s="9"/>
-      <c r="I1192" s="9"/>
+      <c r="D1192" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1192" s="10" t="s">
+        <v>3454</v>
+      </c>
+      <c r="F1192" s="9" t="s">
+        <v>2924</v>
+      </c>
+      <c r="G1192" s="9" t="s">
+        <v>3345</v>
+      </c>
+      <c r="H1192" s="9" t="s">
+        <v>3438</v>
+      </c>
+      <c r="I1192" s="9" t="s">
+        <v>3453</v>
+      </c>
       <c r="J1192" s="9"/>
       <c r="K1192" s="9"/>
       <c r="L1192" s="9"/>
       <c r="M1192" s="9"/>
-      <c r="N1192" s="12"/>
+      <c r="N1192" s="12" t="s">
+        <v>2730</v>
+      </c>
     </row>
     <row r="1193" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1193" s="4" t="s">
-        <v>2277</v>
+        <v>2268</v>
       </c>
       <c r="B1193" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="C1193" s="5" t="s">
-        <v>2278</v>
-      </c>
-      <c r="D1193" s="15"/>
+        <v>2269</v>
+      </c>
+      <c r="D1193" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1193" s="9"/>
       <c r="F1193" s="9"/>
       <c r="G1193" s="9"/>
@@ -44296,15 +45188,17 @@
     </row>
     <row r="1194" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1194" s="4" t="s">
-        <v>2279</v>
+        <v>2270</v>
       </c>
       <c r="B1194" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="C1194" s="5" t="s">
-        <v>2280</v>
-      </c>
-      <c r="D1194" s="15"/>
+        <v>2271</v>
+      </c>
+      <c r="D1194" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1194" s="9"/>
       <c r="F1194" s="9"/>
       <c r="G1194" s="9"/>
@@ -44316,39 +45210,55 @@
       <c r="M1194" s="9"/>
       <c r="N1194" s="12"/>
     </row>
-    <row r="1195" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1195" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1195" s="4" t="s">
-        <v>2281</v>
+        <v>2272</v>
       </c>
       <c r="B1195" s="5" t="s">
-        <v>2282</v>
+        <v>2243</v>
       </c>
       <c r="C1195" s="5" t="s">
-        <v>2283</v>
-      </c>
-      <c r="D1195" s="15"/>
-      <c r="E1195" s="9"/>
-      <c r="F1195" s="9"/>
-      <c r="G1195" s="9"/>
-      <c r="H1195" s="9"/>
-      <c r="I1195" s="9"/>
+        <v>2273</v>
+      </c>
+      <c r="D1195" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1195" s="10" t="s">
+        <v>3040</v>
+      </c>
+      <c r="F1195" s="9" t="s">
+        <v>2924</v>
+      </c>
+      <c r="G1195" s="9" t="s">
+        <v>3345</v>
+      </c>
+      <c r="H1195" s="9" t="s">
+        <v>3345</v>
+      </c>
+      <c r="I1195" s="9" t="s">
+        <v>3455</v>
+      </c>
       <c r="J1195" s="9"/>
       <c r="K1195" s="9"/>
       <c r="L1195" s="9"/>
       <c r="M1195" s="9"/>
-      <c r="N1195" s="12"/>
-    </row>
-    <row r="1196" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="N1195" s="12" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1196" s="4" t="s">
-        <v>2284</v>
+        <v>2274</v>
       </c>
       <c r="B1196" s="5" t="s">
-        <v>2282</v>
+        <v>2243</v>
       </c>
       <c r="C1196" s="5" t="s">
-        <v>2285</v>
-      </c>
-      <c r="D1196" s="15"/>
+        <v>2275</v>
+      </c>
+      <c r="D1196" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1196" s="9"/>
       <c r="F1196" s="9"/>
       <c r="G1196" s="9"/>
@@ -44360,39 +45270,55 @@
       <c r="M1196" s="9"/>
       <c r="N1196" s="12"/>
     </row>
-    <row r="1197" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1197" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1197" s="4" t="s">
-        <v>2286</v>
+        <v>2276</v>
       </c>
       <c r="B1197" s="5" t="s">
-        <v>2282</v>
+        <v>2243</v>
       </c>
       <c r="C1197" s="5" t="s">
-        <v>2287</v>
-      </c>
-      <c r="D1197" s="15"/>
-      <c r="E1197" s="9"/>
-      <c r="F1197" s="9"/>
-      <c r="G1197" s="9"/>
-      <c r="H1197" s="9"/>
-      <c r="I1197" s="9"/>
+        <v>2267</v>
+      </c>
+      <c r="D1197" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1197" s="10" t="s">
+        <v>3456</v>
+      </c>
+      <c r="F1197" s="9" t="s">
+        <v>2924</v>
+      </c>
+      <c r="G1197" s="9" t="s">
+        <v>3345</v>
+      </c>
+      <c r="H1197" s="9" t="s">
+        <v>3438</v>
+      </c>
+      <c r="I1197" s="9" t="s">
+        <v>3453</v>
+      </c>
       <c r="J1197" s="9"/>
       <c r="K1197" s="9"/>
       <c r="L1197" s="9"/>
       <c r="M1197" s="9"/>
-      <c r="N1197" s="12"/>
-    </row>
-    <row r="1198" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="N1197" s="12" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1198" s="4" t="s">
-        <v>2288</v>
+        <v>2277</v>
       </c>
       <c r="B1198" s="5" t="s">
-        <v>2282</v>
+        <v>2243</v>
       </c>
       <c r="C1198" s="5" t="s">
-        <v>2289</v>
-      </c>
-      <c r="D1198" s="15"/>
+        <v>2278</v>
+      </c>
+      <c r="D1198" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1198" s="9"/>
       <c r="F1198" s="9"/>
       <c r="G1198" s="9"/>
@@ -44404,61 +45330,93 @@
       <c r="M1198" s="9"/>
       <c r="N1198" s="12"/>
     </row>
-    <row r="1199" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1199" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1199" s="4" t="s">
-        <v>2290</v>
+        <v>2279</v>
       </c>
       <c r="B1199" s="5" t="s">
-        <v>2282</v>
+        <v>2243</v>
       </c>
       <c r="C1199" s="5" t="s">
-        <v>2291</v>
-      </c>
-      <c r="D1199" s="15"/>
-      <c r="E1199" s="9"/>
-      <c r="F1199" s="9"/>
-      <c r="G1199" s="9"/>
-      <c r="H1199" s="9"/>
-      <c r="I1199" s="9"/>
+        <v>2280</v>
+      </c>
+      <c r="D1199" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1199" s="10" t="s">
+        <v>2893</v>
+      </c>
+      <c r="F1199" s="9" t="s">
+        <v>2924</v>
+      </c>
+      <c r="G1199" s="9" t="s">
+        <v>2925</v>
+      </c>
+      <c r="H1199" s="9" t="s">
+        <v>3457</v>
+      </c>
+      <c r="I1199" s="9" t="s">
+        <v>2497</v>
+      </c>
       <c r="J1199" s="9"/>
       <c r="K1199" s="9"/>
       <c r="L1199" s="9"/>
       <c r="M1199" s="9"/>
-      <c r="N1199" s="12"/>
+      <c r="N1199" s="12" t="s">
+        <v>2730</v>
+      </c>
     </row>
     <row r="1200" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1200" s="4" t="s">
-        <v>2292</v>
+        <v>2281</v>
       </c>
       <c r="B1200" s="5" t="s">
         <v>2282</v>
       </c>
       <c r="C1200" s="5" t="s">
-        <v>2293</v>
-      </c>
-      <c r="D1200" s="15"/>
-      <c r="E1200" s="9"/>
-      <c r="F1200" s="9"/>
-      <c r="G1200" s="9"/>
-      <c r="H1200" s="9"/>
-      <c r="I1200" s="9"/>
-      <c r="J1200" s="9"/>
+        <v>2283</v>
+      </c>
+      <c r="D1200" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1200" s="10" t="s">
+        <v>3459</v>
+      </c>
+      <c r="F1200" s="9" t="s">
+        <v>2924</v>
+      </c>
+      <c r="G1200" s="9" t="s">
+        <v>3429</v>
+      </c>
+      <c r="H1200" s="9" t="s">
+        <v>3458</v>
+      </c>
+      <c r="I1200" s="9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="J1200" s="9">
+        <v>5</v>
+      </c>
       <c r="K1200" s="9"/>
       <c r="L1200" s="9"/>
       <c r="M1200" s="9"/>
-      <c r="N1200" s="12"/>
+      <c r="N1200" s="12" t="s">
+        <v>2931</v>
+      </c>
     </row>
     <row r="1201" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1201" s="4" t="s">
-        <v>2294</v>
+        <v>2284</v>
       </c>
       <c r="B1201" s="5" t="s">
         <v>2282</v>
       </c>
       <c r="C1201" s="5" t="s">
-        <v>2295</v>
-      </c>
-      <c r="D1201" s="15"/>
+        <v>2285</v>
+      </c>
+      <c r="D1201" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1201" s="9"/>
       <c r="F1201" s="9"/>
       <c r="G1201" s="9"/>
@@ -44472,15 +45430,17 @@
     </row>
     <row r="1202" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1202" s="4" t="s">
-        <v>2296</v>
+        <v>2286</v>
       </c>
       <c r="B1202" s="5" t="s">
         <v>2282</v>
       </c>
       <c r="C1202" s="5" t="s">
-        <v>2297</v>
-      </c>
-      <c r="D1202" s="15"/>
+        <v>2287</v>
+      </c>
+      <c r="D1202" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1202" s="9"/>
       <c r="F1202" s="9"/>
       <c r="G1202" s="9"/>
@@ -44494,81 +45454,125 @@
     </row>
     <row r="1203" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1203" s="4" t="s">
-        <v>2298</v>
+        <v>2288</v>
       </c>
       <c r="B1203" s="5" t="s">
         <v>2282</v>
       </c>
       <c r="C1203" s="5" t="s">
-        <v>2299</v>
-      </c>
-      <c r="D1203" s="15"/>
-      <c r="E1203" s="9"/>
-      <c r="F1203" s="9"/>
-      <c r="G1203" s="9"/>
-      <c r="H1203" s="9"/>
-      <c r="I1203" s="9"/>
+        <v>2289</v>
+      </c>
+      <c r="D1203" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1203" s="10" t="s">
+        <v>3461</v>
+      </c>
+      <c r="F1203" s="9" t="s">
+        <v>2924</v>
+      </c>
+      <c r="G1203" s="9" t="s">
+        <v>3336</v>
+      </c>
+      <c r="H1203" s="9" t="s">
+        <v>3036</v>
+      </c>
+      <c r="I1203" s="9" t="s">
+        <v>3460</v>
+      </c>
       <c r="J1203" s="9"/>
       <c r="K1203" s="9"/>
       <c r="L1203" s="9"/>
       <c r="M1203" s="9"/>
-      <c r="N1203" s="12"/>
+      <c r="N1203" s="12" t="s">
+        <v>3462</v>
+      </c>
     </row>
     <row r="1204" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1204" s="4" t="s">
-        <v>2300</v>
+        <v>2290</v>
       </c>
       <c r="B1204" s="5" t="s">
         <v>2282</v>
       </c>
       <c r="C1204" s="5" t="s">
-        <v>2301</v>
-      </c>
-      <c r="D1204" s="15"/>
-      <c r="E1204" s="9"/>
-      <c r="F1204" s="9"/>
-      <c r="G1204" s="9"/>
-      <c r="H1204" s="9"/>
-      <c r="I1204" s="9"/>
+        <v>2291</v>
+      </c>
+      <c r="D1204" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1204" s="9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="F1204" s="9" t="s">
+        <v>2924</v>
+      </c>
+      <c r="G1204" s="9" t="s">
+        <v>3463</v>
+      </c>
+      <c r="H1204" s="9" t="s">
+        <v>3095</v>
+      </c>
+      <c r="I1204" s="9" t="s">
+        <v>3465</v>
+      </c>
       <c r="J1204" s="9"/>
       <c r="K1204" s="9"/>
       <c r="L1204" s="9"/>
       <c r="M1204" s="9"/>
-      <c r="N1204" s="12"/>
+      <c r="N1204" s="12" t="s">
+        <v>3466</v>
+      </c>
     </row>
     <row r="1205" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1205" s="4" t="s">
-        <v>2302</v>
+        <v>2290</v>
       </c>
       <c r="B1205" s="5" t="s">
         <v>2282</v>
       </c>
       <c r="C1205" s="5" t="s">
-        <v>2303</v>
-      </c>
-      <c r="D1205" s="15"/>
-      <c r="E1205" s="9"/>
-      <c r="F1205" s="9"/>
-      <c r="G1205" s="9"/>
-      <c r="H1205" s="9"/>
-      <c r="I1205" s="9"/>
+        <v>2291</v>
+      </c>
+      <c r="D1205" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1205" s="9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="F1205" s="9" t="s">
+        <v>2924</v>
+      </c>
+      <c r="G1205" s="9" t="s">
+        <v>3463</v>
+      </c>
+      <c r="H1205" s="9" t="s">
+        <v>3464</v>
+      </c>
+      <c r="I1205" s="9" t="s">
+        <v>3465</v>
+      </c>
       <c r="J1205" s="9"/>
       <c r="K1205" s="9"/>
       <c r="L1205" s="9"/>
       <c r="M1205" s="9"/>
-      <c r="N1205" s="12"/>
+      <c r="N1205" s="12" t="s">
+        <v>3466</v>
+      </c>
     </row>
     <row r="1206" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1206" s="4" t="s">
-        <v>2304</v>
+        <v>2292</v>
       </c>
       <c r="B1206" s="5" t="s">
         <v>2282</v>
       </c>
       <c r="C1206" s="5" t="s">
-        <v>2305</v>
-      </c>
-      <c r="D1206" s="15"/>
+        <v>2293</v>
+      </c>
+      <c r="D1206" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1206" s="9"/>
       <c r="F1206" s="9"/>
       <c r="G1206" s="9"/>
@@ -44582,37 +45586,55 @@
     </row>
     <row r="1207" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1207" s="4" t="s">
-        <v>2306</v>
+        <v>2294</v>
       </c>
       <c r="B1207" s="5" t="s">
         <v>2282</v>
       </c>
       <c r="C1207" s="5" t="s">
-        <v>2307</v>
-      </c>
-      <c r="D1207" s="15"/>
-      <c r="E1207" s="9"/>
-      <c r="F1207" s="9"/>
-      <c r="G1207" s="9"/>
-      <c r="H1207" s="9"/>
-      <c r="I1207" s="9"/>
+        <v>2295</v>
+      </c>
+      <c r="D1207" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1207" s="10" t="s">
+        <v>3470</v>
+      </c>
+      <c r="F1207" s="9" t="s">
+        <v>2924</v>
+      </c>
+      <c r="G1207" s="9" t="s">
+        <v>3467</v>
+      </c>
+      <c r="H1207" s="9" t="s">
+        <v>3468</v>
+      </c>
+      <c r="I1207" s="9" t="s">
+        <v>3469</v>
+      </c>
       <c r="J1207" s="9"/>
       <c r="K1207" s="9"/>
       <c r="L1207" s="9"/>
-      <c r="M1207" s="9"/>
-      <c r="N1207" s="12"/>
+      <c r="M1207" s="9">
+        <v>12</v>
+      </c>
+      <c r="N1207" s="12" t="s">
+        <v>3471</v>
+      </c>
     </row>
     <row r="1208" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1208" s="4" t="s">
-        <v>2308</v>
+        <v>2296</v>
       </c>
       <c r="B1208" s="5" t="s">
         <v>2282</v>
       </c>
       <c r="C1208" s="5" t="s">
-        <v>2309</v>
-      </c>
-      <c r="D1208" s="15"/>
+        <v>2297</v>
+      </c>
+      <c r="D1208" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1208" s="9"/>
       <c r="F1208" s="9"/>
       <c r="G1208" s="9"/>
@@ -44626,15 +45648,17 @@
     </row>
     <row r="1209" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1209" s="4" t="s">
-        <v>2310</v>
+        <v>2298</v>
       </c>
       <c r="B1209" s="5" t="s">
         <v>2282</v>
       </c>
       <c r="C1209" s="5" t="s">
-        <v>2311</v>
-      </c>
-      <c r="D1209" s="15"/>
+        <v>2299</v>
+      </c>
+      <c r="D1209" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1209" s="9"/>
       <c r="F1209" s="9"/>
       <c r="G1209" s="9"/>
@@ -44648,81 +45672,125 @@
     </row>
     <row r="1210" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1210" s="4" t="s">
-        <v>2312</v>
+        <v>2300</v>
       </c>
       <c r="B1210" s="5" t="s">
         <v>2282</v>
       </c>
       <c r="C1210" s="5" t="s">
-        <v>2313</v>
-      </c>
-      <c r="D1210" s="15"/>
-      <c r="E1210" s="9"/>
-      <c r="F1210" s="9"/>
-      <c r="G1210" s="9"/>
-      <c r="H1210" s="9"/>
-      <c r="I1210" s="9"/>
+        <v>2301</v>
+      </c>
+      <c r="D1210" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1210" s="10" t="s">
+        <v>3473</v>
+      </c>
+      <c r="F1210" s="9" t="s">
+        <v>2924</v>
+      </c>
+      <c r="G1210" s="9" t="s">
+        <v>3336</v>
+      </c>
+      <c r="H1210" s="9" t="s">
+        <v>3435</v>
+      </c>
+      <c r="I1210" s="9" t="s">
+        <v>3472</v>
+      </c>
       <c r="J1210" s="9"/>
       <c r="K1210" s="9"/>
       <c r="L1210" s="9"/>
       <c r="M1210" s="9"/>
-      <c r="N1210" s="12"/>
+      <c r="N1210" s="12" t="s">
+        <v>2730</v>
+      </c>
     </row>
     <row r="1211" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1211" s="4" t="s">
-        <v>2314</v>
+        <v>2302</v>
       </c>
       <c r="B1211" s="5" t="s">
         <v>2282</v>
       </c>
       <c r="C1211" s="5" t="s">
-        <v>2315</v>
-      </c>
-      <c r="D1211" s="15"/>
-      <c r="E1211" s="9"/>
-      <c r="F1211" s="9"/>
-      <c r="G1211" s="9"/>
-      <c r="H1211" s="9"/>
-      <c r="I1211" s="9"/>
+        <v>2303</v>
+      </c>
+      <c r="D1211" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1211" s="9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="F1211" s="9" t="s">
+        <v>2924</v>
+      </c>
+      <c r="G1211" s="9" t="s">
+        <v>3474</v>
+      </c>
+      <c r="H1211" s="9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="I1211" s="9" t="s">
+        <v>3475</v>
+      </c>
       <c r="J1211" s="9"/>
       <c r="K1211" s="9"/>
       <c r="L1211" s="9"/>
       <c r="M1211" s="9"/>
-      <c r="N1211" s="12"/>
+      <c r="N1211" s="12" t="s">
+        <v>2730</v>
+      </c>
     </row>
     <row r="1212" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1212" s="4" t="s">
-        <v>2316</v>
+        <v>2302</v>
       </c>
       <c r="B1212" s="5" t="s">
         <v>2282</v>
       </c>
       <c r="C1212" s="5" t="s">
-        <v>2317</v>
-      </c>
-      <c r="D1212" s="15"/>
-      <c r="E1212" s="9"/>
-      <c r="F1212" s="9"/>
-      <c r="G1212" s="9"/>
-      <c r="H1212" s="9"/>
-      <c r="I1212" s="9"/>
+        <v>2303</v>
+      </c>
+      <c r="D1212" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1212" s="9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="F1212" s="9" t="s">
+        <v>2924</v>
+      </c>
+      <c r="G1212" s="9" t="s">
+        <v>3474</v>
+      </c>
+      <c r="H1212" s="9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="I1212" s="9" t="s">
+        <v>3476</v>
+      </c>
       <c r="J1212" s="9"/>
       <c r="K1212" s="9"/>
       <c r="L1212" s="9"/>
       <c r="M1212" s="9"/>
-      <c r="N1212" s="12"/>
+      <c r="N1212" s="12" t="s">
+        <v>2730</v>
+      </c>
     </row>
     <row r="1213" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1213" s="4" t="s">
-        <v>2318</v>
+        <v>2304</v>
       </c>
       <c r="B1213" s="5" t="s">
         <v>2282</v>
       </c>
       <c r="C1213" s="5" t="s">
-        <v>2319</v>
-      </c>
-      <c r="D1213" s="15"/>
+        <v>2305</v>
+      </c>
+      <c r="D1213" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1213" s="9"/>
       <c r="F1213" s="9"/>
       <c r="G1213" s="9"/>
@@ -44736,15 +45804,17 @@
     </row>
     <row r="1214" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1214" s="4" t="s">
-        <v>2320</v>
+        <v>2306</v>
       </c>
       <c r="B1214" s="5" t="s">
         <v>2282</v>
       </c>
       <c r="C1214" s="5" t="s">
-        <v>2321</v>
-      </c>
-      <c r="D1214" s="15"/>
+        <v>2307</v>
+      </c>
+      <c r="D1214" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1214" s="9"/>
       <c r="F1214" s="9"/>
       <c r="G1214" s="9"/>
@@ -44758,15 +45828,17 @@
     </row>
     <row r="1215" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1215" s="4" t="s">
-        <v>2322</v>
+        <v>2308</v>
       </c>
       <c r="B1215" s="5" t="s">
-        <v>2323</v>
+        <v>2282</v>
       </c>
       <c r="C1215" s="5" t="s">
-        <v>2324</v>
-      </c>
-      <c r="D1215" s="15"/>
+        <v>2309</v>
+      </c>
+      <c r="D1215" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1215" s="9"/>
       <c r="F1215" s="9"/>
       <c r="G1215" s="9"/>
@@ -44780,37 +45852,55 @@
     </row>
     <row r="1216" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1216" s="4" t="s">
-        <v>2325</v>
+        <v>2310</v>
       </c>
       <c r="B1216" s="5" t="s">
-        <v>2323</v>
+        <v>2282</v>
       </c>
       <c r="C1216" s="5" t="s">
-        <v>2326</v>
-      </c>
-      <c r="D1216" s="15"/>
-      <c r="E1216" s="9"/>
-      <c r="F1216" s="9"/>
-      <c r="G1216" s="9"/>
-      <c r="H1216" s="9"/>
-      <c r="I1216" s="9"/>
+        <v>2311</v>
+      </c>
+      <c r="D1216" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1216" s="10" t="s">
+        <v>3479</v>
+      </c>
+      <c r="F1216" s="9" t="s">
+        <v>2924</v>
+      </c>
+      <c r="G1216" s="9" t="s">
+        <v>3196</v>
+      </c>
+      <c r="H1216" s="9" t="s">
+        <v>3477</v>
+      </c>
+      <c r="I1216" s="9" t="s">
+        <v>3478</v>
+      </c>
       <c r="J1216" s="9"/>
       <c r="K1216" s="9"/>
       <c r="L1216" s="9"/>
-      <c r="M1216" s="9"/>
-      <c r="N1216" s="12"/>
+      <c r="M1216" s="9">
+        <v>3</v>
+      </c>
+      <c r="N1216" s="12" t="s">
+        <v>2605</v>
+      </c>
     </row>
     <row r="1217" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1217" s="4" t="s">
-        <v>2327</v>
+        <v>2312</v>
       </c>
       <c r="B1217" s="5" t="s">
-        <v>2323</v>
+        <v>2282</v>
       </c>
       <c r="C1217" s="5" t="s">
-        <v>2328</v>
-      </c>
-      <c r="D1217" s="15"/>
+        <v>2313</v>
+      </c>
+      <c r="D1217" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1217" s="9"/>
       <c r="F1217" s="9"/>
       <c r="G1217" s="9"/>
@@ -44824,37 +45914,55 @@
     </row>
     <row r="1218" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1218" s="4" t="s">
-        <v>2329</v>
+        <v>2314</v>
       </c>
       <c r="B1218" s="5" t="s">
-        <v>2323</v>
+        <v>2282</v>
       </c>
       <c r="C1218" s="5" t="s">
-        <v>2330</v>
-      </c>
-      <c r="D1218" s="15"/>
-      <c r="E1218" s="9"/>
-      <c r="F1218" s="9"/>
-      <c r="G1218" s="9"/>
-      <c r="H1218" s="9"/>
-      <c r="I1218" s="9"/>
+        <v>2315</v>
+      </c>
+      <c r="D1218" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1218" s="10" t="s">
+        <v>3482</v>
+      </c>
+      <c r="F1218" s="9" t="s">
+        <v>2924</v>
+      </c>
+      <c r="G1218" s="9" t="s">
+        <v>3095</v>
+      </c>
+      <c r="H1218" s="9" t="s">
+        <v>3480</v>
+      </c>
+      <c r="I1218" s="9" t="s">
+        <v>3481</v>
+      </c>
       <c r="J1218" s="9"/>
       <c r="K1218" s="9"/>
       <c r="L1218" s="9"/>
-      <c r="M1218" s="9"/>
-      <c r="N1218" s="12"/>
+      <c r="M1218" s="9">
+        <v>2</v>
+      </c>
+      <c r="N1218" s="12" t="s">
+        <v>2605</v>
+      </c>
     </row>
     <row r="1219" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1219" s="4" t="s">
-        <v>2331</v>
+        <v>2316</v>
       </c>
       <c r="B1219" s="5" t="s">
-        <v>2323</v>
+        <v>2282</v>
       </c>
       <c r="C1219" s="5" t="s">
-        <v>2332</v>
-      </c>
-      <c r="D1219" s="15"/>
+        <v>2317</v>
+      </c>
+      <c r="D1219" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1219" s="9"/>
       <c r="F1219" s="9"/>
       <c r="G1219" s="9"/>
@@ -44868,15 +45976,17 @@
     </row>
     <row r="1220" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1220" s="4" t="s">
-        <v>2333</v>
+        <v>2318</v>
       </c>
       <c r="B1220" s="5" t="s">
-        <v>2323</v>
+        <v>2282</v>
       </c>
       <c r="C1220" s="5" t="s">
-        <v>2334</v>
-      </c>
-      <c r="D1220" s="15"/>
+        <v>2319</v>
+      </c>
+      <c r="D1220" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1220" s="9"/>
       <c r="F1220" s="9"/>
       <c r="G1220" s="9"/>
@@ -44890,15 +46000,17 @@
     </row>
     <row r="1221" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1221" s="4" t="s">
-        <v>2335</v>
+        <v>2320</v>
       </c>
       <c r="B1221" s="5" t="s">
-        <v>2323</v>
+        <v>2282</v>
       </c>
       <c r="C1221" s="5" t="s">
-        <v>2336</v>
-      </c>
-      <c r="D1221" s="15"/>
+        <v>2321</v>
+      </c>
+      <c r="D1221" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1221" s="9"/>
       <c r="F1221" s="9"/>
       <c r="G1221" s="9"/>
@@ -44912,15 +46024,17 @@
     </row>
     <row r="1222" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1222" s="4" t="s">
-        <v>2337</v>
+        <v>2322</v>
       </c>
       <c r="B1222" s="5" t="s">
         <v>2323</v>
       </c>
       <c r="C1222" s="5" t="s">
-        <v>2338</v>
-      </c>
-      <c r="D1222" s="15"/>
+        <v>2324</v>
+      </c>
+      <c r="D1222" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1222" s="9"/>
       <c r="F1222" s="9"/>
       <c r="G1222" s="9"/>
@@ -44934,15 +46048,17 @@
     </row>
     <row r="1223" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1223" s="4" t="s">
-        <v>2339</v>
+        <v>2325</v>
       </c>
       <c r="B1223" s="5" t="s">
         <v>2323</v>
       </c>
       <c r="C1223" s="5" t="s">
-        <v>2340</v>
-      </c>
-      <c r="D1223" s="15"/>
+        <v>2326</v>
+      </c>
+      <c r="D1223" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1223" s="9"/>
       <c r="F1223" s="9"/>
       <c r="G1223" s="9"/>
@@ -44956,15 +46072,17 @@
     </row>
     <row r="1224" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1224" s="4" t="s">
-        <v>2341</v>
+        <v>2327</v>
       </c>
       <c r="B1224" s="5" t="s">
         <v>2323</v>
       </c>
       <c r="C1224" s="5" t="s">
-        <v>2342</v>
-      </c>
-      <c r="D1224" s="15"/>
+        <v>2328</v>
+      </c>
+      <c r="D1224" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1224" s="9"/>
       <c r="F1224" s="9"/>
       <c r="G1224" s="9"/>
@@ -44978,15 +46096,17 @@
     </row>
     <row r="1225" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1225" s="4" t="s">
-        <v>2343</v>
+        <v>2329</v>
       </c>
       <c r="B1225" s="5" t="s">
         <v>2323</v>
       </c>
       <c r="C1225" s="5" t="s">
-        <v>2344</v>
-      </c>
-      <c r="D1225" s="15"/>
+        <v>2330</v>
+      </c>
+      <c r="D1225" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1225" s="9"/>
       <c r="F1225" s="9"/>
       <c r="G1225" s="9"/>
@@ -45000,15 +46120,17 @@
     </row>
     <row r="1226" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1226" s="4" t="s">
-        <v>2345</v>
+        <v>2331</v>
       </c>
       <c r="B1226" s="5" t="s">
         <v>2323</v>
       </c>
       <c r="C1226" s="5" t="s">
-        <v>2346</v>
-      </c>
-      <c r="D1226" s="15"/>
+        <v>2332</v>
+      </c>
+      <c r="D1226" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1226" s="9"/>
       <c r="F1226" s="9"/>
       <c r="G1226" s="9"/>
@@ -45022,15 +46144,17 @@
     </row>
     <row r="1227" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1227" s="4" t="s">
-        <v>2347</v>
+        <v>2333</v>
       </c>
       <c r="B1227" s="5" t="s">
         <v>2323</v>
       </c>
       <c r="C1227" s="5" t="s">
-        <v>2348</v>
-      </c>
-      <c r="D1227" s="15"/>
+        <v>2334</v>
+      </c>
+      <c r="D1227" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1227" s="9"/>
       <c r="F1227" s="9"/>
       <c r="G1227" s="9"/>
@@ -45044,15 +46168,17 @@
     </row>
     <row r="1228" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1228" s="4" t="s">
-        <v>2349</v>
+        <v>2335</v>
       </c>
       <c r="B1228" s="5" t="s">
         <v>2323</v>
       </c>
       <c r="C1228" s="5" t="s">
-        <v>2350</v>
-      </c>
-      <c r="D1228" s="15"/>
+        <v>2336</v>
+      </c>
+      <c r="D1228" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1228" s="9"/>
       <c r="F1228" s="9"/>
       <c r="G1228" s="9"/>
@@ -45066,15 +46192,17 @@
     </row>
     <row r="1229" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1229" s="4" t="s">
-        <v>2351</v>
+        <v>2337</v>
       </c>
       <c r="B1229" s="5" t="s">
         <v>2323</v>
       </c>
       <c r="C1229" s="5" t="s">
-        <v>2352</v>
-      </c>
-      <c r="D1229" s="15"/>
+        <v>2338</v>
+      </c>
+      <c r="D1229" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1229" s="9"/>
       <c r="F1229" s="9"/>
       <c r="G1229" s="9"/>
@@ -45088,15 +46216,17 @@
     </row>
     <row r="1230" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1230" s="4" t="s">
-        <v>2353</v>
+        <v>2339</v>
       </c>
       <c r="B1230" s="5" t="s">
         <v>2323</v>
       </c>
       <c r="C1230" s="5" t="s">
-        <v>2354</v>
-      </c>
-      <c r="D1230" s="15"/>
+        <v>2340</v>
+      </c>
+      <c r="D1230" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1230" s="9"/>
       <c r="F1230" s="9"/>
       <c r="G1230" s="9"/>
@@ -45110,15 +46240,17 @@
     </row>
     <row r="1231" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1231" s="4" t="s">
-        <v>2355</v>
+        <v>2341</v>
       </c>
       <c r="B1231" s="5" t="s">
         <v>2323</v>
       </c>
       <c r="C1231" s="5" t="s">
-        <v>2356</v>
-      </c>
-      <c r="D1231" s="15"/>
+        <v>2342</v>
+      </c>
+      <c r="D1231" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1231" s="9"/>
       <c r="F1231" s="9"/>
       <c r="G1231" s="9"/>
@@ -45132,15 +46264,17 @@
     </row>
     <row r="1232" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1232" s="4" t="s">
-        <v>2357</v>
+        <v>2343</v>
       </c>
       <c r="B1232" s="5" t="s">
         <v>2323</v>
       </c>
       <c r="C1232" s="5" t="s">
-        <v>2358</v>
-      </c>
-      <c r="D1232" s="15"/>
+        <v>2344</v>
+      </c>
+      <c r="D1232" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1232" s="9"/>
       <c r="F1232" s="9"/>
       <c r="G1232" s="9"/>
@@ -45154,37 +46288,53 @@
     </row>
     <row r="1233" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1233" s="4" t="s">
-        <v>2359</v>
+        <v>2345</v>
       </c>
       <c r="B1233" s="5" t="s">
         <v>2323</v>
       </c>
       <c r="C1233" s="5" t="s">
-        <v>2360</v>
-      </c>
-      <c r="D1233" s="15"/>
-      <c r="E1233" s="9"/>
-      <c r="F1233" s="9"/>
-      <c r="G1233" s="9"/>
-      <c r="H1233" s="9"/>
-      <c r="I1233" s="9"/>
+        <v>2346</v>
+      </c>
+      <c r="D1233" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1233" s="9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="F1233" s="9" t="s">
+        <v>3287</v>
+      </c>
+      <c r="G1233" s="9" t="s">
+        <v>3483</v>
+      </c>
+      <c r="H1233" s="9" t="s">
+        <v>3289</v>
+      </c>
+      <c r="I1233" s="9" t="s">
+        <v>3290</v>
+      </c>
       <c r="J1233" s="9"/>
       <c r="K1233" s="9"/>
       <c r="L1233" s="9"/>
       <c r="M1233" s="9"/>
-      <c r="N1233" s="12"/>
+      <c r="N1233" s="12" t="s">
+        <v>2730</v>
+      </c>
     </row>
     <row r="1234" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1234" s="4" t="s">
-        <v>2361</v>
+        <v>2347</v>
       </c>
       <c r="B1234" s="5" t="s">
         <v>2323</v>
       </c>
       <c r="C1234" s="5" t="s">
-        <v>2362</v>
-      </c>
-      <c r="D1234" s="15"/>
+        <v>2348</v>
+      </c>
+      <c r="D1234" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1234" s="9"/>
       <c r="F1234" s="9"/>
       <c r="G1234" s="9"/>
@@ -45196,17 +46346,19 @@
       <c r="M1234" s="9"/>
       <c r="N1234" s="12"/>
     </row>
-    <row r="1235" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1235" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1235" s="4" t="s">
-        <v>2363</v>
+        <v>2349</v>
       </c>
       <c r="B1235" s="5" t="s">
-        <v>2364</v>
+        <v>2323</v>
       </c>
       <c r="C1235" s="5" t="s">
-        <v>2365</v>
-      </c>
-      <c r="D1235" s="15"/>
+        <v>2350</v>
+      </c>
+      <c r="D1235" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1235" s="9"/>
       <c r="F1235" s="9"/>
       <c r="G1235" s="9"/>
@@ -45218,17 +46370,19 @@
       <c r="M1235" s="9"/>
       <c r="N1235" s="12"/>
     </row>
-    <row r="1236" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1236" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1236" s="4" t="s">
-        <v>2366</v>
+        <v>2351</v>
       </c>
       <c r="B1236" s="5" t="s">
-        <v>2364</v>
+        <v>2323</v>
       </c>
       <c r="C1236" s="5" t="s">
-        <v>2367</v>
-      </c>
-      <c r="D1236" s="15"/>
+        <v>2352</v>
+      </c>
+      <c r="D1236" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1236" s="9"/>
       <c r="F1236" s="9"/>
       <c r="G1236" s="9"/>
@@ -45242,15 +46396,17 @@
     </row>
     <row r="1237" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1237" s="4" t="s">
-        <v>2368</v>
+        <v>2353</v>
       </c>
       <c r="B1237" s="5" t="s">
-        <v>2364</v>
+        <v>2323</v>
       </c>
       <c r="C1237" s="5" t="s">
-        <v>2369</v>
-      </c>
-      <c r="D1237" s="15"/>
+        <v>2354</v>
+      </c>
+      <c r="D1237" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1237" s="9"/>
       <c r="F1237" s="9"/>
       <c r="G1237" s="9"/>
@@ -45262,17 +46418,19 @@
       <c r="M1237" s="9"/>
       <c r="N1237" s="12"/>
     </row>
-    <row r="1238" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1238" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1238" s="4" t="s">
-        <v>2370</v>
+        <v>2355</v>
       </c>
       <c r="B1238" s="5" t="s">
-        <v>2364</v>
+        <v>2323</v>
       </c>
       <c r="C1238" s="5" t="s">
-        <v>2371</v>
-      </c>
-      <c r="D1238" s="15"/>
+        <v>2356</v>
+      </c>
+      <c r="D1238" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1238" s="9"/>
       <c r="F1238" s="9"/>
       <c r="G1238" s="9"/>
@@ -45286,15 +46444,17 @@
     </row>
     <row r="1239" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1239" s="4" t="s">
-        <v>2372</v>
+        <v>2357</v>
       </c>
       <c r="B1239" s="5" t="s">
-        <v>2364</v>
+        <v>2323</v>
       </c>
       <c r="C1239" s="5" t="s">
-        <v>2373</v>
-      </c>
-      <c r="D1239" s="15"/>
+        <v>2358</v>
+      </c>
+      <c r="D1239" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1239" s="9"/>
       <c r="F1239" s="9"/>
       <c r="G1239" s="9"/>
@@ -45308,15 +46468,17 @@
     </row>
     <row r="1240" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1240" s="4" t="s">
-        <v>2374</v>
+        <v>2359</v>
       </c>
       <c r="B1240" s="5" t="s">
-        <v>2364</v>
+        <v>2323</v>
       </c>
       <c r="C1240" s="5" t="s">
-        <v>2375</v>
-      </c>
-      <c r="D1240" s="15"/>
+        <v>2360</v>
+      </c>
+      <c r="D1240" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1240" s="9"/>
       <c r="F1240" s="9"/>
       <c r="G1240" s="9"/>
@@ -45330,37 +46492,55 @@
     </row>
     <row r="1241" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1241" s="4" t="s">
-        <v>2376</v>
+        <v>2361</v>
       </c>
       <c r="B1241" s="5" t="s">
-        <v>2364</v>
+        <v>2323</v>
       </c>
       <c r="C1241" s="5" t="s">
-        <v>2377</v>
-      </c>
-      <c r="D1241" s="15"/>
-      <c r="E1241" s="9"/>
-      <c r="F1241" s="9"/>
-      <c r="G1241" s="9"/>
-      <c r="H1241" s="9"/>
-      <c r="I1241" s="9"/>
-      <c r="J1241" s="9"/>
+        <v>2362</v>
+      </c>
+      <c r="D1241" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1241" s="10" t="s">
+        <v>2888</v>
+      </c>
+      <c r="F1241" s="9" t="s">
+        <v>2588</v>
+      </c>
+      <c r="G1241" s="9" t="s">
+        <v>2611</v>
+      </c>
+      <c r="H1241" s="9" t="s">
+        <v>2886</v>
+      </c>
+      <c r="I1241" s="9" t="s">
+        <v>3484</v>
+      </c>
+      <c r="J1241" s="9">
+        <v>4</v>
+      </c>
       <c r="K1241" s="9"/>
       <c r="L1241" s="9"/>
       <c r="M1241" s="9"/>
-      <c r="N1241" s="12"/>
+      <c r="N1241" s="12" t="s">
+        <v>2931</v>
+      </c>
     </row>
     <row r="1242" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1242" s="4" t="s">
-        <v>2378</v>
+        <v>2363</v>
       </c>
       <c r="B1242" s="5" t="s">
         <v>2364</v>
       </c>
       <c r="C1242" s="5" t="s">
-        <v>2379</v>
-      </c>
-      <c r="D1242" s="15"/>
+        <v>2365</v>
+      </c>
+      <c r="D1242" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1242" s="9"/>
       <c r="F1242" s="9"/>
       <c r="G1242" s="9"/>
@@ -45372,17 +46552,19 @@
       <c r="M1242" s="9"/>
       <c r="N1242" s="12"/>
     </row>
-    <row r="1243" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1243" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1243" s="4" t="s">
-        <v>2380</v>
+        <v>2366</v>
       </c>
       <c r="B1243" s="5" t="s">
         <v>2364</v>
       </c>
       <c r="C1243" s="5" t="s">
-        <v>2381</v>
-      </c>
-      <c r="D1243" s="15"/>
+        <v>2367</v>
+      </c>
+      <c r="D1243" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1243" s="9"/>
       <c r="F1243" s="9"/>
       <c r="G1243" s="9"/>
@@ -45396,15 +46578,17 @@
     </row>
     <row r="1244" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1244" s="4" t="s">
-        <v>2382</v>
+        <v>2368</v>
       </c>
       <c r="B1244" s="5" t="s">
         <v>2364</v>
       </c>
       <c r="C1244" s="5" t="s">
-        <v>2383</v>
-      </c>
-      <c r="D1244" s="15"/>
+        <v>2369</v>
+      </c>
+      <c r="D1244" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1244" s="9"/>
       <c r="F1244" s="9"/>
       <c r="G1244" s="9"/>
@@ -45416,17 +46600,19 @@
       <c r="M1244" s="9"/>
       <c r="N1244" s="12"/>
     </row>
-    <row r="1245" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1245" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1245" s="4" t="s">
-        <v>2384</v>
+        <v>2370</v>
       </c>
       <c r="B1245" s="5" t="s">
         <v>2364</v>
       </c>
       <c r="C1245" s="5" t="s">
-        <v>2385</v>
-      </c>
-      <c r="D1245" s="15"/>
+        <v>2371</v>
+      </c>
+      <c r="D1245" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1245" s="9"/>
       <c r="F1245" s="9"/>
       <c r="G1245" s="9"/>
@@ -45440,37 +46626,59 @@
     </row>
     <row r="1246" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1246" s="4" t="s">
-        <v>2386</v>
+        <v>2372</v>
       </c>
       <c r="B1246" s="5" t="s">
         <v>2364</v>
       </c>
       <c r="C1246" s="5" t="s">
-        <v>2387</v>
-      </c>
-      <c r="D1246" s="15"/>
-      <c r="E1246" s="9"/>
-      <c r="F1246" s="9"/>
-      <c r="G1246" s="9"/>
-      <c r="H1246" s="9"/>
-      <c r="I1246" s="9"/>
-      <c r="J1246" s="9"/>
-      <c r="K1246" s="9"/>
+        <v>2373</v>
+      </c>
+      <c r="D1246" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1246" s="10" t="s">
+        <v>3072</v>
+      </c>
+      <c r="F1246" s="9" t="s">
+        <v>2720</v>
+      </c>
+      <c r="G1246" s="9" t="s">
+        <v>3485</v>
+      </c>
+      <c r="H1246" s="9" t="s">
+        <v>3486</v>
+      </c>
+      <c r="I1246" s="9" t="s">
+        <v>3487</v>
+      </c>
+      <c r="J1246" s="9">
+        <v>1</v>
+      </c>
+      <c r="K1246" s="9">
+        <v>1</v>
+      </c>
       <c r="L1246" s="9"/>
-      <c r="M1246" s="9"/>
-      <c r="N1246" s="12"/>
+      <c r="M1246" s="9">
+        <v>1</v>
+      </c>
+      <c r="N1246" s="12" t="s">
+        <v>3488</v>
+      </c>
     </row>
     <row r="1247" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1247" s="4" t="s">
-        <v>2388</v>
+        <v>2374</v>
       </c>
       <c r="B1247" s="5" t="s">
         <v>2364</v>
       </c>
       <c r="C1247" s="5" t="s">
-        <v>2389</v>
-      </c>
-      <c r="D1247" s="15"/>
+        <v>2375</v>
+      </c>
+      <c r="D1247" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1247" s="9"/>
       <c r="F1247" s="9"/>
       <c r="G1247" s="9"/>
@@ -45484,15 +46692,17 @@
     </row>
     <row r="1248" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1248" s="4" t="s">
-        <v>2390</v>
+        <v>2376</v>
       </c>
       <c r="B1248" s="5" t="s">
         <v>2364</v>
       </c>
       <c r="C1248" s="5" t="s">
-        <v>2391</v>
-      </c>
-      <c r="D1248" s="15"/>
+        <v>2377</v>
+      </c>
+      <c r="D1248" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1248" s="9"/>
       <c r="F1248" s="9"/>
       <c r="G1248" s="9"/>
@@ -45504,17 +46714,19 @@
       <c r="M1248" s="9"/>
       <c r="N1248" s="12"/>
     </row>
-    <row r="1249" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1249" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1249" s="4" t="s">
-        <v>2392</v>
+        <v>2378</v>
       </c>
       <c r="B1249" s="5" t="s">
         <v>2364</v>
       </c>
       <c r="C1249" s="5" t="s">
-        <v>2393</v>
-      </c>
-      <c r="D1249" s="15"/>
+        <v>2379</v>
+      </c>
+      <c r="D1249" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1249" s="9"/>
       <c r="F1249" s="9"/>
       <c r="G1249" s="9"/>
@@ -45528,15 +46740,17 @@
     </row>
     <row r="1250" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1250" s="4" t="s">
-        <v>2394</v>
+        <v>2380</v>
       </c>
       <c r="B1250" s="5" t="s">
         <v>2364</v>
       </c>
       <c r="C1250" s="5" t="s">
-        <v>2395</v>
-      </c>
-      <c r="D1250" s="15"/>
+        <v>2381</v>
+      </c>
+      <c r="D1250" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1250" s="9"/>
       <c r="F1250" s="9"/>
       <c r="G1250" s="9"/>
@@ -45550,15 +46764,17 @@
     </row>
     <row r="1251" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1251" s="4" t="s">
-        <v>2396</v>
+        <v>2382</v>
       </c>
       <c r="B1251" s="5" t="s">
         <v>2364</v>
       </c>
       <c r="C1251" s="5" t="s">
-        <v>2397</v>
-      </c>
-      <c r="D1251" s="15"/>
+        <v>2383</v>
+      </c>
+      <c r="D1251" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1251" s="9"/>
       <c r="F1251" s="9"/>
       <c r="G1251" s="9"/>
@@ -45572,235 +46788,381 @@
     </row>
     <row r="1252" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1252" s="4" t="s">
-        <v>2398</v>
+        <v>2384</v>
       </c>
       <c r="B1252" s="5" t="s">
         <v>2364</v>
       </c>
       <c r="C1252" s="5" t="s">
-        <v>2399</v>
-      </c>
-      <c r="D1252" s="15"/>
-      <c r="E1252" s="9"/>
-      <c r="F1252" s="9"/>
-      <c r="G1252" s="9"/>
-      <c r="H1252" s="9"/>
-      <c r="I1252" s="9"/>
-      <c r="J1252" s="9"/>
+        <v>2385</v>
+      </c>
+      <c r="D1252" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1252" s="9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="F1252" s="9" t="s">
+        <v>2588</v>
+      </c>
+      <c r="G1252" s="9" t="s">
+        <v>2589</v>
+      </c>
+      <c r="H1252" s="9" t="s">
+        <v>2590</v>
+      </c>
+      <c r="I1252" s="9" t="s">
+        <v>3061</v>
+      </c>
+      <c r="J1252" s="9">
+        <v>2</v>
+      </c>
       <c r="K1252" s="9"/>
       <c r="L1252" s="9"/>
       <c r="M1252" s="9"/>
-      <c r="N1252" s="12"/>
+      <c r="N1252" s="12" t="s">
+        <v>2931</v>
+      </c>
     </row>
     <row r="1253" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1253" s="4" t="s">
-        <v>2400</v>
+        <v>2384</v>
       </c>
       <c r="B1253" s="5" t="s">
         <v>2364</v>
       </c>
       <c r="C1253" s="5" t="s">
-        <v>2401</v>
-      </c>
-      <c r="D1253" s="15"/>
-      <c r="E1253" s="9"/>
-      <c r="F1253" s="9"/>
-      <c r="G1253" s="9"/>
-      <c r="H1253" s="9"/>
-      <c r="I1253" s="9"/>
-      <c r="J1253" s="9"/>
+        <v>2385</v>
+      </c>
+      <c r="D1253" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1253" s="9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="F1253" s="9" t="s">
+        <v>2588</v>
+      </c>
+      <c r="G1253" s="9" t="s">
+        <v>2593</v>
+      </c>
+      <c r="H1253" s="9" t="s">
+        <v>2594</v>
+      </c>
+      <c r="I1253" s="9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="J1253" s="9">
+        <v>2</v>
+      </c>
       <c r="K1253" s="9"/>
       <c r="L1253" s="9"/>
       <c r="M1253" s="9"/>
-      <c r="N1253" s="12"/>
+      <c r="N1253" s="12" t="s">
+        <v>2931</v>
+      </c>
     </row>
     <row r="1254" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1254" s="4" t="s">
-        <v>2402</v>
+        <v>2386</v>
       </c>
       <c r="B1254" s="5" t="s">
         <v>2364</v>
       </c>
       <c r="C1254" s="5" t="s">
-        <v>2403</v>
-      </c>
-      <c r="D1254" s="15"/>
-      <c r="E1254" s="9"/>
-      <c r="F1254" s="9"/>
-      <c r="G1254" s="9"/>
-      <c r="H1254" s="9"/>
-      <c r="I1254" s="9"/>
+        <v>2387</v>
+      </c>
+      <c r="D1254" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1254" s="10" t="s">
+        <v>3492</v>
+      </c>
+      <c r="F1254" s="9" t="s">
+        <v>3287</v>
+      </c>
+      <c r="G1254" s="9" t="s">
+        <v>3489</v>
+      </c>
+      <c r="H1254" s="9" t="s">
+        <v>3490</v>
+      </c>
+      <c r="I1254" s="9" t="s">
+        <v>3491</v>
+      </c>
       <c r="J1254" s="9"/>
       <c r="K1254" s="9"/>
       <c r="L1254" s="9"/>
       <c r="M1254" s="9"/>
-      <c r="N1254" s="12"/>
+      <c r="N1254" s="12" t="s">
+        <v>2730</v>
+      </c>
     </row>
     <row r="1255" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1255" s="4" t="s">
-        <v>2404</v>
+        <v>2388</v>
       </c>
       <c r="B1255" s="5" t="s">
-        <v>2405</v>
+        <v>2364</v>
       </c>
       <c r="C1255" s="5" t="s">
-        <v>2406</v>
-      </c>
-      <c r="D1255" s="15"/>
-      <c r="E1255" s="9"/>
-      <c r="F1255" s="9"/>
-      <c r="G1255" s="9"/>
-      <c r="H1255" s="9"/>
-      <c r="I1255" s="9"/>
+        <v>2389</v>
+      </c>
+      <c r="D1255" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1255" s="10" t="s">
+        <v>3501</v>
+      </c>
+      <c r="F1255" s="9" t="s">
+        <v>3287</v>
+      </c>
+      <c r="G1255" s="9" t="s">
+        <v>3493</v>
+      </c>
+      <c r="H1255" s="9" t="s">
+        <v>3494</v>
+      </c>
+      <c r="I1255" s="9" t="s">
+        <v>2497</v>
+      </c>
       <c r="J1255" s="9"/>
       <c r="K1255" s="9"/>
       <c r="L1255" s="9"/>
       <c r="M1255" s="9"/>
-      <c r="N1255" s="12"/>
+      <c r="N1255" s="12" t="s">
+        <v>2730</v>
+      </c>
     </row>
     <row r="1256" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1256" s="4" t="s">
-        <v>2407</v>
+        <v>2388</v>
       </c>
       <c r="B1256" s="5" t="s">
-        <v>2405</v>
+        <v>2364</v>
       </c>
       <c r="C1256" s="5" t="s">
-        <v>2408</v>
-      </c>
-      <c r="D1256" s="15"/>
-      <c r="E1256" s="9"/>
-      <c r="F1256" s="9"/>
-      <c r="G1256" s="9"/>
-      <c r="H1256" s="9"/>
-      <c r="I1256" s="9"/>
+        <v>2389</v>
+      </c>
+      <c r="D1256" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1256" s="10" t="s">
+        <v>3501</v>
+      </c>
+      <c r="F1256" s="9" t="s">
+        <v>3287</v>
+      </c>
+      <c r="G1256" s="9" t="s">
+        <v>3493</v>
+      </c>
+      <c r="H1256" s="9" t="s">
+        <v>3495</v>
+      </c>
+      <c r="I1256" s="9" t="s">
+        <v>2497</v>
+      </c>
       <c r="J1256" s="9"/>
       <c r="K1256" s="9"/>
       <c r="L1256" s="9"/>
       <c r="M1256" s="9"/>
-      <c r="N1256" s="12"/>
+      <c r="N1256" s="12" t="s">
+        <v>2730</v>
+      </c>
     </row>
     <row r="1257" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1257" s="4" t="s">
-        <v>2409</v>
+        <v>2388</v>
       </c>
       <c r="B1257" s="5" t="s">
-        <v>2405</v>
+        <v>2364</v>
       </c>
       <c r="C1257" s="5" t="s">
-        <v>2410</v>
-      </c>
-      <c r="D1257" s="15"/>
-      <c r="E1257" s="9"/>
-      <c r="F1257" s="9"/>
-      <c r="G1257" s="9"/>
-      <c r="H1257" s="9"/>
-      <c r="I1257" s="9"/>
+        <v>2389</v>
+      </c>
+      <c r="D1257" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1257" s="10" t="s">
+        <v>3501</v>
+      </c>
+      <c r="F1257" s="9" t="s">
+        <v>3287</v>
+      </c>
+      <c r="G1257" s="9" t="s">
+        <v>3493</v>
+      </c>
+      <c r="H1257" s="9" t="s">
+        <v>3496</v>
+      </c>
+      <c r="I1257" s="9" t="s">
+        <v>2497</v>
+      </c>
       <c r="J1257" s="9"/>
       <c r="K1257" s="9"/>
       <c r="L1257" s="9"/>
       <c r="M1257" s="9"/>
-      <c r="N1257" s="12"/>
+      <c r="N1257" s="12" t="s">
+        <v>2730</v>
+      </c>
     </row>
     <row r="1258" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1258" s="4" t="s">
-        <v>2411</v>
+        <v>2388</v>
       </c>
       <c r="B1258" s="5" t="s">
-        <v>2405</v>
+        <v>2364</v>
       </c>
       <c r="C1258" s="5" t="s">
-        <v>2412</v>
-      </c>
-      <c r="D1258" s="15"/>
-      <c r="E1258" s="9"/>
-      <c r="F1258" s="9"/>
-      <c r="G1258" s="9"/>
-      <c r="H1258" s="9"/>
-      <c r="I1258" s="9"/>
+        <v>2389</v>
+      </c>
+      <c r="D1258" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1258" s="10" t="s">
+        <v>3501</v>
+      </c>
+      <c r="F1258" s="9" t="s">
+        <v>3287</v>
+      </c>
+      <c r="G1258" s="9" t="s">
+        <v>3493</v>
+      </c>
+      <c r="H1258" s="9" t="s">
+        <v>3497</v>
+      </c>
+      <c r="I1258" s="9" t="s">
+        <v>2497</v>
+      </c>
       <c r="J1258" s="9"/>
       <c r="K1258" s="9"/>
       <c r="L1258" s="9"/>
       <c r="M1258" s="9"/>
-      <c r="N1258" s="12"/>
+      <c r="N1258" s="12" t="s">
+        <v>2730</v>
+      </c>
     </row>
     <row r="1259" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1259" s="4" t="s">
-        <v>2413</v>
+        <v>2388</v>
       </c>
       <c r="B1259" s="5" t="s">
-        <v>2405</v>
+        <v>2364</v>
       </c>
       <c r="C1259" s="5" t="s">
-        <v>2414</v>
-      </c>
-      <c r="D1259" s="15"/>
-      <c r="E1259" s="9"/>
-      <c r="F1259" s="9"/>
-      <c r="G1259" s="9"/>
-      <c r="H1259" s="9"/>
-      <c r="I1259" s="9"/>
+        <v>2389</v>
+      </c>
+      <c r="D1259" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1259" s="10" t="s">
+        <v>3501</v>
+      </c>
+      <c r="F1259" s="9" t="s">
+        <v>3287</v>
+      </c>
+      <c r="G1259" s="9" t="s">
+        <v>3493</v>
+      </c>
+      <c r="H1259" s="9" t="s">
+        <v>3498</v>
+      </c>
+      <c r="I1259" s="9" t="s">
+        <v>2497</v>
+      </c>
       <c r="J1259" s="9"/>
       <c r="K1259" s="9"/>
       <c r="L1259" s="9"/>
       <c r="M1259" s="9"/>
-      <c r="N1259" s="12"/>
-    </row>
-    <row r="1260" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="N1259" s="12" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1260" s="4" t="s">
-        <v>2415</v>
+        <v>2388</v>
       </c>
       <c r="B1260" s="5" t="s">
-        <v>2405</v>
+        <v>2364</v>
       </c>
       <c r="C1260" s="5" t="s">
-        <v>2416</v>
-      </c>
-      <c r="D1260" s="15"/>
-      <c r="E1260" s="9"/>
-      <c r="F1260" s="9"/>
-      <c r="G1260" s="9"/>
-      <c r="H1260" s="9"/>
-      <c r="I1260" s="9"/>
+        <v>2389</v>
+      </c>
+      <c r="D1260" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1260" s="10" t="s">
+        <v>3501</v>
+      </c>
+      <c r="F1260" s="9" t="s">
+        <v>3287</v>
+      </c>
+      <c r="G1260" s="9" t="s">
+        <v>3493</v>
+      </c>
+      <c r="H1260" s="9" t="s">
+        <v>3490</v>
+      </c>
+      <c r="I1260" s="9" t="s">
+        <v>3499</v>
+      </c>
       <c r="J1260" s="9"/>
       <c r="K1260" s="9"/>
       <c r="L1260" s="9"/>
       <c r="M1260" s="9"/>
-      <c r="N1260" s="12"/>
-    </row>
-    <row r="1261" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="N1260" s="12" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1261" s="4" t="s">
-        <v>2417</v>
+        <v>2388</v>
       </c>
       <c r="B1261" s="5" t="s">
-        <v>2405</v>
+        <v>2364</v>
       </c>
       <c r="C1261" s="5" t="s">
-        <v>2418</v>
-      </c>
-      <c r="D1261" s="15"/>
-      <c r="E1261" s="9"/>
-      <c r="F1261" s="9"/>
-      <c r="G1261" s="9"/>
-      <c r="H1261" s="9"/>
-      <c r="I1261" s="9"/>
+        <v>2389</v>
+      </c>
+      <c r="D1261" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1261" s="10" t="s">
+        <v>3501</v>
+      </c>
+      <c r="F1261" s="9" t="s">
+        <v>3287</v>
+      </c>
+      <c r="G1261" s="9" t="s">
+        <v>3493</v>
+      </c>
+      <c r="H1261" s="9" t="s">
+        <v>3490</v>
+      </c>
+      <c r="I1261" s="9" t="s">
+        <v>3500</v>
+      </c>
       <c r="J1261" s="9"/>
       <c r="K1261" s="9"/>
       <c r="L1261" s="9"/>
       <c r="M1261" s="9"/>
-      <c r="N1261" s="12"/>
+      <c r="N1261" s="12" t="s">
+        <v>2730</v>
+      </c>
     </row>
     <row r="1262" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1262" s="4" t="s">
-        <v>2419</v>
+        <v>2390</v>
       </c>
       <c r="B1262" s="5" t="s">
-        <v>2405</v>
+        <v>2364</v>
       </c>
       <c r="C1262" s="5" t="s">
-        <v>2420</v>
-      </c>
-      <c r="D1262" s="15"/>
+        <v>2391</v>
+      </c>
+      <c r="D1262" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1262" s="9"/>
       <c r="F1262" s="9"/>
       <c r="G1262" s="9"/>
@@ -45814,15 +47176,17 @@
     </row>
     <row r="1263" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1263" s="4" t="s">
-        <v>2421</v>
+        <v>2392</v>
       </c>
       <c r="B1263" s="5" t="s">
-        <v>2405</v>
+        <v>2364</v>
       </c>
       <c r="C1263" s="5" t="s">
-        <v>2422</v>
-      </c>
-      <c r="D1263" s="15"/>
+        <v>2393</v>
+      </c>
+      <c r="D1263" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1263" s="9"/>
       <c r="F1263" s="9"/>
       <c r="G1263" s="9"/>
@@ -45836,37 +47200,57 @@
     </row>
     <row r="1264" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1264" s="4" t="s">
-        <v>2423</v>
+        <v>2394</v>
       </c>
       <c r="B1264" s="5" t="s">
-        <v>2405</v>
+        <v>2364</v>
       </c>
       <c r="C1264" s="5" t="s">
-        <v>2424</v>
-      </c>
-      <c r="D1264" s="15"/>
-      <c r="E1264" s="9"/>
-      <c r="F1264" s="9"/>
-      <c r="G1264" s="9"/>
-      <c r="H1264" s="9"/>
-      <c r="I1264" s="9"/>
-      <c r="J1264" s="9"/>
-      <c r="K1264" s="9"/>
+        <v>2395</v>
+      </c>
+      <c r="D1264" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1264" s="10" t="s">
+        <v>3505</v>
+      </c>
+      <c r="F1264" s="9" t="s">
+        <v>3287</v>
+      </c>
+      <c r="G1264" s="9" t="s">
+        <v>3502</v>
+      </c>
+      <c r="H1264" s="9" t="s">
+        <v>3503</v>
+      </c>
+      <c r="I1264" s="9" t="s">
+        <v>3504</v>
+      </c>
+      <c r="J1264" s="9">
+        <v>2</v>
+      </c>
+      <c r="K1264" s="9">
+        <v>1</v>
+      </c>
       <c r="L1264" s="9"/>
       <c r="M1264" s="9"/>
-      <c r="N1264" s="12"/>
+      <c r="N1264" s="12" t="s">
+        <v>2931</v>
+      </c>
     </row>
     <row r="1265" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1265" s="4" t="s">
-        <v>2425</v>
+        <v>2396</v>
       </c>
       <c r="B1265" s="5" t="s">
-        <v>2405</v>
+        <v>2364</v>
       </c>
       <c r="C1265" s="5" t="s">
-        <v>2426</v>
-      </c>
-      <c r="D1265" s="15"/>
+        <v>2397</v>
+      </c>
+      <c r="D1265" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1265" s="9"/>
       <c r="F1265" s="9"/>
       <c r="G1265" s="9"/>
@@ -45880,37 +47264,53 @@
     </row>
     <row r="1266" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1266" s="4" t="s">
-        <v>2427</v>
+        <v>2398</v>
       </c>
       <c r="B1266" s="5" t="s">
-        <v>2405</v>
+        <v>2364</v>
       </c>
       <c r="C1266" s="5" t="s">
-        <v>2428</v>
-      </c>
-      <c r="D1266" s="15"/>
-      <c r="E1266" s="9"/>
-      <c r="F1266" s="9"/>
-      <c r="G1266" s="9"/>
-      <c r="H1266" s="9"/>
-      <c r="I1266" s="9"/>
+        <v>2399</v>
+      </c>
+      <c r="D1266" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1266" s="10" t="s">
+        <v>3510</v>
+      </c>
+      <c r="F1266" s="9" t="s">
+        <v>3506</v>
+      </c>
+      <c r="G1266" s="9" t="s">
+        <v>3507</v>
+      </c>
+      <c r="H1266" s="9" t="s">
+        <v>3508</v>
+      </c>
+      <c r="I1266" s="9" t="s">
+        <v>3509</v>
+      </c>
       <c r="J1266" s="9"/>
       <c r="K1266" s="9"/>
       <c r="L1266" s="9"/>
       <c r="M1266" s="9"/>
-      <c r="N1266" s="12"/>
+      <c r="N1266" s="12" t="s">
+        <v>2730</v>
+      </c>
     </row>
     <row r="1267" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1267" s="4" t="s">
-        <v>2429</v>
+        <v>2400</v>
       </c>
       <c r="B1267" s="5" t="s">
-        <v>2405</v>
+        <v>2364</v>
       </c>
       <c r="C1267" s="5" t="s">
-        <v>2430</v>
-      </c>
-      <c r="D1267" s="15"/>
+        <v>2401</v>
+      </c>
+      <c r="D1267" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1267" s="9"/>
       <c r="F1267" s="9"/>
       <c r="G1267" s="9"/>
@@ -45924,15 +47324,17 @@
     </row>
     <row r="1268" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1268" s="4" t="s">
-        <v>2431</v>
+        <v>2402</v>
       </c>
       <c r="B1268" s="5" t="s">
-        <v>2405</v>
+        <v>2364</v>
       </c>
       <c r="C1268" s="5" t="s">
-        <v>2432</v>
-      </c>
-      <c r="D1268" s="15"/>
+        <v>2403</v>
+      </c>
+      <c r="D1268" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1268" s="9"/>
       <c r="F1268" s="9"/>
       <c r="G1268" s="9"/>
@@ -45946,37 +47348,55 @@
     </row>
     <row r="1269" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1269" s="4" t="s">
-        <v>2433</v>
+        <v>2404</v>
       </c>
       <c r="B1269" s="5" t="s">
         <v>2405</v>
       </c>
       <c r="C1269" s="5" t="s">
-        <v>2434</v>
-      </c>
-      <c r="D1269" s="15"/>
-      <c r="E1269" s="9"/>
-      <c r="F1269" s="9"/>
-      <c r="G1269" s="9"/>
-      <c r="H1269" s="9"/>
-      <c r="I1269" s="9"/>
-      <c r="J1269" s="9"/>
+        <v>2406</v>
+      </c>
+      <c r="D1269" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1269" s="10" t="s">
+        <v>3513</v>
+      </c>
+      <c r="F1269" s="9" t="s">
+        <v>2510</v>
+      </c>
+      <c r="G1269" s="9" t="s">
+        <v>2511</v>
+      </c>
+      <c r="H1269" s="9" t="s">
+        <v>3511</v>
+      </c>
+      <c r="I1269" s="9" t="s">
+        <v>3512</v>
+      </c>
+      <c r="J1269" s="9">
+        <v>17</v>
+      </c>
       <c r="K1269" s="9"/>
       <c r="L1269" s="9"/>
       <c r="M1269" s="9"/>
-      <c r="N1269" s="12"/>
+      <c r="N1269" s="12" t="s">
+        <v>2931</v>
+      </c>
     </row>
     <row r="1270" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1270" s="4" t="s">
-        <v>2435</v>
+        <v>2407</v>
       </c>
       <c r="B1270" s="5" t="s">
         <v>2405</v>
       </c>
       <c r="C1270" s="5" t="s">
-        <v>2436</v>
-      </c>
-      <c r="D1270" s="15"/>
+        <v>2408</v>
+      </c>
+      <c r="D1270" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1270" s="9"/>
       <c r="F1270" s="9"/>
       <c r="G1270" s="9"/>
@@ -45990,37 +47410,55 @@
     </row>
     <row r="1271" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1271" s="4" t="s">
-        <v>2437</v>
+        <v>2409</v>
       </c>
       <c r="B1271" s="5" t="s">
         <v>2405</v>
       </c>
       <c r="C1271" s="5" t="s">
-        <v>2438</v>
-      </c>
-      <c r="D1271" s="15"/>
-      <c r="E1271" s="9"/>
-      <c r="F1271" s="9"/>
-      <c r="G1271" s="9"/>
-      <c r="H1271" s="9"/>
-      <c r="I1271" s="9"/>
-      <c r="J1271" s="9"/>
+        <v>2410</v>
+      </c>
+      <c r="D1271" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1271" s="10" t="s">
+        <v>3514</v>
+      </c>
+      <c r="F1271" s="9" t="s">
+        <v>2709</v>
+      </c>
+      <c r="G1271" s="9" t="s">
+        <v>2709</v>
+      </c>
+      <c r="H1271" s="9" t="s">
+        <v>2709</v>
+      </c>
+      <c r="I1271" s="9" t="s">
+        <v>2709</v>
+      </c>
+      <c r="J1271" s="9">
+        <v>191</v>
+      </c>
       <c r="K1271" s="9"/>
       <c r="L1271" s="9"/>
       <c r="M1271" s="9"/>
-      <c r="N1271" s="12"/>
+      <c r="N1271" s="12" t="s">
+        <v>2931</v>
+      </c>
     </row>
     <row r="1272" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1272" s="4" t="s">
-        <v>2439</v>
+        <v>2411</v>
       </c>
       <c r="B1272" s="5" t="s">
         <v>2405</v>
       </c>
       <c r="C1272" s="5" t="s">
-        <v>2440</v>
-      </c>
-      <c r="D1272" s="15"/>
+        <v>2412</v>
+      </c>
+      <c r="D1272" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1272" s="9"/>
       <c r="F1272" s="9"/>
       <c r="G1272" s="9"/>
@@ -46034,15 +47472,17 @@
     </row>
     <row r="1273" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1273" s="4" t="s">
-        <v>2441</v>
+        <v>2413</v>
       </c>
       <c r="B1273" s="5" t="s">
         <v>2405</v>
       </c>
       <c r="C1273" s="5" t="s">
-        <v>2442</v>
-      </c>
-      <c r="D1273" s="15"/>
+        <v>2414</v>
+      </c>
+      <c r="D1273" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1273" s="9"/>
       <c r="F1273" s="9"/>
       <c r="G1273" s="9"/>
@@ -46054,17 +47494,19 @@
       <c r="M1273" s="9"/>
       <c r="N1273" s="12"/>
     </row>
-    <row r="1274" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1274" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1274" s="4" t="s">
-        <v>2443</v>
+        <v>2415</v>
       </c>
       <c r="B1274" s="5" t="s">
         <v>2405</v>
       </c>
       <c r="C1274" s="5" t="s">
-        <v>2444</v>
-      </c>
-      <c r="D1274" s="15"/>
+        <v>2416</v>
+      </c>
+      <c r="D1274" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1274" s="9"/>
       <c r="F1274" s="9"/>
       <c r="G1274" s="9"/>
@@ -46076,17 +47518,19 @@
       <c r="M1274" s="9"/>
       <c r="N1274" s="12"/>
     </row>
-    <row r="1275" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1275" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1275" s="4" t="s">
-        <v>2445</v>
+        <v>2417</v>
       </c>
       <c r="B1275" s="5" t="s">
-        <v>2446</v>
+        <v>2405</v>
       </c>
       <c r="C1275" s="5" t="s">
-        <v>2447</v>
-      </c>
-      <c r="D1275" s="15"/>
+        <v>2418</v>
+      </c>
+      <c r="D1275" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1275" s="9"/>
       <c r="F1275" s="9"/>
       <c r="G1275" s="9"/>
@@ -46100,15 +47544,17 @@
     </row>
     <row r="1276" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1276" s="4" t="s">
-        <v>2448</v>
+        <v>2419</v>
       </c>
       <c r="B1276" s="5" t="s">
-        <v>2446</v>
+        <v>2405</v>
       </c>
       <c r="C1276" s="5" t="s">
-        <v>2449</v>
-      </c>
-      <c r="D1276" s="15"/>
+        <v>2420</v>
+      </c>
+      <c r="D1276" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1276" s="9"/>
       <c r="F1276" s="9"/>
       <c r="G1276" s="9"/>
@@ -46122,15 +47568,17 @@
     </row>
     <row r="1277" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1277" s="4" t="s">
-        <v>2450</v>
+        <v>2421</v>
       </c>
       <c r="B1277" s="5" t="s">
-        <v>2446</v>
+        <v>2405</v>
       </c>
       <c r="C1277" s="5" t="s">
-        <v>2451</v>
-      </c>
-      <c r="D1277" s="15"/>
+        <v>2422</v>
+      </c>
+      <c r="D1277" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1277" s="9"/>
       <c r="F1277" s="9"/>
       <c r="G1277" s="9"/>
@@ -46144,15 +47592,17 @@
     </row>
     <row r="1278" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1278" s="4" t="s">
-        <v>2452</v>
+        <v>2423</v>
       </c>
       <c r="B1278" s="5" t="s">
-        <v>2446</v>
+        <v>2405</v>
       </c>
       <c r="C1278" s="5" t="s">
-        <v>2453</v>
-      </c>
-      <c r="D1278" s="15"/>
+        <v>2424</v>
+      </c>
+      <c r="D1278" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1278" s="9"/>
       <c r="F1278" s="9"/>
       <c r="G1278" s="9"/>
@@ -46166,15 +47616,17 @@
     </row>
     <row r="1279" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1279" s="4" t="s">
-        <v>2454</v>
+        <v>2425</v>
       </c>
       <c r="B1279" s="5" t="s">
-        <v>2446</v>
+        <v>2405</v>
       </c>
       <c r="C1279" s="5" t="s">
-        <v>2455</v>
-      </c>
-      <c r="D1279" s="15"/>
+        <v>2426</v>
+      </c>
+      <c r="D1279" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1279" s="9"/>
       <c r="F1279" s="9"/>
       <c r="G1279" s="9"/>
@@ -46188,15 +47640,17 @@
     </row>
     <row r="1280" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1280" s="4" t="s">
-        <v>2456</v>
+        <v>2427</v>
       </c>
       <c r="B1280" s="5" t="s">
-        <v>2446</v>
+        <v>2405</v>
       </c>
       <c r="C1280" s="5" t="s">
-        <v>2457</v>
-      </c>
-      <c r="D1280" s="15"/>
+        <v>2428</v>
+      </c>
+      <c r="D1280" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1280" s="9"/>
       <c r="F1280" s="9"/>
       <c r="G1280" s="9"/>
@@ -46210,15 +47664,17 @@
     </row>
     <row r="1281" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1281" s="4" t="s">
-        <v>2458</v>
+        <v>2429</v>
       </c>
       <c r="B1281" s="5" t="s">
-        <v>2446</v>
+        <v>2405</v>
       </c>
       <c r="C1281" s="5" t="s">
-        <v>2459</v>
-      </c>
-      <c r="D1281" s="15"/>
+        <v>2430</v>
+      </c>
+      <c r="D1281" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1281" s="9"/>
       <c r="F1281" s="9"/>
       <c r="G1281" s="9"/>
@@ -46232,15 +47688,17 @@
     </row>
     <row r="1282" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1282" s="4" t="s">
-        <v>2460</v>
+        <v>2431</v>
       </c>
       <c r="B1282" s="5" t="s">
-        <v>2446</v>
+        <v>2405</v>
       </c>
       <c r="C1282" s="5" t="s">
-        <v>2461</v>
-      </c>
-      <c r="D1282" s="15"/>
+        <v>2432</v>
+      </c>
+      <c r="D1282" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1282" s="9"/>
       <c r="F1282" s="9"/>
       <c r="G1282" s="9"/>
@@ -46252,39 +47710,55 @@
       <c r="M1282" s="9"/>
       <c r="N1282" s="12"/>
     </row>
-    <row r="1283" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1283" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1283" s="4" t="s">
-        <v>2462</v>
+        <v>2433</v>
       </c>
       <c r="B1283" s="5" t="s">
-        <v>2446</v>
+        <v>2405</v>
       </c>
       <c r="C1283" s="5" t="s">
-        <v>2463</v>
-      </c>
-      <c r="D1283" s="15"/>
-      <c r="E1283" s="9"/>
-      <c r="F1283" s="9"/>
-      <c r="G1283" s="9"/>
-      <c r="H1283" s="9"/>
-      <c r="I1283" s="9"/>
+        <v>2434</v>
+      </c>
+      <c r="D1283" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1283" s="10" t="s">
+        <v>3518</v>
+      </c>
+      <c r="F1283" s="9" t="s">
+        <v>2510</v>
+      </c>
+      <c r="G1283" s="9" t="s">
+        <v>3515</v>
+      </c>
+      <c r="H1283" s="9" t="s">
+        <v>3516</v>
+      </c>
+      <c r="I1283" s="9" t="s">
+        <v>3517</v>
+      </c>
       <c r="J1283" s="9"/>
       <c r="K1283" s="9"/>
       <c r="L1283" s="9"/>
       <c r="M1283" s="9"/>
-      <c r="N1283" s="12"/>
-    </row>
-    <row r="1284" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="N1283" s="12" t="s">
+        <v>3519</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1284" s="4" t="s">
-        <v>2464</v>
+        <v>2435</v>
       </c>
       <c r="B1284" s="5" t="s">
-        <v>2446</v>
+        <v>2405</v>
       </c>
       <c r="C1284" s="5" t="s">
-        <v>2465</v>
-      </c>
-      <c r="D1284" s="15"/>
+        <v>2436</v>
+      </c>
+      <c r="D1284" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1284" s="9"/>
       <c r="F1284" s="9"/>
       <c r="G1284" s="9"/>
@@ -46298,59 +47772,91 @@
     </row>
     <row r="1285" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1285" s="4" t="s">
-        <v>2466</v>
+        <v>2437</v>
       </c>
       <c r="B1285" s="5" t="s">
-        <v>2446</v>
+        <v>2405</v>
       </c>
       <c r="C1285" s="5" t="s">
-        <v>2467</v>
-      </c>
-      <c r="D1285" s="15"/>
-      <c r="E1285" s="9"/>
-      <c r="F1285" s="9"/>
-      <c r="G1285" s="9"/>
-      <c r="H1285" s="9"/>
-      <c r="I1285" s="9"/>
+        <v>2438</v>
+      </c>
+      <c r="D1285" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1285" s="9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="F1285" s="9" t="s">
+        <v>2510</v>
+      </c>
+      <c r="G1285" s="9" t="s">
+        <v>3520</v>
+      </c>
+      <c r="H1285" s="9" t="s">
+        <v>3521</v>
+      </c>
+      <c r="I1285" s="9" t="s">
+        <v>3522</v>
+      </c>
       <c r="J1285" s="9"/>
       <c r="K1285" s="9"/>
       <c r="L1285" s="9"/>
       <c r="M1285" s="9"/>
-      <c r="N1285" s="12"/>
+      <c r="N1285" s="12" t="s">
+        <v>2730</v>
+      </c>
     </row>
     <row r="1286" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1286" s="4" t="s">
-        <v>2468</v>
+        <v>2439</v>
       </c>
       <c r="B1286" s="5" t="s">
-        <v>2446</v>
+        <v>2405</v>
       </c>
       <c r="C1286" s="5" t="s">
-        <v>2469</v>
-      </c>
-      <c r="D1286" s="15"/>
-      <c r="E1286" s="9"/>
-      <c r="F1286" s="9"/>
-      <c r="G1286" s="9"/>
-      <c r="H1286" s="9"/>
-      <c r="I1286" s="9"/>
-      <c r="J1286" s="9"/>
+        <v>2440</v>
+      </c>
+      <c r="D1286" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1286" s="10" t="s">
+        <v>2859</v>
+      </c>
+      <c r="F1286" s="9" t="s">
+        <v>2510</v>
+      </c>
+      <c r="G1286" s="9" t="s">
+        <v>3523</v>
+      </c>
+      <c r="H1286" s="9" t="s">
+        <v>3524</v>
+      </c>
+      <c r="I1286" s="9" t="s">
+        <v>3525</v>
+      </c>
+      <c r="J1286" s="9">
+        <v>1</v>
+      </c>
       <c r="K1286" s="9"/>
       <c r="L1286" s="9"/>
       <c r="M1286" s="9"/>
-      <c r="N1286" s="12"/>
+      <c r="N1286" s="12" t="s">
+        <v>2561</v>
+      </c>
     </row>
     <row r="1287" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1287" s="4" t="s">
-        <v>2470</v>
+        <v>2441</v>
       </c>
       <c r="B1287" s="5" t="s">
-        <v>2446</v>
+        <v>2405</v>
       </c>
       <c r="C1287" s="5" t="s">
-        <v>2471</v>
-      </c>
-      <c r="D1287" s="15"/>
+        <v>2442</v>
+      </c>
+      <c r="D1287" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1287" s="9"/>
       <c r="F1287" s="9"/>
       <c r="G1287" s="9"/>
@@ -46364,35 +47870,53 @@
     </row>
     <row r="1288" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1288" s="4" t="s">
-        <v>2472</v>
+        <v>2443</v>
       </c>
       <c r="B1288" s="5" t="s">
-        <v>2446</v>
+        <v>2405</v>
       </c>
       <c r="C1288" s="5" t="s">
-        <v>2473</v>
-      </c>
-      <c r="D1288" s="15"/>
-      <c r="E1288" s="9"/>
-      <c r="F1288" s="9"/>
-      <c r="G1288" s="9"/>
-      <c r="H1288" s="9"/>
-      <c r="I1288" s="9"/>
+        <v>2444</v>
+      </c>
+      <c r="D1288" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1288" s="10" t="s">
+        <v>3529</v>
+      </c>
+      <c r="F1288" s="9" t="s">
+        <v>2685</v>
+      </c>
+      <c r="G1288" s="9" t="s">
+        <v>3526</v>
+      </c>
+      <c r="H1288" s="9" t="s">
+        <v>3527</v>
+      </c>
+      <c r="I1288" s="9" t="s">
+        <v>3528</v>
+      </c>
       <c r="J1288" s="9"/>
-      <c r="K1288" s="9"/>
+      <c r="K1288" s="9">
+        <v>1</v>
+      </c>
       <c r="L1288" s="9"/>
-      <c r="M1288" s="9"/>
-      <c r="N1288" s="12"/>
-    </row>
-    <row r="1289" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="M1288" s="9">
+        <v>1</v>
+      </c>
+      <c r="N1288" s="12" t="s">
+        <v>3530</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1289" s="4" t="s">
-        <v>2474</v>
+        <v>2445</v>
       </c>
       <c r="B1289" s="5" t="s">
         <v>2446</v>
       </c>
       <c r="C1289" s="5" t="s">
-        <v>2475</v>
+        <v>2447</v>
       </c>
       <c r="D1289" s="15"/>
       <c r="E1289" s="9"/>
@@ -46408,13 +47932,13 @@
     </row>
     <row r="1290" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1290" s="4" t="s">
-        <v>2476</v>
+        <v>2448</v>
       </c>
       <c r="B1290" s="5" t="s">
         <v>2446</v>
       </c>
       <c r="C1290" s="5" t="s">
-        <v>2477</v>
+        <v>2449</v>
       </c>
       <c r="D1290" s="15"/>
       <c r="E1290" s="9"/>
@@ -46430,13 +47954,13 @@
     </row>
     <row r="1291" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1291" s="4" t="s">
-        <v>2478</v>
+        <v>2450</v>
       </c>
       <c r="B1291" s="5" t="s">
         <v>2446</v>
       </c>
       <c r="C1291" s="5" t="s">
-        <v>2479</v>
+        <v>2451</v>
       </c>
       <c r="D1291" s="15"/>
       <c r="E1291" s="9"/>
@@ -46450,15 +47974,15 @@
       <c r="M1291" s="9"/>
       <c r="N1291" s="12"/>
     </row>
-    <row r="1292" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1292" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1292" s="4" t="s">
-        <v>2480</v>
+        <v>2452</v>
       </c>
       <c r="B1292" s="5" t="s">
         <v>2446</v>
       </c>
       <c r="C1292" s="5" t="s">
-        <v>2481</v>
+        <v>2453</v>
       </c>
       <c r="D1292" s="15"/>
       <c r="E1292" s="9"/>
@@ -46474,13 +47998,13 @@
     </row>
     <row r="1293" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1293" s="4" t="s">
-        <v>2482</v>
+        <v>2454</v>
       </c>
       <c r="B1293" s="5" t="s">
         <v>2446</v>
       </c>
       <c r="C1293" s="5" t="s">
-        <v>2483</v>
+        <v>2455</v>
       </c>
       <c r="D1293" s="15"/>
       <c r="E1293" s="9"/>
@@ -46495,26 +48019,334 @@
       <c r="N1293" s="12"/>
     </row>
     <row r="1294" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A1294" s="6" t="s">
+      <c r="A1294" s="4" t="s">
+        <v>2456</v>
+      </c>
+      <c r="B1294" s="5" t="s">
+        <v>2446</v>
+      </c>
+      <c r="C1294" s="5" t="s">
+        <v>2457</v>
+      </c>
+      <c r="D1294" s="15"/>
+      <c r="E1294" s="9"/>
+      <c r="F1294" s="9"/>
+      <c r="G1294" s="9"/>
+      <c r="H1294" s="9"/>
+      <c r="I1294" s="9"/>
+      <c r="J1294" s="9"/>
+      <c r="K1294" s="9"/>
+      <c r="L1294" s="9"/>
+      <c r="M1294" s="9"/>
+      <c r="N1294" s="12"/>
+    </row>
+    <row r="1295" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A1295" s="4" t="s">
+        <v>2458</v>
+      </c>
+      <c r="B1295" s="5" t="s">
+        <v>2446</v>
+      </c>
+      <c r="C1295" s="5" t="s">
+        <v>2459</v>
+      </c>
+      <c r="D1295" s="15"/>
+      <c r="E1295" s="9"/>
+      <c r="F1295" s="9"/>
+      <c r="G1295" s="9"/>
+      <c r="H1295" s="9"/>
+      <c r="I1295" s="9"/>
+      <c r="J1295" s="9"/>
+      <c r="K1295" s="9"/>
+      <c r="L1295" s="9"/>
+      <c r="M1295" s="9"/>
+      <c r="N1295" s="12"/>
+    </row>
+    <row r="1296" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A1296" s="4" t="s">
+        <v>2460</v>
+      </c>
+      <c r="B1296" s="5" t="s">
+        <v>2446</v>
+      </c>
+      <c r="C1296" s="5" t="s">
+        <v>2461</v>
+      </c>
+      <c r="D1296" s="15"/>
+      <c r="E1296" s="9"/>
+      <c r="F1296" s="9"/>
+      <c r="G1296" s="9"/>
+      <c r="H1296" s="9"/>
+      <c r="I1296" s="9"/>
+      <c r="J1296" s="9"/>
+      <c r="K1296" s="9"/>
+      <c r="L1296" s="9"/>
+      <c r="M1296" s="9"/>
+      <c r="N1296" s="12"/>
+    </row>
+    <row r="1297" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1297" s="4" t="s">
+        <v>2462</v>
+      </c>
+      <c r="B1297" s="5" t="s">
+        <v>2446</v>
+      </c>
+      <c r="C1297" s="5" t="s">
+        <v>2463</v>
+      </c>
+      <c r="D1297" s="15"/>
+      <c r="E1297" s="9"/>
+      <c r="F1297" s="9"/>
+      <c r="G1297" s="9"/>
+      <c r="H1297" s="9"/>
+      <c r="I1297" s="9"/>
+      <c r="J1297" s="9"/>
+      <c r="K1297" s="9"/>
+      <c r="L1297" s="9"/>
+      <c r="M1297" s="9"/>
+      <c r="N1297" s="12"/>
+    </row>
+    <row r="1298" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1298" s="4" t="s">
+        <v>2464</v>
+      </c>
+      <c r="B1298" s="5" t="s">
+        <v>2446</v>
+      </c>
+      <c r="C1298" s="5" t="s">
+        <v>2465</v>
+      </c>
+      <c r="D1298" s="15"/>
+      <c r="E1298" s="9"/>
+      <c r="F1298" s="9"/>
+      <c r="G1298" s="9"/>
+      <c r="H1298" s="9"/>
+      <c r="I1298" s="9"/>
+      <c r="J1298" s="9"/>
+      <c r="K1298" s="9"/>
+      <c r="L1298" s="9"/>
+      <c r="M1298" s="9"/>
+      <c r="N1298" s="12"/>
+    </row>
+    <row r="1299" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A1299" s="4" t="s">
+        <v>2466</v>
+      </c>
+      <c r="B1299" s="5" t="s">
+        <v>2446</v>
+      </c>
+      <c r="C1299" s="5" t="s">
+        <v>2467</v>
+      </c>
+      <c r="D1299" s="15"/>
+      <c r="E1299" s="9"/>
+      <c r="F1299" s="9"/>
+      <c r="G1299" s="9"/>
+      <c r="H1299" s="9"/>
+      <c r="I1299" s="9"/>
+      <c r="J1299" s="9"/>
+      <c r="K1299" s="9"/>
+      <c r="L1299" s="9"/>
+      <c r="M1299" s="9"/>
+      <c r="N1299" s="12"/>
+    </row>
+    <row r="1300" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A1300" s="4" t="s">
+        <v>2468</v>
+      </c>
+      <c r="B1300" s="5" t="s">
+        <v>2446</v>
+      </c>
+      <c r="C1300" s="5" t="s">
+        <v>2469</v>
+      </c>
+      <c r="D1300" s="15"/>
+      <c r="E1300" s="9"/>
+      <c r="F1300" s="9"/>
+      <c r="G1300" s="9"/>
+      <c r="H1300" s="9"/>
+      <c r="I1300" s="9"/>
+      <c r="J1300" s="9"/>
+      <c r="K1300" s="9"/>
+      <c r="L1300" s="9"/>
+      <c r="M1300" s="9"/>
+      <c r="N1300" s="12"/>
+    </row>
+    <row r="1301" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A1301" s="4" t="s">
+        <v>2470</v>
+      </c>
+      <c r="B1301" s="5" t="s">
+        <v>2446</v>
+      </c>
+      <c r="C1301" s="5" t="s">
+        <v>2471</v>
+      </c>
+      <c r="D1301" s="15"/>
+      <c r="E1301" s="9"/>
+      <c r="F1301" s="9"/>
+      <c r="G1301" s="9"/>
+      <c r="H1301" s="9"/>
+      <c r="I1301" s="9"/>
+      <c r="J1301" s="9"/>
+      <c r="K1301" s="9"/>
+      <c r="L1301" s="9"/>
+      <c r="M1301" s="9"/>
+      <c r="N1301" s="12"/>
+    </row>
+    <row r="1302" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A1302" s="4" t="s">
+        <v>2472</v>
+      </c>
+      <c r="B1302" s="5" t="s">
+        <v>2446</v>
+      </c>
+      <c r="C1302" s="5" t="s">
+        <v>2473</v>
+      </c>
+      <c r="D1302" s="15"/>
+      <c r="E1302" s="9"/>
+      <c r="F1302" s="9"/>
+      <c r="G1302" s="9"/>
+      <c r="H1302" s="9"/>
+      <c r="I1302" s="9"/>
+      <c r="J1302" s="9"/>
+      <c r="K1302" s="9"/>
+      <c r="L1302" s="9"/>
+      <c r="M1302" s="9"/>
+      <c r="N1302" s="12"/>
+    </row>
+    <row r="1303" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1303" s="4" t="s">
+        <v>2474</v>
+      </c>
+      <c r="B1303" s="5" t="s">
+        <v>2446</v>
+      </c>
+      <c r="C1303" s="5" t="s">
+        <v>2475</v>
+      </c>
+      <c r="D1303" s="15"/>
+      <c r="E1303" s="9"/>
+      <c r="F1303" s="9"/>
+      <c r="G1303" s="9"/>
+      <c r="H1303" s="9"/>
+      <c r="I1303" s="9"/>
+      <c r="J1303" s="9"/>
+      <c r="K1303" s="9"/>
+      <c r="L1303" s="9"/>
+      <c r="M1303" s="9"/>
+      <c r="N1303" s="12"/>
+    </row>
+    <row r="1304" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A1304" s="4" t="s">
+        <v>2476</v>
+      </c>
+      <c r="B1304" s="5" t="s">
+        <v>2446</v>
+      </c>
+      <c r="C1304" s="5" t="s">
+        <v>2477</v>
+      </c>
+      <c r="D1304" s="15"/>
+      <c r="E1304" s="9"/>
+      <c r="F1304" s="9"/>
+      <c r="G1304" s="9"/>
+      <c r="H1304" s="9"/>
+      <c r="I1304" s="9"/>
+      <c r="J1304" s="9"/>
+      <c r="K1304" s="9"/>
+      <c r="L1304" s="9"/>
+      <c r="M1304" s="9"/>
+      <c r="N1304" s="12"/>
+    </row>
+    <row r="1305" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A1305" s="4" t="s">
+        <v>2478</v>
+      </c>
+      <c r="B1305" s="5" t="s">
+        <v>2446</v>
+      </c>
+      <c r="C1305" s="5" t="s">
+        <v>2479</v>
+      </c>
+      <c r="D1305" s="15"/>
+      <c r="E1305" s="9"/>
+      <c r="F1305" s="9"/>
+      <c r="G1305" s="9"/>
+      <c r="H1305" s="9"/>
+      <c r="I1305" s="9"/>
+      <c r="J1305" s="9"/>
+      <c r="K1305" s="9"/>
+      <c r="L1305" s="9"/>
+      <c r="M1305" s="9"/>
+      <c r="N1305" s="12"/>
+    </row>
+    <row r="1306" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1306" s="4" t="s">
+        <v>2480</v>
+      </c>
+      <c r="B1306" s="5" t="s">
+        <v>2446</v>
+      </c>
+      <c r="C1306" s="5" t="s">
+        <v>2481</v>
+      </c>
+      <c r="D1306" s="15"/>
+      <c r="E1306" s="9"/>
+      <c r="F1306" s="9"/>
+      <c r="G1306" s="9"/>
+      <c r="H1306" s="9"/>
+      <c r="I1306" s="9"/>
+      <c r="J1306" s="9"/>
+      <c r="K1306" s="9"/>
+      <c r="L1306" s="9"/>
+      <c r="M1306" s="9"/>
+      <c r="N1306" s="12"/>
+    </row>
+    <row r="1307" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A1307" s="4" t="s">
+        <v>2482</v>
+      </c>
+      <c r="B1307" s="5" t="s">
+        <v>2446</v>
+      </c>
+      <c r="C1307" s="5" t="s">
+        <v>2483</v>
+      </c>
+      <c r="D1307" s="15"/>
+      <c r="E1307" s="9"/>
+      <c r="F1307" s="9"/>
+      <c r="G1307" s="9"/>
+      <c r="H1307" s="9"/>
+      <c r="I1307" s="9"/>
+      <c r="J1307" s="9"/>
+      <c r="K1307" s="9"/>
+      <c r="L1307" s="9"/>
+      <c r="M1307" s="9"/>
+      <c r="N1307" s="12"/>
+    </row>
+    <row r="1308" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A1308" s="6" t="s">
         <v>2484</v>
       </c>
-      <c r="B1294" s="7" t="s">
+      <c r="B1308" s="7" t="s">
         <v>2446</v>
       </c>
-      <c r="C1294" s="7" t="s">
+      <c r="C1308" s="7" t="s">
         <v>2485</v>
       </c>
-      <c r="D1294" s="17"/>
-      <c r="E1294" s="13"/>
-      <c r="F1294" s="13"/>
-      <c r="G1294" s="13"/>
-      <c r="H1294" s="13"/>
-      <c r="I1294" s="13"/>
-      <c r="J1294" s="13"/>
-      <c r="K1294" s="13"/>
-      <c r="L1294" s="13"/>
-      <c r="M1294" s="13"/>
-      <c r="N1294" s="14"/>
+      <c r="D1308" s="17"/>
+      <c r="E1308" s="13"/>
+      <c r="F1308" s="13"/>
+      <c r="G1308" s="13"/>
+      <c r="H1308" s="13"/>
+      <c r="I1308" s="13"/>
+      <c r="J1308" s="13"/>
+      <c r="K1308" s="13"/>
+      <c r="L1308" s="13"/>
+      <c r="M1308" s="13"/>
+      <c r="N1308" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/longsor/v02_new/sample_longsor_anotasi_v02_new.xlsx.xlsx
+++ b/longsor/v02_new/sample_longsor_anotasi_v02_new.xlsx.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dharmapu\Documents\personal\ui\KA-AMSD_src\paper-submission\anotated_data\longsor\v02_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6619E992-230A-4844-A1D8-FB8B61337503}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9152ED6F-0592-4FB7-9E9A-158818EFD524}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7586" uniqueCount="3531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7641" uniqueCount="3549">
   <si>
     <t>id</t>
   </si>
@@ -9023,9 +9024,6 @@
     <t>Korban longsor membutuhkan bantuan</t>
   </si>
   <si>
-    <t>Yogykarta</t>
-  </si>
-  <si>
     <t>bantul</t>
   </si>
   <si>
@@ -10626,6 +10624,63 @@
   </si>
   <si>
     <t>Longsor menutup akses jalan, mengakibatkan korban luka, dan merusak bangunan milik warga</t>
+  </si>
+  <si>
+    <t>Kabupateng Malang</t>
+  </si>
+  <si>
+    <t>Tumpang</t>
+  </si>
+  <si>
+    <t>2018-10-23</t>
+  </si>
+  <si>
+    <t>Longsor terjadi dan masyarakat membutuhkan bantuan</t>
+  </si>
+  <si>
+    <t>Beji</t>
+  </si>
+  <si>
+    <t>Desa Gununggangsir</t>
+  </si>
+  <si>
+    <t>2015-04-27</t>
+  </si>
+  <si>
+    <t>Air Terjdun Sedudo</t>
+  </si>
+  <si>
+    <t>2015-07-21</t>
+  </si>
+  <si>
+    <t>Situbondo</t>
+  </si>
+  <si>
+    <t>Sumbermalang</t>
+  </si>
+  <si>
+    <t>Desa Kalirejo</t>
+  </si>
+  <si>
+    <t>2016-02-20</t>
+  </si>
+  <si>
+    <t>Kabupaten Jember</t>
+  </si>
+  <si>
+    <t>Sumberbaru</t>
+  </si>
+  <si>
+    <t>Kebun Teh Gunung Gambir</t>
+  </si>
+  <si>
+    <t>2018-12-15</t>
+  </si>
+  <si>
+    <t>Longsor membuat warga mengungsi dan merusak rumah warga</t>
+  </si>
+  <si>
+    <t>Desa Betok Jaya</t>
   </si>
 </sst>
 </file>
@@ -11828,8 +11883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1281" workbookViewId="0">
-      <selection activeCell="N1289" sqref="N1289"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27807,7 +27862,7 @@
         <v>2599</v>
       </c>
       <c r="F559" s="9" t="s">
-        <v>2996</v>
+        <v>2596</v>
       </c>
       <c r="G559" s="9" t="s">
         <v>2596</v>
@@ -27840,19 +27895,19 @@
         <v>2486</v>
       </c>
       <c r="E560" s="10" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
       <c r="F560" s="9" t="s">
         <v>2596</v>
       </c>
       <c r="G560" s="9" t="s">
+        <v>2996</v>
+      </c>
+      <c r="H560" s="9" t="s">
         <v>2997</v>
       </c>
-      <c r="H560" s="9" t="s">
+      <c r="I560" s="9" t="s">
         <v>2998</v>
-      </c>
-      <c r="I560" s="9" t="s">
-        <v>2999</v>
       </c>
       <c r="J560" s="9"/>
       <c r="K560" s="9"/>
@@ -27878,19 +27933,19 @@
         <v>2486</v>
       </c>
       <c r="E561" s="10" t="s">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="F561" s="9" t="s">
         <v>2596</v>
       </c>
       <c r="G561" s="9" t="s">
+        <v>3000</v>
+      </c>
+      <c r="H561" s="9" t="s">
         <v>3001</v>
       </c>
-      <c r="H561" s="9" t="s">
+      <c r="I561" s="9" t="s">
         <v>3002</v>
-      </c>
-      <c r="I561" s="9" t="s">
-        <v>3003</v>
       </c>
       <c r="J561" s="9"/>
       <c r="K561" s="9"/>
@@ -27997,10 +28052,10 @@
         <v>2988</v>
       </c>
       <c r="H565" s="9" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
       <c r="I565" s="9" t="s">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="J565" s="9">
         <v>2</v>
@@ -28073,10 +28128,10 @@
         <v>2988</v>
       </c>
       <c r="H567" s="9" t="s">
+        <v>3005</v>
+      </c>
+      <c r="I567" s="9" t="s">
         <v>3006</v>
-      </c>
-      <c r="I567" s="9" t="s">
-        <v>3007</v>
       </c>
       <c r="J567" s="9"/>
       <c r="K567" s="9"/>
@@ -28132,13 +28187,13 @@
         <v>2596</v>
       </c>
       <c r="G569" s="9" t="s">
+        <v>3007</v>
+      </c>
+      <c r="H569" s="9" t="s">
         <v>3008</v>
       </c>
-      <c r="H569" s="9" t="s">
+      <c r="I569" s="9" t="s">
         <v>3009</v>
-      </c>
-      <c r="I569" s="9" t="s">
-        <v>3010</v>
       </c>
       <c r="J569" s="9"/>
       <c r="K569" s="9"/>
@@ -28212,19 +28267,19 @@
         <v>2486</v>
       </c>
       <c r="E572" s="10" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="F572" s="9" t="s">
         <v>2596</v>
       </c>
       <c r="G572" s="9" t="s">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="H572" s="9" t="s">
+        <v>3010</v>
+      </c>
+      <c r="I572" s="9" t="s">
         <v>3011</v>
-      </c>
-      <c r="I572" s="9" t="s">
-        <v>3012</v>
       </c>
       <c r="J572" s="9"/>
       <c r="K572" s="9"/>
@@ -28248,19 +28303,19 @@
         <v>2486</v>
       </c>
       <c r="E573" s="10" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="F573" s="9" t="s">
         <v>2596</v>
       </c>
       <c r="G573" s="9" t="s">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="H573" s="9" t="s">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="I573" s="9" t="s">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="J573" s="9"/>
       <c r="K573" s="9"/>
@@ -28284,19 +28339,19 @@
         <v>2486</v>
       </c>
       <c r="E574" s="10" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="F574" s="9" t="s">
         <v>2596</v>
       </c>
       <c r="G574" s="9" t="s">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="H574" s="9" t="s">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="I574" s="9" t="s">
-        <v>3014</v>
+        <v>3013</v>
       </c>
       <c r="J574" s="9"/>
       <c r="K574" s="9"/>
@@ -28347,16 +28402,16 @@
         <v>2497</v>
       </c>
       <c r="F576" s="9" t="s">
+        <v>3015</v>
+      </c>
+      <c r="G576" s="9" t="s">
         <v>3016</v>
       </c>
-      <c r="G576" s="9" t="s">
+      <c r="H576" s="9" t="s">
         <v>3017</v>
       </c>
-      <c r="H576" s="9" t="s">
+      <c r="I576" s="9" t="s">
         <v>3018</v>
-      </c>
-      <c r="I576" s="9" t="s">
-        <v>3019</v>
       </c>
       <c r="J576" s="9"/>
       <c r="K576" s="9"/>
@@ -28739,11 +28794,21 @@
       <c r="D592" s="15" t="s">
         <v>2486</v>
       </c>
-      <c r="E592" s="9"/>
-      <c r="F592" s="9"/>
-      <c r="G592" s="9"/>
-      <c r="H592" s="9"/>
-      <c r="I592" s="9"/>
+      <c r="E592" s="10" t="s">
+        <v>3022</v>
+      </c>
+      <c r="F592" s="9" t="s">
+        <v>3015</v>
+      </c>
+      <c r="G592" s="9" t="s">
+        <v>3019</v>
+      </c>
+      <c r="H592" s="9" t="s">
+        <v>3020</v>
+      </c>
+      <c r="I592" s="9" t="s">
+        <v>3548</v>
+      </c>
       <c r="J592" s="9"/>
       <c r="K592" s="9"/>
       <c r="L592" s="9"/>
@@ -28751,7 +28816,7 @@
         <v>2</v>
       </c>
       <c r="N592" s="12" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="593" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -28816,19 +28881,19 @@
         <v>2486</v>
       </c>
       <c r="E595" s="10" t="s">
-        <v>3023</v>
+        <v>3022</v>
       </c>
       <c r="F595" s="9" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="G595" s="9" t="s">
+        <v>3019</v>
+      </c>
+      <c r="H595" s="9" t="s">
         <v>3020</v>
       </c>
-      <c r="H595" s="9" t="s">
+      <c r="I595" s="9" t="s">
         <v>3021</v>
-      </c>
-      <c r="I595" s="9" t="s">
-        <v>3022</v>
       </c>
       <c r="J595" s="9"/>
       <c r="K595" s="9"/>
@@ -28837,7 +28902,7 @@
         <v>3</v>
       </c>
       <c r="N595" s="12" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="596" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -28929,16 +28994,16 @@
         <v>662</v>
       </c>
       <c r="F599" s="9" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="G599" s="9" t="s">
+        <v>3024</v>
+      </c>
+      <c r="H599" s="9" t="s">
         <v>3025</v>
       </c>
-      <c r="H599" s="9" t="s">
+      <c r="I599" s="9" t="s">
         <v>3026</v>
-      </c>
-      <c r="I599" s="9" t="s">
-        <v>3027</v>
       </c>
       <c r="J599" s="9"/>
       <c r="K599" s="9"/>
@@ -29000,7 +29065,7 @@
         <v>2766</v>
       </c>
       <c r="I601" s="9" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
       <c r="J601" s="9"/>
       <c r="K601" s="9"/>
@@ -29027,16 +29092,16 @@
         <v>662</v>
       </c>
       <c r="F602" s="9" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="G602" s="9" t="s">
+        <v>3024</v>
+      </c>
+      <c r="H602" s="9" t="s">
         <v>3025</v>
       </c>
-      <c r="H602" s="9" t="s">
+      <c r="I602" s="9" t="s">
         <v>3026</v>
-      </c>
-      <c r="I602" s="9" t="s">
-        <v>3027</v>
       </c>
       <c r="J602" s="9"/>
       <c r="K602" s="9"/>
@@ -29179,7 +29244,7 @@
       <c r="L607" s="9"/>
       <c r="M607" s="9"/>
       <c r="N607" s="12" t="s">
-        <v>3029</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="608" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -29292,19 +29357,19 @@
         <v>2486</v>
       </c>
       <c r="E612" s="10" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
       <c r="F612" s="9" t="s">
         <v>2685</v>
       </c>
       <c r="G612" s="9" t="s">
+        <v>3029</v>
+      </c>
+      <c r="H612" s="9" t="s">
         <v>3030</v>
       </c>
-      <c r="H612" s="9" t="s">
+      <c r="I612" s="9" t="s">
         <v>3031</v>
-      </c>
-      <c r="I612" s="9" t="s">
-        <v>3032</v>
       </c>
       <c r="J612" s="9"/>
       <c r="K612" s="9"/>
@@ -29376,19 +29441,19 @@
         <v>2486</v>
       </c>
       <c r="E615" s="10" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
       <c r="F615" s="9" t="s">
         <v>2588</v>
       </c>
       <c r="G615" s="9" t="s">
+        <v>3034</v>
+      </c>
+      <c r="H615" s="9" t="s">
         <v>3035</v>
       </c>
-      <c r="H615" s="9" t="s">
+      <c r="I615" s="9" t="s">
         <v>3036</v>
-      </c>
-      <c r="I615" s="9" t="s">
-        <v>3037</v>
       </c>
       <c r="J615" s="9"/>
       <c r="K615" s="9"/>
@@ -29534,19 +29599,19 @@
         <v>2486</v>
       </c>
       <c r="E621" s="10" t="s">
+        <v>3039</v>
+      </c>
+      <c r="F621" s="9" t="s">
+        <v>3037</v>
+      </c>
+      <c r="G621" s="9" t="s">
+        <v>3038</v>
+      </c>
+      <c r="H621" s="9" t="s">
         <v>3040</v>
       </c>
-      <c r="F621" s="9" t="s">
-        <v>3038</v>
-      </c>
-      <c r="G621" s="9" t="s">
-        <v>3039</v>
-      </c>
-      <c r="H621" s="9" t="s">
+      <c r="I621" s="9" t="s">
         <v>3041</v>
-      </c>
-      <c r="I621" s="9" t="s">
-        <v>3042</v>
       </c>
       <c r="J621" s="9"/>
       <c r="K621" s="9">
@@ -29574,19 +29639,19 @@
         <v>2486</v>
       </c>
       <c r="E622" s="10" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
       <c r="F622" s="9" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="G622" s="9" t="s">
+        <v>3042</v>
+      </c>
+      <c r="H622" s="9" t="s">
         <v>3043</v>
       </c>
-      <c r="H622" s="9" t="s">
+      <c r="I622" s="9" t="s">
         <v>3044</v>
-      </c>
-      <c r="I622" s="9" t="s">
-        <v>3045</v>
       </c>
       <c r="J622" s="9"/>
       <c r="K622" s="9"/>
@@ -29706,19 +29771,19 @@
         <v>2486</v>
       </c>
       <c r="E627" s="10" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="F627" s="9" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="G627" s="9" t="s">
+        <v>3046</v>
+      </c>
+      <c r="H627" s="9" t="s">
         <v>3047</v>
       </c>
-      <c r="H627" s="9" t="s">
+      <c r="I627" s="9" t="s">
         <v>3048</v>
-      </c>
-      <c r="I627" s="9" t="s">
-        <v>3049</v>
       </c>
       <c r="J627" s="9"/>
       <c r="K627" s="9"/>
@@ -29727,7 +29792,7 @@
         <v>1</v>
       </c>
       <c r="N627" s="12" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="628" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -29744,19 +29809,19 @@
         <v>2486</v>
       </c>
       <c r="E628" s="10" t="s">
-        <v>3055</v>
+        <v>3054</v>
       </c>
       <c r="F628" s="9" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="G628" s="9" t="s">
+        <v>3051</v>
+      </c>
+      <c r="H628" s="9" t="s">
         <v>3052</v>
       </c>
-      <c r="H628" s="9" t="s">
+      <c r="I628" s="9" t="s">
         <v>3053</v>
-      </c>
-      <c r="I628" s="9" t="s">
-        <v>3054</v>
       </c>
       <c r="J628" s="9"/>
       <c r="K628" s="9"/>
@@ -29806,19 +29871,19 @@
         <v>2486</v>
       </c>
       <c r="E630" s="10" t="s">
-        <v>3060</v>
+        <v>3059</v>
       </c>
       <c r="F630" s="9" t="s">
+        <v>3055</v>
+      </c>
+      <c r="G630" s="9" t="s">
         <v>3056</v>
       </c>
-      <c r="G630" s="9" t="s">
+      <c r="H630" s="9" t="s">
         <v>3057</v>
       </c>
-      <c r="H630" s="9" t="s">
+      <c r="I630" s="9" t="s">
         <v>3058</v>
-      </c>
-      <c r="I630" s="9" t="s">
-        <v>3059</v>
       </c>
       <c r="J630" s="9"/>
       <c r="K630" s="9"/>
@@ -29827,7 +29892,7 @@
         <v>3</v>
       </c>
       <c r="N630" s="12" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="631" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -29952,7 +30017,7 @@
         <v>2590</v>
       </c>
       <c r="I635" s="9" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="J635" s="9">
         <v>3</v>
@@ -30016,19 +30081,19 @@
         <v>2486</v>
       </c>
       <c r="E637" s="10" t="s">
-        <v>3065</v>
+        <v>3064</v>
       </c>
       <c r="F637" s="9" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="G637" s="9" t="s">
+        <v>3061</v>
+      </c>
+      <c r="H637" s="9" t="s">
         <v>3062</v>
       </c>
-      <c r="H637" s="9" t="s">
+      <c r="I637" s="9" t="s">
         <v>3063</v>
-      </c>
-      <c r="I637" s="9" t="s">
-        <v>3064</v>
       </c>
       <c r="J637" s="9">
         <v>1</v>
@@ -30081,16 +30146,16 @@
         <v>2497</v>
       </c>
       <c r="F639" s="9" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="G639" s="9" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
       <c r="H639" s="9" t="s">
+        <v>3065</v>
+      </c>
+      <c r="I639" s="9" t="s">
         <v>3066</v>
-      </c>
-      <c r="I639" s="9" t="s">
-        <v>3067</v>
       </c>
       <c r="J639" s="9">
         <v>2</v>
@@ -30140,19 +30205,19 @@
         <v>2486</v>
       </c>
       <c r="E641" s="10" t="s">
-        <v>3072</v>
+        <v>3071</v>
       </c>
       <c r="F641" s="9" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="G641" s="9" t="s">
-        <v>3057</v>
+        <v>3056</v>
       </c>
       <c r="H641" s="9" t="s">
+        <v>3067</v>
+      </c>
+      <c r="I641" s="9" t="s">
         <v>3068</v>
-      </c>
-      <c r="I641" s="9" t="s">
-        <v>3069</v>
       </c>
       <c r="J641" s="9"/>
       <c r="K641" s="9"/>
@@ -30176,19 +30241,19 @@
         <v>2486</v>
       </c>
       <c r="E642" s="10" t="s">
-        <v>3072</v>
+        <v>3071</v>
       </c>
       <c r="F642" s="9" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="G642" s="9" t="s">
+        <v>3069</v>
+      </c>
+      <c r="H642" s="9" t="s">
         <v>3070</v>
       </c>
-      <c r="H642" s="9" t="s">
-        <v>3071</v>
-      </c>
       <c r="I642" s="9" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="J642" s="9"/>
       <c r="K642" s="9"/>
@@ -30212,16 +30277,16 @@
         <v>2486</v>
       </c>
       <c r="E643" s="10" t="s">
-        <v>3074</v>
+        <v>3073</v>
       </c>
       <c r="F643" s="9" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="G643" s="9" t="s">
-        <v>3057</v>
+        <v>3056</v>
       </c>
       <c r="H643" s="9" t="s">
-        <v>3068</v>
+        <v>3067</v>
       </c>
       <c r="I643" s="9" t="s">
         <v>2497</v>
@@ -30248,13 +30313,13 @@
         <v>2486</v>
       </c>
       <c r="E644" s="10" t="s">
-        <v>3074</v>
+        <v>3073</v>
       </c>
       <c r="F644" s="9" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="G644" s="9" t="s">
-        <v>3073</v>
+        <v>3072</v>
       </c>
       <c r="H644" s="9" t="s">
         <v>2497</v>
@@ -30308,26 +30373,26 @@
         <v>2486</v>
       </c>
       <c r="E646" s="10" t="s">
-        <v>3079</v>
+        <v>3078</v>
       </c>
       <c r="F646" s="9" t="s">
         <v>2510</v>
       </c>
       <c r="G646" s="9" t="s">
+        <v>3074</v>
+      </c>
+      <c r="H646" s="9" t="s">
         <v>3075</v>
       </c>
-      <c r="H646" s="9" t="s">
+      <c r="I646" s="9" t="s">
         <v>3076</v>
-      </c>
-      <c r="I646" s="9" t="s">
-        <v>3077</v>
       </c>
       <c r="J646" s="9"/>
       <c r="K646" s="9"/>
       <c r="L646" s="9"/>
       <c r="M646" s="9"/>
       <c r="N646" s="12" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="647" spans="1:14" ht="51" x14ac:dyDescent="0.25">
@@ -30344,26 +30409,26 @@
         <v>2486</v>
       </c>
       <c r="E647" s="10" t="s">
-        <v>3079</v>
+        <v>3078</v>
       </c>
       <c r="F647" s="9" t="s">
         <v>2510</v>
       </c>
       <c r="G647" s="9" t="s">
+        <v>3074</v>
+      </c>
+      <c r="H647" s="9" t="s">
         <v>3075</v>
       </c>
-      <c r="H647" s="9" t="s">
-        <v>3076</v>
-      </c>
       <c r="I647" s="9" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="J647" s="9"/>
       <c r="K647" s="9"/>
       <c r="L647" s="9"/>
       <c r="M647" s="9"/>
       <c r="N647" s="12" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="648" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -30404,19 +30469,19 @@
         <v>2486</v>
       </c>
       <c r="E649" s="10" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="F649" s="9" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="G649" s="9" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
       <c r="H649" s="9" t="s">
+        <v>3065</v>
+      </c>
+      <c r="I649" s="9" t="s">
         <v>3066</v>
-      </c>
-      <c r="I649" s="9" t="s">
-        <v>3067</v>
       </c>
       <c r="J649" s="9">
         <v>1</v>
@@ -30454,7 +30519,7 @@
         <v>2590</v>
       </c>
       <c r="I650" s="9" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="J650" s="9">
         <v>3</v>
@@ -30521,16 +30586,16 @@
         <v>2497</v>
       </c>
       <c r="F652" s="9" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="G652" s="9" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
       <c r="H652" s="9" t="s">
+        <v>3065</v>
+      </c>
+      <c r="I652" s="9" t="s">
         <v>3066</v>
-      </c>
-      <c r="I652" s="9" t="s">
-        <v>3067</v>
       </c>
       <c r="J652" s="9">
         <v>1</v>
@@ -30655,16 +30720,16 @@
         <v>2497</v>
       </c>
       <c r="F657" s="9" t="s">
+        <v>3081</v>
+      </c>
+      <c r="G657" s="9" t="s">
         <v>3082</v>
       </c>
-      <c r="G657" s="9" t="s">
+      <c r="H657" s="9" t="s">
         <v>3083</v>
       </c>
-      <c r="H657" s="9" t="s">
+      <c r="I657" s="9" t="s">
         <v>3084</v>
-      </c>
-      <c r="I657" s="9" t="s">
-        <v>3085</v>
       </c>
       <c r="J657" s="9"/>
       <c r="K657" s="9"/>
@@ -30673,7 +30738,7 @@
         <v>1</v>
       </c>
       <c r="N657" s="12" t="s">
-        <v>3086</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="658" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -30714,19 +30779,19 @@
         <v>2486</v>
       </c>
       <c r="E659" s="10" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="F659" s="9" t="s">
+        <v>3081</v>
+      </c>
+      <c r="G659" s="9" t="s">
         <v>3082</v>
       </c>
-      <c r="G659" s="9" t="s">
+      <c r="H659" s="9" t="s">
         <v>3083</v>
       </c>
-      <c r="H659" s="9" t="s">
-        <v>3084</v>
-      </c>
       <c r="I659" s="9" t="s">
-        <v>3087</v>
+        <v>3086</v>
       </c>
       <c r="J659" s="9"/>
       <c r="K659" s="9"/>
@@ -30896,19 +30961,19 @@
         <v>2486</v>
       </c>
       <c r="E666" s="10" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="F666" s="9" t="s">
+        <v>3081</v>
+      </c>
+      <c r="G666" s="9" t="s">
         <v>3082</v>
       </c>
-      <c r="G666" s="9" t="s">
+      <c r="H666" s="9" t="s">
         <v>3083</v>
       </c>
-      <c r="H666" s="9" t="s">
-        <v>3084</v>
-      </c>
       <c r="I666" s="9" t="s">
-        <v>3087</v>
+        <v>3086</v>
       </c>
       <c r="J666" s="9"/>
       <c r="K666" s="9"/>
@@ -30932,19 +30997,19 @@
         <v>2486</v>
       </c>
       <c r="E667" s="10" t="s">
-        <v>3089</v>
+        <v>3088</v>
       </c>
       <c r="F667" s="9" t="s">
+        <v>3081</v>
+      </c>
+      <c r="G667" s="9" t="s">
         <v>3082</v>
       </c>
-      <c r="G667" s="9" t="s">
+      <c r="H667" s="9" t="s">
         <v>3083</v>
       </c>
-      <c r="H667" s="9" t="s">
+      <c r="I667" s="9" t="s">
         <v>3084</v>
-      </c>
-      <c r="I667" s="9" t="s">
-        <v>3085</v>
       </c>
       <c r="J667" s="9"/>
       <c r="K667" s="9"/>
@@ -30953,7 +31018,7 @@
         <v>1</v>
       </c>
       <c r="N667" s="12" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="668" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -30970,19 +31035,19 @@
         <v>2486</v>
       </c>
       <c r="E668" s="10" t="s">
-        <v>3094</v>
+        <v>3093</v>
       </c>
       <c r="F668" s="9" t="s">
+        <v>3081</v>
+      </c>
+      <c r="G668" s="9" t="s">
         <v>3082</v>
       </c>
-      <c r="G668" s="9" t="s">
+      <c r="H668" s="9" t="s">
         <v>3083</v>
       </c>
-      <c r="H668" s="9" t="s">
-        <v>3084</v>
-      </c>
       <c r="I668" s="9" t="s">
-        <v>3090</v>
+        <v>3089</v>
       </c>
       <c r="J668" s="9"/>
       <c r="K668" s="9"/>
@@ -30991,7 +31056,7 @@
         <v>1</v>
       </c>
       <c r="N668" s="12" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="669" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -31008,26 +31073,26 @@
         <v>2486</v>
       </c>
       <c r="E669" s="10" t="s">
-        <v>3093</v>
+        <v>3092</v>
       </c>
       <c r="F669" s="9" t="s">
+        <v>3081</v>
+      </c>
+      <c r="G669" s="9" t="s">
         <v>3082</v>
       </c>
-      <c r="G669" s="9" t="s">
-        <v>3083</v>
-      </c>
       <c r="H669" s="9" t="s">
+        <v>3090</v>
+      </c>
+      <c r="I669" s="9" t="s">
         <v>3091</v>
-      </c>
-      <c r="I669" s="9" t="s">
-        <v>3092</v>
       </c>
       <c r="J669" s="9"/>
       <c r="K669" s="9"/>
       <c r="L669" s="9"/>
       <c r="M669" s="9"/>
       <c r="N669" s="12" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="670" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -31116,19 +31181,19 @@
         <v>2486</v>
       </c>
       <c r="E673" s="10" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="F673" s="9" t="s">
+        <v>3081</v>
+      </c>
+      <c r="G673" s="9" t="s">
         <v>3082</v>
       </c>
-      <c r="G673" s="9" t="s">
+      <c r="H673" s="9" t="s">
         <v>3083</v>
       </c>
-      <c r="H673" s="9" t="s">
-        <v>3084</v>
-      </c>
       <c r="I673" s="9" t="s">
-        <v>3087</v>
+        <v>3086</v>
       </c>
       <c r="J673" s="9"/>
       <c r="K673" s="9"/>
@@ -31274,26 +31339,26 @@
         <v>2486</v>
       </c>
       <c r="E679" s="10" t="s">
-        <v>3099</v>
+        <v>3098</v>
       </c>
       <c r="F679" s="9" t="s">
         <v>2924</v>
       </c>
       <c r="G679" s="9" t="s">
+        <v>3094</v>
+      </c>
+      <c r="H679" s="9" t="s">
         <v>3095</v>
       </c>
-      <c r="H679" s="9" t="s">
+      <c r="I679" s="9" t="s">
         <v>3096</v>
-      </c>
-      <c r="I679" s="9" t="s">
-        <v>3097</v>
       </c>
       <c r="J679" s="9"/>
       <c r="K679" s="9"/>
       <c r="L679" s="9"/>
       <c r="M679" s="9"/>
       <c r="N679" s="12" t="s">
-        <v>3100</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="680" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -31310,26 +31375,26 @@
         <v>2486</v>
       </c>
       <c r="E680" s="10" t="s">
-        <v>3099</v>
+        <v>3098</v>
       </c>
       <c r="F680" s="9" t="s">
         <v>2924</v>
       </c>
       <c r="G680" s="9" t="s">
+        <v>3094</v>
+      </c>
+      <c r="H680" s="9" t="s">
         <v>3095</v>
       </c>
-      <c r="H680" s="9" t="s">
-        <v>3096</v>
-      </c>
       <c r="I680" s="9" t="s">
-        <v>3098</v>
+        <v>3097</v>
       </c>
       <c r="J680" s="9"/>
       <c r="K680" s="9"/>
       <c r="L680" s="9"/>
       <c r="M680" s="9"/>
       <c r="N680" s="12" t="s">
-        <v>3100</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="681" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -31730,7 +31795,7 @@
         <v>2486</v>
       </c>
       <c r="E697" s="10" t="s">
-        <v>3102</v>
+        <v>3101</v>
       </c>
       <c r="F697" s="9" t="s">
         <v>2588</v>
@@ -31742,7 +31807,7 @@
         <v>2681</v>
       </c>
       <c r="I697" s="9" t="s">
-        <v>3101</v>
+        <v>3100</v>
       </c>
       <c r="J697" s="9"/>
       <c r="K697" s="9"/>
@@ -31751,7 +31816,7 @@
         <v>25</v>
       </c>
       <c r="N697" s="12" t="s">
-        <v>3103</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="698" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -31912,7 +31977,7 @@
         <v>2486</v>
       </c>
       <c r="E704" s="10" t="s">
-        <v>3102</v>
+        <v>3101</v>
       </c>
       <c r="F704" s="9" t="s">
         <v>2588</v>
@@ -31924,7 +31989,7 @@
         <v>2681</v>
       </c>
       <c r="I704" s="9" t="s">
-        <v>3101</v>
+        <v>3100</v>
       </c>
       <c r="J704" s="9">
         <v>43</v>
@@ -32149,23 +32214,23 @@
         <v>2497</v>
       </c>
       <c r="F713" s="9" t="s">
+        <v>3103</v>
+      </c>
+      <c r="G713" s="9" t="s">
         <v>3104</v>
       </c>
-      <c r="G713" s="9" t="s">
+      <c r="H713" s="9" t="s">
         <v>3105</v>
       </c>
-      <c r="H713" s="9" t="s">
+      <c r="I713" s="9" t="s">
         <v>3106</v>
-      </c>
-      <c r="I713" s="9" t="s">
-        <v>3107</v>
       </c>
       <c r="J713" s="9"/>
       <c r="K713" s="9"/>
       <c r="L713" s="9"/>
       <c r="M713" s="9"/>
       <c r="N713" s="12" t="s">
-        <v>3109</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="714" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -32185,23 +32250,23 @@
         <v>2497</v>
       </c>
       <c r="F714" s="9" t="s">
+        <v>3103</v>
+      </c>
+      <c r="G714" s="9" t="s">
         <v>3104</v>
       </c>
-      <c r="G714" s="9" t="s">
+      <c r="H714" s="9" t="s">
         <v>3105</v>
       </c>
-      <c r="H714" s="9" t="s">
-        <v>3106</v>
-      </c>
       <c r="I714" s="9" t="s">
-        <v>3108</v>
+        <v>3107</v>
       </c>
       <c r="J714" s="9"/>
       <c r="K714" s="9"/>
       <c r="L714" s="9"/>
       <c r="M714" s="9"/>
       <c r="N714" s="12" t="s">
-        <v>3109</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="715" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -32269,16 +32334,16 @@
         <v>2919</v>
       </c>
       <c r="F717" s="9" t="s">
-        <v>3082</v>
+        <v>3081</v>
       </c>
       <c r="G717" s="9" t="s">
+        <v>3109</v>
+      </c>
+      <c r="H717" s="9" t="s">
         <v>3110</v>
       </c>
-      <c r="H717" s="9" t="s">
+      <c r="I717" s="9" t="s">
         <v>3111</v>
-      </c>
-      <c r="I717" s="9" t="s">
-        <v>3112</v>
       </c>
       <c r="J717" s="9">
         <v>1</v>
@@ -32378,7 +32443,7 @@
         <v>2486</v>
       </c>
       <c r="E721" s="10" t="s">
-        <v>3115</v>
+        <v>3114</v>
       </c>
       <c r="F721" s="9" t="s">
         <v>2977</v>
@@ -32387,10 +32452,10 @@
         <v>2978</v>
       </c>
       <c r="H721" s="9" t="s">
+        <v>3112</v>
+      </c>
+      <c r="I721" s="9" t="s">
         <v>3113</v>
-      </c>
-      <c r="I721" s="9" t="s">
-        <v>3114</v>
       </c>
       <c r="J721" s="9">
         <v>2</v>
@@ -32467,16 +32532,16 @@
         <v>2909</v>
       </c>
       <c r="F724" s="9" t="s">
+        <v>3115</v>
+      </c>
+      <c r="G724" s="9" t="s">
         <v>3116</v>
       </c>
-      <c r="G724" s="9" t="s">
+      <c r="H724" s="9" t="s">
         <v>3117</v>
       </c>
-      <c r="H724" s="9" t="s">
+      <c r="I724" s="9" t="s">
         <v>3118</v>
-      </c>
-      <c r="I724" s="9" t="s">
-        <v>3119</v>
       </c>
       <c r="J724" s="9"/>
       <c r="K724" s="9"/>
@@ -32503,16 +32568,16 @@
         <v>2909</v>
       </c>
       <c r="F725" s="9" t="s">
+        <v>3115</v>
+      </c>
+      <c r="G725" s="9" t="s">
         <v>3116</v>
       </c>
-      <c r="G725" s="9" t="s">
+      <c r="H725" s="9" t="s">
         <v>3117</v>
       </c>
-      <c r="H725" s="9" t="s">
-        <v>3118</v>
-      </c>
       <c r="I725" s="9" t="s">
-        <v>3120</v>
+        <v>3119</v>
       </c>
       <c r="J725" s="9"/>
       <c r="K725" s="9"/>
@@ -32560,19 +32625,19 @@
         <v>2486</v>
       </c>
       <c r="E727" s="10" t="s">
-        <v>3124</v>
+        <v>3123</v>
       </c>
       <c r="F727" s="9" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="G727" s="9" t="s">
+        <v>3120</v>
+      </c>
+      <c r="H727" s="9" t="s">
         <v>3121</v>
       </c>
-      <c r="H727" s="9" t="s">
+      <c r="I727" s="9" t="s">
         <v>3122</v>
-      </c>
-      <c r="I727" s="9" t="s">
-        <v>3123</v>
       </c>
       <c r="J727" s="9">
         <v>3</v>
@@ -32583,7 +32648,7 @@
       <c r="L727" s="9"/>
       <c r="M727" s="9"/>
       <c r="N727" s="12" t="s">
-        <v>3125</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="728" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -32696,19 +32761,19 @@
         <v>2486</v>
       </c>
       <c r="E732" s="10" t="s">
-        <v>3129</v>
+        <v>3128</v>
       </c>
       <c r="F732" s="9" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="G732" s="9" t="s">
+        <v>3125</v>
+      </c>
+      <c r="H732" s="9" t="s">
         <v>3126</v>
       </c>
-      <c r="H732" s="9" t="s">
+      <c r="I732" s="9" t="s">
         <v>3127</v>
-      </c>
-      <c r="I732" s="9" t="s">
-        <v>3128</v>
       </c>
       <c r="J732" s="9"/>
       <c r="K732" s="9"/>
@@ -32732,19 +32797,19 @@
         <v>2486</v>
       </c>
       <c r="E733" s="10" t="s">
-        <v>3133</v>
+        <v>3132</v>
       </c>
       <c r="F733" s="9" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="G733" s="9" t="s">
+        <v>3129</v>
+      </c>
+      <c r="H733" s="9" t="s">
         <v>3130</v>
       </c>
-      <c r="H733" s="9" t="s">
+      <c r="I733" s="9" t="s">
         <v>3131</v>
-      </c>
-      <c r="I733" s="9" t="s">
-        <v>3132</v>
       </c>
       <c r="J733" s="9"/>
       <c r="K733" s="9"/>
@@ -32801,10 +32866,10 @@
         <v>2611</v>
       </c>
       <c r="H735" s="9" t="s">
+        <v>3133</v>
+      </c>
+      <c r="I735" s="9" t="s">
         <v>3134</v>
-      </c>
-      <c r="I735" s="9" t="s">
-        <v>3135</v>
       </c>
       <c r="J735" s="9">
         <v>1</v>
@@ -32832,19 +32897,19 @@
         <v>2486</v>
       </c>
       <c r="E736" s="10" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="F736" s="9" t="s">
         <v>2510</v>
       </c>
       <c r="G736" s="9" t="s">
+        <v>3135</v>
+      </c>
+      <c r="H736" s="9" t="s">
         <v>3136</v>
       </c>
-      <c r="H736" s="9" t="s">
+      <c r="I736" s="9" t="s">
         <v>3137</v>
-      </c>
-      <c r="I736" s="9" t="s">
-        <v>3138</v>
       </c>
       <c r="J736" s="9">
         <v>9</v>
@@ -32870,19 +32935,19 @@
         <v>2486</v>
       </c>
       <c r="E737" s="10" t="s">
-        <v>3144</v>
+        <v>3143</v>
       </c>
       <c r="F737" s="9" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="G737" s="9" t="s">
+        <v>3140</v>
+      </c>
+      <c r="H737" s="9" t="s">
         <v>3141</v>
       </c>
-      <c r="H737" s="9" t="s">
+      <c r="I737" s="9" t="s">
         <v>3142</v>
-      </c>
-      <c r="I737" s="9" t="s">
-        <v>3143</v>
       </c>
       <c r="J737" s="9"/>
       <c r="K737" s="9"/>
@@ -32978,7 +33043,7 @@
         <v>2486</v>
       </c>
       <c r="E741" s="10" t="s">
-        <v>3140</v>
+        <v>3139</v>
       </c>
       <c r="F741" s="9" t="s">
         <v>2685</v>
@@ -33256,19 +33321,19 @@
         <v>2486</v>
       </c>
       <c r="E752" s="10" t="s">
-        <v>3149</v>
+        <v>3148</v>
       </c>
       <c r="F752" s="9" t="s">
+        <v>3144</v>
+      </c>
+      <c r="G752" s="9" t="s">
         <v>3145</v>
       </c>
-      <c r="G752" s="9" t="s">
+      <c r="H752" s="9" t="s">
         <v>3146</v>
       </c>
-      <c r="H752" s="9" t="s">
+      <c r="I752" s="9" t="s">
         <v>3147</v>
-      </c>
-      <c r="I752" s="9" t="s">
-        <v>3148</v>
       </c>
       <c r="J752" s="9"/>
       <c r="K752" s="9"/>
@@ -33388,7 +33453,7 @@
         <v>2486</v>
       </c>
       <c r="E757" s="10" t="s">
-        <v>3151</v>
+        <v>3150</v>
       </c>
       <c r="F757" s="9" t="s">
         <v>2547</v>
@@ -33400,7 +33465,7 @@
         <v>2585</v>
       </c>
       <c r="I757" s="9" t="s">
-        <v>3150</v>
+        <v>3149</v>
       </c>
       <c r="J757" s="9">
         <v>2</v>
@@ -33428,19 +33493,19 @@
         <v>2486</v>
       </c>
       <c r="E758" s="10" t="s">
-        <v>3154</v>
+        <v>3153</v>
       </c>
       <c r="F758" s="9" t="s">
         <v>2510</v>
       </c>
       <c r="G758" s="9" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="H758" s="9" t="s">
         <v>2497</v>
       </c>
       <c r="I758" s="9" t="s">
-        <v>3153</v>
+        <v>3152</v>
       </c>
       <c r="J758" s="9"/>
       <c r="K758" s="9"/>
@@ -33512,19 +33577,19 @@
         <v>2486</v>
       </c>
       <c r="E761" s="10" t="s">
-        <v>3158</v>
+        <v>3157</v>
       </c>
       <c r="F761" s="9" t="s">
         <v>2720</v>
       </c>
       <c r="G761" s="9" t="s">
+        <v>3154</v>
+      </c>
+      <c r="H761" s="9" t="s">
         <v>3155</v>
       </c>
-      <c r="H761" s="9" t="s">
+      <c r="I761" s="9" t="s">
         <v>3156</v>
-      </c>
-      <c r="I761" s="9" t="s">
-        <v>3157</v>
       </c>
       <c r="J761" s="9">
         <v>1</v>
@@ -33598,19 +33663,19 @@
         <v>2486</v>
       </c>
       <c r="E764" s="10" t="s">
-        <v>3161</v>
+        <v>3160</v>
       </c>
       <c r="F764" s="9" t="s">
         <v>2685</v>
       </c>
       <c r="G764" s="9" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="H764" s="9" t="s">
         <v>2497</v>
       </c>
       <c r="I764" s="9" t="s">
-        <v>3160</v>
+        <v>3159</v>
       </c>
       <c r="J764" s="9"/>
       <c r="K764" s="9"/>
@@ -33706,19 +33771,19 @@
         <v>2486</v>
       </c>
       <c r="E768" s="10" t="s">
-        <v>3166</v>
+        <v>3165</v>
       </c>
       <c r="F768" s="9" t="s">
         <v>2685</v>
       </c>
       <c r="G768" s="9" t="s">
+        <v>3161</v>
+      </c>
+      <c r="H768" s="9" t="s">
         <v>3162</v>
       </c>
-      <c r="H768" s="9" t="s">
+      <c r="I768" s="9" t="s">
         <v>3163</v>
-      </c>
-      <c r="I768" s="9" t="s">
-        <v>3164</v>
       </c>
       <c r="J768" s="9"/>
       <c r="K768" s="9"/>
@@ -33742,19 +33807,19 @@
         <v>2486</v>
       </c>
       <c r="E769" s="10" t="s">
-        <v>3166</v>
+        <v>3165</v>
       </c>
       <c r="F769" s="9" t="s">
         <v>2685</v>
       </c>
       <c r="G769" s="9" t="s">
+        <v>3161</v>
+      </c>
+      <c r="H769" s="9" t="s">
         <v>3162</v>
       </c>
-      <c r="H769" s="9" t="s">
-        <v>3163</v>
-      </c>
       <c r="I769" s="9" t="s">
-        <v>3165</v>
+        <v>3164</v>
       </c>
       <c r="J769" s="9"/>
       <c r="K769" s="9"/>
@@ -33778,26 +33843,26 @@
         <v>2486</v>
       </c>
       <c r="E770" s="10" t="s">
-        <v>3170</v>
+        <v>3169</v>
       </c>
       <c r="F770" s="9" t="s">
         <v>2720</v>
       </c>
       <c r="G770" s="9" t="s">
+        <v>3166</v>
+      </c>
+      <c r="H770" s="9" t="s">
         <v>3167</v>
       </c>
-      <c r="H770" s="9" t="s">
+      <c r="I770" s="9" t="s">
         <v>3168</v>
-      </c>
-      <c r="I770" s="9" t="s">
-        <v>3169</v>
       </c>
       <c r="J770" s="9"/>
       <c r="K770" s="9"/>
       <c r="L770" s="9"/>
       <c r="M770" s="9"/>
       <c r="N770" s="12" t="s">
-        <v>3171</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="771" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -33844,13 +33909,13 @@
         <v>2720</v>
       </c>
       <c r="G772" s="9" t="s">
+        <v>3161</v>
+      </c>
+      <c r="H772" s="9" t="s">
         <v>3162</v>
       </c>
-      <c r="H772" s="9" t="s">
-        <v>3163</v>
-      </c>
       <c r="I772" s="9" t="s">
-        <v>3172</v>
+        <v>3171</v>
       </c>
       <c r="J772" s="9"/>
       <c r="K772" s="9"/>
@@ -33880,13 +33945,13 @@
         <v>2720</v>
       </c>
       <c r="G773" s="9" t="s">
+        <v>3161</v>
+      </c>
+      <c r="H773" s="9" t="s">
         <v>3162</v>
       </c>
-      <c r="H773" s="9" t="s">
+      <c r="I773" s="9" t="s">
         <v>3163</v>
-      </c>
-      <c r="I773" s="9" t="s">
-        <v>3164</v>
       </c>
       <c r="J773" s="9"/>
       <c r="K773" s="9"/>
@@ -33988,13 +34053,13 @@
         <v>2720</v>
       </c>
       <c r="G777" s="9" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
       <c r="H777" s="9" t="s">
+        <v>3172</v>
+      </c>
+      <c r="I777" s="9" t="s">
         <v>3173</v>
-      </c>
-      <c r="I777" s="9" t="s">
-        <v>3174</v>
       </c>
       <c r="J777" s="9"/>
       <c r="K777" s="9"/>
@@ -34018,7 +34083,7 @@
         <v>2486</v>
       </c>
       <c r="E778" s="10" t="s">
-        <v>3177</v>
+        <v>3176</v>
       </c>
       <c r="F778" s="9" t="s">
         <v>2588</v>
@@ -34027,10 +34092,10 @@
         <v>2913</v>
       </c>
       <c r="H778" s="9" t="s">
+        <v>3174</v>
+      </c>
+      <c r="I778" s="9" t="s">
         <v>3175</v>
-      </c>
-      <c r="I778" s="9" t="s">
-        <v>3176</v>
       </c>
       <c r="J778" s="9">
         <v>2</v>
@@ -34086,20 +34151,20 @@
         <v>2720</v>
       </c>
       <c r="G780" s="9" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
       <c r="H780" s="9" t="s">
+        <v>3172</v>
+      </c>
+      <c r="I780" s="9" t="s">
         <v>3173</v>
-      </c>
-      <c r="I780" s="9" t="s">
-        <v>3174</v>
       </c>
       <c r="J780" s="9"/>
       <c r="K780" s="9"/>
       <c r="L780" s="9"/>
       <c r="M780" s="9"/>
       <c r="N780" s="12" t="s">
-        <v>3178</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="781" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -34140,19 +34205,19 @@
         <v>2486</v>
       </c>
       <c r="E782" s="10" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="F782" s="9" t="s">
         <v>2720</v>
       </c>
       <c r="G782" s="9" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="H782" s="9" t="s">
+        <v>3178</v>
+      </c>
+      <c r="I782" s="9" t="s">
         <v>3179</v>
-      </c>
-      <c r="I782" s="9" t="s">
-        <v>3180</v>
       </c>
       <c r="J782" s="9">
         <v>2</v>
@@ -34262,7 +34327,7 @@
         <v>2968</v>
       </c>
       <c r="I786" s="9" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="J786" s="9"/>
       <c r="K786" s="9"/>
@@ -34360,19 +34425,19 @@
         <v>2486</v>
       </c>
       <c r="E790" s="10" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="F790" s="9" t="s">
         <v>2720</v>
       </c>
       <c r="G790" s="9" t="s">
+        <v>3182</v>
+      </c>
+      <c r="H790" s="9" t="s">
         <v>3183</v>
       </c>
-      <c r="H790" s="9" t="s">
+      <c r="I790" s="9" t="s">
         <v>3184</v>
-      </c>
-      <c r="I790" s="9" t="s">
-        <v>3185</v>
       </c>
       <c r="J790" s="9"/>
       <c r="K790" s="9">
@@ -34381,7 +34446,7 @@
       <c r="L790" s="9"/>
       <c r="M790" s="9"/>
       <c r="N790" s="12" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="791" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -34446,19 +34511,19 @@
         <v>2486</v>
       </c>
       <c r="E793" s="10" t="s">
-        <v>3192</v>
+        <v>3191</v>
       </c>
       <c r="F793" s="9" t="s">
         <v>2720</v>
       </c>
       <c r="G793" s="9" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="H793" s="9" t="s">
         <v>2497</v>
       </c>
       <c r="I793" s="9" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="J793" s="9"/>
       <c r="K793" s="9"/>
@@ -34482,19 +34547,19 @@
         <v>2486</v>
       </c>
       <c r="E794" s="10" t="s">
-        <v>3192</v>
+        <v>3191</v>
       </c>
       <c r="F794" s="9" t="s">
         <v>2720</v>
       </c>
       <c r="G794" s="9" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="H794" s="9" t="s">
+        <v>3189</v>
+      </c>
+      <c r="I794" s="9" t="s">
         <v>3190</v>
-      </c>
-      <c r="I794" s="9" t="s">
-        <v>3191</v>
       </c>
       <c r="J794" s="9"/>
       <c r="K794" s="9"/>
@@ -34878,19 +34943,19 @@
         <v>2486</v>
       </c>
       <c r="E810" s="10" t="s">
-        <v>3199</v>
+        <v>3198</v>
       </c>
       <c r="F810" s="9" t="s">
         <v>2924</v>
       </c>
       <c r="G810" s="9" t="s">
+        <v>3192</v>
+      </c>
+      <c r="H810" s="9" t="s">
         <v>3193</v>
       </c>
-      <c r="H810" s="9" t="s">
+      <c r="I810" s="9" t="s">
         <v>3194</v>
-      </c>
-      <c r="I810" s="9" t="s">
-        <v>3195</v>
       </c>
       <c r="J810" s="9">
         <v>1</v>
@@ -34901,7 +34966,7 @@
       <c r="L810" s="9"/>
       <c r="M810" s="9"/>
       <c r="N810" s="12" t="s">
-        <v>3201</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="811" spans="1:14" ht="51" x14ac:dyDescent="0.25">
@@ -34918,19 +34983,19 @@
         <v>2486</v>
       </c>
       <c r="E811" s="10" t="s">
-        <v>3200</v>
+        <v>3199</v>
       </c>
       <c r="F811" s="9" t="s">
         <v>2924</v>
       </c>
       <c r="G811" s="9" t="s">
+        <v>3195</v>
+      </c>
+      <c r="H811" s="9" t="s">
         <v>3196</v>
       </c>
-      <c r="H811" s="9" t="s">
+      <c r="I811" s="9" t="s">
         <v>3197</v>
-      </c>
-      <c r="I811" s="9" t="s">
-        <v>3198</v>
       </c>
       <c r="J811" s="9">
         <v>1</v>
@@ -34939,7 +35004,7 @@
       <c r="L811" s="9"/>
       <c r="M811" s="9"/>
       <c r="N811" s="12" t="s">
-        <v>3202</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="812" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -35076,26 +35141,26 @@
         <v>2486</v>
       </c>
       <c r="E817" s="10" t="s">
-        <v>3214</v>
+        <v>3213</v>
       </c>
       <c r="F817" s="9" t="s">
+        <v>3202</v>
+      </c>
+      <c r="G817" s="9" t="s">
         <v>3203</v>
       </c>
-      <c r="G817" s="9" t="s">
+      <c r="H817" s="9" t="s">
         <v>3204</v>
       </c>
-      <c r="H817" s="9" t="s">
+      <c r="I817" s="9" t="s">
         <v>3205</v>
-      </c>
-      <c r="I817" s="9" t="s">
-        <v>3206</v>
       </c>
       <c r="J817" s="9"/>
       <c r="K817" s="9"/>
       <c r="L817" s="9"/>
       <c r="M817" s="9"/>
       <c r="N817" s="12" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="818" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -35112,26 +35177,26 @@
         <v>2486</v>
       </c>
       <c r="E818" s="10" t="s">
-        <v>3214</v>
+        <v>3213</v>
       </c>
       <c r="F818" s="9" t="s">
+        <v>3202</v>
+      </c>
+      <c r="G818" s="9" t="s">
         <v>3203</v>
       </c>
-      <c r="G818" s="9" t="s">
+      <c r="H818" s="9" t="s">
         <v>3204</v>
       </c>
-      <c r="H818" s="9" t="s">
-        <v>3205</v>
-      </c>
       <c r="I818" s="9" t="s">
-        <v>3207</v>
+        <v>3206</v>
       </c>
       <c r="J818" s="9"/>
       <c r="K818" s="9"/>
       <c r="L818" s="9"/>
       <c r="M818" s="9"/>
       <c r="N818" s="12" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="819" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -35148,26 +35213,26 @@
         <v>2486</v>
       </c>
       <c r="E819" s="10" t="s">
-        <v>3214</v>
+        <v>3213</v>
       </c>
       <c r="F819" s="9" t="s">
+        <v>3202</v>
+      </c>
+      <c r="G819" s="9" t="s">
         <v>3203</v>
       </c>
-      <c r="G819" s="9" t="s">
-        <v>3204</v>
-      </c>
       <c r="H819" s="9" t="s">
+        <v>3207</v>
+      </c>
+      <c r="I819" s="9" t="s">
         <v>3208</v>
-      </c>
-      <c r="I819" s="9" t="s">
-        <v>3209</v>
       </c>
       <c r="J819" s="9"/>
       <c r="K819" s="9"/>
       <c r="L819" s="9"/>
       <c r="M819" s="9"/>
       <c r="N819" s="12" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="820" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -35184,26 +35249,26 @@
         <v>2486</v>
       </c>
       <c r="E820" s="10" t="s">
-        <v>3214</v>
+        <v>3213</v>
       </c>
       <c r="F820" s="9" t="s">
+        <v>3202</v>
+      </c>
+      <c r="G820" s="9" t="s">
         <v>3203</v>
       </c>
-      <c r="G820" s="9" t="s">
-        <v>3204</v>
-      </c>
       <c r="H820" s="9" t="s">
-        <v>3208</v>
+        <v>3207</v>
       </c>
       <c r="I820" s="9" t="s">
-        <v>3210</v>
+        <v>3209</v>
       </c>
       <c r="J820" s="9"/>
       <c r="K820" s="9"/>
       <c r="L820" s="9"/>
       <c r="M820" s="9"/>
       <c r="N820" s="12" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="821" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -35220,26 +35285,26 @@
         <v>2486</v>
       </c>
       <c r="E821" s="10" t="s">
-        <v>3214</v>
+        <v>3213</v>
       </c>
       <c r="F821" s="9" t="s">
+        <v>3202</v>
+      </c>
+      <c r="G821" s="9" t="s">
         <v>3203</v>
       </c>
-      <c r="G821" s="9" t="s">
-        <v>3204</v>
-      </c>
       <c r="H821" s="9" t="s">
+        <v>3210</v>
+      </c>
+      <c r="I821" s="9" t="s">
         <v>3211</v>
-      </c>
-      <c r="I821" s="9" t="s">
-        <v>3212</v>
       </c>
       <c r="J821" s="9"/>
       <c r="K821" s="9"/>
       <c r="L821" s="9"/>
       <c r="M821" s="9"/>
       <c r="N821" s="12" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="822" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -35256,26 +35321,26 @@
         <v>2486</v>
       </c>
       <c r="E822" s="10" t="s">
+        <v>3213</v>
+      </c>
+      <c r="F822" s="9" t="s">
+        <v>3202</v>
+      </c>
+      <c r="G822" s="9" t="s">
+        <v>3203</v>
+      </c>
+      <c r="H822" s="9" t="s">
+        <v>3212</v>
+      </c>
+      <c r="I822" s="9" t="s">
         <v>3214</v>
-      </c>
-      <c r="F822" s="9" t="s">
-        <v>3203</v>
-      </c>
-      <c r="G822" s="9" t="s">
-        <v>3204</v>
-      </c>
-      <c r="H822" s="9" t="s">
-        <v>3213</v>
-      </c>
-      <c r="I822" s="9" t="s">
-        <v>3215</v>
       </c>
       <c r="J822" s="9"/>
       <c r="K822" s="9"/>
       <c r="L822" s="9"/>
       <c r="M822" s="9"/>
       <c r="N822" s="12" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="823" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -35556,19 +35621,19 @@
         <v>2486</v>
       </c>
       <c r="E834" s="10" t="s">
-        <v>3223</v>
+        <v>3222</v>
       </c>
       <c r="F834" s="9" t="s">
+        <v>3215</v>
+      </c>
+      <c r="G834" s="9" t="s">
         <v>3216</v>
       </c>
-      <c r="G834" s="9" t="s">
+      <c r="H834" s="9" t="s">
         <v>3217</v>
       </c>
-      <c r="H834" s="9" t="s">
+      <c r="I834" s="9" t="s">
         <v>3218</v>
-      </c>
-      <c r="I834" s="9" t="s">
-        <v>3219</v>
       </c>
       <c r="J834" s="9"/>
       <c r="K834" s="9"/>
@@ -35592,19 +35657,19 @@
         <v>2486</v>
       </c>
       <c r="E835" s="10" t="s">
-        <v>3223</v>
+        <v>3222</v>
       </c>
       <c r="F835" s="9" t="s">
+        <v>3215</v>
+      </c>
+      <c r="G835" s="9" t="s">
         <v>3216</v>
       </c>
-      <c r="G835" s="9" t="s">
+      <c r="H835" s="9" t="s">
         <v>3217</v>
       </c>
-      <c r="H835" s="9" t="s">
-        <v>3218</v>
-      </c>
       <c r="I835" s="9" t="s">
-        <v>3220</v>
+        <v>3219</v>
       </c>
       <c r="J835" s="9"/>
       <c r="K835" s="9"/>
@@ -35628,19 +35693,19 @@
         <v>2486</v>
       </c>
       <c r="E836" s="10" t="s">
-        <v>3223</v>
+        <v>3222</v>
       </c>
       <c r="F836" s="9" t="s">
+        <v>3215</v>
+      </c>
+      <c r="G836" s="9" t="s">
         <v>3216</v>
       </c>
-      <c r="G836" s="9" t="s">
+      <c r="H836" s="9" t="s">
         <v>3217</v>
       </c>
-      <c r="H836" s="9" t="s">
-        <v>3218</v>
-      </c>
       <c r="I836" s="9" t="s">
-        <v>3221</v>
+        <v>3220</v>
       </c>
       <c r="J836" s="9"/>
       <c r="K836" s="9"/>
@@ -35664,19 +35729,19 @@
         <v>2486</v>
       </c>
       <c r="E837" s="10" t="s">
-        <v>3223</v>
+        <v>3222</v>
       </c>
       <c r="F837" s="9" t="s">
+        <v>3215</v>
+      </c>
+      <c r="G837" s="9" t="s">
         <v>3216</v>
       </c>
-      <c r="G837" s="9" t="s">
+      <c r="H837" s="9" t="s">
         <v>3217</v>
       </c>
-      <c r="H837" s="9" t="s">
-        <v>3218</v>
-      </c>
       <c r="I837" s="9" t="s">
-        <v>3222</v>
+        <v>3221</v>
       </c>
       <c r="J837" s="9"/>
       <c r="K837" s="9"/>
@@ -35772,19 +35837,19 @@
         <v>2486</v>
       </c>
       <c r="E841" s="10" t="s">
-        <v>3227</v>
+        <v>3226</v>
       </c>
       <c r="F841" s="9" t="s">
-        <v>3216</v>
+        <v>3215</v>
       </c>
       <c r="G841" s="9" t="s">
+        <v>3223</v>
+      </c>
+      <c r="H841" s="9" t="s">
         <v>3224</v>
       </c>
-      <c r="H841" s="9" t="s">
+      <c r="I841" s="9" t="s">
         <v>3225</v>
-      </c>
-      <c r="I841" s="9" t="s">
-        <v>3226</v>
       </c>
       <c r="J841" s="9"/>
       <c r="K841" s="9"/>
@@ -35811,13 +35876,13 @@
         <v>2497</v>
       </c>
       <c r="F842" s="9" t="s">
+        <v>3215</v>
+      </c>
+      <c r="G842" s="9" t="s">
         <v>3216</v>
       </c>
-      <c r="G842" s="9" t="s">
+      <c r="H842" s="9" t="s">
         <v>3217</v>
-      </c>
-      <c r="H842" s="9" t="s">
-        <v>3218</v>
       </c>
       <c r="I842" s="9" t="s">
         <v>2497</v>
@@ -35827,7 +35892,7 @@
       <c r="L842" s="9"/>
       <c r="M842" s="9"/>
       <c r="N842" s="12" t="s">
-        <v>3228</v>
+        <v>3227</v>
       </c>
     </row>
     <row r="843" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -35988,19 +36053,19 @@
         <v>2486</v>
       </c>
       <c r="E849" s="10" t="s">
-        <v>3232</v>
+        <v>3231</v>
       </c>
       <c r="F849" s="9" t="s">
         <v>2720</v>
       </c>
       <c r="G849" s="9" t="s">
+        <v>3228</v>
+      </c>
+      <c r="H849" s="9" t="s">
         <v>3229</v>
       </c>
-      <c r="H849" s="9" t="s">
+      <c r="I849" s="9" t="s">
         <v>3230</v>
-      </c>
-      <c r="I849" s="9" t="s">
-        <v>3231</v>
       </c>
       <c r="J849" s="9">
         <v>2</v>
@@ -36362,19 +36427,19 @@
         <v>2486</v>
       </c>
       <c r="E864" s="10" t="s">
-        <v>3235</v>
+        <v>3234</v>
       </c>
       <c r="F864" s="9" t="s">
         <v>2510</v>
       </c>
       <c r="G864" s="9" t="s">
-        <v>3233</v>
+        <v>3232</v>
       </c>
       <c r="H864" s="9" t="s">
         <v>2497</v>
       </c>
       <c r="I864" s="9" t="s">
-        <v>3234</v>
+        <v>3233</v>
       </c>
       <c r="J864" s="9">
         <v>3</v>
@@ -36522,19 +36587,19 @@
         <v>2486</v>
       </c>
       <c r="E870" s="10" t="s">
-        <v>3239</v>
+        <v>3238</v>
       </c>
       <c r="F870" s="9" t="s">
         <v>2510</v>
       </c>
       <c r="G870" s="9" t="s">
+        <v>3235</v>
+      </c>
+      <c r="H870" s="9" t="s">
         <v>3236</v>
       </c>
-      <c r="H870" s="9" t="s">
+      <c r="I870" s="9" t="s">
         <v>3237</v>
-      </c>
-      <c r="I870" s="9" t="s">
-        <v>3238</v>
       </c>
       <c r="J870" s="9"/>
       <c r="K870" s="9"/>
@@ -36582,19 +36647,19 @@
         <v>2486</v>
       </c>
       <c r="E872" s="10" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
       <c r="F872" s="9" t="s">
         <v>2510</v>
       </c>
       <c r="G872" s="9" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="H872" s="9" t="s">
+        <v>3239</v>
+      </c>
+      <c r="I872" s="9" t="s">
         <v>3240</v>
-      </c>
-      <c r="I872" s="9" t="s">
-        <v>3241</v>
       </c>
       <c r="J872" s="9">
         <v>7</v>
@@ -36605,7 +36670,7 @@
       <c r="L872" s="9"/>
       <c r="M872" s="9"/>
       <c r="N872" s="12" t="s">
-        <v>3243</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="873" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -36844,13 +36909,13 @@
         <v>2510</v>
       </c>
       <c r="G882" s="9" t="s">
+        <v>3243</v>
+      </c>
+      <c r="H882" s="9" t="s">
         <v>3244</v>
       </c>
-      <c r="H882" s="9" t="s">
+      <c r="I882" s="9" t="s">
         <v>3245</v>
-      </c>
-      <c r="I882" s="9" t="s">
-        <v>3246</v>
       </c>
       <c r="J882" s="9"/>
       <c r="K882" s="9"/>
@@ -36898,7 +36963,7 @@
         <v>2486</v>
       </c>
       <c r="E884" s="10" t="s">
-        <v>3065</v>
+        <v>3064</v>
       </c>
       <c r="F884" s="9" t="s">
         <v>2588</v>
@@ -36907,10 +36972,10 @@
         <v>2719</v>
       </c>
       <c r="H884" s="9" t="s">
+        <v>3246</v>
+      </c>
+      <c r="I884" s="9" t="s">
         <v>3247</v>
-      </c>
-      <c r="I884" s="9" t="s">
-        <v>3248</v>
       </c>
       <c r="J884" s="9"/>
       <c r="K884" s="9"/>
@@ -36919,7 +36984,7 @@
         <v>4</v>
       </c>
       <c r="N884" s="12" t="s">
-        <v>3250</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="885" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -36936,7 +37001,7 @@
         <v>2486</v>
       </c>
       <c r="E885" s="10" t="s">
-        <v>3253</v>
+        <v>3252</v>
       </c>
       <c r="F885" s="9" t="s">
         <v>2588</v>
@@ -36945,10 +37010,10 @@
         <v>2719</v>
       </c>
       <c r="H885" s="9" t="s">
+        <v>3250</v>
+      </c>
+      <c r="I885" s="9" t="s">
         <v>3251</v>
-      </c>
-      <c r="I885" s="9" t="s">
-        <v>3252</v>
       </c>
       <c r="J885" s="9"/>
       <c r="K885" s="9"/>
@@ -36957,7 +37022,7 @@
         <v>1</v>
       </c>
       <c r="N885" s="12" t="s">
-        <v>3250</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="886" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -37070,7 +37135,7 @@
         <v>2486</v>
       </c>
       <c r="E890" s="10" t="s">
-        <v>3249</v>
+        <v>3248</v>
       </c>
       <c r="F890" s="9" t="s">
         <v>2653</v>
@@ -37079,10 +37144,10 @@
         <v>2703</v>
       </c>
       <c r="H890" s="9" t="s">
+        <v>3253</v>
+      </c>
+      <c r="I890" s="9" t="s">
         <v>3254</v>
-      </c>
-      <c r="I890" s="9" t="s">
-        <v>3255</v>
       </c>
       <c r="J890" s="9">
         <v>29</v>
@@ -37132,19 +37197,19 @@
         <v>2486</v>
       </c>
       <c r="E892" s="10" t="s">
-        <v>3260</v>
+        <v>3259</v>
       </c>
       <c r="F892" s="9" t="s">
+        <v>3255</v>
+      </c>
+      <c r="G892" s="9" t="s">
         <v>3256</v>
       </c>
-      <c r="G892" s="9" t="s">
+      <c r="H892" s="9" t="s">
         <v>3257</v>
       </c>
-      <c r="H892" s="9" t="s">
+      <c r="I892" s="9" t="s">
         <v>3258</v>
-      </c>
-      <c r="I892" s="9" t="s">
-        <v>3259</v>
       </c>
       <c r="J892" s="9"/>
       <c r="K892" s="9"/>
@@ -37434,19 +37499,19 @@
         <v>2486</v>
       </c>
       <c r="E904" s="10" t="s">
-        <v>3263</v>
+        <v>3262</v>
       </c>
       <c r="F904" s="9" t="s">
         <v>2720</v>
       </c>
       <c r="G904" s="9" t="s">
+        <v>3260</v>
+      </c>
+      <c r="H904" s="9" t="s">
+        <v>3263</v>
+      </c>
+      <c r="I904" s="9" t="s">
         <v>3261</v>
-      </c>
-      <c r="H904" s="9" t="s">
-        <v>3264</v>
-      </c>
-      <c r="I904" s="9" t="s">
-        <v>3262</v>
       </c>
       <c r="J904" s="9"/>
       <c r="K904" s="9"/>
@@ -37542,16 +37607,16 @@
         <v>2486</v>
       </c>
       <c r="E908" s="10" t="s">
-        <v>3268</v>
+        <v>3267</v>
       </c>
       <c r="F908" s="9" t="s">
+        <v>3264</v>
+      </c>
+      <c r="G908" s="9" t="s">
         <v>3265</v>
       </c>
-      <c r="G908" s="9" t="s">
+      <c r="H908" s="9" t="s">
         <v>3266</v>
-      </c>
-      <c r="H908" s="9" t="s">
-        <v>3267</v>
       </c>
       <c r="I908" s="9" t="s">
         <v>2497</v>
@@ -37563,7 +37628,7 @@
       <c r="L908" s="9"/>
       <c r="M908" s="9"/>
       <c r="N908" s="12" t="s">
-        <v>3269</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="909" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -37661,10 +37726,10 @@
         <v>2680</v>
       </c>
       <c r="H912" s="9" t="s">
+        <v>3269</v>
+      </c>
+      <c r="I912" s="9" t="s">
         <v>3270</v>
-      </c>
-      <c r="I912" s="9" t="s">
-        <v>3271</v>
       </c>
       <c r="J912" s="9">
         <v>2</v>
@@ -37673,7 +37738,7 @@
       <c r="L912" s="9"/>
       <c r="M912" s="9"/>
       <c r="N912" s="12" t="s">
-        <v>3272</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="913" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -37882,7 +37947,7 @@
         <v>2486</v>
       </c>
       <c r="E921" s="10" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
       <c r="F921" s="9" t="s">
         <v>2720</v>
@@ -37891,10 +37956,10 @@
         <v>2972</v>
       </c>
       <c r="H921" s="9" t="s">
+        <v>3272</v>
+      </c>
+      <c r="I921" s="9" t="s">
         <v>3273</v>
-      </c>
-      <c r="I921" s="9" t="s">
-        <v>3274</v>
       </c>
       <c r="J921" s="9"/>
       <c r="K921" s="9"/>
@@ -38230,19 +38295,19 @@
         <v>2486</v>
       </c>
       <c r="E935" s="10" t="s">
-        <v>3279</v>
+        <v>3278</v>
       </c>
       <c r="F935" s="9" t="s">
         <v>2977</v>
       </c>
       <c r="G935" s="9" t="s">
+        <v>3275</v>
+      </c>
+      <c r="H935" s="9" t="s">
         <v>3276</v>
       </c>
-      <c r="H935" s="9" t="s">
+      <c r="I935" s="9" t="s">
         <v>3277</v>
-      </c>
-      <c r="I935" s="9" t="s">
-        <v>3278</v>
       </c>
       <c r="J935" s="9"/>
       <c r="K935" s="9"/>
@@ -38314,19 +38379,19 @@
         <v>2486</v>
       </c>
       <c r="E938" s="10" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="F938" s="9" t="s">
         <v>2977</v>
       </c>
       <c r="G938" s="9" t="s">
+        <v>3279</v>
+      </c>
+      <c r="H938" s="9" t="s">
         <v>3280</v>
       </c>
-      <c r="H938" s="9" t="s">
+      <c r="I938" s="9" t="s">
         <v>3281</v>
-      </c>
-      <c r="I938" s="9" t="s">
-        <v>3282</v>
       </c>
       <c r="J938" s="9"/>
       <c r="K938" s="9"/>
@@ -38404,13 +38469,13 @@
         <v>2977</v>
       </c>
       <c r="G941" s="9" t="s">
+        <v>3283</v>
+      </c>
+      <c r="H941" s="9" t="s">
         <v>3284</v>
       </c>
-      <c r="H941" s="9" t="s">
+      <c r="I941" s="9" t="s">
         <v>3285</v>
-      </c>
-      <c r="I941" s="9" t="s">
-        <v>3286</v>
       </c>
       <c r="J941" s="9"/>
       <c r="K941" s="9"/>
@@ -38461,16 +38526,16 @@
         <v>2900</v>
       </c>
       <c r="F943" s="9" t="s">
+        <v>3286</v>
+      </c>
+      <c r="G943" s="9" t="s">
         <v>3287</v>
       </c>
-      <c r="G943" s="9" t="s">
+      <c r="H943" s="9" t="s">
         <v>3288</v>
       </c>
-      <c r="H943" s="9" t="s">
+      <c r="I943" s="9" t="s">
         <v>3289</v>
-      </c>
-      <c r="I943" s="9" t="s">
-        <v>3290</v>
       </c>
       <c r="J943" s="9"/>
       <c r="K943" s="9"/>
@@ -38542,16 +38607,16 @@
         <v>2486</v>
       </c>
       <c r="E946" s="10" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="F946" s="9" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="G946" s="9" t="s">
+        <v>3290</v>
+      </c>
+      <c r="H946" s="9" t="s">
         <v>3291</v>
-      </c>
-      <c r="H946" s="9" t="s">
-        <v>3292</v>
       </c>
       <c r="I946" s="9" t="s">
         <v>2497</v>
@@ -38561,7 +38626,7 @@
       <c r="L946" s="9"/>
       <c r="M946" s="9"/>
       <c r="N946" s="12" t="s">
-        <v>3295</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="947" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -38578,16 +38643,16 @@
         <v>2486</v>
       </c>
       <c r="E947" s="10" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="F947" s="9" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="G947" s="9" t="s">
-        <v>3291</v>
+        <v>3290</v>
       </c>
       <c r="H947" s="9" t="s">
-        <v>3293</v>
+        <v>3292</v>
       </c>
       <c r="I947" s="9" t="s">
         <v>2497</v>
@@ -38597,7 +38662,7 @@
       <c r="L947" s="9"/>
       <c r="M947" s="9"/>
       <c r="N947" s="12" t="s">
-        <v>3295</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="948" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -38614,19 +38679,19 @@
         <v>2486</v>
       </c>
       <c r="E948" s="10" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="F948" s="9" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="G948" s="9" t="s">
+        <v>3295</v>
+      </c>
+      <c r="H948" s="9" t="s">
         <v>3296</v>
       </c>
-      <c r="H948" s="9" t="s">
+      <c r="I948" s="9" t="s">
         <v>3297</v>
-      </c>
-      <c r="I948" s="9" t="s">
-        <v>3298</v>
       </c>
       <c r="J948" s="9"/>
       <c r="K948" s="9"/>
@@ -38674,19 +38739,19 @@
         <v>2486</v>
       </c>
       <c r="E950" s="10" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F950" s="9" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="G950" s="9" t="s">
+        <v>3299</v>
+      </c>
+      <c r="H950" s="9" t="s">
         <v>3300</v>
       </c>
-      <c r="H950" s="9" t="s">
+      <c r="I950" s="9" t="s">
         <v>3301</v>
-      </c>
-      <c r="I950" s="9" t="s">
-        <v>3302</v>
       </c>
       <c r="J950" s="9"/>
       <c r="K950" s="9"/>
@@ -38758,26 +38823,26 @@
         <v>2486</v>
       </c>
       <c r="E953" s="10" t="s">
-        <v>3307</v>
+        <v>3306</v>
       </c>
       <c r="F953" s="9" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="G953" s="9" t="s">
+        <v>3303</v>
+      </c>
+      <c r="H953" s="9" t="s">
         <v>3304</v>
       </c>
-      <c r="H953" s="9" t="s">
+      <c r="I953" s="9" t="s">
         <v>3305</v>
-      </c>
-      <c r="I953" s="9" t="s">
-        <v>3306</v>
       </c>
       <c r="J953" s="9"/>
       <c r="K953" s="9"/>
       <c r="L953" s="9"/>
       <c r="M953" s="9"/>
       <c r="N953" s="12" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="954" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -39184,7 +39249,7 @@
         <v>2493</v>
       </c>
       <c r="G970" s="9" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="H970" s="9" t="s">
         <v>2497</v>
@@ -39197,7 +39262,7 @@
       <c r="L970" s="9"/>
       <c r="M970" s="9"/>
       <c r="N970" s="12" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
     </row>
     <row r="971" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -39286,26 +39351,26 @@
         <v>2486</v>
       </c>
       <c r="E974" s="10" t="s">
-        <v>3313</v>
+        <v>3312</v>
       </c>
       <c r="F974" s="9" t="s">
         <v>2493</v>
       </c>
       <c r="G974" s="9" t="s">
+        <v>3309</v>
+      </c>
+      <c r="H974" s="9" t="s">
         <v>3310</v>
       </c>
-      <c r="H974" s="9" t="s">
+      <c r="I974" s="9" t="s">
         <v>3311</v>
-      </c>
-      <c r="I974" s="9" t="s">
-        <v>3312</v>
       </c>
       <c r="J974" s="9"/>
       <c r="K974" s="9"/>
       <c r="L974" s="9"/>
       <c r="M974" s="9"/>
       <c r="N974" s="12" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
     </row>
     <row r="975" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -39514,16 +39579,16 @@
         <v>2486</v>
       </c>
       <c r="E983" s="10" t="s">
-        <v>3318</v>
+        <v>3317</v>
       </c>
       <c r="F983" s="9" t="s">
+        <v>3314</v>
+      </c>
+      <c r="G983" s="9" t="s">
         <v>3315</v>
       </c>
-      <c r="G983" s="9" t="s">
+      <c r="H983" s="9" t="s">
         <v>3316</v>
-      </c>
-      <c r="H983" s="9" t="s">
-        <v>3317</v>
       </c>
       <c r="I983" s="9" t="s">
         <v>2497</v>
@@ -39535,7 +39600,7 @@
       <c r="L983" s="9"/>
       <c r="M983" s="9"/>
       <c r="N983" s="12" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="984" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -39630,13 +39695,13 @@
         <v>2493</v>
       </c>
       <c r="G987" s="9" t="s">
+        <v>3319</v>
+      </c>
+      <c r="H987" s="9" t="s">
         <v>3320</v>
       </c>
-      <c r="H987" s="9" t="s">
+      <c r="I987" s="9" t="s">
         <v>3321</v>
-      </c>
-      <c r="I987" s="9" t="s">
-        <v>3322</v>
       </c>
       <c r="J987" s="9"/>
       <c r="K987" s="9"/>
@@ -39813,10 +39878,10 @@
         <v>2897</v>
       </c>
       <c r="H994" s="9" t="s">
+        <v>3322</v>
+      </c>
+      <c r="I994" s="9" t="s">
         <v>3323</v>
-      </c>
-      <c r="I994" s="9" t="s">
-        <v>3324</v>
       </c>
       <c r="J994" s="9">
         <v>1</v>
@@ -39866,26 +39931,26 @@
         <v>2486</v>
       </c>
       <c r="E996" s="10" t="s">
-        <v>3329</v>
+        <v>3328</v>
       </c>
       <c r="F996" s="9" t="s">
+        <v>3324</v>
+      </c>
+      <c r="G996" s="9" t="s">
         <v>3325</v>
       </c>
-      <c r="G996" s="9" t="s">
+      <c r="H996" s="9" t="s">
         <v>3326</v>
       </c>
-      <c r="H996" s="9" t="s">
+      <c r="I996" s="9" t="s">
         <v>3327</v>
-      </c>
-      <c r="I996" s="9" t="s">
-        <v>3328</v>
       </c>
       <c r="J996" s="9"/>
       <c r="K996" s="9"/>
       <c r="L996" s="9"/>
       <c r="M996" s="9"/>
       <c r="N996" s="12" t="s">
-        <v>3330</v>
+        <v>3329</v>
       </c>
     </row>
     <row r="997" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -39950,7 +40015,7 @@
         <v>2486</v>
       </c>
       <c r="E999" s="10" t="s">
-        <v>3333</v>
+        <v>3332</v>
       </c>
       <c r="F999" s="9" t="s">
         <v>2588</v>
@@ -39959,17 +40024,17 @@
         <v>2680</v>
       </c>
       <c r="H999" s="9" t="s">
+        <v>3330</v>
+      </c>
+      <c r="I999" s="9" t="s">
         <v>3331</v>
-      </c>
-      <c r="I999" s="9" t="s">
-        <v>3332</v>
       </c>
       <c r="J999" s="9"/>
       <c r="K999" s="9"/>
       <c r="L999" s="9"/>
       <c r="M999" s="9"/>
       <c r="N999" s="12" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
     </row>
     <row r="1000" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -39989,23 +40054,23 @@
         <v>2497</v>
       </c>
       <c r="F1000" s="9" t="s">
+        <v>3334</v>
+      </c>
+      <c r="G1000" s="9" t="s">
         <v>3335</v>
       </c>
-      <c r="G1000" s="9" t="s">
+      <c r="H1000" s="9" t="s">
+        <v>3035</v>
+      </c>
+      <c r="I1000" s="9" t="s">
         <v>3336</v>
-      </c>
-      <c r="H1000" s="9" t="s">
-        <v>3036</v>
-      </c>
-      <c r="I1000" s="9" t="s">
-        <v>3337</v>
       </c>
       <c r="J1000" s="9"/>
       <c r="K1000" s="9"/>
       <c r="L1000" s="9"/>
       <c r="M1000" s="9"/>
       <c r="N1000" s="12" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
     </row>
     <row r="1001" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -40118,19 +40183,19 @@
         <v>2486</v>
       </c>
       <c r="E1005" s="10" t="s">
-        <v>3341</v>
+        <v>3340</v>
       </c>
       <c r="F1005" s="9" t="s">
+        <v>3324</v>
+      </c>
+      <c r="G1005" s="9" t="s">
         <v>3325</v>
       </c>
-      <c r="G1005" s="9" t="s">
-        <v>3326</v>
-      </c>
       <c r="H1005" s="9" t="s">
+        <v>3338</v>
+      </c>
+      <c r="I1005" s="9" t="s">
         <v>3339</v>
-      </c>
-      <c r="I1005" s="9" t="s">
-        <v>3340</v>
       </c>
       <c r="J1005" s="9"/>
       <c r="K1005" s="9"/>
@@ -40226,19 +40291,19 @@
         <v>2486</v>
       </c>
       <c r="E1009" s="10" t="s">
-        <v>3344</v>
+        <v>3343</v>
       </c>
       <c r="F1009" s="9" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
       <c r="G1009" s="9" t="s">
+        <v>3341</v>
+      </c>
+      <c r="H1009" s="9" t="s">
         <v>3342</v>
       </c>
-      <c r="H1009" s="9" t="s">
-        <v>3343</v>
-      </c>
       <c r="I1009" s="9" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="J1009" s="9"/>
       <c r="K1009" s="9"/>
@@ -40312,16 +40377,16 @@
         <v>2486</v>
       </c>
       <c r="E1012" s="10" t="s">
-        <v>3347</v>
+        <v>3346</v>
       </c>
       <c r="F1012" s="9" t="s">
         <v>2924</v>
       </c>
       <c r="G1012" s="9" t="s">
+        <v>3344</v>
+      </c>
+      <c r="H1012" s="9" t="s">
         <v>3345</v>
-      </c>
-      <c r="H1012" s="9" t="s">
-        <v>3346</v>
       </c>
       <c r="I1012" s="9" t="s">
         <v>2497</v>
@@ -40396,19 +40461,19 @@
         <v>2486</v>
       </c>
       <c r="E1015" s="10" t="s">
-        <v>3348</v>
+        <v>3347</v>
       </c>
       <c r="F1015" s="9" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="G1015" s="9" t="s">
+        <v>3024</v>
+      </c>
+      <c r="H1015" s="9" t="s">
         <v>3025</v>
       </c>
-      <c r="H1015" s="9" t="s">
+      <c r="I1015" s="9" t="s">
         <v>3026</v>
-      </c>
-      <c r="I1015" s="9" t="s">
-        <v>3027</v>
       </c>
       <c r="J1015" s="9"/>
       <c r="K1015" s="9"/>
@@ -40458,19 +40523,19 @@
         <v>2486</v>
       </c>
       <c r="E1017" s="10" t="s">
-        <v>3352</v>
+        <v>3351</v>
       </c>
       <c r="F1017" s="9" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="G1017" s="9" t="s">
+        <v>3348</v>
+      </c>
+      <c r="H1017" s="9" t="s">
         <v>3349</v>
       </c>
-      <c r="H1017" s="9" t="s">
+      <c r="I1017" s="9" t="s">
         <v>3350</v>
-      </c>
-      <c r="I1017" s="9" t="s">
-        <v>3351</v>
       </c>
       <c r="J1017" s="9"/>
       <c r="K1017" s="9"/>
@@ -40758,19 +40823,19 @@
         <v>2486</v>
       </c>
       <c r="E1029" s="10" t="s">
-        <v>3356</v>
+        <v>3355</v>
       </c>
       <c r="F1029" s="9" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="G1029" s="9" t="s">
+        <v>3352</v>
+      </c>
+      <c r="H1029" s="9" t="s">
         <v>3353</v>
       </c>
-      <c r="H1029" s="9" t="s">
+      <c r="I1029" s="9" t="s">
         <v>3354</v>
-      </c>
-      <c r="I1029" s="9" t="s">
-        <v>3355</v>
       </c>
       <c r="J1029" s="9"/>
       <c r="K1029" s="9"/>
@@ -40803,10 +40868,10 @@
         <v>2703</v>
       </c>
       <c r="H1030" s="9" t="s">
-        <v>3254</v>
+        <v>3253</v>
       </c>
       <c r="I1030" s="9" t="s">
-        <v>3357</v>
+        <v>3356</v>
       </c>
       <c r="J1030" s="9">
         <v>29</v>
@@ -40815,7 +40880,7 @@
       <c r="L1030" s="9"/>
       <c r="M1030" s="9"/>
       <c r="N1030" s="12" t="s">
-        <v>3358</v>
+        <v>3357</v>
       </c>
     </row>
     <row r="1031" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -40923,7 +40988,7 @@
       <c r="L1034" s="9"/>
       <c r="M1034" s="9"/>
       <c r="N1034" s="12" t="s">
-        <v>3359</v>
+        <v>3358</v>
       </c>
     </row>
     <row r="1035" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -41012,19 +41077,19 @@
         <v>2486</v>
       </c>
       <c r="E1038" s="10" t="s">
-        <v>3363</v>
+        <v>3362</v>
       </c>
       <c r="F1038" s="9" t="s">
         <v>2685</v>
       </c>
       <c r="G1038" s="9" t="s">
+        <v>3359</v>
+      </c>
+      <c r="H1038" s="9" t="s">
         <v>3360</v>
       </c>
-      <c r="H1038" s="9" t="s">
+      <c r="I1038" s="9" t="s">
         <v>3361</v>
-      </c>
-      <c r="I1038" s="9" t="s">
-        <v>3362</v>
       </c>
       <c r="J1038" s="9"/>
       <c r="K1038" s="9"/>
@@ -41048,19 +41113,19 @@
         <v>2486</v>
       </c>
       <c r="E1039" s="10" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="F1039" s="9" t="s">
         <v>2685</v>
       </c>
       <c r="G1039" s="9" t="s">
+        <v>3363</v>
+      </c>
+      <c r="H1039" s="9" t="s">
         <v>3364</v>
       </c>
-      <c r="H1039" s="9" t="s">
+      <c r="I1039" s="9" t="s">
         <v>3365</v>
-      </c>
-      <c r="I1039" s="9" t="s">
-        <v>3366</v>
       </c>
       <c r="J1039" s="9"/>
       <c r="K1039" s="9"/>
@@ -41177,7 +41242,7 @@
       <c r="L1043" s="9"/>
       <c r="M1043" s="9"/>
       <c r="N1043" s="12" t="s">
-        <v>3368</v>
+        <v>3367</v>
       </c>
     </row>
     <row r="1044" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -41218,7 +41283,7 @@
         <v>2486</v>
       </c>
       <c r="E1045" s="10" t="s">
-        <v>3370</v>
+        <v>3369</v>
       </c>
       <c r="F1045" s="9" t="s">
         <v>2720</v>
@@ -41230,7 +41295,7 @@
         <v>2984</v>
       </c>
       <c r="I1045" s="9" t="s">
-        <v>3369</v>
+        <v>3368</v>
       </c>
       <c r="J1045" s="9">
         <v>4</v>
@@ -41239,7 +41304,7 @@
       <c r="L1045" s="9"/>
       <c r="M1045" s="9"/>
       <c r="N1045" s="12" t="s">
-        <v>3368</v>
+        <v>3367</v>
       </c>
     </row>
     <row r="1046" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -41277,7 +41342,7 @@
       <c r="L1046" s="9"/>
       <c r="M1046" s="9"/>
       <c r="N1046" s="12" t="s">
-        <v>3368</v>
+        <v>3367</v>
       </c>
     </row>
     <row r="1047" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -41390,19 +41455,19 @@
         <v>2486</v>
       </c>
       <c r="E1051" s="10" t="s">
-        <v>3373</v>
+        <v>3372</v>
       </c>
       <c r="F1051" s="9" t="s">
         <v>2685</v>
       </c>
       <c r="G1051" s="9" t="s">
-        <v>3360</v>
+        <v>3359</v>
       </c>
       <c r="H1051" s="9" t="s">
+        <v>3370</v>
+      </c>
+      <c r="I1051" s="9" t="s">
         <v>3371</v>
-      </c>
-      <c r="I1051" s="9" t="s">
-        <v>3372</v>
       </c>
       <c r="J1051" s="9">
         <v>3</v>
@@ -41452,7 +41517,7 @@
         <v>2486</v>
       </c>
       <c r="E1053" s="10" t="s">
-        <v>3192</v>
+        <v>3191</v>
       </c>
       <c r="F1053" s="9" t="s">
         <v>2720</v>
@@ -41461,10 +41526,10 @@
         <v>2932</v>
       </c>
       <c r="H1053" s="9" t="s">
+        <v>3373</v>
+      </c>
+      <c r="I1053" s="9" t="s">
         <v>3374</v>
-      </c>
-      <c r="I1053" s="9" t="s">
-        <v>3375</v>
       </c>
       <c r="J1053" s="9"/>
       <c r="K1053" s="9"/>
@@ -41512,19 +41577,19 @@
         <v>2486</v>
       </c>
       <c r="E1055" s="10" t="s">
-        <v>3380</v>
+        <v>3379</v>
       </c>
       <c r="F1055" s="9" t="s">
+        <v>3375</v>
+      </c>
+      <c r="G1055" s="9" t="s">
         <v>3376</v>
       </c>
-      <c r="G1055" s="9" t="s">
+      <c r="H1055" s="9" t="s">
         <v>3377</v>
       </c>
-      <c r="H1055" s="9" t="s">
+      <c r="I1055" s="9" t="s">
         <v>3378</v>
-      </c>
-      <c r="I1055" s="9" t="s">
-        <v>3379</v>
       </c>
       <c r="J1055" s="9"/>
       <c r="K1055" s="9"/>
@@ -41572,26 +41637,26 @@
         <v>2486</v>
       </c>
       <c r="E1057" s="10" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="F1057" s="9" t="s">
-        <v>3376</v>
+        <v>3375</v>
       </c>
       <c r="G1057" s="9" t="s">
+        <v>3380</v>
+      </c>
+      <c r="H1057" s="9" t="s">
         <v>3381</v>
       </c>
-      <c r="H1057" s="9" t="s">
+      <c r="I1057" s="9" t="s">
         <v>3382</v>
-      </c>
-      <c r="I1057" s="9" t="s">
-        <v>3383</v>
       </c>
       <c r="J1057" s="9"/>
       <c r="K1057" s="9"/>
       <c r="L1057" s="9"/>
       <c r="M1057" s="9"/>
       <c r="N1057" s="12" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
     </row>
     <row r="1058" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -41659,16 +41724,16 @@
         <v>652</v>
       </c>
       <c r="F1060" s="9" t="s">
+        <v>3375</v>
+      </c>
+      <c r="G1060" s="9" t="s">
         <v>3376</v>
       </c>
-      <c r="G1060" s="9" t="s">
-        <v>3377</v>
-      </c>
       <c r="H1060" s="9" t="s">
-        <v>3377</v>
+        <v>3376</v>
       </c>
       <c r="I1060" s="9" t="s">
-        <v>3386</v>
+        <v>3385</v>
       </c>
       <c r="J1060" s="9"/>
       <c r="K1060" s="9"/>
@@ -41932,16 +41997,16 @@
         <v>2486</v>
       </c>
       <c r="E1071" s="10" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="F1071" s="9" t="s">
+        <v>3375</v>
+      </c>
+      <c r="G1071" s="9" t="s">
         <v>3376</v>
       </c>
-      <c r="G1071" s="9" t="s">
-        <v>3377</v>
-      </c>
       <c r="H1071" s="9" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="I1071" s="9" t="s">
         <v>2497</v>
@@ -41951,7 +42016,7 @@
       <c r="L1071" s="9"/>
       <c r="M1071" s="9"/>
       <c r="N1071" s="12" t="s">
-        <v>3389</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="1072" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -41968,16 +42033,16 @@
         <v>2486</v>
       </c>
       <c r="E1072" s="10" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="F1072" s="9" t="s">
+        <v>3375</v>
+      </c>
+      <c r="G1072" s="9" t="s">
         <v>3376</v>
       </c>
-      <c r="G1072" s="9" t="s">
-        <v>3377</v>
-      </c>
       <c r="H1072" s="9" t="s">
-        <v>3388</v>
+        <v>3387</v>
       </c>
       <c r="I1072" s="9" t="s">
         <v>2497</v>
@@ -41987,7 +42052,7 @@
       <c r="L1072" s="9"/>
       <c r="M1072" s="9"/>
       <c r="N1072" s="12" t="s">
-        <v>3389</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="1073" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -42031,16 +42096,16 @@
         <v>2497</v>
       </c>
       <c r="F1074" s="9" t="s">
-        <v>3376</v>
+        <v>3375</v>
       </c>
       <c r="G1074" s="9" t="s">
+        <v>3389</v>
+      </c>
+      <c r="H1074" s="9" t="s">
         <v>3390</v>
       </c>
-      <c r="H1074" s="9" t="s">
+      <c r="I1074" s="9" t="s">
         <v>3391</v>
-      </c>
-      <c r="I1074" s="9" t="s">
-        <v>3392</v>
       </c>
       <c r="J1074" s="9"/>
       <c r="K1074" s="9"/>
@@ -42544,10 +42609,10 @@
         <v>2486</v>
       </c>
       <c r="E1095" s="10" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
       <c r="F1095" s="9" t="s">
-        <v>3393</v>
+        <v>3392</v>
       </c>
       <c r="G1095" s="9" t="s">
         <v>2703</v>
@@ -42604,19 +42669,19 @@
         <v>2486</v>
       </c>
       <c r="E1097" s="10" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
       <c r="F1097" s="9" t="s">
         <v>2653</v>
       </c>
       <c r="G1097" s="9" t="s">
+        <v>3394</v>
+      </c>
+      <c r="H1097" s="9" t="s">
         <v>3395</v>
       </c>
-      <c r="H1097" s="9" t="s">
+      <c r="I1097" s="9" t="s">
         <v>3396</v>
-      </c>
-      <c r="I1097" s="9" t="s">
-        <v>3397</v>
       </c>
       <c r="J1097" s="9"/>
       <c r="K1097" s="9"/>
@@ -42625,7 +42690,7 @@
         <v>3</v>
       </c>
       <c r="N1097" s="12" t="s">
-        <v>3398</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="1098" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -42720,13 +42785,13 @@
         <v>2653</v>
       </c>
       <c r="G1101" s="9" t="s">
+        <v>3398</v>
+      </c>
+      <c r="H1101" s="9" t="s">
         <v>3399</v>
       </c>
-      <c r="H1101" s="9" t="s">
+      <c r="I1101" s="9" t="s">
         <v>3400</v>
-      </c>
-      <c r="I1101" s="9" t="s">
-        <v>3401</v>
       </c>
       <c r="J1101" s="9"/>
       <c r="K1101" s="9"/>
@@ -42774,19 +42839,19 @@
         <v>2486</v>
       </c>
       <c r="E1103" s="10" t="s">
-        <v>3404</v>
+        <v>3403</v>
       </c>
       <c r="F1103" s="9" t="s">
         <v>2653</v>
       </c>
       <c r="G1103" s="9" t="s">
-        <v>3399</v>
+        <v>3398</v>
       </c>
       <c r="H1103" s="9" t="s">
+        <v>3401</v>
+      </c>
+      <c r="I1103" s="9" t="s">
         <v>3402</v>
-      </c>
-      <c r="I1103" s="9" t="s">
-        <v>3403</v>
       </c>
       <c r="J1103" s="9"/>
       <c r="K1103" s="9"/>
@@ -42858,19 +42923,19 @@
         <v>2486</v>
       </c>
       <c r="E1106" s="10" t="s">
-        <v>3405</v>
+        <v>3404</v>
       </c>
       <c r="F1106" s="9" t="s">
         <v>2653</v>
       </c>
       <c r="G1106" s="9" t="s">
+        <v>3394</v>
+      </c>
+      <c r="H1106" s="9" t="s">
         <v>3395</v>
       </c>
-      <c r="H1106" s="9" t="s">
-        <v>3396</v>
-      </c>
       <c r="I1106" s="9" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="J1106" s="9"/>
       <c r="K1106" s="9"/>
@@ -43062,19 +43127,19 @@
         <v>2486</v>
       </c>
       <c r="E1114" s="10" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
       <c r="F1114" s="9" t="s">
         <v>2653</v>
       </c>
       <c r="G1114" s="9" t="s">
+        <v>3406</v>
+      </c>
+      <c r="H1114" s="9" t="s">
         <v>3407</v>
       </c>
-      <c r="H1114" s="9" t="s">
+      <c r="I1114" s="9" t="s">
         <v>3408</v>
-      </c>
-      <c r="I1114" s="9" t="s">
-        <v>3409</v>
       </c>
       <c r="J1114" s="9"/>
       <c r="K1114" s="9"/>
@@ -43122,19 +43187,19 @@
         <v>2486</v>
       </c>
       <c r="E1116" s="10" t="s">
-        <v>3415</v>
+        <v>3414</v>
       </c>
       <c r="F1116" s="9" t="s">
+        <v>3409</v>
+      </c>
+      <c r="G1116" s="9" t="s">
         <v>3410</v>
       </c>
-      <c r="G1116" s="9" t="s">
+      <c r="H1116" s="9" t="s">
         <v>3411</v>
       </c>
-      <c r="H1116" s="9" t="s">
+      <c r="I1116" s="9" t="s">
         <v>3412</v>
-      </c>
-      <c r="I1116" s="9" t="s">
-        <v>3413</v>
       </c>
       <c r="J1116" s="9"/>
       <c r="K1116" s="9"/>
@@ -43158,19 +43223,19 @@
         <v>2486</v>
       </c>
       <c r="E1117" s="10" t="s">
-        <v>3415</v>
+        <v>3414</v>
       </c>
       <c r="F1117" s="9" t="s">
+        <v>3409</v>
+      </c>
+      <c r="G1117" s="9" t="s">
         <v>3410</v>
       </c>
-      <c r="G1117" s="9" t="s">
-        <v>3411</v>
-      </c>
       <c r="H1117" s="9" t="s">
-        <v>3414</v>
+        <v>3413</v>
       </c>
       <c r="I1117" s="9" t="s">
-        <v>3413</v>
+        <v>3412</v>
       </c>
       <c r="J1117" s="9"/>
       <c r="K1117" s="9"/>
@@ -43242,19 +43307,19 @@
         <v>2486</v>
       </c>
       <c r="E1120" s="10" t="s">
-        <v>3419</v>
+        <v>3418</v>
       </c>
       <c r="F1120" s="9" t="s">
-        <v>3410</v>
+        <v>3409</v>
       </c>
       <c r="G1120" s="9" t="s">
+        <v>3415</v>
+      </c>
+      <c r="H1120" s="9" t="s">
         <v>3416</v>
       </c>
-      <c r="H1120" s="9" t="s">
+      <c r="I1120" s="9" t="s">
         <v>3417</v>
-      </c>
-      <c r="I1120" s="9" t="s">
-        <v>3418</v>
       </c>
       <c r="J1120" s="9"/>
       <c r="K1120" s="9"/>
@@ -43446,19 +43511,19 @@
         <v>2486</v>
       </c>
       <c r="E1128" s="10" t="s">
-        <v>3423</v>
+        <v>3422</v>
       </c>
       <c r="F1128" s="9" t="s">
-        <v>3410</v>
+        <v>3409</v>
       </c>
       <c r="G1128" s="9" t="s">
+        <v>3419</v>
+      </c>
+      <c r="H1128" s="9" t="s">
         <v>3420</v>
       </c>
-      <c r="H1128" s="9" t="s">
+      <c r="I1128" s="9" t="s">
         <v>3421</v>
-      </c>
-      <c r="I1128" s="9" t="s">
-        <v>3422</v>
       </c>
       <c r="J1128" s="9"/>
       <c r="K1128" s="9"/>
@@ -43602,16 +43667,16 @@
         <v>2486</v>
       </c>
       <c r="E1134" s="10" t="s">
-        <v>3426</v>
+        <v>3425</v>
       </c>
       <c r="F1134" s="9" t="s">
-        <v>3393</v>
+        <v>3392</v>
       </c>
       <c r="G1134" s="9" t="s">
+        <v>3423</v>
+      </c>
+      <c r="H1134" s="9" t="s">
         <v>3424</v>
-      </c>
-      <c r="H1134" s="9" t="s">
-        <v>3425</v>
       </c>
       <c r="I1134" s="9" t="s">
         <v>2497</v>
@@ -44190,16 +44255,16 @@
         <v>2486</v>
       </c>
       <c r="E1158" s="10" t="s">
-        <v>3428</v>
+        <v>3427</v>
       </c>
       <c r="F1158" s="9" t="s">
         <v>2924</v>
       </c>
       <c r="G1158" s="9" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="H1158" s="9" t="s">
-        <v>3427</v>
+        <v>3426</v>
       </c>
       <c r="I1158" s="9" t="s">
         <v>2497</v>
@@ -44370,26 +44435,26 @@
         <v>2486</v>
       </c>
       <c r="E1165" s="10" t="s">
-        <v>3432</v>
+        <v>3431</v>
       </c>
       <c r="F1165" s="9" t="s">
         <v>2924</v>
       </c>
       <c r="G1165" s="9" t="s">
+        <v>3428</v>
+      </c>
+      <c r="H1165" s="9" t="s">
         <v>3429</v>
       </c>
-      <c r="H1165" s="9" t="s">
+      <c r="I1165" s="9" t="s">
         <v>3430</v>
-      </c>
-      <c r="I1165" s="9" t="s">
-        <v>3431</v>
       </c>
       <c r="J1165" s="9"/>
       <c r="K1165" s="9"/>
       <c r="L1165" s="9"/>
       <c r="M1165" s="9"/>
       <c r="N1165" s="12" t="s">
-        <v>3433</v>
+        <v>3432</v>
       </c>
     </row>
     <row r="1166" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -44532,13 +44597,13 @@
         <v>2924</v>
       </c>
       <c r="G1171" s="9" t="s">
+        <v>3433</v>
+      </c>
+      <c r="H1171" s="9" t="s">
         <v>3434</v>
       </c>
-      <c r="H1171" s="9" t="s">
+      <c r="I1171" s="9" t="s">
         <v>3435</v>
-      </c>
-      <c r="I1171" s="9" t="s">
-        <v>3436</v>
       </c>
       <c r="J1171" s="9"/>
       <c r="K1171" s="9"/>
@@ -44706,19 +44771,19 @@
         <v>2486</v>
       </c>
       <c r="E1178" s="10" t="s">
-        <v>3440</v>
+        <v>3439</v>
       </c>
       <c r="F1178" s="9" t="s">
         <v>2924</v>
       </c>
       <c r="G1178" s="9" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="H1178" s="9" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="I1178" s="9" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="J1178" s="9"/>
       <c r="K1178" s="9"/>
@@ -44742,19 +44807,19 @@
         <v>2486</v>
       </c>
       <c r="E1179" s="10" t="s">
-        <v>3440</v>
+        <v>3439</v>
       </c>
       <c r="F1179" s="9" t="s">
         <v>2924</v>
       </c>
       <c r="G1179" s="9" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="H1179" s="9" t="s">
+        <v>3437</v>
+      </c>
+      <c r="I1179" s="9" t="s">
         <v>3438</v>
-      </c>
-      <c r="I1179" s="9" t="s">
-        <v>3439</v>
       </c>
       <c r="J1179" s="9"/>
       <c r="K1179" s="9"/>
@@ -44802,19 +44867,19 @@
         <v>2486</v>
       </c>
       <c r="E1181" s="10" t="s">
-        <v>3443</v>
+        <v>3442</v>
       </c>
       <c r="F1181" s="9" t="s">
         <v>2924</v>
       </c>
       <c r="G1181" s="9" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="H1181" s="9" t="s">
         <v>2497</v>
       </c>
       <c r="I1181" s="9" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="J1181" s="9"/>
       <c r="K1181" s="9"/>
@@ -44838,19 +44903,19 @@
         <v>2486</v>
       </c>
       <c r="E1182" s="10" t="s">
-        <v>3443</v>
+        <v>3442</v>
       </c>
       <c r="F1182" s="9" t="s">
         <v>2924</v>
       </c>
       <c r="G1182" s="9" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="H1182" s="9" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="I1182" s="9" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="J1182" s="9"/>
       <c r="K1182" s="9"/>
@@ -44952,13 +45017,13 @@
         <v>2924</v>
       </c>
       <c r="G1186" s="9" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="H1186" s="9" t="s">
-        <v>3427</v>
+        <v>3426</v>
       </c>
       <c r="I1186" s="9" t="s">
-        <v>3444</v>
+        <v>3443</v>
       </c>
       <c r="J1186" s="9"/>
       <c r="K1186" s="9"/>
@@ -44988,13 +45053,13 @@
         <v>2924</v>
       </c>
       <c r="G1187" s="9" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="H1187" s="9" t="s">
-        <v>3427</v>
+        <v>3426</v>
       </c>
       <c r="I1187" s="9" t="s">
-        <v>3445</v>
+        <v>3444</v>
       </c>
       <c r="J1187" s="9"/>
       <c r="K1187" s="9"/>
@@ -45042,7 +45107,7 @@
         <v>2486</v>
       </c>
       <c r="E1189" s="10" t="s">
-        <v>3448</v>
+        <v>3447</v>
       </c>
       <c r="F1189" s="9" t="s">
         <v>2924</v>
@@ -45051,10 +45116,10 @@
         <v>2925</v>
       </c>
       <c r="H1189" s="9" t="s">
+        <v>3445</v>
+      </c>
+      <c r="I1189" s="9" t="s">
         <v>3446</v>
-      </c>
-      <c r="I1189" s="9" t="s">
-        <v>3447</v>
       </c>
       <c r="J1189" s="9"/>
       <c r="K1189" s="9"/>
@@ -45063,7 +45128,7 @@
         <v>3</v>
       </c>
       <c r="N1189" s="12" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="1190" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -45080,7 +45145,7 @@
         <v>2486</v>
       </c>
       <c r="E1190" s="10" t="s">
-        <v>3448</v>
+        <v>3447</v>
       </c>
       <c r="F1190" s="9" t="s">
         <v>2924</v>
@@ -45089,17 +45154,17 @@
         <v>2925</v>
       </c>
       <c r="H1190" s="9" t="s">
+        <v>3448</v>
+      </c>
+      <c r="I1190" s="9" t="s">
         <v>3449</v>
-      </c>
-      <c r="I1190" s="9" t="s">
-        <v>3450</v>
       </c>
       <c r="J1190" s="9"/>
       <c r="K1190" s="9"/>
       <c r="L1190" s="9"/>
       <c r="M1190" s="9"/>
       <c r="N1190" s="12" t="s">
-        <v>3452</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="1191" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -45140,19 +45205,19 @@
         <v>2486</v>
       </c>
       <c r="E1192" s="10" t="s">
-        <v>3454</v>
+        <v>3453</v>
       </c>
       <c r="F1192" s="9" t="s">
         <v>2924</v>
       </c>
       <c r="G1192" s="9" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="H1192" s="9" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="I1192" s="9" t="s">
-        <v>3453</v>
+        <v>3452</v>
       </c>
       <c r="J1192" s="9"/>
       <c r="K1192" s="9"/>
@@ -45224,19 +45289,19 @@
         <v>2486</v>
       </c>
       <c r="E1195" s="10" t="s">
-        <v>3040</v>
+        <v>3039</v>
       </c>
       <c r="F1195" s="9" t="s">
         <v>2924</v>
       </c>
       <c r="G1195" s="9" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="H1195" s="9" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="I1195" s="9" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
       <c r="J1195" s="9"/>
       <c r="K1195" s="9"/>
@@ -45284,19 +45349,19 @@
         <v>2486</v>
       </c>
       <c r="E1197" s="10" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="F1197" s="9" t="s">
         <v>2924</v>
       </c>
       <c r="G1197" s="9" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="H1197" s="9" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="I1197" s="9" t="s">
-        <v>3453</v>
+        <v>3452</v>
       </c>
       <c r="J1197" s="9"/>
       <c r="K1197" s="9"/>
@@ -45353,7 +45418,7 @@
         <v>2925</v>
       </c>
       <c r="H1199" s="9" t="s">
-        <v>3457</v>
+        <v>3456</v>
       </c>
       <c r="I1199" s="9" t="s">
         <v>2497</v>
@@ -45380,16 +45445,16 @@
         <v>2486</v>
       </c>
       <c r="E1200" s="10" t="s">
-        <v>3459</v>
+        <v>3458</v>
       </c>
       <c r="F1200" s="9" t="s">
         <v>2924</v>
       </c>
       <c r="G1200" s="9" t="s">
-        <v>3429</v>
+        <v>3428</v>
       </c>
       <c r="H1200" s="9" t="s">
-        <v>3458</v>
+        <v>3457</v>
       </c>
       <c r="I1200" s="9" t="s">
         <v>2497</v>
@@ -45466,26 +45531,26 @@
         <v>2486</v>
       </c>
       <c r="E1203" s="10" t="s">
-        <v>3461</v>
+        <v>3460</v>
       </c>
       <c r="F1203" s="9" t="s">
         <v>2924</v>
       </c>
       <c r="G1203" s="9" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="H1203" s="9" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="I1203" s="9" t="s">
-        <v>3460</v>
+        <v>3459</v>
       </c>
       <c r="J1203" s="9"/>
       <c r="K1203" s="9"/>
       <c r="L1203" s="9"/>
       <c r="M1203" s="9"/>
       <c r="N1203" s="12" t="s">
-        <v>3462</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="1204" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -45508,20 +45573,20 @@
         <v>2924</v>
       </c>
       <c r="G1204" s="9" t="s">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="H1204" s="9" t="s">
-        <v>3095</v>
+        <v>3094</v>
       </c>
       <c r="I1204" s="9" t="s">
-        <v>3465</v>
+        <v>3464</v>
       </c>
       <c r="J1204" s="9"/>
       <c r="K1204" s="9"/>
       <c r="L1204" s="9"/>
       <c r="M1204" s="9"/>
       <c r="N1204" s="12" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="1205" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -45544,20 +45609,20 @@
         <v>2924</v>
       </c>
       <c r="G1205" s="9" t="s">
+        <v>3462</v>
+      </c>
+      <c r="H1205" s="9" t="s">
         <v>3463</v>
       </c>
-      <c r="H1205" s="9" t="s">
+      <c r="I1205" s="9" t="s">
         <v>3464</v>
-      </c>
-      <c r="I1205" s="9" t="s">
-        <v>3465</v>
       </c>
       <c r="J1205" s="9"/>
       <c r="K1205" s="9"/>
       <c r="L1205" s="9"/>
       <c r="M1205" s="9"/>
       <c r="N1205" s="12" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="1206" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -45598,19 +45663,19 @@
         <v>2486</v>
       </c>
       <c r="E1207" s="10" t="s">
-        <v>3470</v>
+        <v>3469</v>
       </c>
       <c r="F1207" s="9" t="s">
         <v>2924</v>
       </c>
       <c r="G1207" s="9" t="s">
+        <v>3466</v>
+      </c>
+      <c r="H1207" s="9" t="s">
         <v>3467</v>
       </c>
-      <c r="H1207" s="9" t="s">
+      <c r="I1207" s="9" t="s">
         <v>3468</v>
-      </c>
-      <c r="I1207" s="9" t="s">
-        <v>3469</v>
       </c>
       <c r="J1207" s="9"/>
       <c r="K1207" s="9"/>
@@ -45619,7 +45684,7 @@
         <v>12</v>
       </c>
       <c r="N1207" s="12" t="s">
-        <v>3471</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="1208" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -45684,19 +45749,19 @@
         <v>2486</v>
       </c>
       <c r="E1210" s="10" t="s">
-        <v>3473</v>
+        <v>3472</v>
       </c>
       <c r="F1210" s="9" t="s">
         <v>2924</v>
       </c>
       <c r="G1210" s="9" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="H1210" s="9" t="s">
-        <v>3435</v>
+        <v>3434</v>
       </c>
       <c r="I1210" s="9" t="s">
-        <v>3472</v>
+        <v>3471</v>
       </c>
       <c r="J1210" s="9"/>
       <c r="K1210" s="9"/>
@@ -45726,13 +45791,13 @@
         <v>2924</v>
       </c>
       <c r="G1211" s="9" t="s">
-        <v>3474</v>
+        <v>3473</v>
       </c>
       <c r="H1211" s="9" t="s">
         <v>2497</v>
       </c>
       <c r="I1211" s="9" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
       <c r="J1211" s="9"/>
       <c r="K1211" s="9"/>
@@ -45762,13 +45827,13 @@
         <v>2924</v>
       </c>
       <c r="G1212" s="9" t="s">
-        <v>3474</v>
+        <v>3473</v>
       </c>
       <c r="H1212" s="9" t="s">
         <v>2497</v>
       </c>
       <c r="I1212" s="9" t="s">
-        <v>3476</v>
+        <v>3475</v>
       </c>
       <c r="J1212" s="9"/>
       <c r="K1212" s="9"/>
@@ -45864,19 +45929,19 @@
         <v>2486</v>
       </c>
       <c r="E1216" s="10" t="s">
-        <v>3479</v>
+        <v>3478</v>
       </c>
       <c r="F1216" s="9" t="s">
         <v>2924</v>
       </c>
       <c r="G1216" s="9" t="s">
-        <v>3196</v>
+        <v>3195</v>
       </c>
       <c r="H1216" s="9" t="s">
+        <v>3476</v>
+      </c>
+      <c r="I1216" s="9" t="s">
         <v>3477</v>
-      </c>
-      <c r="I1216" s="9" t="s">
-        <v>3478</v>
       </c>
       <c r="J1216" s="9"/>
       <c r="K1216" s="9"/>
@@ -45926,19 +45991,19 @@
         <v>2486</v>
       </c>
       <c r="E1218" s="10" t="s">
-        <v>3482</v>
+        <v>3481</v>
       </c>
       <c r="F1218" s="9" t="s">
         <v>2924</v>
       </c>
       <c r="G1218" s="9" t="s">
-        <v>3095</v>
+        <v>3094</v>
       </c>
       <c r="H1218" s="9" t="s">
+        <v>3479</v>
+      </c>
+      <c r="I1218" s="9" t="s">
         <v>3480</v>
-      </c>
-      <c r="I1218" s="9" t="s">
-        <v>3481</v>
       </c>
       <c r="J1218" s="9"/>
       <c r="K1218" s="9"/>
@@ -46303,16 +46368,16 @@
         <v>2497</v>
       </c>
       <c r="F1233" s="9" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="G1233" s="9" t="s">
-        <v>3483</v>
+        <v>3482</v>
       </c>
       <c r="H1233" s="9" t="s">
+        <v>3288</v>
+      </c>
+      <c r="I1233" s="9" t="s">
         <v>3289</v>
-      </c>
-      <c r="I1233" s="9" t="s">
-        <v>3290</v>
       </c>
       <c r="J1233" s="9"/>
       <c r="K1233" s="9"/>
@@ -46516,7 +46581,7 @@
         <v>2886</v>
       </c>
       <c r="I1241" s="9" t="s">
-        <v>3484</v>
+        <v>3483</v>
       </c>
       <c r="J1241" s="9">
         <v>4</v>
@@ -46638,19 +46703,19 @@
         <v>2486</v>
       </c>
       <c r="E1246" s="10" t="s">
-        <v>3072</v>
+        <v>3071</v>
       </c>
       <c r="F1246" s="9" t="s">
         <v>2720</v>
       </c>
       <c r="G1246" s="9" t="s">
+        <v>3484</v>
+      </c>
+      <c r="H1246" s="9" t="s">
         <v>3485</v>
       </c>
-      <c r="H1246" s="9" t="s">
+      <c r="I1246" s="9" t="s">
         <v>3486</v>
-      </c>
-      <c r="I1246" s="9" t="s">
-        <v>3487</v>
       </c>
       <c r="J1246" s="9">
         <v>1</v>
@@ -46663,7 +46728,7 @@
         <v>1</v>
       </c>
       <c r="N1246" s="12" t="s">
-        <v>3488</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="1247" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -46812,7 +46877,7 @@
         <v>2590</v>
       </c>
       <c r="I1252" s="9" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="J1252" s="9">
         <v>2</v>
@@ -46876,19 +46941,19 @@
         <v>2486</v>
       </c>
       <c r="E1254" s="10" t="s">
-        <v>3492</v>
+        <v>3491</v>
       </c>
       <c r="F1254" s="9" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="G1254" s="9" t="s">
+        <v>3488</v>
+      </c>
+      <c r="H1254" s="9" t="s">
         <v>3489</v>
       </c>
-      <c r="H1254" s="9" t="s">
+      <c r="I1254" s="9" t="s">
         <v>3490</v>
-      </c>
-      <c r="I1254" s="9" t="s">
-        <v>3491</v>
       </c>
       <c r="J1254" s="9"/>
       <c r="K1254" s="9"/>
@@ -46912,16 +46977,16 @@
         <v>2486</v>
       </c>
       <c r="E1255" s="10" t="s">
-        <v>3501</v>
+        <v>3500</v>
       </c>
       <c r="F1255" s="9" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="G1255" s="9" t="s">
+        <v>3492</v>
+      </c>
+      <c r="H1255" s="9" t="s">
         <v>3493</v>
-      </c>
-      <c r="H1255" s="9" t="s">
-        <v>3494</v>
       </c>
       <c r="I1255" s="9" t="s">
         <v>2497</v>
@@ -46948,16 +47013,16 @@
         <v>2486</v>
       </c>
       <c r="E1256" s="10" t="s">
-        <v>3501</v>
+        <v>3500</v>
       </c>
       <c r="F1256" s="9" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="G1256" s="9" t="s">
-        <v>3493</v>
+        <v>3492</v>
       </c>
       <c r="H1256" s="9" t="s">
-        <v>3495</v>
+        <v>3494</v>
       </c>
       <c r="I1256" s="9" t="s">
         <v>2497</v>
@@ -46984,16 +47049,16 @@
         <v>2486</v>
       </c>
       <c r="E1257" s="10" t="s">
-        <v>3501</v>
+        <v>3500</v>
       </c>
       <c r="F1257" s="9" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="G1257" s="9" t="s">
-        <v>3493</v>
+        <v>3492</v>
       </c>
       <c r="H1257" s="9" t="s">
-        <v>3496</v>
+        <v>3495</v>
       </c>
       <c r="I1257" s="9" t="s">
         <v>2497</v>
@@ -47020,16 +47085,16 @@
         <v>2486</v>
       </c>
       <c r="E1258" s="10" t="s">
-        <v>3501</v>
+        <v>3500</v>
       </c>
       <c r="F1258" s="9" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="G1258" s="9" t="s">
-        <v>3493</v>
+        <v>3492</v>
       </c>
       <c r="H1258" s="9" t="s">
-        <v>3497</v>
+        <v>3496</v>
       </c>
       <c r="I1258" s="9" t="s">
         <v>2497</v>
@@ -47056,16 +47121,16 @@
         <v>2486</v>
       </c>
       <c r="E1259" s="10" t="s">
-        <v>3501</v>
+        <v>3500</v>
       </c>
       <c r="F1259" s="9" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="G1259" s="9" t="s">
-        <v>3493</v>
+        <v>3492</v>
       </c>
       <c r="H1259" s="9" t="s">
-        <v>3498</v>
+        <v>3497</v>
       </c>
       <c r="I1259" s="9" t="s">
         <v>2497</v>
@@ -47092,19 +47157,19 @@
         <v>2486</v>
       </c>
       <c r="E1260" s="10" t="s">
-        <v>3501</v>
+        <v>3500</v>
       </c>
       <c r="F1260" s="9" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="G1260" s="9" t="s">
-        <v>3493</v>
+        <v>3492</v>
       </c>
       <c r="H1260" s="9" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
       <c r="I1260" s="9" t="s">
-        <v>3499</v>
+        <v>3498</v>
       </c>
       <c r="J1260" s="9"/>
       <c r="K1260" s="9"/>
@@ -47128,19 +47193,19 @@
         <v>2486</v>
       </c>
       <c r="E1261" s="10" t="s">
-        <v>3501</v>
+        <v>3500</v>
       </c>
       <c r="F1261" s="9" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="G1261" s="9" t="s">
-        <v>3493</v>
+        <v>3492</v>
       </c>
       <c r="H1261" s="9" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
       <c r="I1261" s="9" t="s">
-        <v>3500</v>
+        <v>3499</v>
       </c>
       <c r="J1261" s="9"/>
       <c r="K1261" s="9"/>
@@ -47212,19 +47277,19 @@
         <v>2486</v>
       </c>
       <c r="E1264" s="10" t="s">
-        <v>3505</v>
+        <v>3504</v>
       </c>
       <c r="F1264" s="9" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="G1264" s="9" t="s">
+        <v>3501</v>
+      </c>
+      <c r="H1264" s="9" t="s">
         <v>3502</v>
       </c>
-      <c r="H1264" s="9" t="s">
+      <c r="I1264" s="9" t="s">
         <v>3503</v>
-      </c>
-      <c r="I1264" s="9" t="s">
-        <v>3504</v>
       </c>
       <c r="J1264" s="9">
         <v>2</v>
@@ -47276,19 +47341,19 @@
         <v>2486</v>
       </c>
       <c r="E1266" s="10" t="s">
-        <v>3510</v>
+        <v>3509</v>
       </c>
       <c r="F1266" s="9" t="s">
+        <v>3505</v>
+      </c>
+      <c r="G1266" s="9" t="s">
         <v>3506</v>
       </c>
-      <c r="G1266" s="9" t="s">
+      <c r="H1266" s="9" t="s">
         <v>3507</v>
       </c>
-      <c r="H1266" s="9" t="s">
+      <c r="I1266" s="9" t="s">
         <v>3508</v>
-      </c>
-      <c r="I1266" s="9" t="s">
-        <v>3509</v>
       </c>
       <c r="J1266" s="9"/>
       <c r="K1266" s="9"/>
@@ -47360,7 +47425,7 @@
         <v>2486</v>
       </c>
       <c r="E1269" s="10" t="s">
-        <v>3513</v>
+        <v>3512</v>
       </c>
       <c r="F1269" s="9" t="s">
         <v>2510</v>
@@ -47369,10 +47434,10 @@
         <v>2511</v>
       </c>
       <c r="H1269" s="9" t="s">
+        <v>3510</v>
+      </c>
+      <c r="I1269" s="9" t="s">
         <v>3511</v>
-      </c>
-      <c r="I1269" s="9" t="s">
-        <v>3512</v>
       </c>
       <c r="J1269" s="9">
         <v>17</v>
@@ -47422,7 +47487,7 @@
         <v>2486</v>
       </c>
       <c r="E1271" s="10" t="s">
-        <v>3514</v>
+        <v>3513</v>
       </c>
       <c r="F1271" s="9" t="s">
         <v>2709</v>
@@ -47724,26 +47789,26 @@
         <v>2486</v>
       </c>
       <c r="E1283" s="10" t="s">
-        <v>3518</v>
+        <v>3517</v>
       </c>
       <c r="F1283" s="9" t="s">
         <v>2510</v>
       </c>
       <c r="G1283" s="9" t="s">
+        <v>3514</v>
+      </c>
+      <c r="H1283" s="9" t="s">
         <v>3515</v>
       </c>
-      <c r="H1283" s="9" t="s">
+      <c r="I1283" s="9" t="s">
         <v>3516</v>
-      </c>
-      <c r="I1283" s="9" t="s">
-        <v>3517</v>
       </c>
       <c r="J1283" s="9"/>
       <c r="K1283" s="9"/>
       <c r="L1283" s="9"/>
       <c r="M1283" s="9"/>
       <c r="N1283" s="12" t="s">
-        <v>3519</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="1284" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -47790,13 +47855,13 @@
         <v>2510</v>
       </c>
       <c r="G1285" s="9" t="s">
+        <v>3519</v>
+      </c>
+      <c r="H1285" s="9" t="s">
         <v>3520</v>
       </c>
-      <c r="H1285" s="9" t="s">
+      <c r="I1285" s="9" t="s">
         <v>3521</v>
-      </c>
-      <c r="I1285" s="9" t="s">
-        <v>3522</v>
       </c>
       <c r="J1285" s="9"/>
       <c r="K1285" s="9"/>
@@ -47826,13 +47891,13 @@
         <v>2510</v>
       </c>
       <c r="G1286" s="9" t="s">
+        <v>3522</v>
+      </c>
+      <c r="H1286" s="9" t="s">
         <v>3523</v>
       </c>
-      <c r="H1286" s="9" t="s">
+      <c r="I1286" s="9" t="s">
         <v>3524</v>
-      </c>
-      <c r="I1286" s="9" t="s">
-        <v>3525</v>
       </c>
       <c r="J1286" s="9">
         <v>1</v>
@@ -47882,19 +47947,19 @@
         <v>2486</v>
       </c>
       <c r="E1288" s="10" t="s">
-        <v>3529</v>
+        <v>3528</v>
       </c>
       <c r="F1288" s="9" t="s">
         <v>2685</v>
       </c>
       <c r="G1288" s="9" t="s">
+        <v>3525</v>
+      </c>
+      <c r="H1288" s="9" t="s">
         <v>3526</v>
       </c>
-      <c r="H1288" s="9" t="s">
+      <c r="I1288" s="9" t="s">
         <v>3527</v>
-      </c>
-      <c r="I1288" s="9" t="s">
-        <v>3528</v>
       </c>
       <c r="J1288" s="9"/>
       <c r="K1288" s="9">
@@ -47905,7 +47970,7 @@
         <v>1</v>
       </c>
       <c r="N1288" s="12" t="s">
-        <v>3530</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="1289" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -47918,17 +47983,31 @@
       <c r="C1289" s="5" t="s">
         <v>2447</v>
       </c>
-      <c r="D1289" s="15"/>
-      <c r="E1289" s="9"/>
-      <c r="F1289" s="9"/>
-      <c r="G1289" s="9"/>
-      <c r="H1289" s="9"/>
-      <c r="I1289" s="9"/>
+      <c r="D1289" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1289" s="10" t="s">
+        <v>3532</v>
+      </c>
+      <c r="F1289" s="9" t="s">
+        <v>2720</v>
+      </c>
+      <c r="G1289" s="9" t="s">
+        <v>3530</v>
+      </c>
+      <c r="H1289" s="9" t="s">
+        <v>3531</v>
+      </c>
+      <c r="I1289" s="9" t="s">
+        <v>2497</v>
+      </c>
       <c r="J1289" s="9"/>
       <c r="K1289" s="9"/>
       <c r="L1289" s="9"/>
       <c r="M1289" s="9"/>
-      <c r="N1289" s="12"/>
+      <c r="N1289" s="12" t="s">
+        <v>3533</v>
+      </c>
     </row>
     <row r="1290" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1290" s="4" t="s">
@@ -47940,7 +48019,9 @@
       <c r="C1290" s="5" t="s">
         <v>2449</v>
       </c>
-      <c r="D1290" s="15"/>
+      <c r="D1290" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1290" s="9"/>
       <c r="F1290" s="9"/>
       <c r="G1290" s="9"/>
@@ -47962,7 +48043,9 @@
       <c r="C1291" s="5" t="s">
         <v>2451</v>
       </c>
-      <c r="D1291" s="15"/>
+      <c r="D1291" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1291" s="9"/>
       <c r="F1291" s="9"/>
       <c r="G1291" s="9"/>
@@ -47984,17 +48067,33 @@
       <c r="C1292" s="5" t="s">
         <v>2453</v>
       </c>
-      <c r="D1292" s="15"/>
-      <c r="E1292" s="9"/>
-      <c r="F1292" s="9"/>
-      <c r="G1292" s="9"/>
-      <c r="H1292" s="9"/>
-      <c r="I1292" s="9"/>
+      <c r="D1292" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1292" s="10" t="s">
+        <v>3536</v>
+      </c>
+      <c r="F1292" s="9" t="s">
+        <v>2720</v>
+      </c>
+      <c r="G1292" s="9" t="s">
+        <v>3260</v>
+      </c>
+      <c r="H1292" s="9" t="s">
+        <v>3534</v>
+      </c>
+      <c r="I1292" s="9" t="s">
+        <v>3535</v>
+      </c>
       <c r="J1292" s="9"/>
       <c r="K1292" s="9"/>
       <c r="L1292" s="9"/>
-      <c r="M1292" s="9"/>
-      <c r="N1292" s="12"/>
+      <c r="M1292" s="9">
+        <v>2</v>
+      </c>
+      <c r="N1292" s="12" t="s">
+        <v>2605</v>
+      </c>
     </row>
     <row r="1293" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1293" s="4" t="s">
@@ -48006,7 +48105,9 @@
       <c r="C1293" s="5" t="s">
         <v>2455</v>
       </c>
-      <c r="D1293" s="15"/>
+      <c r="D1293" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1293" s="9"/>
       <c r="F1293" s="9"/>
       <c r="G1293" s="9"/>
@@ -48028,7 +48129,9 @@
       <c r="C1294" s="5" t="s">
         <v>2457</v>
       </c>
-      <c r="D1294" s="15"/>
+      <c r="D1294" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1294" s="9"/>
       <c r="F1294" s="9"/>
       <c r="G1294" s="9"/>
@@ -48050,7 +48153,9 @@
       <c r="C1295" s="5" t="s">
         <v>2459</v>
       </c>
-      <c r="D1295" s="15"/>
+      <c r="D1295" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1295" s="9"/>
       <c r="F1295" s="9"/>
       <c r="G1295" s="9"/>
@@ -48072,7 +48177,9 @@
       <c r="C1296" s="5" t="s">
         <v>2461</v>
       </c>
-      <c r="D1296" s="15"/>
+      <c r="D1296" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1296" s="9"/>
       <c r="F1296" s="9"/>
       <c r="G1296" s="9"/>
@@ -48094,17 +48201,33 @@
       <c r="C1297" s="5" t="s">
         <v>2463</v>
       </c>
-      <c r="D1297" s="15"/>
-      <c r="E1297" s="9"/>
-      <c r="F1297" s="9"/>
-      <c r="G1297" s="9"/>
-      <c r="H1297" s="9"/>
-      <c r="I1297" s="9"/>
-      <c r="J1297" s="9"/>
+      <c r="D1297" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1297" s="10" t="s">
+        <v>3538</v>
+      </c>
+      <c r="F1297" s="9" t="s">
+        <v>2720</v>
+      </c>
+      <c r="G1297" s="9" t="s">
+        <v>2882</v>
+      </c>
+      <c r="H1297" s="9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="I1297" s="9" t="s">
+        <v>3537</v>
+      </c>
+      <c r="J1297" s="9">
+        <v>1</v>
+      </c>
       <c r="K1297" s="9"/>
       <c r="L1297" s="9"/>
       <c r="M1297" s="9"/>
-      <c r="N1297" s="12"/>
+      <c r="N1297" s="12" t="s">
+        <v>2931</v>
+      </c>
     </row>
     <row r="1298" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1298" s="4" t="s">
@@ -48116,7 +48239,9 @@
       <c r="C1298" s="5" t="s">
         <v>2465</v>
       </c>
-      <c r="D1298" s="15"/>
+      <c r="D1298" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1298" s="9"/>
       <c r="F1298" s="9"/>
       <c r="G1298" s="9"/>
@@ -48138,7 +48263,9 @@
       <c r="C1299" s="5" t="s">
         <v>2467</v>
       </c>
-      <c r="D1299" s="15"/>
+      <c r="D1299" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1299" s="9"/>
       <c r="F1299" s="9"/>
       <c r="G1299" s="9"/>
@@ -48160,17 +48287,33 @@
       <c r="C1300" s="5" t="s">
         <v>2469</v>
       </c>
-      <c r="D1300" s="15"/>
-      <c r="E1300" s="9"/>
-      <c r="F1300" s="9"/>
-      <c r="G1300" s="9"/>
-      <c r="H1300" s="9"/>
-      <c r="I1300" s="9"/>
+      <c r="D1300" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1300" s="10" t="s">
+        <v>3542</v>
+      </c>
+      <c r="F1300" s="9" t="s">
+        <v>2720</v>
+      </c>
+      <c r="G1300" s="9" t="s">
+        <v>3539</v>
+      </c>
+      <c r="H1300" s="9" t="s">
+        <v>3540</v>
+      </c>
+      <c r="I1300" s="9" t="s">
+        <v>3541</v>
+      </c>
       <c r="J1300" s="9"/>
       <c r="K1300" s="9"/>
       <c r="L1300" s="9"/>
-      <c r="M1300" s="9"/>
-      <c r="N1300" s="12"/>
+      <c r="M1300" s="9">
+        <v>5</v>
+      </c>
+      <c r="N1300" s="12" t="s">
+        <v>2605</v>
+      </c>
     </row>
     <row r="1301" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1301" s="4" t="s">
@@ -48182,7 +48325,9 @@
       <c r="C1301" s="5" t="s">
         <v>2471</v>
       </c>
-      <c r="D1301" s="15"/>
+      <c r="D1301" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1301" s="9"/>
       <c r="F1301" s="9"/>
       <c r="G1301" s="9"/>
@@ -48204,17 +48349,31 @@
       <c r="C1302" s="5" t="s">
         <v>2473</v>
       </c>
-      <c r="D1302" s="15"/>
-      <c r="E1302" s="9"/>
-      <c r="F1302" s="9"/>
-      <c r="G1302" s="9"/>
-      <c r="H1302" s="9"/>
-      <c r="I1302" s="9"/>
+      <c r="D1302" s="15" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1302" s="10" t="s">
+        <v>3546</v>
+      </c>
+      <c r="F1302" s="9" t="s">
+        <v>2720</v>
+      </c>
+      <c r="G1302" s="9" t="s">
+        <v>3543</v>
+      </c>
+      <c r="H1302" s="9" t="s">
+        <v>3544</v>
+      </c>
+      <c r="I1302" s="9" t="s">
+        <v>3545</v>
+      </c>
       <c r="J1302" s="9"/>
       <c r="K1302" s="9"/>
       <c r="L1302" s="9"/>
       <c r="M1302" s="9"/>
-      <c r="N1302" s="12"/>
+      <c r="N1302" s="12" t="s">
+        <v>3547</v>
+      </c>
     </row>
     <row r="1303" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1303" s="4" t="s">
@@ -48226,7 +48385,9 @@
       <c r="C1303" s="5" t="s">
         <v>2475</v>
       </c>
-      <c r="D1303" s="15"/>
+      <c r="D1303" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1303" s="9"/>
       <c r="F1303" s="9"/>
       <c r="G1303" s="9"/>
@@ -48248,7 +48409,9 @@
       <c r="C1304" s="5" t="s">
         <v>2477</v>
       </c>
-      <c r="D1304" s="15"/>
+      <c r="D1304" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1304" s="9"/>
       <c r="F1304" s="9"/>
       <c r="G1304" s="9"/>
@@ -48270,7 +48433,9 @@
       <c r="C1305" s="5" t="s">
         <v>2479</v>
       </c>
-      <c r="D1305" s="15"/>
+      <c r="D1305" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1305" s="9"/>
       <c r="F1305" s="9"/>
       <c r="G1305" s="9"/>
@@ -48292,7 +48457,9 @@
       <c r="C1306" s="5" t="s">
         <v>2481</v>
       </c>
-      <c r="D1306" s="15"/>
+      <c r="D1306" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1306" s="9"/>
       <c r="F1306" s="9"/>
       <c r="G1306" s="9"/>
@@ -48314,7 +48481,9 @@
       <c r="C1307" s="5" t="s">
         <v>2483</v>
       </c>
-      <c r="D1307" s="15"/>
+      <c r="D1307" s="15" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1307" s="9"/>
       <c r="F1307" s="9"/>
       <c r="G1307" s="9"/>
@@ -48336,7 +48505,9 @@
       <c r="C1308" s="7" t="s">
         <v>2485</v>
       </c>
-      <c r="D1308" s="17"/>
+      <c r="D1308" s="17" t="s">
+        <v>2499</v>
+      </c>
       <c r="E1308" s="13"/>
       <c r="F1308" s="13"/>
       <c r="G1308" s="13"/>
@@ -48356,4 +48527,19 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B970025-5F32-4E68-B349-80C0411E469E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A298" workbookViewId="0">
+      <selection activeCell="A298" sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>